--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953680EB-BA04-4A44-9B14-C04EBA852584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605244D2-4541-D64C-B348-DA4D9D2D3DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1080" windowWidth="14460" windowHeight="16720" activeTab="1" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>ham3tc.tfc</t>
     <phoneticPr fontId="1"/>
@@ -84,6 +84,30 @@
   </si>
   <si>
     <t>sequential</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3_17tc.tfc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hwb4tc.tfc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xor5d1.tfc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mod5d1.tfc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5mod5tc.tfc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hwb5tc.tfc</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -156,38 +180,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -215,29 +213,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -446,14 +458,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}" name="テーブル245656567891011" displayName="テーブル245656567891011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}" name="テーブル245656567891011" displayName="テーブル245656567891011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" headerRowBorderDxfId="1">
   <autoFilter ref="A2:E102" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5BA224EE-6041-F344-B34A-9FBDF29A9510}" name="times" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{6CE03F36-CF34-9645-A348-C61D9EF118B4}" name="sequential" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{874D523F-A842-214F-8959-9A61540A9A8A}" name="multi-thread" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{2D90F0B7-A0EF-694E-91B3-7AF4BD0EADA8}" name="multi-fiber" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{61BBD1D9-647D-CA41-B58E-4467F0EE0459}" name="simd" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{5BA224EE-6041-F344-B34A-9FBDF29A9510}" name="times" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{6CE03F36-CF34-9645-A348-C61D9EF118B4}" name="sequential" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{874D523F-A842-214F-8959-9A61540A9A8A}" name="multi-thread" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{2D90F0B7-A0EF-694E-91B3-7AF4BD0EADA8}" name="multi-fiber" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{61BBD1D9-647D-CA41-B58E-4467F0EE0459}" name="simd" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -776,55 +788,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCC3EA3-5E50-2748-BD2A-C2B8CF08A0DE}">
-  <dimension ref="A2:H4"/>
+  <dimension ref="A2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="1" max="2" width="10.7109375" style="9"/>
+    <col min="3" max="3" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>7</v>
+      </c>
+      <c r="E4" s="9">
+        <f>ham3tc.tfc!I10</f>
+        <v>0.28040207000000017</v>
+      </c>
+      <c r="F4" s="9">
+        <f>ham3tc.tfc!J10</f>
+        <v>0.72422496999999975</v>
+      </c>
+      <c r="G4" s="9" t="e">
+        <f>ham3tc.tfc!K10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H4" s="9" t="e">
+        <f>ham3tc.tfc!L10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -840,878 +900,1177 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5683DF-DD1F-914F-B880-0E0A08994056}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="10.85546875" style="2"/>
-    <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="10.85546875" style="2"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="28" customHeight="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="28" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.24570800000000001</v>
+      <c r="B3" s="1">
+        <v>0.27379199999999998</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.73154200000000003</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.14766699999999999</v>
+      <c r="B4" s="1">
+        <v>0.27545900000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.69599999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.138792</v>
+      <c r="B5" s="1">
+        <v>0.28108300000000003</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.74820900000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.13241600000000001</v>
+      <c r="B6" s="1">
+        <v>0.278916</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.71920899999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.141375</v>
+      <c r="B7" s="1">
+        <v>0.28175</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.72370800000000002</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.137625</v>
-      </c>
-      <c r="I8" s="10" t="s">
+      <c r="B8" s="1">
+        <v>0.27687499999999998</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.143875</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="B9" s="1">
+        <v>0.278833</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.72966699999999995</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.14108399999999999</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="B10" s="1">
+        <v>0.28162500000000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.73445800000000006</v>
+      </c>
+      <c r="I10" s="1">
         <f>AVERAGE(テーブル245656567891011[sequential])</f>
-        <v>0.14223414000000004</v>
-      </c>
-      <c r="J10" s="2" t="e">
+        <v>0.28040207000000017</v>
+      </c>
+      <c r="J10" s="1">
         <f>AVERAGE(テーブル245656567891011[multi-thread])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="2" t="e">
+        <v>0.72422496999999975</v>
+      </c>
+      <c r="K10" s="1" t="e">
         <f>AVERAGE(テーブル245656567891011[multi-fiber])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="2" t="e">
+      <c r="L10" s="1" t="e">
         <f>AVERAGE(テーブル245656567891011[simd])</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.14666699999999999</v>
+      <c r="B11" s="1">
+        <v>0.28012500000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.68754199999999999</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.14783299999999999</v>
+      <c r="B12" s="1">
+        <v>0.27929100000000001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.73799999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
-        <v>0.14899999999999999</v>
+      <c r="B13" s="1">
+        <v>0.277916</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.70037499999999997</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.14624999999999999</v>
+      <c r="B14" s="1">
+        <v>0.27787499999999998</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.730541</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
-        <v>0.142541</v>
+      <c r="B15" s="1">
+        <v>0.27862500000000001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.86458299999999999</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
-        <v>0.140459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2">
+      <c r="B16" s="1">
+        <v>0.27670800000000001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.76708399999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
-        <v>0.14166699999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2">
+      <c r="B17" s="1">
+        <v>0.27524999999999999</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.74679200000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
-        <v>0.140958</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2">
+      <c r="B18" s="1">
+        <v>0.276667</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.72795799999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
-        <v>0.14433299999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2">
+      <c r="B19" s="1">
+        <v>0.27441700000000002</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.75004099999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
-        <v>0.140875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2">
+      <c r="B20" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.72358299999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
-        <v>0.136458</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2">
+      <c r="B21" s="1">
+        <v>0.27812500000000001</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.75145799999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
-        <v>0.14249999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2">
+      <c r="B22" s="1">
+        <v>0.27679100000000001</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.71429200000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
-        <v>0.13766700000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2">
+      <c r="B23" s="1">
+        <v>0.276167</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.69841699999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
-        <v>0.13733300000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2">
+      <c r="B24" s="1">
+        <v>0.27795799999999998</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.68087500000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
-        <v>0.13975000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2">
+      <c r="B25" s="1">
+        <v>0.27891700000000003</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.71033299999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
-        <v>0.13850000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2">
+      <c r="B26" s="1">
+        <v>0.28345799999999999</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.71775</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
-        <v>0.13883300000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2">
+      <c r="B27" s="1">
+        <v>0.27708300000000002</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.72291700000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
-        <v>0.139041</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2">
+      <c r="B28" s="1">
+        <v>0.30033399999999999</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.71329200000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
-        <v>0.139541</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2">
+      <c r="B29" s="1">
+        <v>0.295958</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.72795799999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
-        <v>0.13991600000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2">
+      <c r="B30" s="1">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.70820799999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
-        <v>0.14266599999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2">
+      <c r="B31" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.72279199999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
-        <v>0.141541</v>
+      <c r="B32" s="1">
+        <v>0.34825</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.71458299999999997</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
-        <v>0.14025000000000001</v>
+      <c r="B33" s="1">
+        <v>0.280167</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.74895800000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
-        <v>0.14066699999999999</v>
+      <c r="B34" s="1">
+        <v>0.28129199999999999</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.72941599999999995</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
-        <v>0.138875</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
+      <c r="B35" s="1">
+        <v>0.277084</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.71266700000000005</v>
+      </c>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="2">
-        <v>0.145375</v>
+      <c r="B36" s="1">
+        <v>0.27925</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.70837499999999998</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
-        <v>0.137958</v>
+      <c r="B37" s="1">
+        <v>0.28354200000000002</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.70441699999999996</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="2">
-        <v>0.139292</v>
+      <c r="B38" s="1">
+        <v>0.27170800000000001</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.75791699999999995</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="2">
-        <v>0.13950000000000001</v>
+      <c r="B39" s="1">
+        <v>0.27474999999999999</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.69791599999999998</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="2">
-        <v>0.14191699999999999</v>
+      <c r="B40" s="1">
+        <v>0.280833</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.71299999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="2">
-        <v>0.14474999999999999</v>
+      <c r="B41" s="1">
+        <v>0.27583299999999999</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.71829200000000004</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="2">
-        <v>0.14383299999999999</v>
+      <c r="B42" s="1">
+        <v>0.28062500000000001</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.72950000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="2">
-        <v>0.137292</v>
+      <c r="B43" s="1">
+        <v>0.279667</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.67966599999999999</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="2">
-        <v>0.14258399999999999</v>
+      <c r="B44" s="1">
+        <v>0.28445900000000002</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.74199999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="2">
-        <v>0.13791700000000001</v>
+      <c r="B45" s="1">
+        <v>0.279167</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.72479099999999996</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
-        <v>0.142125</v>
+      <c r="B46" s="1">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.74887499999999996</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="2">
-        <v>0.137042</v>
+      <c r="B47" s="1">
+        <v>0.27912500000000001</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.70416599999999996</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="2">
-        <v>0.140209</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2">
+      <c r="B48" s="1">
+        <v>0.27341700000000002</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="2">
-        <v>0.16229099999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2">
+      <c r="B49" s="1">
+        <v>0.27487499999999998</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.69895799999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="2">
-        <v>0.14283299999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2">
+      <c r="B50" s="1">
+        <v>0.276916</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.68116699999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="2">
-        <v>0.141792</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2">
+      <c r="B51" s="1">
+        <v>0.27483299999999999</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.72445800000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="2">
-        <v>0.13766700000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2">
+      <c r="B52" s="1">
+        <v>0.28345799999999999</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.75349999999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="2">
-        <v>0.14133299999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2">
+      <c r="B53" s="1">
+        <v>0.28037499999999999</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.73479099999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="2">
-        <v>0.139875</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2">
+      <c r="B54" s="1">
+        <v>0.27895799999999998</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.68187500000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="2">
-        <v>0.138708</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2">
+      <c r="B55" s="1">
+        <v>0.27879199999999998</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.72366699999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="2">
-        <v>0.138291</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2">
+      <c r="B56" s="1">
+        <v>0.282833</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.73716599999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="2">
-        <v>0.139792</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2">
+      <c r="B57" s="1">
+        <v>0.28162500000000001</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.70933299999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="2">
-        <v>0.138959</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2">
+      <c r="B58" s="1">
+        <v>0.28249999999999997</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.76395800000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="2">
-        <v>0.139458</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="2">
+      <c r="B59" s="1">
+        <v>0.27312500000000001</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.72483299999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="2">
-        <v>0.14474999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2">
+      <c r="B60" s="1">
+        <v>0.27758300000000002</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.69620899999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="2">
-        <v>0.138958</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="2">
+      <c r="B61" s="1">
+        <v>0.277584</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.74495800000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="2">
-        <v>0.143292</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2">
+      <c r="B62" s="1">
+        <v>0.29262500000000002</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.75345799999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="2">
-        <v>0.14216699999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2">
+      <c r="B63" s="1">
+        <v>0.28404200000000002</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.71004100000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="2">
-        <v>0.14041600000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2">
+      <c r="B64" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.80308400000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="2">
-        <v>0.139458</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="2">
+      <c r="B65" s="1">
+        <v>0.28295900000000002</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.72383399999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="2">
-        <v>0.14183399999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2">
+      <c r="B66" s="1">
+        <v>0.27695900000000001</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.71012500000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="2">
-        <v>0.15137500000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2">
+      <c r="B67" s="1">
+        <v>0.29358299999999998</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.71329200000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="2">
-        <v>0.145208</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2">
+      <c r="B68" s="1">
+        <v>0.27383400000000002</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.72887500000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="2">
-        <v>0.138792</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2">
+      <c r="B69" s="1">
+        <v>0.27845799999999998</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.70470900000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="2">
-        <v>0.14524999999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2">
+      <c r="B70" s="1">
+        <v>0.27912500000000001</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.71325000000000005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="2">
-        <v>0.13941700000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2">
+      <c r="B71" s="1">
+        <v>0.27687499999999998</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.71483399999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="2">
-        <v>0.138375</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2">
+      <c r="B72" s="1">
+        <v>0.27812500000000001</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.71037499999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="2">
-        <v>0.13775000000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2">
+      <c r="B73" s="1">
+        <v>0.27508300000000002</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.73350000000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="2">
-        <v>0.140375</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2">
+      <c r="B74" s="1">
+        <v>0.27870800000000001</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.75329199999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="2">
-        <v>0.140791</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2">
+      <c r="B75" s="1">
+        <v>0.276333</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="2">
-        <v>0.139125</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2">
+      <c r="B76" s="1">
+        <v>0.28016600000000003</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.76545799999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="2">
-        <v>0.138541</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2">
+      <c r="B77" s="1">
+        <v>0.27604099999999998</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.64704200000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="2">
-        <v>0.151</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2">
+      <c r="B78" s="1">
+        <v>0.278416</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.74420900000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="2">
-        <v>0.14441699999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="2">
+      <c r="B79" s="1">
+        <v>0.277667</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.721333</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="2">
-        <v>0.140375</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="2">
+      <c r="B80" s="1">
+        <v>0.27787499999999998</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.77112499999999995</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="2">
-        <v>0.140958</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="2">
+      <c r="B81" s="1">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.68033299999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="2">
-        <v>0.14199999999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="2">
+      <c r="B82" s="1">
+        <v>0.278333</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.73350000000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="2">
-        <v>0.142958</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="2">
+      <c r="B83" s="1">
+        <v>0.28833300000000001</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.75575000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="2">
-        <v>0.141959</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="2">
+      <c r="B84" s="1">
+        <v>0.28704200000000002</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.71795799999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="2">
-        <v>0.138958</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="2">
+      <c r="B85" s="1">
+        <v>0.27862500000000001</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.66108299999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="2">
-        <v>0.141125</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="2">
+      <c r="B86" s="1">
+        <v>0.33879199999999998</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.72841599999999995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="2">
-        <v>0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="2">
+      <c r="B87" s="1">
+        <v>0.27604099999999998</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.71583300000000005</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="2">
-        <v>0.140042</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="2">
+      <c r="B88" s="1">
+        <v>0.27954200000000001</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.69166700000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="2">
-        <v>0.13833300000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="2">
+      <c r="B89" s="1">
+        <v>0.26983400000000002</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.75841700000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="2">
-        <v>0.13783400000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="2">
+      <c r="B90" s="1">
+        <v>0.28120800000000001</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.73320799999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="2">
-        <v>0.14091699999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="2">
+      <c r="B91" s="1">
+        <v>0.27854099999999998</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.713916</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="2">
-        <v>0.141875</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="2">
+      <c r="B92" s="1">
+        <v>0.27629199999999998</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.71587500000000004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" s="2">
-        <v>0.138959</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="2">
+      <c r="B93" s="1">
+        <v>0.27870800000000001</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.69137499999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" s="2">
-        <v>0.137458</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="2">
+      <c r="B94" s="1">
+        <v>0.28145799999999999</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.72070800000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="2">
-        <v>0.139041</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="2">
+      <c r="B95" s="1">
+        <v>0.27654200000000001</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.68883399999999995</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" s="2">
-        <v>0.138291</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="2">
+      <c r="B96" s="1">
+        <v>0.27775</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" s="2">
-        <v>0.15137500000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="2">
+      <c r="B97" s="1">
+        <v>0.27470800000000001</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0.70674999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" s="2">
-        <v>0.13725000000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="2">
+      <c r="B98" s="1">
+        <v>0.27595900000000001</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.70979199999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" s="2">
-        <v>0.14466699999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="2">
+      <c r="B99" s="1">
+        <v>0.27529199999999998</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.74150000000000005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" s="2">
-        <v>0.13816700000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="2">
+      <c r="B100" s="1">
+        <v>0.27529199999999998</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.75570800000000005</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" s="2">
-        <v>0.13683300000000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="2">
+      <c r="B101" s="1">
+        <v>0.27870899999999998</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.778667</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" s="2">
-        <v>0.142292</v>
+      <c r="B102" s="1">
+        <v>0.28020800000000001</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.71837499999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953680EB-BA04-4A44-9B14-C04EBA852584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FF8A57-3B0E-A04E-8252-FF03C42ED6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1080" windowWidth="14460" windowHeight="16720" activeTab="1" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>ham3tc.tfc</t>
     <phoneticPr fontId="1"/>
@@ -84,6 +84,30 @@
   </si>
   <si>
     <t>sequential</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3_17tc.tfc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hwb4tc.tfc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xor5d1.tfc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mod5d1.tfc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5mod5tc.tfc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hwb5tc.tfc</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -156,38 +180,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -215,29 +213,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -446,14 +458,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}" name="テーブル245656567891011" displayName="テーブル245656567891011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}" name="テーブル245656567891011" displayName="テーブル245656567891011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" headerRowBorderDxfId="1">
   <autoFilter ref="A2:E102" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5BA224EE-6041-F344-B34A-9FBDF29A9510}" name="times" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{6CE03F36-CF34-9645-A348-C61D9EF118B4}" name="sequential" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{874D523F-A842-214F-8959-9A61540A9A8A}" name="multi-thread" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{2D90F0B7-A0EF-694E-91B3-7AF4BD0EADA8}" name="multi-fiber" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{61BBD1D9-647D-CA41-B58E-4467F0EE0459}" name="simd" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{5BA224EE-6041-F344-B34A-9FBDF29A9510}" name="times" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{6CE03F36-CF34-9645-A348-C61D9EF118B4}" name="sequential" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{874D523F-A842-214F-8959-9A61540A9A8A}" name="multi-thread" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{2D90F0B7-A0EF-694E-91B3-7AF4BD0EADA8}" name="multi-fiber" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{61BBD1D9-647D-CA41-B58E-4467F0EE0459}" name="simd" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -776,55 +788,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCC3EA3-5E50-2748-BD2A-C2B8CF08A0DE}">
-  <dimension ref="A2:H4"/>
+  <dimension ref="A2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="1" max="2" width="10.7109375" style="9"/>
+    <col min="3" max="3" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>7</v>
+      </c>
+      <c r="E4" s="9">
+        <f>ham3tc.tfc!I10</f>
+        <v>0.28040207000000017</v>
+      </c>
+      <c r="F4" s="9">
+        <f>ham3tc.tfc!J10</f>
+        <v>0.72422496999999975</v>
+      </c>
+      <c r="G4" s="9">
+        <f>ham3tc.tfc!K10</f>
+        <v>0.45461163999999998</v>
+      </c>
+      <c r="H4" s="9" t="e">
+        <f>ham3tc.tfc!L10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -841,877 +901,1475 @@
   <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="10.85546875" style="2"/>
-    <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="10.85546875" style="2"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="28" customHeight="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="28" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.24570800000000001</v>
+      <c r="B3" s="1">
+        <v>0.27379199999999998</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.73154200000000003</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.45074999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.14766699999999999</v>
+      <c r="B4" s="1">
+        <v>0.27545900000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.45758300000000002</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.138792</v>
+      <c r="B5" s="1">
+        <v>0.28108300000000003</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.74820900000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.46937499999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.13241600000000001</v>
+      <c r="B6" s="1">
+        <v>0.278916</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.71920899999999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.46904200000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.141375</v>
+      <c r="B7" s="1">
+        <v>0.28175</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.72370800000000002</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.454125</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.137625</v>
-      </c>
-      <c r="I8" s="10" t="s">
+      <c r="B8" s="1">
+        <v>0.27687499999999998</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.45241700000000001</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.143875</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="B9" s="1">
+        <v>0.278833</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.72966699999999995</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.45587499999999997</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.14108399999999999</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="B10" s="1">
+        <v>0.28162500000000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.73445800000000006</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.45124999999999998</v>
+      </c>
+      <c r="I10" s="1">
         <f>AVERAGE(テーブル245656567891011[sequential])</f>
-        <v>0.14223414000000004</v>
-      </c>
-      <c r="J10" s="2" t="e">
+        <v>0.28040207000000017</v>
+      </c>
+      <c r="J10" s="1">
         <f>AVERAGE(テーブル245656567891011[multi-thread])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="2" t="e">
+        <v>0.72422496999999975</v>
+      </c>
+      <c r="K10" s="1">
         <f>AVERAGE(テーブル245656567891011[multi-fiber])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="2" t="e">
+        <v>0.45461163999999998</v>
+      </c>
+      <c r="L10" s="1" t="e">
         <f>AVERAGE(テーブル245656567891011[simd])</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.14666699999999999</v>
+      <c r="B11" s="1">
+        <v>0.28012500000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.68754199999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.45174999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.14783299999999999</v>
+      <c r="B12" s="1">
+        <v>0.27929100000000001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.449791</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
-        <v>0.14899999999999999</v>
+      <c r="B13" s="1">
+        <v>0.277916</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.70037499999999997</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.14624999999999999</v>
+      <c r="B14" s="1">
+        <v>0.27787499999999998</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.730541</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.45591700000000002</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
-        <v>0.142541</v>
+      <c r="B15" s="1">
+        <v>0.27862500000000001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.86458299999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.451625</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
-        <v>0.140459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2">
+      <c r="B16" s="1">
+        <v>0.27670800000000001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.76708399999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.45508300000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
-        <v>0.14166699999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2">
+      <c r="B17" s="1">
+        <v>0.27524999999999999</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.74679200000000001</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.45350000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
-        <v>0.140958</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2">
+      <c r="B18" s="1">
+        <v>0.276667</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.72795799999999999</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.46033299999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
-        <v>0.14433299999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2">
+      <c r="B19" s="1">
+        <v>0.27441700000000002</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.75004099999999996</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.456208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
-        <v>0.140875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2">
+      <c r="B20" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.72358299999999998</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.451542</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
-        <v>0.136458</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2">
+      <c r="B21" s="1">
+        <v>0.27812500000000001</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.75145799999999996</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.45229200000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
-        <v>0.14249999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2">
+      <c r="B22" s="1">
+        <v>0.27679100000000001</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.71429200000000004</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.45291599999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
-        <v>0.13766700000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2">
+      <c r="B23" s="1">
+        <v>0.276167</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.69841699999999995</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.448542</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
-        <v>0.13733300000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2">
+      <c r="B24" s="1">
+        <v>0.27795799999999998</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.68087500000000001</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.45629199999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
-        <v>0.13975000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2">
+      <c r="B25" s="1">
+        <v>0.27891700000000003</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.71033299999999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.44879200000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
-        <v>0.13850000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2">
+      <c r="B26" s="1">
+        <v>0.28345799999999999</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.71775</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.46987499999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
-        <v>0.13883300000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2">
+      <c r="B27" s="1">
+        <v>0.27708300000000002</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.72291700000000003</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.46220800000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
-        <v>0.139041</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2">
+      <c r="B28" s="1">
+        <v>0.30033399999999999</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.71329200000000004</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.451708</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
-        <v>0.139541</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2">
+      <c r="B29" s="1">
+        <v>0.295958</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.72795799999999999</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.46162500000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
-        <v>0.13991600000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2">
+      <c r="B30" s="1">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.70820799999999995</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.466916</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
-        <v>0.14266599999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2">
+      <c r="B31" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.72279199999999999</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.45120900000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
-        <v>0.141541</v>
+      <c r="B32" s="1">
+        <v>0.34825</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.71458299999999997</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.45537499999999997</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
-        <v>0.14025000000000001</v>
+      <c r="B33" s="1">
+        <v>0.280167</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.74895800000000001</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.45341599999999999</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
-        <v>0.14066699999999999</v>
+      <c r="B34" s="1">
+        <v>0.28129199999999999</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.72941599999999995</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.455542</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
-        <v>0.138875</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
+      <c r="B35" s="1">
+        <v>0.277084</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.71266700000000005</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0.45241599999999998</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="2">
-        <v>0.145375</v>
+      <c r="B36" s="1">
+        <v>0.27925</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.70837499999999998</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.44883299999999998</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
-        <v>0.137958</v>
+      <c r="B37" s="1">
+        <v>0.28354200000000002</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.70441699999999996</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.452459</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="2">
-        <v>0.139292</v>
+      <c r="B38" s="1">
+        <v>0.27170800000000001</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.75791699999999995</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.44850000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="2">
-        <v>0.13950000000000001</v>
+      <c r="B39" s="1">
+        <v>0.27474999999999999</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.69791599999999998</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="2">
-        <v>0.14191699999999999</v>
+      <c r="B40" s="1">
+        <v>0.280833</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.44829200000000002</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="2">
-        <v>0.14474999999999999</v>
+      <c r="B41" s="1">
+        <v>0.27583299999999999</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.71829200000000004</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.44783299999999998</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="2">
-        <v>0.14383299999999999</v>
+      <c r="B42" s="1">
+        <v>0.28062500000000001</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.72950000000000004</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.45033299999999998</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="2">
-        <v>0.137292</v>
+      <c r="B43" s="1">
+        <v>0.279667</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.67966599999999999</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.45137500000000003</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="2">
-        <v>0.14258399999999999</v>
+      <c r="B44" s="1">
+        <v>0.28445900000000002</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.453208</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="2">
-        <v>0.13791700000000001</v>
+      <c r="B45" s="1">
+        <v>0.279167</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.72479099999999996</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.45474999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
-        <v>0.142125</v>
+      <c r="B46" s="1">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.74887499999999996</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.45987499999999998</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="2">
-        <v>0.137042</v>
+      <c r="B47" s="1">
+        <v>0.27912500000000001</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.70416599999999996</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.45420899999999997</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="2">
-        <v>0.140209</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2">
+      <c r="B48" s="1">
+        <v>0.27341700000000002</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.745</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.45008399999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="2">
-        <v>0.16229099999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2">
+      <c r="B49" s="1">
+        <v>0.27487499999999998</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.69895799999999997</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.46920800000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="2">
-        <v>0.14283299999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2">
+      <c r="B50" s="1">
+        <v>0.276916</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.68116699999999997</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.44829200000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="2">
-        <v>0.141792</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2">
+      <c r="B51" s="1">
+        <v>0.27483299999999999</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.72445800000000005</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.44916699999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="2">
-        <v>0.13766700000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2">
+      <c r="B52" s="1">
+        <v>0.28345799999999999</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.75349999999999995</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.45024999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="2">
-        <v>0.14133299999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2">
+      <c r="B53" s="1">
+        <v>0.28037499999999999</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.73479099999999997</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.451542</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="2">
-        <v>0.139875</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2">
+      <c r="B54" s="1">
+        <v>0.27895799999999998</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.68187500000000001</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.45120900000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="2">
-        <v>0.138708</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2">
+      <c r="B55" s="1">
+        <v>0.27879199999999998</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.72366699999999995</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.451042</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="2">
-        <v>0.138291</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2">
+      <c r="B56" s="1">
+        <v>0.282833</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.73716599999999999</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.45037500000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="2">
-        <v>0.139792</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2">
+      <c r="B57" s="1">
+        <v>0.28162500000000001</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.70933299999999999</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.44850000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="2">
-        <v>0.138959</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2">
+      <c r="B58" s="1">
+        <v>0.28249999999999997</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.76395800000000003</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.457042</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="2">
-        <v>0.139458</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="2">
+      <c r="B59" s="1">
+        <v>0.27312500000000001</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.72483299999999995</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.45645799999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="2">
-        <v>0.14474999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2">
+      <c r="B60" s="1">
+        <v>0.27758300000000002</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.69620899999999997</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.45141700000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="2">
-        <v>0.138958</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="2">
+      <c r="B61" s="1">
+        <v>0.277584</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.74495800000000001</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.45287500000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="2">
-        <v>0.143292</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2">
+      <c r="B62" s="1">
+        <v>0.29262500000000002</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.75345799999999996</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.449959</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="2">
-        <v>0.14216699999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2">
+      <c r="B63" s="1">
+        <v>0.28404200000000002</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.71004100000000003</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.471333</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="2">
-        <v>0.14041600000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2">
+      <c r="B64" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.80308400000000002</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="2">
-        <v>0.139458</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="2">
+      <c r="B65" s="1">
+        <v>0.28295900000000002</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.72383399999999998</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.45545799999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="2">
-        <v>0.14183399999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2">
+      <c r="B66" s="1">
+        <v>0.27695900000000001</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.71012500000000001</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.455125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="2">
-        <v>0.15137500000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2">
+      <c r="B67" s="1">
+        <v>0.29358299999999998</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.71329200000000004</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="2">
-        <v>0.145208</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2">
+      <c r="B68" s="1">
+        <v>0.27383400000000002</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.72887500000000005</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.45395799999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="2">
-        <v>0.138792</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2">
+      <c r="B69" s="1">
+        <v>0.27845799999999998</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.70470900000000003</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.45374999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="2">
-        <v>0.14524999999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2">
+      <c r="B70" s="1">
+        <v>0.27912500000000001</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.71325000000000005</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.45241700000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="2">
-        <v>0.13941700000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2">
+      <c r="B71" s="1">
+        <v>0.27687499999999998</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.71483399999999997</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.45279199999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="2">
-        <v>0.138375</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2">
+      <c r="B72" s="1">
+        <v>0.27812500000000001</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.71037499999999998</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.463916</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="2">
-        <v>0.13775000000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2">
+      <c r="B73" s="1">
+        <v>0.27508300000000002</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.73350000000000004</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.45191700000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="2">
-        <v>0.140375</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2">
+      <c r="B74" s="1">
+        <v>0.27870800000000001</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.75329199999999996</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.45445799999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="2">
-        <v>0.140791</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2">
+      <c r="B75" s="1">
+        <v>0.276333</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.45008300000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="2">
-        <v>0.139125</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2">
+      <c r="B76" s="1">
+        <v>0.28016600000000003</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.76545799999999997</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.45791700000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="2">
-        <v>0.138541</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2">
+      <c r="B77" s="1">
+        <v>0.27604099999999998</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.64704200000000001</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.45191700000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="2">
-        <v>0.151</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2">
+      <c r="B78" s="1">
+        <v>0.278416</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.74420900000000001</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.45016600000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="2">
-        <v>0.14441699999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="2">
+      <c r="B79" s="1">
+        <v>0.277667</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.721333</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.452208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="2">
-        <v>0.140375</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="2">
+      <c r="B80" s="1">
+        <v>0.27787499999999998</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.77112499999999995</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.45324999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="2">
-        <v>0.140958</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="2">
+      <c r="B81" s="1">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.68033299999999997</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.48025000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="2">
-        <v>0.14199999999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="2">
+      <c r="B82" s="1">
+        <v>0.278333</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.73350000000000004</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.466333</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="2">
-        <v>0.142958</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="2">
+      <c r="B83" s="1">
+        <v>0.28833300000000001</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.75575000000000003</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.44991700000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="2">
-        <v>0.141959</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="2">
+      <c r="B84" s="1">
+        <v>0.28704200000000002</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.71795799999999999</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.45974999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="2">
-        <v>0.138958</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="2">
+      <c r="B85" s="1">
+        <v>0.27862500000000001</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.66108299999999998</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.451791</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="2">
-        <v>0.141125</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="2">
+      <c r="B86" s="1">
+        <v>0.33879199999999998</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.72841599999999995</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.450542</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="2">
-        <v>0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="2">
+      <c r="B87" s="1">
+        <v>0.27604099999999998</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.71583300000000005</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.45341700000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="2">
-        <v>0.140042</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="2">
+      <c r="B88" s="1">
+        <v>0.27954200000000001</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.69166700000000003</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.46108300000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="2">
-        <v>0.13833300000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="2">
+      <c r="B89" s="1">
+        <v>0.26983400000000002</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.75841700000000001</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.45174999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="2">
-        <v>0.13783400000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="2">
+      <c r="B90" s="1">
+        <v>0.28120800000000001</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.73320799999999997</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.45200000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="2">
-        <v>0.14091699999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="2">
+      <c r="B91" s="1">
+        <v>0.27854099999999998</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.713916</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.45045800000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="2">
-        <v>0.141875</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="2">
+      <c r="B92" s="1">
+        <v>0.27629199999999998</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.71587500000000004</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.44874999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" s="2">
-        <v>0.138959</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="2">
+      <c r="B93" s="1">
+        <v>0.27870800000000001</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.69137499999999996</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.44987500000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" s="2">
-        <v>0.137458</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="2">
+      <c r="B94" s="1">
+        <v>0.28145799999999999</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.72070800000000002</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.45191700000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="2">
-        <v>0.139041</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="2">
+      <c r="B95" s="1">
+        <v>0.27654200000000001</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.68883399999999995</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.452291</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" s="2">
-        <v>0.138291</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="2">
+      <c r="B96" s="1">
+        <v>0.27775</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" s="2">
-        <v>0.15137500000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="2">
+      <c r="B97" s="1">
+        <v>0.27470800000000001</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0.70674999999999999</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.44866600000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" s="2">
-        <v>0.13725000000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="2">
+      <c r="B98" s="1">
+        <v>0.27595900000000001</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.70979199999999998</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.455125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" s="2">
-        <v>0.14466699999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="2">
+      <c r="B99" s="1">
+        <v>0.27529199999999998</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.74150000000000005</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.456125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" s="2">
-        <v>0.13816700000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="2">
+      <c r="B100" s="1">
+        <v>0.27529199999999998</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.75570800000000005</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.451625</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" s="2">
-        <v>0.13683300000000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="2">
+      <c r="B101" s="1">
+        <v>0.27870899999999998</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.778667</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.45341599999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" s="2">
-        <v>0.142292</v>
+      <c r="B102" s="1">
+        <v>0.28020800000000001</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.71837499999999999</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.45104100000000003</v>
       </c>
     </row>
   </sheetData>

--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953680EB-BA04-4A44-9B14-C04EBA852584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0CCEC6-9C03-A549-BF67-9B86FA386CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1080" windowWidth="14460" windowHeight="16720" activeTab="1" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
+    <workbookView xWindow="1100" yWindow="1080" windowWidth="14460" windowHeight="16720" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="ham3tc.tfc" sheetId="2" r:id="rId2"/>
+    <sheet name="3_17tc.tfc" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>ham3tc.tfc</t>
     <phoneticPr fontId="1"/>
@@ -84,6 +85,30 @@
   </si>
   <si>
     <t>sequential</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3_17tc.tfc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hwb4tc.tfc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xor5d1.tfc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mod5d1.tfc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5mod5tc.tfc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hwb5tc.tfc</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -156,38 +181,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -215,29 +214,237 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Futura Condensed Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -446,14 +653,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}" name="テーブル245656567891011" displayName="テーブル245656567891011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}" name="テーブル245656567891011" displayName="テーブル245656567891011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="9">
   <autoFilter ref="A2:E102" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5BA224EE-6041-F344-B34A-9FBDF29A9510}" name="times" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{6CE03F36-CF34-9645-A348-C61D9EF118B4}" name="sequential" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{874D523F-A842-214F-8959-9A61540A9A8A}" name="multi-thread" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{2D90F0B7-A0EF-694E-91B3-7AF4BD0EADA8}" name="multi-fiber" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{61BBD1D9-647D-CA41-B58E-4467F0EE0459}" name="simd" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{5BA224EE-6041-F344-B34A-9FBDF29A9510}" name="times" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{6CE03F36-CF34-9645-A348-C61D9EF118B4}" name="sequential" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{874D523F-A842-214F-8959-9A61540A9A8A}" name="multi-thread" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{2D90F0B7-A0EF-694E-91B3-7AF4BD0EADA8}" name="multi-fiber" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{61BBD1D9-647D-CA41-B58E-4467F0EE0459}" name="simd" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82584110-A505-4543-82D8-BD808AA930A0}" name="テーブル2456565678910119" displayName="テーブル2456565678910119" ref="A2:E102" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="5">
+  <autoFilter ref="A2:E102" xr:uid="{82584110-A505-4543-82D8-BD808AA930A0}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{4D465662-E697-4748-85BF-2F2EC8672C84}" name="times" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{0C48220D-731B-5643-951C-25F8B0805619}" name="sequential" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{7C0B3FE2-B06D-5747-B181-A167826473DE}" name="multi-thread" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{65911D59-AC68-BA43-8B87-7E5380B0D4D6}" name="multi-fiber" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{2FAA4EBB-E04F-1944-B3F3-4D62E902DC12}" name="simd" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -776,55 +997,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCC3EA3-5E50-2748-BD2A-C2B8CF08A0DE}">
-  <dimension ref="A2:H4"/>
+  <dimension ref="A2:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="1" max="2" width="10.7109375" style="9"/>
+    <col min="3" max="3" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>7</v>
+      </c>
+      <c r="E4" s="9">
+        <f>ham3tc.tfc!I10</f>
+        <v>0.28040207000000017</v>
+      </c>
+      <c r="F4" s="9">
+        <f>ham3tc.tfc!J10</f>
+        <v>0.72422496999999975</v>
+      </c>
+      <c r="G4" s="9">
+        <f>ham3tc.tfc!K10</f>
+        <v>0.45461163999999998</v>
+      </c>
+      <c r="H4" s="9" t="e">
+        <f>ham3tc.tfc!L10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="9">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9">
+        <v>12</v>
+      </c>
+      <c r="E5" s="9" t="e">
+        <f>'3_17tc.tfc'!I10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F5" s="9" t="e">
+        <f>'3_17tc.tfc'!J10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" s="9" t="e">
+        <f>'3_17tc.tfc'!K10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" s="9" t="e">
+        <f>'3_17tc.tfc'!L10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -840,878 +1131,1476 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5683DF-DD1F-914F-B880-0E0A08994056}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="10.85546875" style="2"/>
-    <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="10.85546875" style="2"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="28" customHeight="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="28" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.24570800000000001</v>
+      <c r="B3" s="1">
+        <v>0.27379199999999998</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.73154200000000003</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.45074999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.14766699999999999</v>
+      <c r="B4" s="1">
+        <v>0.27545900000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.45758300000000002</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.138792</v>
+      <c r="B5" s="1">
+        <v>0.28108300000000003</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.74820900000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.46937499999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.13241600000000001</v>
+      <c r="B6" s="1">
+        <v>0.278916</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.71920899999999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.46904200000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.141375</v>
+      <c r="B7" s="1">
+        <v>0.28175</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.72370800000000002</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.454125</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.137625</v>
-      </c>
-      <c r="I8" s="10" t="s">
+      <c r="B8" s="1">
+        <v>0.27687499999999998</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.45241700000000001</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.143875</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="B9" s="1">
+        <v>0.278833</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.72966699999999995</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.45587499999999997</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.14108399999999999</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="B10" s="1">
+        <v>0.28162500000000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.73445800000000006</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.45124999999999998</v>
+      </c>
+      <c r="I10" s="1">
         <f>AVERAGE(テーブル245656567891011[sequential])</f>
-        <v>0.14223414000000004</v>
-      </c>
-      <c r="J10" s="2" t="e">
+        <v>0.28040207000000017</v>
+      </c>
+      <c r="J10" s="1">
         <f>AVERAGE(テーブル245656567891011[multi-thread])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="2" t="e">
+        <v>0.72422496999999975</v>
+      </c>
+      <c r="K10" s="1">
         <f>AVERAGE(テーブル245656567891011[multi-fiber])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="2" t="e">
+        <v>0.45461163999999998</v>
+      </c>
+      <c r="L10" s="1" t="e">
         <f>AVERAGE(テーブル245656567891011[simd])</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.14666699999999999</v>
+      <c r="B11" s="1">
+        <v>0.28012500000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.68754199999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.45174999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.14783299999999999</v>
+      <c r="B12" s="1">
+        <v>0.27929100000000001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.449791</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
-        <v>0.14899999999999999</v>
+      <c r="B13" s="1">
+        <v>0.277916</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.70037499999999997</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.14624999999999999</v>
+      <c r="B14" s="1">
+        <v>0.27787499999999998</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.730541</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.45591700000000002</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
-        <v>0.142541</v>
+      <c r="B15" s="1">
+        <v>0.27862500000000001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.86458299999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.451625</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
-        <v>0.140459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2">
+      <c r="B16" s="1">
+        <v>0.27670800000000001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.76708399999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.45508300000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
-        <v>0.14166699999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2">
+      <c r="B17" s="1">
+        <v>0.27524999999999999</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.74679200000000001</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.45350000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
-        <v>0.140958</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2">
+      <c r="B18" s="1">
+        <v>0.276667</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.72795799999999999</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.46033299999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
-        <v>0.14433299999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2">
+      <c r="B19" s="1">
+        <v>0.27441700000000002</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.75004099999999996</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.456208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
-        <v>0.140875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2">
+      <c r="B20" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.72358299999999998</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.451542</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
-        <v>0.136458</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2">
+      <c r="B21" s="1">
+        <v>0.27812500000000001</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.75145799999999996</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.45229200000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
-        <v>0.14249999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2">
+      <c r="B22" s="1">
+        <v>0.27679100000000001</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.71429200000000004</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.45291599999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
-        <v>0.13766700000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2">
+      <c r="B23" s="1">
+        <v>0.276167</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.69841699999999995</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.448542</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
-        <v>0.13733300000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2">
+      <c r="B24" s="1">
+        <v>0.27795799999999998</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.68087500000000001</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.45629199999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
-        <v>0.13975000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2">
+      <c r="B25" s="1">
+        <v>0.27891700000000003</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.71033299999999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.44879200000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
-        <v>0.13850000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2">
+      <c r="B26" s="1">
+        <v>0.28345799999999999</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.71775</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.46987499999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
-        <v>0.13883300000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2">
+      <c r="B27" s="1">
+        <v>0.27708300000000002</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.72291700000000003</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.46220800000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
-        <v>0.139041</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2">
+      <c r="B28" s="1">
+        <v>0.30033399999999999</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.71329200000000004</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.451708</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
-        <v>0.139541</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2">
+      <c r="B29" s="1">
+        <v>0.295958</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.72795799999999999</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.46162500000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
-        <v>0.13991600000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2">
+      <c r="B30" s="1">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.70820799999999995</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.466916</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
-        <v>0.14266599999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2">
+      <c r="B31" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.72279199999999999</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.45120900000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
-        <v>0.141541</v>
+      <c r="B32" s="1">
+        <v>0.34825</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.71458299999999997</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.45537499999999997</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
-        <v>0.14025000000000001</v>
+      <c r="B33" s="1">
+        <v>0.280167</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.74895800000000001</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.45341599999999999</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
-        <v>0.14066699999999999</v>
+      <c r="B34" s="1">
+        <v>0.28129199999999999</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.72941599999999995</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.455542</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
-        <v>0.138875</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
+      <c r="B35" s="1">
+        <v>0.277084</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.71266700000000005</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0.45241599999999998</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="2">
-        <v>0.145375</v>
+      <c r="B36" s="1">
+        <v>0.27925</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.70837499999999998</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.44883299999999998</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
-        <v>0.137958</v>
+      <c r="B37" s="1">
+        <v>0.28354200000000002</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.70441699999999996</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.452459</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="2">
-        <v>0.139292</v>
+      <c r="B38" s="1">
+        <v>0.27170800000000001</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.75791699999999995</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.44850000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="2">
-        <v>0.13950000000000001</v>
+      <c r="B39" s="1">
+        <v>0.27474999999999999</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.69791599999999998</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="2">
-        <v>0.14191699999999999</v>
+      <c r="B40" s="1">
+        <v>0.280833</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.44829200000000002</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="2">
-        <v>0.14474999999999999</v>
+      <c r="B41" s="1">
+        <v>0.27583299999999999</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.71829200000000004</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.44783299999999998</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="2">
-        <v>0.14383299999999999</v>
+      <c r="B42" s="1">
+        <v>0.28062500000000001</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.72950000000000004</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.45033299999999998</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="2">
-        <v>0.137292</v>
+      <c r="B43" s="1">
+        <v>0.279667</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.67966599999999999</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.45137500000000003</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="2">
-        <v>0.14258399999999999</v>
+      <c r="B44" s="1">
+        <v>0.28445900000000002</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.453208</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="2">
-        <v>0.13791700000000001</v>
+      <c r="B45" s="1">
+        <v>0.279167</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.72479099999999996</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.45474999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
-        <v>0.142125</v>
+      <c r="B46" s="1">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.74887499999999996</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.45987499999999998</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="2">
-        <v>0.137042</v>
+      <c r="B47" s="1">
+        <v>0.27912500000000001</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.70416599999999996</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.45420899999999997</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="2">
-        <v>0.140209</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2">
+      <c r="B48" s="1">
+        <v>0.27341700000000002</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.745</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.45008399999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="2">
-        <v>0.16229099999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2">
+      <c r="B49" s="1">
+        <v>0.27487499999999998</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.69895799999999997</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.46920800000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="2">
-        <v>0.14283299999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2">
+      <c r="B50" s="1">
+        <v>0.276916</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.68116699999999997</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.44829200000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="2">
-        <v>0.141792</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2">
+      <c r="B51" s="1">
+        <v>0.27483299999999999</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.72445800000000005</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.44916699999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="2">
-        <v>0.13766700000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2">
+      <c r="B52" s="1">
+        <v>0.28345799999999999</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.75349999999999995</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.45024999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="2">
-        <v>0.14133299999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2">
+      <c r="B53" s="1">
+        <v>0.28037499999999999</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.73479099999999997</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.451542</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="2">
-        <v>0.139875</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2">
+      <c r="B54" s="1">
+        <v>0.27895799999999998</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.68187500000000001</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.45120900000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="2">
-        <v>0.138708</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2">
+      <c r="B55" s="1">
+        <v>0.27879199999999998</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.72366699999999995</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.451042</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="2">
-        <v>0.138291</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2">
+      <c r="B56" s="1">
+        <v>0.282833</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.73716599999999999</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.45037500000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="2">
-        <v>0.139792</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2">
+      <c r="B57" s="1">
+        <v>0.28162500000000001</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.70933299999999999</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.44850000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="2">
-        <v>0.138959</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2">
+      <c r="B58" s="1">
+        <v>0.28249999999999997</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.76395800000000003</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.457042</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="2">
-        <v>0.139458</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="2">
+      <c r="B59" s="1">
+        <v>0.27312500000000001</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.72483299999999995</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.45645799999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="2">
-        <v>0.14474999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2">
+      <c r="B60" s="1">
+        <v>0.27758300000000002</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.69620899999999997</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.45141700000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="2">
-        <v>0.138958</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="2">
+      <c r="B61" s="1">
+        <v>0.277584</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.74495800000000001</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.45287500000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="2">
-        <v>0.143292</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2">
+      <c r="B62" s="1">
+        <v>0.29262500000000002</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.75345799999999996</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.449959</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="2">
-        <v>0.14216699999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2">
+      <c r="B63" s="1">
+        <v>0.28404200000000002</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.71004100000000003</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.471333</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="2">
-        <v>0.14041600000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2">
+      <c r="B64" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.80308400000000002</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="2">
-        <v>0.139458</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="2">
+      <c r="B65" s="1">
+        <v>0.28295900000000002</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.72383399999999998</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.45545799999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="2">
-        <v>0.14183399999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2">
+      <c r="B66" s="1">
+        <v>0.27695900000000001</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.71012500000000001</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.455125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="2">
-        <v>0.15137500000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2">
+      <c r="B67" s="1">
+        <v>0.29358299999999998</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.71329200000000004</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="2">
-        <v>0.145208</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2">
+      <c r="B68" s="1">
+        <v>0.27383400000000002</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.72887500000000005</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.45395799999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="2">
-        <v>0.138792</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2">
+      <c r="B69" s="1">
+        <v>0.27845799999999998</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.70470900000000003</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.45374999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="2">
-        <v>0.14524999999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2">
+      <c r="B70" s="1">
+        <v>0.27912500000000001</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.71325000000000005</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.45241700000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="2">
-        <v>0.13941700000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2">
+      <c r="B71" s="1">
+        <v>0.27687499999999998</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.71483399999999997</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.45279199999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="2">
-        <v>0.138375</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2">
+      <c r="B72" s="1">
+        <v>0.27812500000000001</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.71037499999999998</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.463916</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="2">
-        <v>0.13775000000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2">
+      <c r="B73" s="1">
+        <v>0.27508300000000002</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.73350000000000004</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.45191700000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="2">
-        <v>0.140375</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2">
+      <c r="B74" s="1">
+        <v>0.27870800000000001</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.75329199999999996</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.45445799999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="2">
-        <v>0.140791</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2">
+      <c r="B75" s="1">
+        <v>0.276333</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.45008300000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="2">
-        <v>0.139125</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2">
+      <c r="B76" s="1">
+        <v>0.28016600000000003</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.76545799999999997</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.45791700000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="2">
-        <v>0.138541</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2">
+      <c r="B77" s="1">
+        <v>0.27604099999999998</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.64704200000000001</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.45191700000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="2">
-        <v>0.151</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2">
+      <c r="B78" s="1">
+        <v>0.278416</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.74420900000000001</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.45016600000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="2">
-        <v>0.14441699999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="2">
+      <c r="B79" s="1">
+        <v>0.277667</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.721333</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.452208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="2">
-        <v>0.140375</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="2">
+      <c r="B80" s="1">
+        <v>0.27787499999999998</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.77112499999999995</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.45324999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="2">
-        <v>0.140958</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="2">
+      <c r="B81" s="1">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.68033299999999997</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.48025000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="2">
-        <v>0.14199999999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="2">
+      <c r="B82" s="1">
+        <v>0.278333</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.73350000000000004</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.466333</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="2">
-        <v>0.142958</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="2">
+      <c r="B83" s="1">
+        <v>0.28833300000000001</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.75575000000000003</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.44991700000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="2">
-        <v>0.141959</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="2">
+      <c r="B84" s="1">
+        <v>0.28704200000000002</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.71795799999999999</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.45974999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="2">
-        <v>0.138958</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="2">
+      <c r="B85" s="1">
+        <v>0.27862500000000001</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.66108299999999998</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.451791</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="2">
-        <v>0.141125</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="2">
+      <c r="B86" s="1">
+        <v>0.33879199999999998</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.72841599999999995</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.450542</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="2">
-        <v>0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="2">
+      <c r="B87" s="1">
+        <v>0.27604099999999998</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.71583300000000005</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.45341700000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="2">
-        <v>0.140042</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="2">
+      <c r="B88" s="1">
+        <v>0.27954200000000001</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.69166700000000003</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.46108300000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="2">
-        <v>0.13833300000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="2">
+      <c r="B89" s="1">
+        <v>0.26983400000000002</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.75841700000000001</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.45174999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="2">
-        <v>0.13783400000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="2">
+      <c r="B90" s="1">
+        <v>0.28120800000000001</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.73320799999999997</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.45200000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="2">
-        <v>0.14091699999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="2">
+      <c r="B91" s="1">
+        <v>0.27854099999999998</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.713916</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.45045800000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="2">
-        <v>0.141875</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="2">
+      <c r="B92" s="1">
+        <v>0.27629199999999998</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.71587500000000004</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.44874999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" s="2">
-        <v>0.138959</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="2">
+      <c r="B93" s="1">
+        <v>0.27870800000000001</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.69137499999999996</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.44987500000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" s="2">
-        <v>0.137458</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="2">
+      <c r="B94" s="1">
+        <v>0.28145799999999999</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.72070800000000002</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.45191700000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="2">
-        <v>0.139041</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="2">
+      <c r="B95" s="1">
+        <v>0.27654200000000001</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.68883399999999995</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.452291</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" s="2">
-        <v>0.138291</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="2">
+      <c r="B96" s="1">
+        <v>0.27775</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" s="2">
-        <v>0.15137500000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="2">
+      <c r="B97" s="1">
+        <v>0.27470800000000001</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0.70674999999999999</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.44866600000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" s="2">
-        <v>0.13725000000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="2">
+      <c r="B98" s="1">
+        <v>0.27595900000000001</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.70979199999999998</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.455125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" s="2">
-        <v>0.14466699999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="2">
+      <c r="B99" s="1">
+        <v>0.27529199999999998</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.74150000000000005</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.456125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" s="2">
-        <v>0.13816700000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="2">
+      <c r="B100" s="1">
+        <v>0.27529199999999998</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.75570800000000005</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.451625</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" s="2">
-        <v>0.13683300000000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="2">
+      <c r="B101" s="1">
+        <v>0.27870899999999998</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.778667</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.45341599999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" s="2">
-        <v>0.142292</v>
+      <c r="B102" s="1">
+        <v>0.28020800000000001</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.71837499999999999</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.45104100000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1725,4 +2614,595 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662F5CEE-B597-0941-966B-E319678C9A58}">
+  <dimension ref="A1:L102"/>
+  <sheetViews>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" ht="15">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1" t="e">
+        <f>AVERAGE(テーブル2456565678910119[sequential])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="1" t="e">
+        <f>AVERAGE(テーブル2456565678910119[multi-thread])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="1" t="e">
+        <f>AVERAGE(テーブル2456565678910119[multi-fiber])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="1" t="e">
+        <f>AVERAGE(テーブル2456565678910119[simd])</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" ht="15">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="15">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="15">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I8:L8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FB5653-1B9D-7848-B369-F8CCBD314706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24AEF8F-4F92-664F-8544-9589780CF1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1080" windowWidth="14460" windowHeight="16720" activeTab="2" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
+    <workbookView xWindow="1100" yWindow="1080" windowWidth="14460" windowHeight="16720" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="result of all" sheetId="1" r:id="rId1"/>
     <sheet name="ham3tc.tfc" sheetId="2" r:id="rId2"/>
     <sheet name="3_17tc.tfc" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -999,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCC3EA3-5E50-2748-BD2A-C2B8CF08A0DE}">
   <dimension ref="A2:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1084,9 +1084,9 @@
         <f>'3_17tc.tfc'!J10</f>
         <v>1.05358353</v>
       </c>
-      <c r="G5" s="9" t="e">
+      <c r="G5" s="9">
         <f>'3_17tc.tfc'!K10</f>
-        <v>#DIV/0!</v>
+        <v>0.58978542000000034</v>
       </c>
       <c r="H5" s="9" t="e">
         <f>'3_17tc.tfc'!L10</f>
@@ -1131,7 +1131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5683DF-DD1F-914F-B880-0E0A08994056}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -2620,8 +2620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662F5CEE-B597-0941-966B-E319678C9A58}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
@@ -2668,6 +2668,9 @@
       <c r="C3" s="1">
         <v>0.94429099999999999</v>
       </c>
+      <c r="D3" s="1">
+        <v>0.58833299999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="15">
       <c r="A4" s="1">
@@ -2679,6 +2682,9 @@
       <c r="C4" s="1">
         <v>1.0780799999999999</v>
       </c>
+      <c r="D4" s="1">
+        <v>0.59012500000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="15">
       <c r="A5" s="1">
@@ -2690,6 +2696,9 @@
       <c r="C5" s="1">
         <v>1.0666199999999999</v>
       </c>
+      <c r="D5" s="1">
+        <v>0.58233400000000002</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="15">
       <c r="A6" s="1">
@@ -2701,6 +2710,9 @@
       <c r="C6" s="1">
         <v>1.0716699999999999</v>
       </c>
+      <c r="D6" s="1">
+        <v>0.59083399999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="15">
       <c r="A7" s="1">
@@ -2712,6 +2724,9 @@
       <c r="C7" s="1">
         <v>1.0794999999999999</v>
       </c>
+      <c r="D7" s="1">
+        <v>0.58983399999999997</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="15">
       <c r="A8" s="1">
@@ -2723,6 +2738,9 @@
       <c r="C8" s="1">
         <v>1.0395399999999999</v>
       </c>
+      <c r="D8" s="1">
+        <v>0.58625000000000005</v>
+      </c>
       <c r="I8" s="7" t="s">
         <v>9</v>
       </c>
@@ -2740,6 +2758,9 @@
       <c r="C9" s="1">
         <v>1.02979</v>
       </c>
+      <c r="D9" s="1">
+        <v>0.58945899999999996</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2763,6 +2784,9 @@
       <c r="C10" s="1">
         <v>1.04992</v>
       </c>
+      <c r="D10" s="1">
+        <v>0.58316599999999996</v>
+      </c>
       <c r="I10" s="1">
         <f>AVERAGE(テーブル2456565678910119[sequential])</f>
         <v>0.36803301999999993</v>
@@ -2771,9 +2795,9 @@
         <f>AVERAGE(テーブル2456565678910119[multi-thread])</f>
         <v>1.05358353</v>
       </c>
-      <c r="K10" s="1" t="e">
+      <c r="K10" s="1">
         <f>AVERAGE(テーブル2456565678910119[multi-fiber])</f>
-        <v>#DIV/0!</v>
+        <v>0.58978542000000034</v>
       </c>
       <c r="L10" s="1" t="e">
         <f>AVERAGE(テーブル2456565678910119[simd])</f>
@@ -2790,6 +2814,9 @@
       <c r="C11" s="1">
         <v>1.0449600000000001</v>
       </c>
+      <c r="D11" s="1">
+        <v>0.58474999999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="15">
       <c r="A12" s="1">
@@ -2801,6 +2828,9 @@
       <c r="C12" s="1">
         <v>1.04521</v>
       </c>
+      <c r="D12" s="1">
+        <v>0.58612500000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="15">
       <c r="A13" s="1">
@@ -2812,6 +2842,9 @@
       <c r="C13" s="1">
         <v>1.06467</v>
       </c>
+      <c r="D13" s="1">
+        <v>0.58620799999999995</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="15">
       <c r="A14" s="1">
@@ -2823,6 +2856,9 @@
       <c r="C14" s="1">
         <v>1.0778300000000001</v>
       </c>
+      <c r="D14" s="1">
+        <v>0.589167</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="15">
       <c r="A15" s="1">
@@ -2834,6 +2870,9 @@
       <c r="C15" s="1">
         <v>1.07883</v>
       </c>
+      <c r="D15" s="1">
+        <v>0.58745800000000004</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="15">
       <c r="A16" s="1">
@@ -2845,8 +2884,11 @@
       <c r="C16" s="1">
         <v>1.1080000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15">
+      <c r="D16" s="1">
+        <v>0.59566600000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2856,8 +2898,11 @@
       <c r="C17" s="1">
         <v>1.02525</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15">
+      <c r="D17" s="1">
+        <v>0.58550000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2867,8 +2912,11 @@
       <c r="C18" s="1">
         <v>1.0260800000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15">
+      <c r="D18" s="1">
+        <v>0.58787500000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2878,8 +2926,11 @@
       <c r="C19" s="1">
         <v>1.05775</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15">
+      <c r="D19" s="1">
+        <v>0.58770800000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2889,8 +2940,11 @@
       <c r="C20" s="1">
         <v>1.05942</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15">
+      <c r="D20" s="1">
+        <v>0.58925000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2900,8 +2954,11 @@
       <c r="C21" s="1">
         <v>1.0523800000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15">
+      <c r="D21" s="1">
+        <v>0.59250000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2911,8 +2968,11 @@
       <c r="C22" s="1">
         <v>1.0551299999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15">
+      <c r="D22" s="1">
+        <v>0.59354200000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2922,8 +2982,11 @@
       <c r="C23" s="1">
         <v>1.0940799999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15">
+      <c r="D23" s="1">
+        <v>0.58812500000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2933,8 +2996,11 @@
       <c r="C24" s="1">
         <v>1.07308</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15">
+      <c r="D24" s="1">
+        <v>0.589333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2944,8 +3010,11 @@
       <c r="C25" s="1">
         <v>1.0603800000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15">
+      <c r="D25" s="1">
+        <v>0.593584</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2955,8 +3024,11 @@
       <c r="C26" s="1">
         <v>1.06196</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15">
+      <c r="D26" s="1">
+        <v>0.59366699999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2966,8 +3038,11 @@
       <c r="C27" s="1">
         <v>1.0382100000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15">
+      <c r="D27" s="1">
+        <v>0.582542</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2977,8 +3052,11 @@
       <c r="C28" s="1">
         <v>1.0657099999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15">
+      <c r="D28" s="1">
+        <v>0.58791700000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2988,8 +3066,11 @@
       <c r="C29" s="1">
         <v>1.0801700000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="15">
+      <c r="D29" s="1">
+        <v>0.58512500000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2999,8 +3080,11 @@
       <c r="C30" s="1">
         <v>1.03383</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="15">
+      <c r="D30" s="1">
+        <v>0.58516699999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3010,8 +3094,11 @@
       <c r="C31" s="1">
         <v>1.05908</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15">
+      <c r="D31" s="1">
+        <v>0.59112500000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3020,6 +3107,9 @@
       </c>
       <c r="C32" s="1">
         <v>1.0102100000000001</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.58979199999999998</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
@@ -3032,6 +3122,9 @@
       <c r="C33" s="1">
         <v>1.0438799999999999</v>
       </c>
+      <c r="D33" s="1">
+        <v>0.58845899999999995</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="15">
       <c r="A34" s="1">
@@ -3043,6 +3136,9 @@
       <c r="C34" s="1">
         <v>1.0528299999999999</v>
       </c>
+      <c r="D34" s="1">
+        <v>0.59112500000000001</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="15">
       <c r="A35" s="1">
@@ -3054,7 +3150,9 @@
       <c r="C35" s="8">
         <v>1.04508</v>
       </c>
-      <c r="D35" s="8"/>
+      <c r="D35" s="8">
+        <v>0.58637499999999998</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="15">
       <c r="A36" s="1">
@@ -3066,6 +3164,9 @@
       <c r="C36" s="1">
         <v>1.04071</v>
       </c>
+      <c r="D36" s="1">
+        <v>0.59358299999999997</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15">
       <c r="A37" s="1">
@@ -3077,6 +3178,9 @@
       <c r="C37" s="1">
         <v>1.0595000000000001</v>
       </c>
+      <c r="D37" s="1">
+        <v>0.59424999999999994</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="15">
       <c r="A38" s="1">
@@ -3088,6 +3192,9 @@
       <c r="C38" s="1">
         <v>1.06742</v>
       </c>
+      <c r="D38" s="1">
+        <v>0.58562499999999995</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="15">
       <c r="A39" s="1">
@@ -3099,6 +3206,9 @@
       <c r="C39" s="1">
         <v>1.1179600000000001</v>
       </c>
+      <c r="D39" s="1">
+        <v>0.59362499999999996</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="1">
@@ -3110,6 +3220,9 @@
       <c r="C40" s="1">
         <v>1.02521</v>
       </c>
+      <c r="D40" s="1">
+        <v>0.58820899999999998</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="15">
       <c r="A41" s="1">
@@ -3121,6 +3234,9 @@
       <c r="C41" s="1">
         <v>1.04758</v>
       </c>
+      <c r="D41" s="1">
+        <v>0.58929200000000004</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" s="1">
@@ -3132,6 +3248,9 @@
       <c r="C42" s="1">
         <v>1.1242099999999999</v>
       </c>
+      <c r="D42" s="1">
+        <v>0.58875</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="1">
@@ -3143,6 +3262,9 @@
       <c r="C43" s="1">
         <v>1.0667899999999999</v>
       </c>
+      <c r="D43" s="1">
+        <v>0.58529200000000003</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="1">
@@ -3154,6 +3276,9 @@
       <c r="C44" s="1">
         <v>1.0905800000000001</v>
       </c>
+      <c r="D44" s="1">
+        <v>0.61183299999999996</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="1">
@@ -3165,6 +3290,9 @@
       <c r="C45" s="1">
         <v>1.0279199999999999</v>
       </c>
+      <c r="D45" s="1">
+        <v>0.58504199999999995</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="15">
       <c r="A46" s="1">
@@ -3176,6 +3304,9 @@
       <c r="C46" s="1">
         <v>1.0117499999999999</v>
       </c>
+      <c r="D46" s="1">
+        <v>0.58729200000000004</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="15">
       <c r="A47" s="1">
@@ -3187,6 +3318,9 @@
       <c r="C47" s="1">
         <v>1.04196</v>
       </c>
+      <c r="D47" s="1">
+        <v>0.60250000000000004</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="15">
       <c r="A48" s="1">
@@ -3198,8 +3332,11 @@
       <c r="C48" s="1">
         <v>1.0818300000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="15">
+      <c r="D48" s="1">
+        <v>0.58791700000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3209,8 +3346,11 @@
       <c r="C49" s="1">
         <v>1.09046</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="15">
+      <c r="D49" s="1">
+        <v>0.59129100000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3220,8 +3360,11 @@
       <c r="C50" s="1">
         <v>0.99950000000000006</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="15">
+      <c r="D50" s="1">
+        <v>0.58545800000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3231,8 +3374,11 @@
       <c r="C51" s="1">
         <v>1.0091699999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="15">
+      <c r="D51" s="1">
+        <v>0.592167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3242,8 +3388,11 @@
       <c r="C52" s="1">
         <v>1.0628299999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="15">
+      <c r="D52" s="1">
+        <v>0.58745800000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3253,8 +3402,11 @@
       <c r="C53" s="1">
         <v>1.02921</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="15">
+      <c r="D53" s="1">
+        <v>0.58304100000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3264,8 +3416,11 @@
       <c r="C54" s="1">
         <v>1.0595399999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="15">
+      <c r="D54" s="1">
+        <v>0.612792</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3275,8 +3430,11 @@
       <c r="C55" s="1">
         <v>1.03287</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="15">
+      <c r="D55" s="1">
+        <v>0.612792</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3286,8 +3444,11 @@
       <c r="C56" s="1">
         <v>1.0615399999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="15">
+      <c r="D56" s="1">
+        <v>0.58399999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3297,8 +3458,11 @@
       <c r="C57" s="1">
         <v>1.0976300000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="15">
+      <c r="D57" s="1">
+        <v>0.58912500000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3308,8 +3472,11 @@
       <c r="C58" s="1">
         <v>0.99666699999999997</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="15">
+      <c r="D58" s="1">
+        <v>0.58983300000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3319,8 +3486,11 @@
       <c r="C59" s="1">
         <v>1.0542499999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="15">
+      <c r="D59" s="1">
+        <v>0.58950000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3330,8 +3500,11 @@
       <c r="C60" s="1">
         <v>0.99312500000000004</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="15">
+      <c r="D60" s="1">
+        <v>0.58166700000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3341,8 +3514,11 @@
       <c r="C61" s="1">
         <v>1.05525</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="15">
+      <c r="D61" s="1">
+        <v>0.59816599999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3352,8 +3528,11 @@
       <c r="C62" s="1">
         <v>1.09754</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="15">
+      <c r="D62" s="1">
+        <v>0.58441699999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3363,8 +3542,11 @@
       <c r="C63" s="1">
         <v>1.0362499999999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="15">
+      <c r="D63" s="1">
+        <v>0.58854099999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3374,8 +3556,11 @@
       <c r="C64" s="1">
         <v>1.0738300000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="15">
+      <c r="D64" s="1">
+        <v>0.58470800000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3385,8 +3570,11 @@
       <c r="C65" s="1">
         <v>1.0378799999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="15">
+      <c r="D65" s="1">
+        <v>0.59724999999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3396,8 +3584,11 @@
       <c r="C66" s="1">
         <v>1.0541700000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="15">
+      <c r="D66" s="1">
+        <v>0.58733299999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3407,8 +3598,11 @@
       <c r="C67" s="1">
         <v>1.05233</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="15">
+      <c r="D67" s="1">
+        <v>0.59058299999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3418,8 +3612,11 @@
       <c r="C68" s="1">
         <v>1.0157099999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="15">
+      <c r="D68" s="1">
+        <v>0.59316599999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3429,8 +3626,11 @@
       <c r="C69" s="1">
         <v>1.07179</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="15">
+      <c r="D69" s="1">
+        <v>0.59075</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3440,8 +3640,11 @@
       <c r="C70" s="1">
         <v>1.0382899999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="15">
+      <c r="D70" s="1">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3451,8 +3654,11 @@
       <c r="C71" s="1">
         <v>1.0769200000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="15">
+      <c r="D71" s="1">
+        <v>0.60104100000000005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3462,8 +3668,11 @@
       <c r="C72" s="1">
         <v>1.0994999999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="15">
+      <c r="D72" s="1">
+        <v>0.58945899999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3473,8 +3682,11 @@
       <c r="C73" s="1">
         <v>1.05392</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="15">
+      <c r="D73" s="1">
+        <v>0.58766700000000005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3484,8 +3696,11 @@
       <c r="C74" s="1">
         <v>1.01763</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="15">
+      <c r="D74" s="1">
+        <v>0.58920899999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3495,8 +3710,11 @@
       <c r="C75" s="1">
         <v>1.0070399999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="15">
+      <c r="D75" s="1">
+        <v>0.59337499999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3506,8 +3724,11 @@
       <c r="C76" s="1">
         <v>1.0282500000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="15">
+      <c r="D76" s="1">
+        <v>0.59183300000000005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3517,8 +3738,11 @@
       <c r="C77" s="1">
         <v>1.044</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="15">
+      <c r="D77" s="1">
+        <v>0.58437499999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3528,8 +3752,11 @@
       <c r="C78" s="1">
         <v>1.0165</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="15">
+      <c r="D78" s="1">
+        <v>0.58716599999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3539,8 +3766,11 @@
       <c r="C79" s="1">
         <v>1.0729200000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="15">
+      <c r="D79" s="1">
+        <v>0.58641600000000005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3550,8 +3780,11 @@
       <c r="C80" s="1">
         <v>1.0522499999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="15">
+      <c r="D80" s="1">
+        <v>0.58908300000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3561,8 +3794,11 @@
       <c r="C81" s="1">
         <v>1.02267</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="15">
+      <c r="D81" s="1">
+        <v>0.58783399999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3572,8 +3808,11 @@
       <c r="C82" s="1">
         <v>1.0774600000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="15">
+      <c r="D82" s="1">
+        <v>0.58920799999999995</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3583,8 +3822,11 @@
       <c r="C83" s="1">
         <v>1.0771299999999999</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="15">
+      <c r="D83" s="1">
+        <v>0.59350000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3594,8 +3836,11 @@
       <c r="C84" s="1">
         <v>1.03887</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="15">
+      <c r="D84" s="1">
+        <v>0.59204199999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3605,8 +3850,11 @@
       <c r="C85" s="1">
         <v>1.0509200000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="15">
+      <c r="D85" s="1">
+        <v>0.58841600000000005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3616,8 +3864,11 @@
       <c r="C86" s="1">
         <v>1.0169999999999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="15">
+      <c r="D86" s="1">
+        <v>0.59583299999999995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3627,8 +3878,11 @@
       <c r="C87" s="1">
         <v>1.01963</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="15">
+      <c r="D87" s="1">
+        <v>0.58908300000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3638,8 +3892,11 @@
       <c r="C88" s="1">
         <v>1.1294599999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="15">
+      <c r="D88" s="1">
+        <v>0.58612500000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3649,8 +3906,11 @@
       <c r="C89" s="1">
         <v>1.11408</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="15">
+      <c r="D89" s="1">
+        <v>0.590333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3660,8 +3920,11 @@
       <c r="C90" s="1">
         <v>1.0513699999999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="15">
+      <c r="D90" s="1">
+        <v>0.58404199999999995</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3671,8 +3934,11 @@
       <c r="C91" s="1">
         <v>1.0793299999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="15">
+      <c r="D91" s="1">
+        <v>0.59191700000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3682,8 +3948,11 @@
       <c r="C92" s="1">
         <v>1.0480799999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="15">
+      <c r="D92" s="1">
+        <v>0.58837499999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3693,8 +3962,11 @@
       <c r="C93" s="1">
         <v>1.1282099999999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="15">
+      <c r="D93" s="1">
+        <v>0.58829200000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3704,8 +3976,11 @@
       <c r="C94" s="1">
         <v>1.0673699999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="15">
+      <c r="D94" s="1">
+        <v>0.58516699999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3715,8 +3990,11 @@
       <c r="C95" s="1">
         <v>1.05646</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="15">
+      <c r="D95" s="1">
+        <v>0.58525000000000005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3726,8 +4004,11 @@
       <c r="C96" s="1">
         <v>1.00471</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="15">
+      <c r="D96" s="1">
+        <v>0.58537499999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3737,8 +4018,11 @@
       <c r="C97" s="1">
         <v>1.05254</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="15">
+      <c r="D97" s="1">
+        <v>0.59183300000000005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3748,8 +4032,11 @@
       <c r="C98" s="1">
         <v>1.0230399999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="15">
+      <c r="D98" s="1">
+        <v>0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3759,8 +4046,11 @@
       <c r="C99" s="1">
         <v>1.05592</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="15">
+      <c r="D99" s="1">
+        <v>0.58616699999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3770,8 +4060,11 @@
       <c r="C100" s="1">
         <v>1.0396700000000001</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="15">
+      <c r="D100" s="1">
+        <v>0.59412500000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3781,8 +4074,11 @@
       <c r="C101" s="1">
         <v>1.0947899999999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="15">
+      <c r="D101" s="1">
+        <v>0.59066600000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3791,6 +4087,9 @@
       </c>
       <c r="C102" s="1">
         <v>1.0440400000000001</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.59066700000000005</v>
       </c>
     </row>
   </sheetData>

--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0CCEC6-9C03-A549-BF67-9B86FA386CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C8460F-3B3E-4344-8970-FE67E5CBDA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1080" windowWidth="14460" windowHeight="16720" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="result of all" sheetId="1" r:id="rId1"/>
     <sheet name="ham3tc.tfc" sheetId="2" r:id="rId2"/>
     <sheet name="3_17tc.tfc" sheetId="3" r:id="rId3"/>
+    <sheet name="hwb4tc.tfc" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
   <si>
     <t>ham3tc.tfc</t>
     <phoneticPr fontId="1"/>
@@ -109,6 +110,10 @@
   </si>
   <si>
     <t>hwb5tc.tfc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>num of qubits</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -238,7 +243,201 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Futura Condensed Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -653,28 +852,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}" name="テーブル245656567891011" displayName="テーブル245656567891011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}" name="テーブル245656567891011" displayName="テーブル245656567891011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" headerRowBorderDxfId="17">
   <autoFilter ref="A2:E102" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5BA224EE-6041-F344-B34A-9FBDF29A9510}" name="times" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{6CE03F36-CF34-9645-A348-C61D9EF118B4}" name="sequential" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{874D523F-A842-214F-8959-9A61540A9A8A}" name="multi-thread" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{2D90F0B7-A0EF-694E-91B3-7AF4BD0EADA8}" name="multi-fiber" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{61BBD1D9-647D-CA41-B58E-4467F0EE0459}" name="simd" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{5BA224EE-6041-F344-B34A-9FBDF29A9510}" name="times" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{6CE03F36-CF34-9645-A348-C61D9EF118B4}" name="sequential" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{874D523F-A842-214F-8959-9A61540A9A8A}" name="multi-thread" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{2D90F0B7-A0EF-694E-91B3-7AF4BD0EADA8}" name="multi-fiber" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{61BBD1D9-647D-CA41-B58E-4467F0EE0459}" name="simd" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82584110-A505-4543-82D8-BD808AA930A0}" name="テーブル2456565678910119" displayName="テーブル2456565678910119" ref="A2:E102" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82584110-A505-4543-82D8-BD808AA930A0}" name="テーブル2456565678910119" displayName="テーブル2456565678910119" ref="A2:E102" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="13">
   <autoFilter ref="A2:E102" xr:uid="{82584110-A505-4543-82D8-BD808AA930A0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4D465662-E697-4748-85BF-2F2EC8672C84}" name="times" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{0C48220D-731B-5643-951C-25F8B0805619}" name="sequential" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{7C0B3FE2-B06D-5747-B181-A167826473DE}" name="multi-thread" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{65911D59-AC68-BA43-8B87-7E5380B0D4D6}" name="multi-fiber" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{2FAA4EBB-E04F-1944-B3F3-4D62E902DC12}" name="simd" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4D465662-E697-4748-85BF-2F2EC8672C84}" name="times" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{0C48220D-731B-5643-951C-25F8B0805619}" name="sequential" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{7C0B3FE2-B06D-5747-B181-A167826473DE}" name="multi-thread" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{65911D59-AC68-BA43-8B87-7E5380B0D4D6}" name="multi-fiber" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{2FAA4EBB-E04F-1944-B3F3-4D62E902DC12}" name="simd" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A8FAC881-4731-7343-8EE9-42A5625B15C1}" name="テーブル245656567891011910" displayName="テーブル245656567891011910" ref="A2:E102" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="5">
+  <autoFilter ref="A2:E102" xr:uid="{A8FAC881-4731-7343-8EE9-42A5625B15C1}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7DC7A093-2326-6B4A-992F-B923642F87F8}" name="times" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{42430DD7-77E9-8149-9C1C-7264A4F0C9D0}" name="sequential" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{4F06783E-DB05-0749-B697-3DD162D0AD11}" name="multi-thread" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{5602D008-1E02-6045-9F32-7E6B7BB91324}" name="multi-fiber" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{DC415C3C-6475-3F44-AAB7-A763B098F097}" name="simd" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -997,130 +1210,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCC3EA3-5E50-2748-BD2A-C2B8CF08A0DE}">
-  <dimension ref="A2:H10"/>
+  <dimension ref="A2:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="9"/>
-    <col min="3" max="3" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="9"/>
+    <col min="1" max="1" width="10.7109375" style="9"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="9"/>
+    <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="E2" s="10" t="s">
+    <row r="2" spans="1:9">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" s="9" t="s">
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
         <v>5</v>
       </c>
-      <c r="C4" s="9">
+      <c r="D4" s="9">
         <v>7</v>
       </c>
-      <c r="E4" s="9">
+      <c r="F4" s="9">
         <f>ham3tc.tfc!I10</f>
         <v>0.28040207000000017</v>
       </c>
-      <c r="F4" s="9">
+      <c r="G4" s="9">
         <f>ham3tc.tfc!J10</f>
         <v>0.72422496999999975</v>
       </c>
-      <c r="G4" s="9">
+      <c r="H4" s="9">
         <f>ham3tc.tfc!K10</f>
         <v>0.45461163999999998</v>
       </c>
-      <c r="H4" s="9" t="e">
+      <c r="I4" s="9" t="e">
         <f>ham3tc.tfc!L10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
         <v>6</v>
       </c>
-      <c r="C5" s="9">
+      <c r="D5" s="9">
         <v>12</v>
       </c>
-      <c r="E5" s="9" t="e">
+      <c r="F5" s="9">
         <f>'3_17tc.tfc'!I10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="9" t="e">
+        <v>0.36803301999999993</v>
+      </c>
+      <c r="G5" s="9">
         <f>'3_17tc.tfc'!J10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="9" t="e">
+        <v>1.05358353</v>
+      </c>
+      <c r="H5" s="9">
         <f>'3_17tc.tfc'!K10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" s="9" t="e">
+        <v>0.58978542000000034</v>
+      </c>
+      <c r="I5" s="9" t="e">
         <f>'3_17tc.tfc'!L10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
+        <v>17</v>
+      </c>
+      <c r="D6" s="9">
+        <v>63</v>
+      </c>
+      <c r="F6" s="9">
+        <f>hwb4tc.tfc!I10</f>
+        <v>0.94499502999999985</v>
+      </c>
+      <c r="G6" s="9" t="e">
+        <f>hwb4tc.tfc!J10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" s="9" t="e">
+        <f>hwb4tc.tfc!K10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="9" t="e">
+        <f>hwb4tc.tfc!L10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1131,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5683DF-DD1F-914F-B880-0E0A08994056}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -2620,8 +2869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662F5CEE-B597-0941-966B-E319678C9A58}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
@@ -2662,31 +2911,85 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3" s="1">
+        <v>0.41320800000000002</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.94429099999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.58833299999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" s="1">
+        <v>0.37808399999999998</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.0780799999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.59012500000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" s="1">
+        <v>0.37537500000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.0666199999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.58233400000000002</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6" s="1">
+        <v>0.39066699999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.0716699999999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.59083399999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" s="1">
+        <v>0.36683300000000002</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.0794999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.58983399999999997</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8" s="1">
+        <v>0.36904100000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.0395399999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.58625000000000005</v>
+      </c>
       <c r="I8" s="7" t="s">
         <v>9</v>
       </c>
@@ -2698,6 +3001,15 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9" s="1">
+        <v>0.36583399999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.02979</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.58945899999999996</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2715,17 +3027,26 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="I10" s="1" t="e">
+      <c r="B10" s="1">
+        <v>0.36375000000000002</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.04992</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.58316599999999996</v>
+      </c>
+      <c r="I10" s="1">
         <f>AVERAGE(テーブル2456565678910119[sequential])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" s="1" t="e">
+        <v>0.36803301999999993</v>
+      </c>
+      <c r="J10" s="1">
         <f>AVERAGE(テーブル2456565678910119[multi-thread])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="1" t="e">
+        <v>1.05358353</v>
+      </c>
+      <c r="K10" s="1">
         <f>AVERAGE(テーブル2456565678910119[multi-fiber])</f>
-        <v>#DIV/0!</v>
+        <v>0.58978542000000034</v>
       </c>
       <c r="L10" s="1" t="e">
         <f>AVERAGE(テーブル2456565678910119[simd])</f>
@@ -2736,462 +3057,2179 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11" s="1">
+        <v>0.36925000000000002</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.0449600000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.58474999999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12" s="1">
+        <v>0.36749999999999999</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.04521</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.58612500000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13" s="1">
+        <v>0.36933300000000002</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.06467</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.58620799999999995</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14" s="1">
+        <v>0.36554199999999998</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.0778300000000001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.589167</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15" s="1">
+        <v>0.36333300000000002</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.07883</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.58745800000000004</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15">
+      <c r="B16" s="1">
+        <v>0.37070799999999998</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.59566600000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15">
+      <c r="B17" s="1">
+        <v>0.36375000000000002</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.02525</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.58550000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="15">
+      <c r="B18" s="1">
+        <v>0.36133300000000002</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.0260800000000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.58787500000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="15">
+      <c r="B19" s="1">
+        <v>0.370417</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.05775</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.58770800000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="15">
+      <c r="B20" s="1">
+        <v>0.36241699999999999</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.05942</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.58925000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="15">
+      <c r="B21" s="1">
+        <v>0.36162499999999997</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.0523800000000001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.59250000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="15">
+      <c r="B22" s="1">
+        <v>0.36508299999999999</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.0551299999999999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.59354200000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="15">
+      <c r="B23" s="1">
+        <v>0.372917</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.0940799999999999</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.58812500000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="15">
+      <c r="B24" s="1">
+        <v>0.362792</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.07308</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.589333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="15">
+      <c r="B25" s="1">
+        <v>0.36383399999999999</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.0603800000000001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.593584</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="15">
+      <c r="B26" s="1">
+        <v>0.36775000000000002</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.06196</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.59366699999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="15">
+      <c r="B27" s="1">
+        <v>0.36912499999999998</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.0382100000000001</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.582542</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="15">
+      <c r="B28" s="1">
+        <v>0.37112499999999998</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.0657099999999999</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.58791700000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="15">
+      <c r="B29" s="1">
+        <v>0.37087500000000001</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.0801700000000001</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.58512500000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="15">
+      <c r="B30" s="1">
+        <v>0.36637500000000001</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.03383</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.58516699999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="15">
+      <c r="B31" s="1">
+        <v>0.37187500000000001</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.05908</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.59112500000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15">
       <c r="A32" s="1">
         <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.36829200000000001</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1.0102100000000001</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.58979199999999998</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
+      <c r="B33" s="1">
+        <v>0.371583</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.0438799999999999</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.58845899999999995</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
+      <c r="B34" s="1">
+        <v>0.36812499999999998</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1.0528299999999999</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.59112500000000001</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="B35" s="1">
+        <v>0.36475000000000002</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1.04508</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0.58637499999999998</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
+      <c r="B36" s="1">
+        <v>0.360209</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1.04071</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.59358299999999997</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
+      <c r="B37" s="1">
+        <v>0.37025000000000002</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.0595000000000001</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.59424999999999994</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
+      <c r="B38" s="1">
+        <v>0.36645899999999998</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.06742</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.58562499999999995</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
+      <c r="B39" s="1">
+        <v>0.36741699999999999</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1.1179600000000001</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.59362499999999996</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
+      <c r="B40" s="1">
+        <v>0.37774999999999997</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1.02521</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.58820899999999998</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
+      <c r="B41" s="1">
+        <v>0.36666700000000002</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1.04758</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.58929200000000004</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
+      <c r="B42" s="1">
+        <v>0.36729200000000001</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1.1242099999999999</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.58875</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
+      <c r="B43" s="1">
+        <v>0.36712499999999998</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.0667899999999999</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.58529200000000003</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
+      <c r="B44" s="1">
+        <v>0.36737500000000001</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1.0905800000000001</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.61183299999999996</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
+      <c r="B45" s="1">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.0279199999999999</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.58504199999999995</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
+      <c r="B46" s="1">
+        <v>0.36904199999999998</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1.0117499999999999</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.58729200000000004</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
+      <c r="B47" s="1">
+        <v>0.36720900000000001</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1.04196</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.60250000000000004</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="15">
+      <c r="B48" s="1">
+        <v>0.36758400000000002</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1.0818300000000001</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.58791700000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="15">
+      <c r="B49" s="1">
+        <v>0.36658299999999999</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1.09046</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.59129100000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="15">
+      <c r="B50" s="1">
+        <v>0.36458400000000002</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.58545800000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="15">
+      <c r="B51" s="1">
+        <v>0.36929200000000001</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1.0091699999999999</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.592167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="15">
+      <c r="B52" s="1">
+        <v>0.36649999999999999</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1.0628299999999999</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.58745800000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="15">
+      <c r="B53" s="1">
+        <v>0.368834</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1.02921</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.58304100000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="15">
+      <c r="B54" s="1">
+        <v>0.36787500000000001</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1.0595399999999999</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.612792</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="15">
+      <c r="B55" s="1">
+        <v>0.37045899999999998</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1.03287</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.612792</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="15">
+      <c r="B56" s="1">
+        <v>0.37295899999999998</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1.0615399999999999</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.58399999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="15">
+      <c r="B57" s="1">
+        <v>0.36349999999999999</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1.0976300000000001</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.58912500000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="15">
+      <c r="B58" s="1">
+        <v>0.36579200000000001</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.99666699999999997</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.58983300000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="15">
+      <c r="B59" s="1">
+        <v>0.37033300000000002</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1.0542499999999999</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.58950000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="15">
+      <c r="B60" s="1">
+        <v>0.36175000000000002</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.99312500000000004</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.58166700000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="15">
+      <c r="B61" s="1">
+        <v>0.36149999999999999</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1.05525</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.59816599999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="15">
+      <c r="B62" s="1">
+        <v>0.36858400000000002</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1.09754</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.58441699999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" ht="15">
+      <c r="B63" s="1">
+        <v>0.363875</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1.0362499999999999</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.58854099999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="15">
+      <c r="B64" s="1">
+        <v>0.36566700000000002</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1.0738300000000001</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.58470800000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="15">
+      <c r="B65" s="1">
+        <v>0.36537500000000001</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1.0378799999999999</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.59724999999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="15">
+      <c r="B66" s="1">
+        <v>0.362375</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1.0541700000000001</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.58733299999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="15">
+      <c r="B67" s="1">
+        <v>0.37087500000000001</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1.05233</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.59058299999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="15">
+      <c r="B68" s="1">
+        <v>0.362792</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1.0157099999999999</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.59316599999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="15">
+      <c r="B69" s="1">
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1.07179</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.59075</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="15">
+      <c r="B70" s="1">
+        <v>0.36858400000000002</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1.0382899999999999</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="15">
+      <c r="B71" s="1">
+        <v>0.36612499999999998</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1.0769200000000001</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.60104100000000005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="15">
+      <c r="B72" s="1">
+        <v>0.363875</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1.0994999999999999</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.58945899999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="15">
+      <c r="B73" s="1">
+        <v>0.364375</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1.05392</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.58766700000000005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" ht="15">
+      <c r="B74" s="1">
+        <v>0.36929200000000001</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1.01763</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.58920899999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="15">
+      <c r="B75" s="1">
+        <v>0.365541</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1.0070399999999999</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.59337499999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="15">
+      <c r="B76" s="1">
+        <v>0.36295899999999998</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1.0282500000000001</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.59183300000000005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" ht="15">
+      <c r="B77" s="1">
+        <v>0.36449999999999999</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1.044</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.58437499999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="15">
+      <c r="B78" s="1">
+        <v>0.36925000000000002</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1.0165</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.58716599999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" ht="15">
+      <c r="B79" s="1">
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1.0729200000000001</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.58641600000000005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="15">
+      <c r="B80" s="1">
+        <v>0.36925000000000002</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1.0522499999999999</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.58908300000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="15">
+      <c r="B81" s="1">
+        <v>0.36937500000000001</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1.02267</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.58783399999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="15">
+      <c r="B82" s="1">
+        <v>0.37987500000000002</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1.0774600000000001</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.58920799999999995</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="15">
+      <c r="B83" s="1">
+        <v>0.36412499999999998</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1.0771299999999999</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.59350000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="15">
+      <c r="B84" s="1">
+        <v>0.36658299999999999</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1.03887</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.59204199999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="15">
+      <c r="B85" s="1">
+        <v>0.36483300000000002</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1.0509200000000001</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.58841600000000005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="15">
+      <c r="B86" s="1">
+        <v>0.36316700000000002</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.59583299999999995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" ht="15">
+      <c r="B87" s="1">
+        <v>0.36408299999999999</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1.01963</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.58908300000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="15">
+      <c r="B88" s="1">
+        <v>0.36591699999999999</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1.1294599999999999</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.58612500000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" ht="15">
+      <c r="B89" s="1">
+        <v>0.36749999999999999</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1.11408</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.590333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" ht="15">
+      <c r="B90" s="1">
+        <v>0.36870799999999998</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1.0513699999999999</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.58404199999999995</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" ht="15">
+      <c r="B91" s="1">
+        <v>0.36891600000000002</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1.0793299999999999</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.59191700000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="15">
+      <c r="B92" s="1">
+        <v>0.36616700000000002</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1.0480799999999999</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.58837499999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" ht="15">
+      <c r="B93" s="1">
+        <v>0.36116700000000002</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1.1282099999999999</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.58829200000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" ht="15">
+      <c r="B94" s="1">
+        <v>0.36679200000000001</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1.0673699999999999</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.58516699999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" ht="15">
+      <c r="B95" s="1">
+        <v>0.36258400000000002</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1.05646</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.58525000000000005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="15">
+      <c r="B96" s="1">
+        <v>0.36616700000000002</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1.00471</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.58537499999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="15">
+      <c r="B97" s="1">
+        <v>0.36791699999999999</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1.05254</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.59183300000000005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="15">
+      <c r="B98" s="1">
+        <v>0.36825000000000002</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1.0230399999999999</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="15">
+      <c r="B99" s="1">
+        <v>0.37887500000000002</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1.05592</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.58616699999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="15">
+      <c r="B100" s="1">
+        <v>0.36749999999999999</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1.0396700000000001</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.59412500000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" ht="15">
+      <c r="B101" s="1">
+        <v>0.36370799999999998</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1.0947899999999999</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.59066600000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15">
       <c r="A102" s="1">
         <v>100</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0.37795800000000002</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1.0440400000000001</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.59066700000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I8:L8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A75A410-8138-534C-A775-8CEAA3E70A72}">
+  <dimension ref="A1:L102"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.95474999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.94683300000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.95504199999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.93870799999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.94987500000000002</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" ht="15">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.957959</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="I10" s="1">
+        <f>AVERAGE(テーブル245656567891011910[sequential])</f>
+        <v>0.94499502999999985</v>
+      </c>
+      <c r="J10" s="1" t="e">
+        <f>AVERAGE(テーブル245656567891011910[multi-thread])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="1" t="e">
+        <f>AVERAGE(テーブル245656567891011910[multi-fiber])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="1" t="e">
+        <f>AVERAGE(テーブル245656567891011910[simd])</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.93679199999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.94429099999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.94037499999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.94433400000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.96425000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.94550000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.93925000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.95762499999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.94625000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.94225000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.94279199999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.95570900000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.93983300000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.94254199999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.952125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.94229200000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.93666700000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.95091599999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.93979199999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.93737499999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.95166600000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.94574999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.93425000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.93337499999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.94641600000000004</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" ht="15">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.94304200000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.93845800000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.94725000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.93987500000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.94420800000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.93825000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.94037499999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.940917</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.96520799999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.94020899999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.93858299999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.96741600000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.94566700000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.93433299999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.94825000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.94154199999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.94025000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.94237499999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.94220800000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.94374999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.94062500000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.94270900000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.94404200000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.94370799999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.94620800000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.96137499999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.94695799999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.94612499999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.94487500000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.94508300000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.9395</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0.94274999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.95191700000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.95854200000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.940917</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.94850000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.93758300000000006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.94608300000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.94583399999999995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.95066700000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0.93566700000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.95025000000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.94350000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.94104100000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0.94020899999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0.93583300000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.93908400000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.94695799999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0.96283399999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.96058299999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.94616599999999995</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0.950959</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0.94262500000000005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0.93954199999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0.94108400000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0.94137499999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0.94033299999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0.9355</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0.94337499999999996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0.94162500000000005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0.94379199999999996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0.96174999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0.93587500000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0.94779199999999997</v>
       </c>
     </row>
   </sheetData>

--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C8460F-3B3E-4344-8970-FE67E5CBDA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2A1282-A330-2F45-8ED7-1940BCE2191B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1080" windowWidth="14460" windowHeight="16720" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="14440" windowHeight="16440" activeTab="1" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
   <sheets>
     <sheet name="result of all" sheetId="1" r:id="rId1"/>
@@ -1212,7 +1212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCC3EA3-5E50-2748-BD2A-C2B8CF08A0DE}">
   <dimension ref="A2:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+    <sheetView zoomScale="113" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1272,15 +1272,15 @@
       </c>
       <c r="F4" s="9">
         <f>ham3tc.tfc!I10</f>
-        <v>0.28040207000000017</v>
-      </c>
-      <c r="G4" s="9">
+        <v>0.22538257000000009</v>
+      </c>
+      <c r="G4" s="9" t="e">
         <f>ham3tc.tfc!J10</f>
-        <v>0.72422496999999975</v>
-      </c>
-      <c r="H4" s="9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H4" s="9" t="e">
         <f>ham3tc.tfc!K10</f>
-        <v>0.45461163999999998</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I4" s="9" t="e">
         <f>ham3tc.tfc!L10</f>
@@ -1300,17 +1300,17 @@
       <c r="D5" s="9">
         <v>12</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="9" t="e">
         <f>'3_17tc.tfc'!I10</f>
-        <v>0.36803301999999993</v>
-      </c>
-      <c r="G5" s="9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" s="9" t="e">
         <f>'3_17tc.tfc'!J10</f>
-        <v>1.05358353</v>
-      </c>
-      <c r="H5" s="9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" s="9" t="e">
         <f>'3_17tc.tfc'!K10</f>
-        <v>0.58978542000000034</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I5" s="9" t="e">
         <f>'3_17tc.tfc'!L10</f>
@@ -1330,9 +1330,9 @@
       <c r="D6" s="9">
         <v>63</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="9" t="e">
         <f>hwb4tc.tfc!I10</f>
-        <v>0.94499502999999985</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G6" s="9" t="e">
         <f>hwb4tc.tfc!J10</f>
@@ -1380,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5683DF-DD1F-914F-B880-0E0A08994056}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -1423,13 +1423,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.27379199999999998</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.73154200000000003</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.45074999999999998</v>
+        <v>0.222167</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1437,13 +1431,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.27545900000000001</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.45758300000000002</v>
+        <v>0.22783400000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1451,13 +1439,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.28108300000000003</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.74820900000000001</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.46937499999999999</v>
+        <v>0.22304199999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1465,13 +1447,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.278916</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.71920899999999999</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.46904200000000001</v>
+        <v>0.224333</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1479,13 +1455,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.28175</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.72370800000000002</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.454125</v>
+        <v>0.22179099999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1493,13 +1463,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.27687499999999998</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.45241700000000001</v>
+        <v>0.22212499999999999</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>9</v>
@@ -1513,13 +1477,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.278833</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.72966699999999995</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.45587499999999997</v>
+        <v>0.22583300000000001</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
@@ -1539,25 +1497,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.28162500000000001</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.73445800000000006</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.45124999999999998</v>
+        <v>0.228459</v>
       </c>
       <c r="I10" s="1">
         <f>AVERAGE(テーブル245656567891011[sequential])</f>
-        <v>0.28040207000000017</v>
-      </c>
-      <c r="J10" s="1">
+        <v>0.22538257000000009</v>
+      </c>
+      <c r="J10" s="1" t="e">
         <f>AVERAGE(テーブル245656567891011[multi-thread])</f>
-        <v>0.72422496999999975</v>
-      </c>
-      <c r="K10" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="1" t="e">
         <f>AVERAGE(テーブル245656567891011[multi-fiber])</f>
-        <v>0.45461163999999998</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L10" s="1" t="e">
         <f>AVERAGE(テーブル245656567891011[simd])</f>
@@ -1569,13 +1521,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.28012500000000001</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.68754199999999999</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.45174999999999998</v>
+        <v>0.22254199999999999</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1583,13 +1529,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0.27929100000000001</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.449791</v>
+        <v>0.21995799999999999</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1597,13 +1537,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>0.277916</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.70037499999999997</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.45500000000000002</v>
+        <v>0.22554199999999999</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1611,13 +1545,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>0.27787499999999998</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.730541</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.45591700000000002</v>
+        <v>0.22525000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1625,13 +1553,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0.27862500000000001</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.86458299999999999</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.451625</v>
+        <v>0.23008400000000001</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1639,237 +1561,135 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>0.27670800000000001</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.76708399999999999</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.45508300000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.222666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>0.27524999999999999</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.74679200000000001</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.45350000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.22566700000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>0.276667</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.72795799999999999</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.46033299999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.22679199999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.27441700000000002</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.75004099999999996</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.456208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.222334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.72358299999999998</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.451542</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.223166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>0.27812500000000001</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.75145799999999996</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.45229200000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.22758400000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>0.27679100000000001</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.71429200000000004</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.45291599999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.22737499999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>0.276167</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.69841699999999995</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.448542</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.22541700000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>0.27795799999999998</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.68087500000000001</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.45629199999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.22429099999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>0.27891700000000003</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.71033299999999999</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.44879200000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.22758300000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>0.28345799999999999</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.71775</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.46987499999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.221584</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>0.27708300000000002</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.72291700000000003</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.46220800000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>0.22137499999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>0.30033399999999999</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.71329200000000004</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.451708</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.23175000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>0.295958</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0.72795799999999999</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.46162500000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.22079199999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.70820799999999995</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.466916</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.22679199999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.72279199999999999</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.45120900000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.22654199999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>0.34825</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.71458299999999997</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.45537499999999997</v>
+        <v>0.224333</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1877,13 +1697,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>0.280167</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.74895800000000001</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.45341599999999999</v>
+        <v>0.22766700000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1891,13 +1705,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>0.28129199999999999</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0.72941599999999995</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.455542</v>
+        <v>0.22175</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1905,27 +1713,17 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>0.277084</v>
-      </c>
-      <c r="C35" s="8">
-        <v>0.71266700000000005</v>
-      </c>
-      <c r="D35" s="8">
-        <v>0.45241599999999998</v>
-      </c>
+        <v>0.22441700000000001</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>0.27925</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0.70837499999999998</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.44883299999999998</v>
+        <v>0.22766700000000001</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1933,13 +1731,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>0.28354200000000002</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0.70441699999999996</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0.452459</v>
+        <v>0.22483300000000001</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1947,13 +1739,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>0.27170800000000001</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.75791699999999995</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0.44850000000000001</v>
+        <v>0.22454199999999999</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1961,13 +1747,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>0.27474999999999999</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0.69791599999999998</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0.46600000000000003</v>
+        <v>0.222583</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1975,13 +1755,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>0.280833</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0.44829200000000002</v>
+        <v>0.22495799999999999</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1989,13 +1763,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>0.27583299999999999</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0.71829200000000004</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0.44783299999999998</v>
+        <v>0.22583300000000001</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2003,13 +1771,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>0.28062500000000001</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0.72950000000000004</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0.45033299999999998</v>
+        <v>0.22345899999999999</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2017,13 +1779,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>0.279667</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0.67966599999999999</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0.45137500000000003</v>
+        <v>0.220834</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2031,13 +1787,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>0.28445900000000002</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0.453208</v>
+        <v>0.22075</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2045,13 +1795,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>0.279167</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0.72479099999999996</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0.45474999999999999</v>
+        <v>0.23633299999999999</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2059,13 +1803,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>0.27750000000000002</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0.74887499999999996</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0.45987499999999998</v>
+        <v>0.22304199999999999</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2073,13 +1811,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>0.27912500000000001</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0.70416599999999996</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0.45420899999999997</v>
+        <v>0.22895799999999999</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2087,769 +1819,439 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>0.27341700000000002</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0.745</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0.45008399999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.221916</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>0.27487499999999998</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0.69895799999999997</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0.46920800000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.22608400000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>0.276916</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0.68116699999999997</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0.44829200000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.22329199999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>0.27483299999999999</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0.72445800000000005</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0.44916699999999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.22470799999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>0.28345799999999999</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0.75349999999999995</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0.45024999999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.22312499999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>0.28037499999999999</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0.73479099999999997</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0.451542</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.22708400000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>0.27895799999999998</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0.68187500000000001</v>
-      </c>
-      <c r="D54" s="1">
-        <v>0.45120900000000003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.22787499999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>0.27879199999999998</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0.72366699999999995</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0.451042</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.228959</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>0.282833</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0.73716599999999999</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0.45037500000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.22270799999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>0.28162500000000001</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0.70933299999999999</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0.44850000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.22275</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>0.28249999999999997</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0.76395800000000003</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0.457042</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.22966700000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>0.27312500000000001</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0.72483299999999995</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0.45645799999999997</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>0.27758300000000002</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0.69620899999999997</v>
-      </c>
-      <c r="D60" s="1">
-        <v>0.45141700000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.22816600000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="1">
-        <v>0.277584</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0.74495800000000001</v>
-      </c>
-      <c r="D61" s="1">
-        <v>0.45287500000000003</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.22245799999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="1">
-        <v>0.29262500000000002</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0.75345799999999996</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0.449959</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.22587499999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>0.28404200000000002</v>
-      </c>
-      <c r="C63" s="1">
-        <v>0.71004100000000003</v>
-      </c>
-      <c r="D63" s="1">
-        <v>0.471333</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.222667</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="C64" s="1">
-        <v>0.80308400000000002</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0.45800000000000002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>0.28295900000000002</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0.72383399999999998</v>
-      </c>
-      <c r="D65" s="1">
-        <v>0.45545799999999997</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.22608300000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>0.27695900000000001</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0.71012500000000001</v>
-      </c>
-      <c r="D66" s="1">
-        <v>0.455125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.223833</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>0.29358299999999998</v>
-      </c>
-      <c r="C67" s="1">
-        <v>0.71329200000000004</v>
-      </c>
-      <c r="D67" s="1">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.222667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="1">
-        <v>0.27383400000000002</v>
-      </c>
-      <c r="C68" s="1">
-        <v>0.72887500000000005</v>
-      </c>
-      <c r="D68" s="1">
-        <v>0.45395799999999997</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.22075</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="1">
-        <v>0.27845799999999998</v>
-      </c>
-      <c r="C69" s="1">
-        <v>0.70470900000000003</v>
-      </c>
-      <c r="D69" s="1">
-        <v>0.45374999999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.22541700000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>0.27912500000000001</v>
-      </c>
-      <c r="C70" s="1">
-        <v>0.71325000000000005</v>
-      </c>
-      <c r="D70" s="1">
-        <v>0.45241700000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.22575000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="1">
-        <v>0.27687499999999998</v>
-      </c>
-      <c r="C71" s="1">
-        <v>0.71483399999999997</v>
-      </c>
-      <c r="D71" s="1">
-        <v>0.45279199999999997</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.223584</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="1">
-        <v>0.27812500000000001</v>
-      </c>
-      <c r="C72" s="1">
-        <v>0.71037499999999998</v>
-      </c>
-      <c r="D72" s="1">
-        <v>0.463916</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.22245799999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>0.27508300000000002</v>
-      </c>
-      <c r="C73" s="1">
-        <v>0.73350000000000004</v>
-      </c>
-      <c r="D73" s="1">
-        <v>0.45191700000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.22891600000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>0.27870800000000001</v>
-      </c>
-      <c r="C74" s="1">
-        <v>0.75329199999999996</v>
-      </c>
-      <c r="D74" s="1">
-        <v>0.45445799999999997</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.223583</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>0.276333</v>
-      </c>
-      <c r="C75" s="1">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="D75" s="1">
-        <v>0.45008300000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.22404199999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="1">
-        <v>0.28016600000000003</v>
-      </c>
-      <c r="C76" s="1">
-        <v>0.76545799999999997</v>
-      </c>
-      <c r="D76" s="1">
-        <v>0.45791700000000002</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.22512499999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>0.27604099999999998</v>
-      </c>
-      <c r="C77" s="1">
-        <v>0.64704200000000001</v>
-      </c>
-      <c r="D77" s="1">
-        <v>0.45191700000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.22895799999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="1">
-        <v>0.278416</v>
-      </c>
-      <c r="C78" s="1">
-        <v>0.74420900000000001</v>
-      </c>
-      <c r="D78" s="1">
-        <v>0.45016600000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.22554199999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>0.277667</v>
-      </c>
-      <c r="C79" s="1">
-        <v>0.721333</v>
-      </c>
-      <c r="D79" s="1">
-        <v>0.452208</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.22875000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>0.27787499999999998</v>
-      </c>
-      <c r="C80" s="1">
-        <v>0.77112499999999995</v>
-      </c>
-      <c r="D80" s="1">
-        <v>0.45324999999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.22275</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="1">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="C81" s="1">
-        <v>0.68033299999999997</v>
-      </c>
-      <c r="D81" s="1">
-        <v>0.48025000000000001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.22537499999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>0.278333</v>
-      </c>
-      <c r="C82" s="1">
-        <v>0.73350000000000004</v>
-      </c>
-      <c r="D82" s="1">
-        <v>0.466333</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.22891600000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="1">
-        <v>0.28833300000000001</v>
-      </c>
-      <c r="C83" s="1">
-        <v>0.75575000000000003</v>
-      </c>
-      <c r="D83" s="1">
-        <v>0.44991700000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.23083400000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="1">
-        <v>0.28704200000000002</v>
-      </c>
-      <c r="C84" s="1">
-        <v>0.71795799999999999</v>
-      </c>
-      <c r="D84" s="1">
-        <v>0.45974999999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.22320899999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>0.27862500000000001</v>
-      </c>
-      <c r="C85" s="1">
-        <v>0.66108299999999998</v>
-      </c>
-      <c r="D85" s="1">
-        <v>0.451791</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.22620799999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="1">
-        <v>0.33879199999999998</v>
-      </c>
-      <c r="C86" s="1">
-        <v>0.72841599999999995</v>
-      </c>
-      <c r="D86" s="1">
-        <v>0.450542</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.22629199999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" s="1">
-        <v>0.27604099999999998</v>
-      </c>
-      <c r="C87" s="1">
-        <v>0.71583300000000005</v>
-      </c>
-      <c r="D87" s="1">
-        <v>0.45341700000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.22537499999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" s="1">
-        <v>0.27954200000000001</v>
-      </c>
-      <c r="C88" s="1">
-        <v>0.69166700000000003</v>
-      </c>
-      <c r="D88" s="1">
-        <v>0.46108300000000002</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.23566699999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" s="1">
-        <v>0.26983400000000002</v>
-      </c>
-      <c r="C89" s="1">
-        <v>0.75841700000000001</v>
-      </c>
-      <c r="D89" s="1">
-        <v>0.45174999999999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.22225</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" s="1">
-        <v>0.28120800000000001</v>
-      </c>
-      <c r="C90" s="1">
-        <v>0.73320799999999997</v>
-      </c>
-      <c r="D90" s="1">
-        <v>0.45200000000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.22883300000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" s="1">
-        <v>0.27854099999999998</v>
-      </c>
-      <c r="C91" s="1">
-        <v>0.713916</v>
-      </c>
-      <c r="D91" s="1">
-        <v>0.45045800000000003</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.22691700000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" s="1">
-        <v>0.27629199999999998</v>
-      </c>
-      <c r="C92" s="1">
-        <v>0.71587500000000004</v>
-      </c>
-      <c r="D92" s="1">
-        <v>0.44874999999999998</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.22583300000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" s="1">
-        <v>0.27870800000000001</v>
-      </c>
-      <c r="C93" s="1">
-        <v>0.69137499999999996</v>
-      </c>
-      <c r="D93" s="1">
-        <v>0.44987500000000002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.22320899999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" s="1">
-        <v>0.28145799999999999</v>
-      </c>
-      <c r="C94" s="1">
-        <v>0.72070800000000002</v>
-      </c>
-      <c r="D94" s="1">
-        <v>0.45191700000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.22445899999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" s="1">
-        <v>0.27654200000000001</v>
-      </c>
-      <c r="C95" s="1">
-        <v>0.68883399999999995</v>
-      </c>
-      <c r="D95" s="1">
-        <v>0.452291</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.234875</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" s="1">
-        <v>0.27775</v>
-      </c>
-      <c r="C96" s="1">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="D96" s="1">
-        <v>0.46300000000000002</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="1">
-        <v>0.27470800000000001</v>
-      </c>
-      <c r="C97" s="1">
-        <v>0.70674999999999999</v>
-      </c>
-      <c r="D97" s="1">
-        <v>0.44866600000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.22237499999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" s="1">
-        <v>0.27595900000000001</v>
-      </c>
-      <c r="C98" s="1">
-        <v>0.70979199999999998</v>
-      </c>
-      <c r="D98" s="1">
-        <v>0.455125</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.22179199999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" s="1">
-        <v>0.27529199999999998</v>
-      </c>
-      <c r="C99" s="1">
-        <v>0.74150000000000005</v>
-      </c>
-      <c r="D99" s="1">
-        <v>0.456125</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.22354199999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" s="1">
-        <v>0.27529199999999998</v>
-      </c>
-      <c r="C100" s="1">
-        <v>0.75570800000000005</v>
-      </c>
-      <c r="D100" s="1">
-        <v>0.451625</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.22416700000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" s="1">
-        <v>0.27870899999999998</v>
-      </c>
-      <c r="C101" s="1">
-        <v>0.778667</v>
-      </c>
-      <c r="D101" s="1">
-        <v>0.45341599999999999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.22416700000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" s="1">
-        <v>0.28020800000000001</v>
-      </c>
-      <c r="C102" s="1">
-        <v>0.71837499999999999</v>
-      </c>
-      <c r="D102" s="1">
-        <v>0.45104100000000003</v>
+        <v>0.237791</v>
       </c>
     </row>
   </sheetData>
@@ -2869,8 +2271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662F5CEE-B597-0941-966B-E319678C9A58}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
@@ -2911,85 +2313,31 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.41320800000000002</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.94429099999999999</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.58833299999999999</v>
-      </c>
     </row>
     <row r="4" spans="1:12" ht="15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.37808399999999998</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.0780799999999999</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.59012500000000001</v>
-      </c>
     </row>
     <row r="5" spans="1:12" ht="15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.37537500000000001</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.0666199999999999</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.58233400000000002</v>
-      </c>
     </row>
     <row r="6" spans="1:12" ht="15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.39066699999999999</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.0716699999999999</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.59083399999999997</v>
-      </c>
     </row>
     <row r="7" spans="1:12" ht="15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.36683300000000002</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.0794999999999999</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.58983399999999997</v>
-      </c>
     </row>
     <row r="8" spans="1:12" ht="15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.36904100000000001</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.0395399999999999</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.58625000000000005</v>
-      </c>
       <c r="I8" s="7" t="s">
         <v>9</v>
       </c>
@@ -3001,15 +2349,6 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.36583399999999999</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.02979</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.58945899999999996</v>
-      </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
       </c>
@@ -3027,26 +2366,17 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.36375000000000002</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.04992</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.58316599999999996</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="I10" s="1" t="e">
         <f>AVERAGE(テーブル2456565678910119[sequential])</f>
-        <v>0.36803301999999993</v>
-      </c>
-      <c r="J10" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="1" t="e">
         <f>AVERAGE(テーブル2456565678910119[multi-thread])</f>
-        <v>1.05358353</v>
-      </c>
-      <c r="K10" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="1" t="e">
         <f>AVERAGE(テーブル2456565678910119[multi-fiber])</f>
-        <v>0.58978542000000034</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L10" s="1" t="e">
         <f>AVERAGE(テーブル2456565678910119[simd])</f>
@@ -3057,1288 +2387,462 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.36925000000000002</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.0449600000000001</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.58474999999999999</v>
-      </c>
     </row>
     <row r="12" spans="1:12" ht="15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>0.36749999999999999</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1.04521</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.58612500000000001</v>
-      </c>
     </row>
     <row r="13" spans="1:12" ht="15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.36933300000000002</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1.06467</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.58620799999999995</v>
-      </c>
     </row>
     <row r="14" spans="1:12" ht="15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>0.36554199999999998</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.0778300000000001</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.589167</v>
-      </c>
     </row>
     <row r="15" spans="1:12" ht="15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.36333300000000002</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1.07883</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.58745800000000004</v>
-      </c>
     </row>
     <row r="16" spans="1:12" ht="15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
-        <v>0.37070799999999998</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1.1080000000000001</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.59566600000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15">
+    </row>
+    <row r="17" spans="1:1" ht="15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
-        <v>0.36375000000000002</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1.02525</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.58550000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15">
+    </row>
+    <row r="18" spans="1:1" ht="15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
-        <v>0.36133300000000002</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1.0260800000000001</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.58787500000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15">
+    </row>
+    <row r="19" spans="1:1" ht="15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
-        <v>0.370417</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1.05775</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.58770800000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15">
+    </row>
+    <row r="20" spans="1:1" ht="15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
-        <v>0.36241699999999999</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.05942</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.58925000000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15">
+    </row>
+    <row r="21" spans="1:1" ht="15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
-        <v>0.36162499999999997</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.0523800000000001</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.59250000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15">
+    </row>
+    <row r="22" spans="1:1" ht="15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
-        <v>0.36508299999999999</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1.0551299999999999</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.59354200000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15">
+    </row>
+    <row r="23" spans="1:1" ht="15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
-        <v>0.372917</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1.0940799999999999</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.58812500000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15">
+    </row>
+    <row r="24" spans="1:1" ht="15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
-        <v>0.362792</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1.07308</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.589333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15">
+    </row>
+    <row r="25" spans="1:1" ht="15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
-        <v>0.36383399999999999</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1.0603800000000001</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.593584</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15">
+    </row>
+    <row r="26" spans="1:1" ht="15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
-        <v>0.36775000000000002</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1.06196</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.59366699999999994</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15">
+    </row>
+    <row r="27" spans="1:1" ht="15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="1">
-        <v>0.36912499999999998</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1.0382100000000001</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.582542</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15">
+    </row>
+    <row r="28" spans="1:1" ht="15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="1">
-        <v>0.37112499999999998</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1.0657099999999999</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.58791700000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15">
+    </row>
+    <row r="29" spans="1:1" ht="15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="1">
-        <v>0.37087500000000001</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1.0801700000000001</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.58512500000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15">
+    </row>
+    <row r="30" spans="1:1" ht="15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="1">
-        <v>0.36637500000000001</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1.03383</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.58516699999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15">
+    </row>
+    <row r="31" spans="1:1" ht="15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="1">
-        <v>0.37187500000000001</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1.05908</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.59112500000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15">
+    </row>
+    <row r="32" spans="1:1" ht="15">
       <c r="A32" s="1">
         <v>30</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0.36829200000000001</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1.0102100000000001</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.58979199999999998</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="1">
-        <v>0.371583</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1.0438799999999999</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.58845899999999995</v>
-      </c>
     </row>
     <row r="34" spans="1:4" ht="15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="1">
-        <v>0.36812499999999998</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1.0528299999999999</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.59112500000000001</v>
-      </c>
     </row>
     <row r="35" spans="1:4" ht="15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="1">
-        <v>0.36475000000000002</v>
-      </c>
-      <c r="C35" s="8">
-        <v>1.04508</v>
-      </c>
-      <c r="D35" s="8">
-        <v>0.58637499999999998</v>
-      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" ht="15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="1">
-        <v>0.360209</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1.04071</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.59358299999999997</v>
-      </c>
     </row>
     <row r="37" spans="1:4" ht="15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="1">
-        <v>0.37025000000000002</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1.0595000000000001</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0.59424999999999994</v>
-      </c>
     </row>
     <row r="38" spans="1:4" ht="15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="1">
-        <v>0.36645899999999998</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1.06742</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0.58562499999999995</v>
-      </c>
     </row>
     <row r="39" spans="1:4" ht="15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="1">
-        <v>0.36741699999999999</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1.1179600000000001</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0.59362499999999996</v>
-      </c>
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="1">
-        <v>0.37774999999999997</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1.02521</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0.58820899999999998</v>
-      </c>
     </row>
     <row r="41" spans="1:4" ht="15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="1">
-        <v>0.36666700000000002</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1.04758</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0.58929200000000004</v>
-      </c>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="1">
-        <v>0.36729200000000001</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1.1242099999999999</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0.58875</v>
-      </c>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="1">
-        <v>0.36712499999999998</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1.0667899999999999</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0.58529200000000003</v>
-      </c>
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="1">
-        <v>0.36737500000000001</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1.0905800000000001</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0.61183299999999996</v>
-      </c>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="1">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1.0279199999999999</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0.58504199999999995</v>
-      </c>
     </row>
     <row r="46" spans="1:4" ht="15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="1">
-        <v>0.36904199999999998</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1.0117499999999999</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0.58729200000000004</v>
-      </c>
     </row>
     <row r="47" spans="1:4" ht="15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="1">
-        <v>0.36720900000000001</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1.04196</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0.60250000000000004</v>
-      </c>
     </row>
     <row r="48" spans="1:4" ht="15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="1">
-        <v>0.36758400000000002</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1.0818300000000001</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0.58791700000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15">
+    </row>
+    <row r="49" spans="1:1" ht="15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="1">
-        <v>0.36658299999999999</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1.09046</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0.59129100000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15">
+    </row>
+    <row r="50" spans="1:1" ht="15">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="1">
-        <v>0.36458400000000002</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0.99950000000000006</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0.58545800000000003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15">
+    </row>
+    <row r="51" spans="1:1" ht="15">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="1">
-        <v>0.36929200000000001</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1.0091699999999999</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0.592167</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15">
+    </row>
+    <row r="52" spans="1:1" ht="15">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="1">
-        <v>0.36649999999999999</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1.0628299999999999</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0.58745800000000004</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15">
+    </row>
+    <row r="53" spans="1:1" ht="15">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="1">
-        <v>0.368834</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1.02921</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0.58304100000000003</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15">
+    </row>
+    <row r="54" spans="1:1" ht="15">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="1">
-        <v>0.36787500000000001</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1.0595399999999999</v>
-      </c>
-      <c r="D54" s="1">
-        <v>0.612792</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15">
+    </row>
+    <row r="55" spans="1:1" ht="15">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="1">
-        <v>0.37045899999999998</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1.03287</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0.612792</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15">
+    </row>
+    <row r="56" spans="1:1" ht="15">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="1">
-        <v>0.37295899999999998</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1.0615399999999999</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0.58399999999999996</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15">
+    </row>
+    <row r="57" spans="1:1" ht="15">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="1">
-        <v>0.36349999999999999</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1.0976300000000001</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0.58912500000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15">
+    </row>
+    <row r="58" spans="1:1" ht="15">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="1">
-        <v>0.36579200000000001</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0.99666699999999997</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0.58983300000000005</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15">
+    </row>
+    <row r="59" spans="1:1" ht="15">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="1">
-        <v>0.37033300000000002</v>
-      </c>
-      <c r="C59" s="1">
-        <v>1.0542499999999999</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0.58950000000000002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15">
+    </row>
+    <row r="60" spans="1:1" ht="15">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="1">
-        <v>0.36175000000000002</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0.99312500000000004</v>
-      </c>
-      <c r="D60" s="1">
-        <v>0.58166700000000005</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15">
+    </row>
+    <row r="61" spans="1:1" ht="15">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="1">
-        <v>0.36149999999999999</v>
-      </c>
-      <c r="C61" s="1">
-        <v>1.05525</v>
-      </c>
-      <c r="D61" s="1">
-        <v>0.59816599999999998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15">
+    </row>
+    <row r="62" spans="1:1" ht="15">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="1">
-        <v>0.36858400000000002</v>
-      </c>
-      <c r="C62" s="1">
-        <v>1.09754</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0.58441699999999996</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15">
+    </row>
+    <row r="63" spans="1:1" ht="15">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="1">
-        <v>0.363875</v>
-      </c>
-      <c r="C63" s="1">
-        <v>1.0362499999999999</v>
-      </c>
-      <c r="D63" s="1">
-        <v>0.58854099999999998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15">
+    </row>
+    <row r="64" spans="1:1" ht="15">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="1">
-        <v>0.36566700000000002</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1.0738300000000001</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0.58470800000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15">
+    </row>
+    <row r="65" spans="1:1" ht="15">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="1">
-        <v>0.36537500000000001</v>
-      </c>
-      <c r="C65" s="1">
-        <v>1.0378799999999999</v>
-      </c>
-      <c r="D65" s="1">
-        <v>0.59724999999999995</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15">
+    </row>
+    <row r="66" spans="1:1" ht="15">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="1">
-        <v>0.362375</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1.0541700000000001</v>
-      </c>
-      <c r="D66" s="1">
-        <v>0.58733299999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15">
+    </row>
+    <row r="67" spans="1:1" ht="15">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="1">
-        <v>0.37087500000000001</v>
-      </c>
-      <c r="C67" s="1">
-        <v>1.05233</v>
-      </c>
-      <c r="D67" s="1">
-        <v>0.59058299999999997</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15">
+    </row>
+    <row r="68" spans="1:1" ht="15">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="1">
-        <v>0.362792</v>
-      </c>
-      <c r="C68" s="1">
-        <v>1.0157099999999999</v>
-      </c>
-      <c r="D68" s="1">
-        <v>0.59316599999999997</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15">
+    </row>
+    <row r="69" spans="1:1" ht="15">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="1">
-        <v>0.36849999999999999</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1.07179</v>
-      </c>
-      <c r="D69" s="1">
-        <v>0.59075</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15">
+    </row>
+    <row r="70" spans="1:1" ht="15">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="1">
-        <v>0.36858400000000002</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1.0382899999999999</v>
-      </c>
-      <c r="D70" s="1">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15">
+    </row>
+    <row r="71" spans="1:1" ht="15">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="1">
-        <v>0.36612499999999998</v>
-      </c>
-      <c r="C71" s="1">
-        <v>1.0769200000000001</v>
-      </c>
-      <c r="D71" s="1">
-        <v>0.60104100000000005</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15">
+    </row>
+    <row r="72" spans="1:1" ht="15">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="1">
-        <v>0.363875</v>
-      </c>
-      <c r="C72" s="1">
-        <v>1.0994999999999999</v>
-      </c>
-      <c r="D72" s="1">
-        <v>0.58945899999999996</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15">
+    </row>
+    <row r="73" spans="1:1" ht="15">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="1">
-        <v>0.364375</v>
-      </c>
-      <c r="C73" s="1">
-        <v>1.05392</v>
-      </c>
-      <c r="D73" s="1">
-        <v>0.58766700000000005</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15">
+    </row>
+    <row r="74" spans="1:1" ht="15">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="1">
-        <v>0.36929200000000001</v>
-      </c>
-      <c r="C74" s="1">
-        <v>1.01763</v>
-      </c>
-      <c r="D74" s="1">
-        <v>0.58920899999999998</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15">
+    </row>
+    <row r="75" spans="1:1" ht="15">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="1">
-        <v>0.365541</v>
-      </c>
-      <c r="C75" s="1">
-        <v>1.0070399999999999</v>
-      </c>
-      <c r="D75" s="1">
-        <v>0.59337499999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15">
+    </row>
+    <row r="76" spans="1:1" ht="15">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="1">
-        <v>0.36295899999999998</v>
-      </c>
-      <c r="C76" s="1">
-        <v>1.0282500000000001</v>
-      </c>
-      <c r="D76" s="1">
-        <v>0.59183300000000005</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15">
+    </row>
+    <row r="77" spans="1:1" ht="15">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="1">
-        <v>0.36449999999999999</v>
-      </c>
-      <c r="C77" s="1">
-        <v>1.044</v>
-      </c>
-      <c r="D77" s="1">
-        <v>0.58437499999999998</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15">
+    </row>
+    <row r="78" spans="1:1" ht="15">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="1">
-        <v>0.36925000000000002</v>
-      </c>
-      <c r="C78" s="1">
-        <v>1.0165</v>
-      </c>
-      <c r="D78" s="1">
-        <v>0.58716599999999997</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15">
+    </row>
+    <row r="79" spans="1:1" ht="15">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="1">
-        <v>0.36849999999999999</v>
-      </c>
-      <c r="C79" s="1">
-        <v>1.0729200000000001</v>
-      </c>
-      <c r="D79" s="1">
-        <v>0.58641600000000005</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15">
+    </row>
+    <row r="80" spans="1:1" ht="15">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="1">
-        <v>0.36925000000000002</v>
-      </c>
-      <c r="C80" s="1">
-        <v>1.0522499999999999</v>
-      </c>
-      <c r="D80" s="1">
-        <v>0.58908300000000002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15">
+    </row>
+    <row r="81" spans="1:1" ht="15">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="1">
-        <v>0.36937500000000001</v>
-      </c>
-      <c r="C81" s="1">
-        <v>1.02267</v>
-      </c>
-      <c r="D81" s="1">
-        <v>0.58783399999999997</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15">
+    </row>
+    <row r="82" spans="1:1" ht="15">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="1">
-        <v>0.37987500000000002</v>
-      </c>
-      <c r="C82" s="1">
-        <v>1.0774600000000001</v>
-      </c>
-      <c r="D82" s="1">
-        <v>0.58920799999999995</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15">
+    </row>
+    <row r="83" spans="1:1" ht="15">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="1">
-        <v>0.36412499999999998</v>
-      </c>
-      <c r="C83" s="1">
-        <v>1.0771299999999999</v>
-      </c>
-      <c r="D83" s="1">
-        <v>0.59350000000000003</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15">
+    </row>
+    <row r="84" spans="1:1" ht="15">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="1">
-        <v>0.36658299999999999</v>
-      </c>
-      <c r="C84" s="1">
-        <v>1.03887</v>
-      </c>
-      <c r="D84" s="1">
-        <v>0.59204199999999996</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15">
+    </row>
+    <row r="85" spans="1:1" ht="15">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="1">
-        <v>0.36483300000000002</v>
-      </c>
-      <c r="C85" s="1">
-        <v>1.0509200000000001</v>
-      </c>
-      <c r="D85" s="1">
-        <v>0.58841600000000005</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15">
+    </row>
+    <row r="86" spans="1:1" ht="15">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="1">
-        <v>0.36316700000000002</v>
-      </c>
-      <c r="C86" s="1">
-        <v>1.0169999999999999</v>
-      </c>
-      <c r="D86" s="1">
-        <v>0.59583299999999995</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15">
+    </row>
+    <row r="87" spans="1:1" ht="15">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="1">
-        <v>0.36408299999999999</v>
-      </c>
-      <c r="C87" s="1">
-        <v>1.01963</v>
-      </c>
-      <c r="D87" s="1">
-        <v>0.58908300000000002</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15">
+    </row>
+    <row r="88" spans="1:1" ht="15">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="1">
-        <v>0.36591699999999999</v>
-      </c>
-      <c r="C88" s="1">
-        <v>1.1294599999999999</v>
-      </c>
-      <c r="D88" s="1">
-        <v>0.58612500000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15">
+    </row>
+    <row r="89" spans="1:1" ht="15">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="1">
-        <v>0.36749999999999999</v>
-      </c>
-      <c r="C89" s="1">
-        <v>1.11408</v>
-      </c>
-      <c r="D89" s="1">
-        <v>0.590333</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15">
+    </row>
+    <row r="90" spans="1:1" ht="15">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="1">
-        <v>0.36870799999999998</v>
-      </c>
-      <c r="C90" s="1">
-        <v>1.0513699999999999</v>
-      </c>
-      <c r="D90" s="1">
-        <v>0.58404199999999995</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15">
+    </row>
+    <row r="91" spans="1:1" ht="15">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="1">
-        <v>0.36891600000000002</v>
-      </c>
-      <c r="C91" s="1">
-        <v>1.0793299999999999</v>
-      </c>
-      <c r="D91" s="1">
-        <v>0.59191700000000003</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="15">
+    </row>
+    <row r="92" spans="1:1" ht="15">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="1">
-        <v>0.36616700000000002</v>
-      </c>
-      <c r="C92" s="1">
-        <v>1.0480799999999999</v>
-      </c>
-      <c r="D92" s="1">
-        <v>0.58837499999999998</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15">
+    </row>
+    <row r="93" spans="1:1" ht="15">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" s="1">
-        <v>0.36116700000000002</v>
-      </c>
-      <c r="C93" s="1">
-        <v>1.1282099999999999</v>
-      </c>
-      <c r="D93" s="1">
-        <v>0.58829200000000004</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="15">
+    </row>
+    <row r="94" spans="1:1" ht="15">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" s="1">
-        <v>0.36679200000000001</v>
-      </c>
-      <c r="C94" s="1">
-        <v>1.0673699999999999</v>
-      </c>
-      <c r="D94" s="1">
-        <v>0.58516699999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="15">
+    </row>
+    <row r="95" spans="1:1" ht="15">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="1">
-        <v>0.36258400000000002</v>
-      </c>
-      <c r="C95" s="1">
-        <v>1.05646</v>
-      </c>
-      <c r="D95" s="1">
-        <v>0.58525000000000005</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="15">
+    </row>
+    <row r="96" spans="1:1" ht="15">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" s="1">
-        <v>0.36616700000000002</v>
-      </c>
-      <c r="C96" s="1">
-        <v>1.00471</v>
-      </c>
-      <c r="D96" s="1">
-        <v>0.58537499999999998</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15">
+    </row>
+    <row r="97" spans="1:1" ht="15">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" s="1">
-        <v>0.36791699999999999</v>
-      </c>
-      <c r="C97" s="1">
-        <v>1.05254</v>
-      </c>
-      <c r="D97" s="1">
-        <v>0.59183300000000005</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="15">
+    </row>
+    <row r="98" spans="1:1" ht="15">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" s="1">
-        <v>0.36825000000000002</v>
-      </c>
-      <c r="C98" s="1">
-        <v>1.0230399999999999</v>
-      </c>
-      <c r="D98" s="1">
-        <v>0.58899999999999997</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15">
+    </row>
+    <row r="99" spans="1:1" ht="15">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" s="1">
-        <v>0.37887500000000002</v>
-      </c>
-      <c r="C99" s="1">
-        <v>1.05592</v>
-      </c>
-      <c r="D99" s="1">
-        <v>0.58616699999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15">
+    </row>
+    <row r="100" spans="1:1" ht="15">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" s="1">
-        <v>0.36749999999999999</v>
-      </c>
-      <c r="C100" s="1">
-        <v>1.0396700000000001</v>
-      </c>
-      <c r="D100" s="1">
-        <v>0.59412500000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15">
+    </row>
+    <row r="101" spans="1:1" ht="15">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" s="1">
-        <v>0.36370799999999998</v>
-      </c>
-      <c r="C101" s="1">
-        <v>1.0947899999999999</v>
-      </c>
-      <c r="D101" s="1">
-        <v>0.59066600000000002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15">
+    </row>
+    <row r="102" spans="1:1" ht="15">
       <c r="A102" s="1">
         <v>100</v>
-      </c>
-      <c r="B102" s="1">
-        <v>0.37795800000000002</v>
-      </c>
-      <c r="C102" s="1">
-        <v>1.0440400000000001</v>
-      </c>
-      <c r="D102" s="1">
-        <v>0.59066700000000005</v>
       </c>
     </row>
   </sheetData>
@@ -4358,8 +2862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A75A410-8138-534C-A775-8CEAA3E70A72}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
@@ -4400,49 +2904,31 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.95474999999999999</v>
-      </c>
     </row>
     <row r="4" spans="1:12" ht="15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.93700000000000006</v>
-      </c>
     </row>
     <row r="5" spans="1:12" ht="15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.94683300000000004</v>
-      </c>
     </row>
     <row r="6" spans="1:12" ht="15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.95504199999999995</v>
-      </c>
     </row>
     <row r="7" spans="1:12" ht="15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.93870799999999999</v>
-      </c>
     </row>
     <row r="8" spans="1:12" ht="15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.94987500000000002</v>
-      </c>
       <c r="I8" s="7" t="s">
         <v>9</v>
       </c>
@@ -4454,9 +2940,6 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.957959</v>
-      </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
       </c>
@@ -4474,12 +2957,9 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="I10" s="1" t="e">
         <f>AVERAGE(テーブル245656567891011910[sequential])</f>
-        <v>0.94499502999999985</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J10" s="1" t="e">
         <f>AVERAGE(テーブル245656567891011910[multi-thread])</f>
@@ -4498,201 +2978,126 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.93679199999999996</v>
-      </c>
     </row>
     <row r="12" spans="1:12" ht="15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>0.94429099999999999</v>
-      </c>
     </row>
     <row r="13" spans="1:12" ht="15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.94037499999999996</v>
-      </c>
     </row>
     <row r="14" spans="1:12" ht="15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>0.94433400000000001</v>
-      </c>
     </row>
     <row r="15" spans="1:12" ht="15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.96425000000000005</v>
-      </c>
     </row>
     <row r="16" spans="1:12" ht="15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
-        <v>0.94550000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15">
+    </row>
+    <row r="17" spans="1:1" ht="15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
-        <v>0.93925000000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15">
+    </row>
+    <row r="18" spans="1:1" ht="15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
-        <v>0.95762499999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15">
+    </row>
+    <row r="19" spans="1:1" ht="15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
-        <v>0.94625000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15">
+    </row>
+    <row r="20" spans="1:1" ht="15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
-        <v>0.94225000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15">
+    </row>
+    <row r="21" spans="1:1" ht="15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
-        <v>0.94279199999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15">
+    </row>
+    <row r="22" spans="1:1" ht="15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
-        <v>0.95570900000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15">
+    </row>
+    <row r="23" spans="1:1" ht="15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
-        <v>0.93983300000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15">
+    </row>
+    <row r="24" spans="1:1" ht="15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
-        <v>0.94254199999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15">
+    </row>
+    <row r="25" spans="1:1" ht="15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
-        <v>0.952125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15">
+    </row>
+    <row r="26" spans="1:1" ht="15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
-        <v>0.94229200000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15">
+    </row>
+    <row r="27" spans="1:1" ht="15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="1">
-        <v>0.93666700000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15">
+    </row>
+    <row r="28" spans="1:1" ht="15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="1">
-        <v>0.95091599999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15">
+    </row>
+    <row r="29" spans="1:1" ht="15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="1">
-        <v>0.93979199999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15">
+    </row>
+    <row r="30" spans="1:1" ht="15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="1">
-        <v>0.93737499999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15">
+    </row>
+    <row r="31" spans="1:1" ht="15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="1">
-        <v>0.95166600000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15">
+    </row>
+    <row r="32" spans="1:1" ht="15">
       <c r="A32" s="1">
         <v>30</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0.94574999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="1">
-        <v>0.93425000000000002</v>
-      </c>
     </row>
     <row r="34" spans="1:4" ht="15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="1">
-        <v>0.93337499999999995</v>
-      </c>
     </row>
     <row r="35" spans="1:4" ht="15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="1">
-        <v>0.94641600000000004</v>
-      </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
     </row>
@@ -4700,536 +3105,335 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="1">
-        <v>0.94304200000000005</v>
-      </c>
     </row>
     <row r="37" spans="1:4" ht="15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="1">
-        <v>0.93845800000000001</v>
-      </c>
     </row>
     <row r="38" spans="1:4" ht="15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="1">
-        <v>0.94725000000000004</v>
-      </c>
     </row>
     <row r="39" spans="1:4" ht="15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="1">
-        <v>0.93987500000000002</v>
-      </c>
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="1">
-        <v>0.94420800000000005</v>
-      </c>
     </row>
     <row r="41" spans="1:4" ht="15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="1">
-        <v>0.93825000000000003</v>
-      </c>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="1">
-        <v>0.94037499999999996</v>
-      </c>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="1">
-        <v>0.940917</v>
-      </c>
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="1">
-        <v>0.96520799999999995</v>
-      </c>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="1">
-        <v>0.94020899999999996</v>
-      </c>
     </row>
     <row r="46" spans="1:4" ht="15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="1">
-        <v>0.93858299999999995</v>
-      </c>
     </row>
     <row r="47" spans="1:4" ht="15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="1">
-        <v>0.96741600000000005</v>
-      </c>
     </row>
     <row r="48" spans="1:4" ht="15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="1">
-        <v>0.94566700000000004</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15">
+    </row>
+    <row r="49" spans="1:1" ht="15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="1">
-        <v>0.93433299999999997</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15">
+    </row>
+    <row r="50" spans="1:1" ht="15">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="1">
-        <v>0.94825000000000004</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15">
+    </row>
+    <row r="51" spans="1:1" ht="15">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="1">
-        <v>0.94154199999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15">
+    </row>
+    <row r="52" spans="1:1" ht="15">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="1">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15">
+    </row>
+    <row r="53" spans="1:1" ht="15">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="1">
-        <v>0.94025000000000003</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15">
+    </row>
+    <row r="54" spans="1:1" ht="15">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="1">
-        <v>0.94237499999999996</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15">
+    </row>
+    <row r="55" spans="1:1" ht="15">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="1">
-        <v>0.94220800000000005</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15">
+    </row>
+    <row r="56" spans="1:1" ht="15">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="1">
-        <v>0.94374999999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15">
+    </row>
+    <row r="57" spans="1:1" ht="15">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="1">
-        <v>0.94062500000000004</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15">
+    </row>
+    <row r="58" spans="1:1" ht="15">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="1">
-        <v>0.94270900000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15">
+    </row>
+    <row r="59" spans="1:1" ht="15">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="1">
-        <v>0.94404200000000005</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15">
+    </row>
+    <row r="60" spans="1:1" ht="15">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="1">
-        <v>0.94399999999999995</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15">
+    </row>
+    <row r="61" spans="1:1" ht="15">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="1">
-        <v>0.94370799999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15">
+    </row>
+    <row r="62" spans="1:1" ht="15">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="1">
-        <v>0.94620800000000005</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15">
+    </row>
+    <row r="63" spans="1:1" ht="15">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="1">
-        <v>0.96137499999999998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15">
+    </row>
+    <row r="64" spans="1:1" ht="15">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="1">
-        <v>0.94695799999999997</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15">
+    </row>
+    <row r="65" spans="1:1" ht="15">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="1">
-        <v>0.94612499999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15">
+    </row>
+    <row r="66" spans="1:1" ht="15">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="1">
-        <v>0.94487500000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15">
+    </row>
+    <row r="67" spans="1:1" ht="15">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="1">
-        <v>0.94508300000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="15">
+    </row>
+    <row r="68" spans="1:1" ht="15">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="1">
-        <v>0.9395</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="15">
+    </row>
+    <row r="69" spans="1:1" ht="15">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="1">
-        <v>0.94274999999999998</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="15">
+    </row>
+    <row r="70" spans="1:1" ht="15">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="1">
-        <v>0.95191700000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="15">
+    </row>
+    <row r="71" spans="1:1" ht="15">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="1">
-        <v>0.94599999999999995</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="15">
+    </row>
+    <row r="72" spans="1:1" ht="15">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="1">
-        <v>0.95854200000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15">
+    </row>
+    <row r="73" spans="1:1" ht="15">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="1">
-        <v>0.940917</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="15">
+    </row>
+    <row r="74" spans="1:1" ht="15">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="1">
-        <v>0.94850000000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="15">
+    </row>
+    <row r="75" spans="1:1" ht="15">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="1">
-        <v>0.93758300000000006</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="15">
+    </row>
+    <row r="76" spans="1:1" ht="15">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="1">
-        <v>0.94608300000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="15">
+    </row>
+    <row r="77" spans="1:1" ht="15">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="1">
-        <v>0.94583399999999995</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="15">
+    </row>
+    <row r="78" spans="1:1" ht="15">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="1">
-        <v>0.95066700000000004</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="15">
+    </row>
+    <row r="79" spans="1:1" ht="15">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="1">
-        <v>0.93566700000000003</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="15">
+    </row>
+    <row r="80" spans="1:1" ht="15">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="1">
-        <v>0.95025000000000004</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="15">
+    </row>
+    <row r="81" spans="1:1" ht="15">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="1">
-        <v>0.94350000000000001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="15">
+    </row>
+    <row r="82" spans="1:1" ht="15">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="1">
-        <v>0.94104100000000002</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="15">
+    </row>
+    <row r="83" spans="1:1" ht="15">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="1">
-        <v>0.94020899999999996</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="15">
+    </row>
+    <row r="84" spans="1:1" ht="15">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="1">
-        <v>0.93583300000000003</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="15">
+    </row>
+    <row r="85" spans="1:1" ht="15">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="1">
-        <v>0.93908400000000003</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="15">
+    </row>
+    <row r="86" spans="1:1" ht="15">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="1">
-        <v>0.94695799999999997</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="15">
+    </row>
+    <row r="87" spans="1:1" ht="15">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="1">
-        <v>0.96283399999999997</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="15">
+    </row>
+    <row r="88" spans="1:1" ht="15">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="1">
-        <v>0.96058299999999996</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="15">
+    </row>
+    <row r="89" spans="1:1" ht="15">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="1">
-        <v>0.94616599999999995</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="15">
+    </row>
+    <row r="90" spans="1:1" ht="15">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="1">
-        <v>0.950959</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="15">
+    </row>
+    <row r="91" spans="1:1" ht="15">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="1">
-        <v>0.94262500000000005</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="15">
+    </row>
+    <row r="92" spans="1:1" ht="15">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="1">
-        <v>0.93954199999999999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="15">
+    </row>
+    <row r="93" spans="1:1" ht="15">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" s="1">
-        <v>0.94108400000000003</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="15">
+    </row>
+    <row r="94" spans="1:1" ht="15">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" s="1">
-        <v>0.94137499999999996</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="15">
+    </row>
+    <row r="95" spans="1:1" ht="15">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="1">
-        <v>0.94033299999999997</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="15">
+    </row>
+    <row r="96" spans="1:1" ht="15">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" s="1">
-        <v>0.9355</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="15">
+    </row>
+    <row r="97" spans="1:1" ht="15">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" s="1">
-        <v>0.94337499999999996</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="15">
+    </row>
+    <row r="98" spans="1:1" ht="15">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" s="1">
-        <v>0.94162500000000005</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="15">
+    </row>
+    <row r="99" spans="1:1" ht="15">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" s="1">
-        <v>0.94379199999999996</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="15">
+    </row>
+    <row r="100" spans="1:1" ht="15">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" s="1">
-        <v>0.96174999999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="15">
+    </row>
+    <row r="101" spans="1:1" ht="15">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" s="1">
-        <v>0.93587500000000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="15">
+    </row>
+    <row r="102" spans="1:1" ht="15">
       <c r="A102" s="1">
         <v>100</v>
-      </c>
-      <c r="B102" s="1">
-        <v>0.94779199999999997</v>
       </c>
     </row>
   </sheetData>

--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C477CF-99CE-1A44-806B-A97BE66A4B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CEAE9D-B5E0-4C4C-A3D9-950FF25D65FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1080" windowWidth="14460" windowHeight="16720" activeTab="2" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="14440" windowHeight="16500" activeTab="1" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="result of all" sheetId="1" r:id="rId1"/>
     <sheet name="ham3tc.tfc" sheetId="2" r:id="rId2"/>
     <sheet name="3_17tc.tfc" sheetId="3" r:id="rId3"/>
+    <sheet name="hwb4tc.tfc" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
   <si>
     <t>ham3tc.tfc</t>
     <phoneticPr fontId="1"/>
@@ -109,6 +110,10 @@
   </si>
   <si>
     <t>hwb5tc.tfc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>num of qubits</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -238,7 +243,201 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Futura Condensed Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -653,28 +852,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}" name="テーブル245656567891011" displayName="テーブル245656567891011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}" name="テーブル245656567891011" displayName="テーブル245656567891011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" headerRowBorderDxfId="17">
   <autoFilter ref="A2:E102" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5BA224EE-6041-F344-B34A-9FBDF29A9510}" name="times" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{6CE03F36-CF34-9645-A348-C61D9EF118B4}" name="sequential" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{874D523F-A842-214F-8959-9A61540A9A8A}" name="multi-thread" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{2D90F0B7-A0EF-694E-91B3-7AF4BD0EADA8}" name="multi-fiber" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{61BBD1D9-647D-CA41-B58E-4467F0EE0459}" name="simd" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{5BA224EE-6041-F344-B34A-9FBDF29A9510}" name="times" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{6CE03F36-CF34-9645-A348-C61D9EF118B4}" name="sequential" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{874D523F-A842-214F-8959-9A61540A9A8A}" name="multi-thread" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{2D90F0B7-A0EF-694E-91B3-7AF4BD0EADA8}" name="multi-fiber" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{61BBD1D9-647D-CA41-B58E-4467F0EE0459}" name="simd" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82584110-A505-4543-82D8-BD808AA930A0}" name="テーブル2456565678910119" displayName="テーブル2456565678910119" ref="A2:E102" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82584110-A505-4543-82D8-BD808AA930A0}" name="テーブル2456565678910119" displayName="テーブル2456565678910119" ref="A2:E102" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="13">
   <autoFilter ref="A2:E102" xr:uid="{82584110-A505-4543-82D8-BD808AA930A0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4D465662-E697-4748-85BF-2F2EC8672C84}" name="times" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{0C48220D-731B-5643-951C-25F8B0805619}" name="sequential" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{7C0B3FE2-B06D-5747-B181-A167826473DE}" name="multi-thread" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{65911D59-AC68-BA43-8B87-7E5380B0D4D6}" name="multi-fiber" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{2FAA4EBB-E04F-1944-B3F3-4D62E902DC12}" name="simd" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4D465662-E697-4748-85BF-2F2EC8672C84}" name="times" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{0C48220D-731B-5643-951C-25F8B0805619}" name="sequential" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{7C0B3FE2-B06D-5747-B181-A167826473DE}" name="multi-thread" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{65911D59-AC68-BA43-8B87-7E5380B0D4D6}" name="multi-fiber" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{2FAA4EBB-E04F-1944-B3F3-4D62E902DC12}" name="simd" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A8FAC881-4731-7343-8EE9-42A5625B15C1}" name="テーブル245656567891011910" displayName="テーブル245656567891011910" ref="A2:E102" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="5">
+  <autoFilter ref="A2:E102" xr:uid="{A8FAC881-4731-7343-8EE9-42A5625B15C1}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7DC7A093-2326-6B4A-992F-B923642F87F8}" name="times" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{42430DD7-77E9-8149-9C1C-7264A4F0C9D0}" name="sequential" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{4F06783E-DB05-0749-B697-3DD162D0AD11}" name="multi-thread" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{5602D008-1E02-6045-9F32-7E6B7BB91324}" name="multi-fiber" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{DC415C3C-6475-3F44-AAB7-A763B098F097}" name="simd" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -997,130 +1210,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCC3EA3-5E50-2748-BD2A-C2B8CF08A0DE}">
-  <dimension ref="A2:H10"/>
+  <dimension ref="A2:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="113" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="9"/>
-    <col min="3" max="3" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="9"/>
+    <col min="1" max="1" width="10.7109375" style="9"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="9"/>
+    <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="E2" s="10" t="s">
+    <row r="2" spans="1:9">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" s="9" t="s">
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
         <v>5</v>
       </c>
-      <c r="C4" s="9">
+      <c r="D4" s="9">
         <v>7</v>
       </c>
-      <c r="E4" s="9">
+      <c r="F4" s="9">
         <f>ham3tc.tfc!I10</f>
-        <v>0.28040207000000017</v>
-      </c>
-      <c r="F4" s="9">
+        <v>0.22538257000000009</v>
+      </c>
+      <c r="G4" s="9">
         <f>ham3tc.tfc!J10</f>
-        <v>0.72422496999999975</v>
-      </c>
-      <c r="G4" s="9">
+        <v>0.50185417999999971</v>
+      </c>
+      <c r="H4" s="9" t="e">
         <f>ham3tc.tfc!K10</f>
-        <v>0.45461163999999998</v>
-      </c>
-      <c r="H4" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4" s="9" t="e">
         <f>ham3tc.tfc!L10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
         <v>6</v>
       </c>
-      <c r="C5" s="9">
+      <c r="D5" s="9">
         <v>12</v>
       </c>
-      <c r="E5" s="9">
+      <c r="F5" s="9" t="e">
         <f>'3_17tc.tfc'!I10</f>
-        <v>0.36803301999999993</v>
-      </c>
-      <c r="F5" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" s="9" t="e">
         <f>'3_17tc.tfc'!J10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G5" s="9" t="e">
+      <c r="H5" s="9" t="e">
         <f>'3_17tc.tfc'!K10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="9" t="e">
+      <c r="I5" s="9" t="e">
         <f>'3_17tc.tfc'!L10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
+        <v>17</v>
+      </c>
+      <c r="D6" s="9">
+        <v>63</v>
+      </c>
+      <c r="F6" s="9" t="e">
+        <f>hwb4tc.tfc!I10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="9" t="e">
+        <f>hwb4tc.tfc!J10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" s="9" t="e">
+        <f>hwb4tc.tfc!K10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="9" t="e">
+        <f>hwb4tc.tfc!L10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1131,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5683DF-DD1F-914F-B880-0E0A08994056}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -1174,13 +1423,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.27379199999999998</v>
+        <v>0.222167</v>
       </c>
       <c r="C3" s="1">
-        <v>0.73154200000000003</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.45074999999999998</v>
+        <v>0.49099999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1188,13 +1434,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.27545900000000001</v>
+        <v>0.22783400000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.45758300000000002</v>
+        <v>0.51487499999999997</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1202,13 +1445,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.28108300000000003</v>
+        <v>0.22304199999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>0.74820900000000001</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.46937499999999999</v>
+        <v>0.51837500000000003</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1216,13 +1456,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.278916</v>
+        <v>0.224333</v>
       </c>
       <c r="C6" s="1">
-        <v>0.71920899999999999</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.46904200000000001</v>
+        <v>0.50604099999999996</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1230,13 +1467,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.28175</v>
+        <v>0.22179099999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>0.72370800000000002</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.454125</v>
+        <v>0.48016599999999998</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1244,13 +1478,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.27687499999999998</v>
+        <v>0.22212499999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.45241700000000001</v>
+        <v>0.49316700000000002</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>9</v>
@@ -1264,13 +1495,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.278833</v>
+        <v>0.22583300000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>0.72966699999999995</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.45587499999999997</v>
+        <v>0.50508399999999998</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
@@ -1290,25 +1518,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.28162500000000001</v>
+        <v>0.228459</v>
       </c>
       <c r="C10" s="1">
-        <v>0.73445800000000006</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.45124999999999998</v>
+        <v>0.52166599999999996</v>
       </c>
       <c r="I10" s="1">
         <f>AVERAGE(テーブル245656567891011[sequential])</f>
-        <v>0.28040207000000017</v>
+        <v>0.22538257000000009</v>
       </c>
       <c r="J10" s="1">
         <f>AVERAGE(テーブル245656567891011[multi-thread])</f>
-        <v>0.72422496999999975</v>
-      </c>
-      <c r="K10" s="1">
+        <v>0.50185417999999971</v>
+      </c>
+      <c r="K10" s="1" t="e">
         <f>AVERAGE(テーブル245656567891011[multi-fiber])</f>
-        <v>0.45461163999999998</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L10" s="1" t="e">
         <f>AVERAGE(テーブル245656567891011[simd])</f>
@@ -1320,13 +1545,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.28012500000000001</v>
+        <v>0.22254199999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>0.68754199999999999</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.45174999999999998</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1334,13 +1556,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0.27929100000000001</v>
+        <v>0.21995799999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.449791</v>
+        <v>0.48462499999999997</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1348,13 +1567,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>0.277916</v>
+        <v>0.22554199999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>0.70037499999999997</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.45500000000000002</v>
+        <v>0.503166</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1362,13 +1578,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>0.27787499999999998</v>
+        <v>0.22525000000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>0.730541</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.45591700000000002</v>
+        <v>0.47670800000000002</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1376,13 +1589,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0.27862500000000001</v>
+        <v>0.23008400000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>0.86458299999999999</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.451625</v>
+        <v>0.50404199999999999</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1390,237 +1600,186 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>0.27670800000000001</v>
+        <v>0.222666</v>
       </c>
       <c r="C16" s="1">
-        <v>0.76708399999999999</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.45508300000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.51195900000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>0.27524999999999999</v>
+        <v>0.22566700000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>0.74679200000000001</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.45350000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.51166599999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>0.276667</v>
+        <v>0.22679199999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>0.72795799999999999</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.46033299999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.50554200000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.27441700000000002</v>
+        <v>0.222334</v>
       </c>
       <c r="C19" s="1">
-        <v>0.75004099999999996</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.456208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.52633399999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>0.27600000000000002</v>
+        <v>0.223166</v>
       </c>
       <c r="C20" s="1">
-        <v>0.72358299999999998</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.451542</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.49016700000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>0.27812500000000001</v>
+        <v>0.22758400000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>0.75145799999999996</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.45229200000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.51295800000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>0.27679100000000001</v>
+        <v>0.22737499999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>0.71429200000000004</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.45291599999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.49675000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>0.276167</v>
+        <v>0.22541700000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>0.69841699999999995</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.448542</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.46825</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>0.27795799999999998</v>
+        <v>0.22429099999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>0.68087500000000001</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.45629199999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.50629199999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>0.27891700000000003</v>
+        <v>0.22758300000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>0.71033299999999999</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.44879200000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.50820799999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>0.28345799999999999</v>
+        <v>0.221584</v>
       </c>
       <c r="C26" s="1">
-        <v>0.71775</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.46987499999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.43362499999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>0.27708300000000002</v>
+        <v>0.22137499999999999</v>
       </c>
       <c r="C27" s="1">
-        <v>0.72291700000000003</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.46220800000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>0.50937500000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>0.30033399999999999</v>
+        <v>0.23175000000000001</v>
       </c>
       <c r="C28" s="1">
-        <v>0.71329200000000004</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.451708</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.480292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>0.295958</v>
+        <v>0.22079199999999999</v>
       </c>
       <c r="C29" s="1">
-        <v>0.72795799999999999</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.46162500000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.48479100000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>0.28299999999999997</v>
+        <v>0.22679199999999999</v>
       </c>
       <c r="C30" s="1">
-        <v>0.70820799999999995</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.466916</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.51495800000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.22654199999999999</v>
       </c>
       <c r="C31" s="1">
-        <v>0.72279199999999999</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.45120900000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.47679199999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>0.34825</v>
+        <v>0.224333</v>
       </c>
       <c r="C32" s="1">
-        <v>0.71458299999999997</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.45537499999999997</v>
+        <v>0.547458</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1628,13 +1787,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>0.280167</v>
+        <v>0.22766700000000001</v>
       </c>
       <c r="C33" s="1">
-        <v>0.74895800000000001</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.45341599999999999</v>
+        <v>0.50324999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1642,13 +1798,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>0.28129199999999999</v>
+        <v>0.22175</v>
       </c>
       <c r="C34" s="1">
-        <v>0.72941599999999995</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.455542</v>
+        <v>0.50549999999999995</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1656,27 +1809,22 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>0.277084</v>
+        <v>0.22441700000000001</v>
       </c>
       <c r="C35" s="8">
-        <v>0.71266700000000005</v>
-      </c>
-      <c r="D35" s="8">
-        <v>0.45241599999999998</v>
-      </c>
+        <v>0.54962500000000003</v>
+      </c>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>0.27925</v>
+        <v>0.22766700000000001</v>
       </c>
       <c r="C36" s="1">
-        <v>0.70837499999999998</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.44883299999999998</v>
+        <v>0.49179200000000001</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1684,13 +1832,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>0.28354200000000002</v>
+        <v>0.22483300000000001</v>
       </c>
       <c r="C37" s="1">
-        <v>0.70441699999999996</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0.452459</v>
+        <v>0.48358299999999999</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1698,13 +1843,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>0.27170800000000001</v>
+        <v>0.22454199999999999</v>
       </c>
       <c r="C38" s="1">
-        <v>0.75791699999999995</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0.44850000000000001</v>
+        <v>0.50512500000000005</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1712,13 +1854,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>0.27474999999999999</v>
+        <v>0.222583</v>
       </c>
       <c r="C39" s="1">
-        <v>0.69791599999999998</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0.46600000000000003</v>
+        <v>0.52095800000000003</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1726,13 +1865,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>0.280833</v>
+        <v>0.22495799999999999</v>
       </c>
       <c r="C40" s="1">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0.44829200000000002</v>
+        <v>0.486875</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1740,13 +1876,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>0.27583299999999999</v>
+        <v>0.22583300000000001</v>
       </c>
       <c r="C41" s="1">
-        <v>0.71829200000000004</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0.44783299999999998</v>
+        <v>0.50987499999999997</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1754,13 +1887,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>0.28062500000000001</v>
+        <v>0.22345899999999999</v>
       </c>
       <c r="C42" s="1">
-        <v>0.72950000000000004</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0.45033299999999998</v>
+        <v>0.50916600000000001</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1768,13 +1898,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>0.279667</v>
+        <v>0.220834</v>
       </c>
       <c r="C43" s="1">
-        <v>0.67966599999999999</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0.45137500000000003</v>
+        <v>0.49175000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1782,13 +1909,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>0.28445900000000002</v>
+        <v>0.22075</v>
       </c>
       <c r="C44" s="1">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0.453208</v>
+        <v>0.51958400000000005</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1796,13 +1920,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>0.279167</v>
+        <v>0.23633299999999999</v>
       </c>
       <c r="C45" s="1">
-        <v>0.72479099999999996</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0.45474999999999999</v>
+        <v>0.53670799999999996</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1810,13 +1931,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>0.27750000000000002</v>
+        <v>0.22304199999999999</v>
       </c>
       <c r="C46" s="1">
-        <v>0.74887499999999996</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0.45987499999999998</v>
+        <v>0.51795800000000003</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1824,13 +1942,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>0.27912500000000001</v>
+        <v>0.22895799999999999</v>
       </c>
       <c r="C47" s="1">
-        <v>0.70416599999999996</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0.45420899999999997</v>
+        <v>0.51195900000000005</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1838,769 +1953,604 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>0.27341700000000002</v>
+        <v>0.221916</v>
       </c>
       <c r="C48" s="1">
-        <v>0.745</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0.45008399999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.49008299999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>0.27487499999999998</v>
+        <v>0.22608400000000001</v>
       </c>
       <c r="C49" s="1">
-        <v>0.69895799999999997</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0.46920800000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>0.276916</v>
+        <v>0.22329199999999999</v>
       </c>
       <c r="C50" s="1">
-        <v>0.68116699999999997</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0.44829200000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.50049999999999994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>0.27483299999999999</v>
+        <v>0.22470799999999999</v>
       </c>
       <c r="C51" s="1">
-        <v>0.72445800000000005</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0.44916699999999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.49804199999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>0.28345799999999999</v>
+        <v>0.22312499999999999</v>
       </c>
       <c r="C52" s="1">
-        <v>0.75349999999999995</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0.45024999999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.49820799999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>0.28037499999999999</v>
+        <v>0.22708400000000001</v>
       </c>
       <c r="C53" s="1">
-        <v>0.73479099999999997</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0.451542</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.51649999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>0.27895799999999998</v>
+        <v>0.22787499999999999</v>
       </c>
       <c r="C54" s="1">
-        <v>0.68187500000000001</v>
-      </c>
-      <c r="D54" s="1">
-        <v>0.45120900000000003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.52300000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>0.27879199999999998</v>
+        <v>0.228959</v>
       </c>
       <c r="C55" s="1">
-        <v>0.72366699999999995</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0.451042</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.48304200000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>0.282833</v>
+        <v>0.22270799999999999</v>
       </c>
       <c r="C56" s="1">
-        <v>0.73716599999999999</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0.45037500000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.50841700000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>0.28162500000000001</v>
+        <v>0.22275</v>
       </c>
       <c r="C57" s="1">
-        <v>0.70933299999999999</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0.44850000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.51379200000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>0.28249999999999997</v>
+        <v>0.22966700000000001</v>
       </c>
       <c r="C58" s="1">
-        <v>0.76395800000000003</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0.457042</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.51195900000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>0.27312500000000001</v>
+        <v>0.222</v>
       </c>
       <c r="C59" s="1">
-        <v>0.72483299999999995</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0.45645799999999997</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.48666599999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>0.27758300000000002</v>
+        <v>0.22816600000000001</v>
       </c>
       <c r="C60" s="1">
-        <v>0.69620899999999997</v>
-      </c>
-      <c r="D60" s="1">
-        <v>0.45141700000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.51024999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="1">
-        <v>0.277584</v>
+        <v>0.22245799999999999</v>
       </c>
       <c r="C61" s="1">
-        <v>0.74495800000000001</v>
-      </c>
-      <c r="D61" s="1">
-        <v>0.45287500000000003</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.48454199999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="1">
-        <v>0.29262500000000002</v>
+        <v>0.22587499999999999</v>
       </c>
       <c r="C62" s="1">
-        <v>0.75345799999999996</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0.449959</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.50791699999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>0.28404200000000002</v>
+        <v>0.222667</v>
       </c>
       <c r="C63" s="1">
-        <v>0.71004100000000003</v>
-      </c>
-      <c r="D63" s="1">
-        <v>0.471333</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.53004099999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>0.27600000000000002</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="C64" s="1">
-        <v>0.80308400000000002</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0.45800000000000002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.48562499999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>0.28295900000000002</v>
+        <v>0.22608300000000001</v>
       </c>
       <c r="C65" s="1">
-        <v>0.72383399999999998</v>
-      </c>
-      <c r="D65" s="1">
-        <v>0.45545799999999997</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>0.27695900000000001</v>
+        <v>0.223833</v>
       </c>
       <c r="C66" s="1">
-        <v>0.71012500000000001</v>
-      </c>
-      <c r="D66" s="1">
-        <v>0.455125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.49770900000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>0.29358299999999998</v>
+        <v>0.222667</v>
       </c>
       <c r="C67" s="1">
-        <v>0.71329200000000004</v>
-      </c>
-      <c r="D67" s="1">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.49358400000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="1">
-        <v>0.27383400000000002</v>
+        <v>0.22075</v>
       </c>
       <c r="C68" s="1">
-        <v>0.72887500000000005</v>
-      </c>
-      <c r="D68" s="1">
-        <v>0.45395799999999997</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.52462500000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="1">
-        <v>0.27845799999999998</v>
+        <v>0.22541700000000001</v>
       </c>
       <c r="C69" s="1">
-        <v>0.70470900000000003</v>
-      </c>
-      <c r="D69" s="1">
-        <v>0.45374999999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.50208299999999995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>0.27912500000000001</v>
+        <v>0.22575000000000001</v>
       </c>
       <c r="C70" s="1">
-        <v>0.71325000000000005</v>
-      </c>
-      <c r="D70" s="1">
-        <v>0.45241700000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.49254199999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="1">
-        <v>0.27687499999999998</v>
+        <v>0.223584</v>
       </c>
       <c r="C71" s="1">
-        <v>0.71483399999999997</v>
-      </c>
-      <c r="D71" s="1">
-        <v>0.45279199999999997</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.50824999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="1">
-        <v>0.27812500000000001</v>
+        <v>0.22245799999999999</v>
       </c>
       <c r="C72" s="1">
-        <v>0.71037499999999998</v>
-      </c>
-      <c r="D72" s="1">
-        <v>0.463916</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.51129199999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>0.27508300000000002</v>
+        <v>0.22891600000000001</v>
       </c>
       <c r="C73" s="1">
-        <v>0.73350000000000004</v>
-      </c>
-      <c r="D73" s="1">
-        <v>0.45191700000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.50095800000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>0.27870800000000001</v>
+        <v>0.223583</v>
       </c>
       <c r="C74" s="1">
-        <v>0.75329199999999996</v>
-      </c>
-      <c r="D74" s="1">
-        <v>0.45445799999999997</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.49362499999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>0.276333</v>
+        <v>0.22404199999999999</v>
       </c>
       <c r="C75" s="1">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="D75" s="1">
-        <v>0.45008300000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.50524999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="1">
-        <v>0.28016600000000003</v>
+        <v>0.22512499999999999</v>
       </c>
       <c r="C76" s="1">
-        <v>0.76545799999999997</v>
-      </c>
-      <c r="D76" s="1">
-        <v>0.45791700000000002</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.48549999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>0.27604099999999998</v>
+        <v>0.22895799999999999</v>
       </c>
       <c r="C77" s="1">
-        <v>0.64704200000000001</v>
-      </c>
-      <c r="D77" s="1">
-        <v>0.45191700000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.50279200000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="1">
-        <v>0.278416</v>
+        <v>0.22554199999999999</v>
       </c>
       <c r="C78" s="1">
-        <v>0.74420900000000001</v>
-      </c>
-      <c r="D78" s="1">
-        <v>0.45016600000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.46316600000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>0.277667</v>
+        <v>0.22875000000000001</v>
       </c>
       <c r="C79" s="1">
-        <v>0.721333</v>
-      </c>
-      <c r="D79" s="1">
-        <v>0.452208</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.49620799999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>0.27787499999999998</v>
+        <v>0.22275</v>
       </c>
       <c r="C80" s="1">
-        <v>0.77112499999999995</v>
-      </c>
-      <c r="D80" s="1">
-        <v>0.45324999999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.49775000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="1">
-        <v>0.28100000000000003</v>
+        <v>0.22537499999999999</v>
       </c>
       <c r="C81" s="1">
-        <v>0.68033299999999997</v>
-      </c>
-      <c r="D81" s="1">
-        <v>0.48025000000000001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.52391699999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>0.278333</v>
+        <v>0.22891600000000001</v>
       </c>
       <c r="C82" s="1">
-        <v>0.73350000000000004</v>
-      </c>
-      <c r="D82" s="1">
-        <v>0.466333</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.46820800000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="1">
-        <v>0.28833300000000001</v>
+        <v>0.23083400000000001</v>
       </c>
       <c r="C83" s="1">
-        <v>0.75575000000000003</v>
-      </c>
-      <c r="D83" s="1">
-        <v>0.44991700000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.49420900000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="1">
-        <v>0.28704200000000002</v>
+        <v>0.22320899999999999</v>
       </c>
       <c r="C84" s="1">
-        <v>0.71795799999999999</v>
-      </c>
-      <c r="D84" s="1">
-        <v>0.45974999999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.50695800000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>0.27862500000000001</v>
+        <v>0.22620799999999999</v>
       </c>
       <c r="C85" s="1">
-        <v>0.66108299999999998</v>
-      </c>
-      <c r="D85" s="1">
-        <v>0.451791</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.50395800000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="1">
-        <v>0.33879199999999998</v>
+        <v>0.22629199999999999</v>
       </c>
       <c r="C86" s="1">
-        <v>0.72841599999999995</v>
-      </c>
-      <c r="D86" s="1">
-        <v>0.450542</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.49704199999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" s="1">
-        <v>0.27604099999999998</v>
+        <v>0.22537499999999999</v>
       </c>
       <c r="C87" s="1">
-        <v>0.71583300000000005</v>
-      </c>
-      <c r="D87" s="1">
-        <v>0.45341700000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.544875</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" s="1">
-        <v>0.27954200000000001</v>
+        <v>0.23566699999999999</v>
       </c>
       <c r="C88" s="1">
-        <v>0.69166700000000003</v>
-      </c>
-      <c r="D88" s="1">
-        <v>0.46108300000000002</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.520208</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" s="1">
-        <v>0.26983400000000002</v>
+        <v>0.22225</v>
       </c>
       <c r="C89" s="1">
-        <v>0.75841700000000001</v>
-      </c>
-      <c r="D89" s="1">
-        <v>0.45174999999999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.51649999999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" s="1">
-        <v>0.28120800000000001</v>
+        <v>0.22883300000000001</v>
       </c>
       <c r="C90" s="1">
-        <v>0.73320799999999997</v>
-      </c>
-      <c r="D90" s="1">
-        <v>0.45200000000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.52416700000000005</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" s="1">
-        <v>0.27854099999999998</v>
+        <v>0.22691700000000001</v>
       </c>
       <c r="C91" s="1">
-        <v>0.713916</v>
-      </c>
-      <c r="D91" s="1">
-        <v>0.45045800000000003</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.49625000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" s="1">
-        <v>0.27629199999999998</v>
+        <v>0.22583300000000001</v>
       </c>
       <c r="C92" s="1">
-        <v>0.71587500000000004</v>
-      </c>
-      <c r="D92" s="1">
-        <v>0.44874999999999998</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.495083</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" s="1">
-        <v>0.27870800000000001</v>
+        <v>0.22320899999999999</v>
       </c>
       <c r="C93" s="1">
-        <v>0.69137499999999996</v>
-      </c>
-      <c r="D93" s="1">
-        <v>0.44987500000000002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.47662500000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" s="1">
-        <v>0.28145799999999999</v>
+        <v>0.22445899999999999</v>
       </c>
       <c r="C94" s="1">
-        <v>0.72070800000000002</v>
-      </c>
-      <c r="D94" s="1">
-        <v>0.45191700000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.52200000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" s="1">
-        <v>0.27654200000000001</v>
+        <v>0.234875</v>
       </c>
       <c r="C95" s="1">
-        <v>0.68883399999999995</v>
-      </c>
-      <c r="D95" s="1">
-        <v>0.452291</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.49354199999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" s="1">
-        <v>0.27775</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="C96" s="1">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="D96" s="1">
-        <v>0.46300000000000002</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.50504199999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="1">
-        <v>0.27470800000000001</v>
+        <v>0.22237499999999999</v>
       </c>
       <c r="C97" s="1">
-        <v>0.70674999999999999</v>
-      </c>
-      <c r="D97" s="1">
-        <v>0.44866600000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.50470899999999996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" s="1">
-        <v>0.27595900000000001</v>
+        <v>0.22179199999999999</v>
       </c>
       <c r="C98" s="1">
-        <v>0.70979199999999998</v>
-      </c>
-      <c r="D98" s="1">
-        <v>0.455125</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.51916700000000005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" s="1">
-        <v>0.27529199999999998</v>
+        <v>0.22354199999999999</v>
       </c>
       <c r="C99" s="1">
-        <v>0.74150000000000005</v>
-      </c>
-      <c r="D99" s="1">
-        <v>0.456125</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.48279100000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" s="1">
-        <v>0.27529199999999998</v>
+        <v>0.22416700000000001</v>
       </c>
       <c r="C100" s="1">
-        <v>0.75570800000000005</v>
-      </c>
-      <c r="D100" s="1">
-        <v>0.451625</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.47749999999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" s="1">
-        <v>0.27870899999999998</v>
+        <v>0.22416700000000001</v>
       </c>
       <c r="C101" s="1">
-        <v>0.778667</v>
-      </c>
-      <c r="D101" s="1">
-        <v>0.45341599999999999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.51041700000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" s="1">
-        <v>0.28020800000000001</v>
+        <v>0.237791</v>
       </c>
       <c r="C102" s="1">
-        <v>0.71837499999999999</v>
-      </c>
-      <c r="D102" s="1">
-        <v>0.45104100000000003</v>
+        <v>0.483292</v>
       </c>
     </row>
   </sheetData>
@@ -2620,8 +2570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662F5CEE-B597-0941-966B-E319678C9A58}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
@@ -2662,49 +2612,31 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.41320800000000002</v>
-      </c>
     </row>
     <row r="4" spans="1:12" ht="15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.37808399999999998</v>
-      </c>
     </row>
     <row r="5" spans="1:12" ht="15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.37537500000000001</v>
-      </c>
     </row>
     <row r="6" spans="1:12" ht="15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.39066699999999999</v>
-      </c>
     </row>
     <row r="7" spans="1:12" ht="15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.36683300000000002</v>
-      </c>
     </row>
     <row r="8" spans="1:12" ht="15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.36904100000000001</v>
-      </c>
       <c r="I8" s="7" t="s">
         <v>9</v>
       </c>
@@ -2716,9 +2648,6 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.36583399999999999</v>
-      </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2736,12 +2665,9 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.36375000000000002</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="I10" s="1" t="e">
         <f>AVERAGE(テーブル2456565678910119[sequential])</f>
-        <v>0.36803301999999993</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J10" s="1" t="e">
         <f>AVERAGE(テーブル2456565678910119[multi-thread])</f>
@@ -2760,201 +2686,126 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.36925000000000002</v>
-      </c>
     </row>
     <row r="12" spans="1:12" ht="15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>0.36749999999999999</v>
-      </c>
     </row>
     <row r="13" spans="1:12" ht="15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.36933300000000002</v>
-      </c>
     </row>
     <row r="14" spans="1:12" ht="15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>0.36554199999999998</v>
-      </c>
     </row>
     <row r="15" spans="1:12" ht="15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.36333300000000002</v>
-      </c>
     </row>
     <row r="16" spans="1:12" ht="15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
-        <v>0.37070799999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15">
+    </row>
+    <row r="17" spans="1:1" ht="15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
-        <v>0.36375000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15">
+    </row>
+    <row r="18" spans="1:1" ht="15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
-        <v>0.36133300000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15">
+    </row>
+    <row r="19" spans="1:1" ht="15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
-        <v>0.370417</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15">
+    </row>
+    <row r="20" spans="1:1" ht="15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
-        <v>0.36241699999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15">
+    </row>
+    <row r="21" spans="1:1" ht="15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
-        <v>0.36162499999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15">
+    </row>
+    <row r="22" spans="1:1" ht="15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
-        <v>0.36508299999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15">
+    </row>
+    <row r="23" spans="1:1" ht="15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
-        <v>0.372917</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15">
+    </row>
+    <row r="24" spans="1:1" ht="15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
-        <v>0.362792</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15">
+    </row>
+    <row r="25" spans="1:1" ht="15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
-        <v>0.36383399999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15">
+    </row>
+    <row r="26" spans="1:1" ht="15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
-        <v>0.36775000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15">
+    </row>
+    <row r="27" spans="1:1" ht="15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="1">
-        <v>0.36912499999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15">
+    </row>
+    <row r="28" spans="1:1" ht="15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="1">
-        <v>0.37112499999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15">
+    </row>
+    <row r="29" spans="1:1" ht="15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="1">
-        <v>0.37087500000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15">
+    </row>
+    <row r="30" spans="1:1" ht="15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="1">
-        <v>0.36637500000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15">
+    </row>
+    <row r="31" spans="1:1" ht="15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="1">
-        <v>0.37187500000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15">
+    </row>
+    <row r="32" spans="1:1" ht="15">
       <c r="A32" s="1">
         <v>30</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0.36829200000000001</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="1">
-        <v>0.371583</v>
-      </c>
     </row>
     <row r="34" spans="1:4" ht="15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="1">
-        <v>0.36812499999999998</v>
-      </c>
     </row>
     <row r="35" spans="1:4" ht="15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="1">
-        <v>0.36475000000000002</v>
-      </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
     </row>
@@ -2962,536 +2813,926 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="1">
-        <v>0.360209</v>
-      </c>
     </row>
     <row r="37" spans="1:4" ht="15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="1">
-        <v>0.37025000000000002</v>
-      </c>
     </row>
     <row r="38" spans="1:4" ht="15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="1">
-        <v>0.36645899999999998</v>
-      </c>
     </row>
     <row r="39" spans="1:4" ht="15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="1">
-        <v>0.36741699999999999</v>
-      </c>
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="1">
-        <v>0.37774999999999997</v>
-      </c>
     </row>
     <row r="41" spans="1:4" ht="15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="1">
-        <v>0.36666700000000002</v>
-      </c>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="1">
-        <v>0.36729200000000001</v>
-      </c>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="1">
-        <v>0.36712499999999998</v>
-      </c>
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="1">
-        <v>0.36737500000000001</v>
-      </c>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="1">
-        <v>0.36599999999999999</v>
-      </c>
     </row>
     <row r="46" spans="1:4" ht="15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="1">
-        <v>0.36904199999999998</v>
-      </c>
     </row>
     <row r="47" spans="1:4" ht="15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="1">
-        <v>0.36720900000000001</v>
-      </c>
     </row>
     <row r="48" spans="1:4" ht="15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="1">
-        <v>0.36758400000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15">
+    </row>
+    <row r="49" spans="1:1" ht="15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="1">
-        <v>0.36658299999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15">
+    </row>
+    <row r="50" spans="1:1" ht="15">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="1">
-        <v>0.36458400000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15">
+    </row>
+    <row r="51" spans="1:1" ht="15">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="1">
-        <v>0.36929200000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15">
+    </row>
+    <row r="52" spans="1:1" ht="15">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="1">
-        <v>0.36649999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15">
+    </row>
+    <row r="53" spans="1:1" ht="15">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="1">
-        <v>0.368834</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15">
+    </row>
+    <row r="54" spans="1:1" ht="15">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="1">
-        <v>0.36787500000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15">
+    </row>
+    <row r="55" spans="1:1" ht="15">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="1">
-        <v>0.37045899999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15">
+    </row>
+    <row r="56" spans="1:1" ht="15">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="1">
-        <v>0.37295899999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15">
+    </row>
+    <row r="57" spans="1:1" ht="15">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="1">
-        <v>0.36349999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15">
+    </row>
+    <row r="58" spans="1:1" ht="15">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="1">
-        <v>0.36579200000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15">
+    </row>
+    <row r="59" spans="1:1" ht="15">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="1">
-        <v>0.37033300000000002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15">
+    </row>
+    <row r="60" spans="1:1" ht="15">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="1">
-        <v>0.36175000000000002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15">
+    </row>
+    <row r="61" spans="1:1" ht="15">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="1">
-        <v>0.36149999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15">
+    </row>
+    <row r="62" spans="1:1" ht="15">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="1">
-        <v>0.36858400000000002</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15">
+    </row>
+    <row r="63" spans="1:1" ht="15">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="1">
-        <v>0.363875</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15">
+    </row>
+    <row r="64" spans="1:1" ht="15">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="1">
-        <v>0.36566700000000002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15">
+    </row>
+    <row r="65" spans="1:1" ht="15">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="1">
-        <v>0.36537500000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15">
+    </row>
+    <row r="66" spans="1:1" ht="15">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="1">
-        <v>0.362375</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15">
+    </row>
+    <row r="67" spans="1:1" ht="15">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="1">
-        <v>0.37087500000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="15">
+    </row>
+    <row r="68" spans="1:1" ht="15">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="1">
-        <v>0.362792</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="15">
+    </row>
+    <row r="69" spans="1:1" ht="15">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="1">
-        <v>0.36849999999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="15">
+    </row>
+    <row r="70" spans="1:1" ht="15">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="1">
-        <v>0.36858400000000002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="15">
+    </row>
+    <row r="71" spans="1:1" ht="15">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="1">
-        <v>0.36612499999999998</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="15">
+    </row>
+    <row r="72" spans="1:1" ht="15">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="1">
-        <v>0.363875</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15">
+    </row>
+    <row r="73" spans="1:1" ht="15">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="1">
-        <v>0.364375</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="15">
+    </row>
+    <row r="74" spans="1:1" ht="15">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="1">
-        <v>0.36929200000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="15">
+    </row>
+    <row r="75" spans="1:1" ht="15">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="1">
-        <v>0.365541</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="15">
+    </row>
+    <row r="76" spans="1:1" ht="15">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="1">
-        <v>0.36295899999999998</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="15">
+    </row>
+    <row r="77" spans="1:1" ht="15">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="1">
-        <v>0.36449999999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="15">
+    </row>
+    <row r="78" spans="1:1" ht="15">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="1">
-        <v>0.36925000000000002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="15">
+    </row>
+    <row r="79" spans="1:1" ht="15">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="1">
-        <v>0.36849999999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="15">
+    </row>
+    <row r="80" spans="1:1" ht="15">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="1">
-        <v>0.36925000000000002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="15">
+    </row>
+    <row r="81" spans="1:1" ht="15">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="1">
-        <v>0.36937500000000001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="15">
+    </row>
+    <row r="82" spans="1:1" ht="15">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="1">
-        <v>0.37987500000000002</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="15">
+    </row>
+    <row r="83" spans="1:1" ht="15">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="1">
-        <v>0.36412499999999998</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="15">
+    </row>
+    <row r="84" spans="1:1" ht="15">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="1">
-        <v>0.36658299999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="15">
+    </row>
+    <row r="85" spans="1:1" ht="15">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="1">
-        <v>0.36483300000000002</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="15">
+    </row>
+    <row r="86" spans="1:1" ht="15">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="1">
-        <v>0.36316700000000002</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="15">
+    </row>
+    <row r="87" spans="1:1" ht="15">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="1">
-        <v>0.36408299999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="15">
+    </row>
+    <row r="88" spans="1:1" ht="15">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="1">
-        <v>0.36591699999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="15">
+    </row>
+    <row r="89" spans="1:1" ht="15">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="1">
-        <v>0.36749999999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="15">
+    </row>
+    <row r="90" spans="1:1" ht="15">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="1">
-        <v>0.36870799999999998</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="15">
+    </row>
+    <row r="91" spans="1:1" ht="15">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="1">
-        <v>0.36891600000000002</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="15">
+    </row>
+    <row r="92" spans="1:1" ht="15">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="1">
-        <v>0.36616700000000002</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="15">
+    </row>
+    <row r="93" spans="1:1" ht="15">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" s="1">
-        <v>0.36116700000000002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="15">
+    </row>
+    <row r="94" spans="1:1" ht="15">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" s="1">
-        <v>0.36679200000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="15">
+    </row>
+    <row r="95" spans="1:1" ht="15">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="1">
-        <v>0.36258400000000002</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="15">
+    </row>
+    <row r="96" spans="1:1" ht="15">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" s="1">
-        <v>0.36616700000000002</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="15">
+    </row>
+    <row r="97" spans="1:1" ht="15">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" s="1">
-        <v>0.36791699999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="15">
+    </row>
+    <row r="98" spans="1:1" ht="15">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" s="1">
-        <v>0.36825000000000002</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="15">
+    </row>
+    <row r="99" spans="1:1" ht="15">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" s="1">
-        <v>0.37887500000000002</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="15">
+    </row>
+    <row r="100" spans="1:1" ht="15">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" s="1">
-        <v>0.36749999999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="15">
+    </row>
+    <row r="101" spans="1:1" ht="15">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" s="1">
-        <v>0.36370799999999998</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="15">
+    </row>
+    <row r="102" spans="1:1" ht="15">
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" s="1">
-        <v>0.37795800000000002</v>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I8:L8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A75A410-8138-534C-A775-8CEAA3E70A72}">
+  <dimension ref="A1:L102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" ht="15">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1" t="e">
+        <f>AVERAGE(テーブル245656567891011910[sequential])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="1" t="e">
+        <f>AVERAGE(テーブル245656567891011910[multi-thread])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="1" t="e">
+        <f>AVERAGE(テーブル245656567891011910[multi-fiber])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="1" t="e">
+        <f>AVERAGE(テーブル245656567891011910[simd])</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" ht="15">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="15">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="15">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15">
+      <c r="A102" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24AEF8F-4F92-664F-8544-9589780CF1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563B3A59-8AA2-A048-BAF8-15AF730ABCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1080" windowWidth="14460" windowHeight="16720" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="14440" windowHeight="16440" activeTab="2" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
   <sheets>
     <sheet name="result of all" sheetId="1" r:id="rId1"/>
     <sheet name="ham3tc.tfc" sheetId="2" r:id="rId2"/>
     <sheet name="3_17tc.tfc" sheetId="3" r:id="rId3"/>
+    <sheet name="hwb4tc.tfc" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
   <si>
     <t>ham3tc.tfc</t>
     <phoneticPr fontId="1"/>
@@ -109,6 +110,10 @@
   </si>
   <si>
     <t>hwb5tc.tfc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>num of qubits</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -238,7 +243,201 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Futura Condensed Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -653,28 +852,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}" name="テーブル245656567891011" displayName="テーブル245656567891011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}" name="テーブル245656567891011" displayName="テーブル245656567891011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" headerRowBorderDxfId="17">
   <autoFilter ref="A2:E102" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5BA224EE-6041-F344-B34A-9FBDF29A9510}" name="times" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{6CE03F36-CF34-9645-A348-C61D9EF118B4}" name="sequential" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{874D523F-A842-214F-8959-9A61540A9A8A}" name="multi-thread" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{2D90F0B7-A0EF-694E-91B3-7AF4BD0EADA8}" name="multi-fiber" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{61BBD1D9-647D-CA41-B58E-4467F0EE0459}" name="simd" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{5BA224EE-6041-F344-B34A-9FBDF29A9510}" name="times" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{6CE03F36-CF34-9645-A348-C61D9EF118B4}" name="sequential" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{874D523F-A842-214F-8959-9A61540A9A8A}" name="multi-thread" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{2D90F0B7-A0EF-694E-91B3-7AF4BD0EADA8}" name="multi-fiber" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{61BBD1D9-647D-CA41-B58E-4467F0EE0459}" name="simd" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82584110-A505-4543-82D8-BD808AA930A0}" name="テーブル2456565678910119" displayName="テーブル2456565678910119" ref="A2:E102" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82584110-A505-4543-82D8-BD808AA930A0}" name="テーブル2456565678910119" displayName="テーブル2456565678910119" ref="A2:E102" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="13">
   <autoFilter ref="A2:E102" xr:uid="{82584110-A505-4543-82D8-BD808AA930A0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4D465662-E697-4748-85BF-2F2EC8672C84}" name="times" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{0C48220D-731B-5643-951C-25F8B0805619}" name="sequential" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{7C0B3FE2-B06D-5747-B181-A167826473DE}" name="multi-thread" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{65911D59-AC68-BA43-8B87-7E5380B0D4D6}" name="multi-fiber" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{2FAA4EBB-E04F-1944-B3F3-4D62E902DC12}" name="simd" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4D465662-E697-4748-85BF-2F2EC8672C84}" name="times" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{0C48220D-731B-5643-951C-25F8B0805619}" name="sequential" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{7C0B3FE2-B06D-5747-B181-A167826473DE}" name="multi-thread" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{65911D59-AC68-BA43-8B87-7E5380B0D4D6}" name="multi-fiber" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{2FAA4EBB-E04F-1944-B3F3-4D62E902DC12}" name="simd" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A8FAC881-4731-7343-8EE9-42A5625B15C1}" name="テーブル245656567891011910" displayName="テーブル245656567891011910" ref="A2:E102" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="5">
+  <autoFilter ref="A2:E102" xr:uid="{A8FAC881-4731-7343-8EE9-42A5625B15C1}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7DC7A093-2326-6B4A-992F-B923642F87F8}" name="times" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{42430DD7-77E9-8149-9C1C-7264A4F0C9D0}" name="sequential" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{4F06783E-DB05-0749-B697-3DD162D0AD11}" name="multi-thread" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{5602D008-1E02-6045-9F32-7E6B7BB91324}" name="multi-fiber" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{DC415C3C-6475-3F44-AAB7-A763B098F097}" name="simd" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -997,130 +1210,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCC3EA3-5E50-2748-BD2A-C2B8CF08A0DE}">
-  <dimension ref="A2:H10"/>
+  <dimension ref="A2:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="9"/>
-    <col min="3" max="3" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="9"/>
+    <col min="1" max="1" width="10.7109375" style="9"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="9"/>
+    <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="E2" s="10" t="s">
+    <row r="2" spans="1:9">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" s="9" t="s">
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
         <v>5</v>
       </c>
-      <c r="C4" s="9">
+      <c r="D4" s="9">
         <v>7</v>
       </c>
-      <c r="E4" s="9">
+      <c r="F4" s="9">
         <f>ham3tc.tfc!I10</f>
-        <v>0.28040207000000017</v>
-      </c>
-      <c r="F4" s="9">
+        <v>0.22538257000000009</v>
+      </c>
+      <c r="G4" s="9">
         <f>ham3tc.tfc!J10</f>
-        <v>0.72422496999999975</v>
-      </c>
-      <c r="G4" s="9">
+        <v>0.50185417999999971</v>
+      </c>
+      <c r="H4" s="9">
         <f>ham3tc.tfc!K10</f>
-        <v>0.45461163999999998</v>
-      </c>
-      <c r="H4" s="9" t="e">
+        <v>0.40875494999999984</v>
+      </c>
+      <c r="I4" s="9" t="e">
         <f>ham3tc.tfc!L10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
         <v>6</v>
       </c>
-      <c r="C5" s="9">
+      <c r="D5" s="9">
         <v>12</v>
       </c>
-      <c r="E5" s="9">
+      <c r="F5" s="9" t="e">
         <f>'3_17tc.tfc'!I10</f>
-        <v>0.36803301999999993</v>
-      </c>
-      <c r="F5" s="9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" s="9" t="e">
         <f>'3_17tc.tfc'!J10</f>
-        <v>1.05358353</v>
-      </c>
-      <c r="G5" s="9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" s="9" t="e">
         <f>'3_17tc.tfc'!K10</f>
-        <v>0.58978542000000034</v>
-      </c>
-      <c r="H5" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" s="9" t="e">
         <f>'3_17tc.tfc'!L10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
+        <v>17</v>
+      </c>
+      <c r="D6" s="9">
+        <v>63</v>
+      </c>
+      <c r="F6" s="9" t="e">
+        <f>hwb4tc.tfc!I10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="9" t="e">
+        <f>hwb4tc.tfc!J10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" s="9" t="e">
+        <f>hwb4tc.tfc!K10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="9" t="e">
+        <f>hwb4tc.tfc!L10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1131,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5683DF-DD1F-914F-B880-0E0A08994056}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -1174,13 +1423,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.27379199999999998</v>
+        <v>0.222167</v>
       </c>
       <c r="C3" s="1">
-        <v>0.73154200000000003</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>0.45074999999999998</v>
+        <v>0.40445799999999998</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1188,13 +1437,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.27545900000000001</v>
+        <v>0.22783400000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>0.69599999999999995</v>
+        <v>0.51487499999999997</v>
       </c>
       <c r="D4" s="1">
-        <v>0.45758300000000002</v>
+        <v>0.40579100000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1202,13 +1451,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.28108300000000003</v>
+        <v>0.22304199999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>0.74820900000000001</v>
+        <v>0.51837500000000003</v>
       </c>
       <c r="D5" s="1">
-        <v>0.46937499999999999</v>
+        <v>0.39958300000000002</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1216,13 +1465,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.278916</v>
+        <v>0.224333</v>
       </c>
       <c r="C6" s="1">
-        <v>0.71920899999999999</v>
+        <v>0.50604099999999996</v>
       </c>
       <c r="D6" s="1">
-        <v>0.46904200000000001</v>
+        <v>0.40808299999999997</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1230,13 +1479,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.28175</v>
+        <v>0.22179099999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>0.72370800000000002</v>
+        <v>0.48016599999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>0.454125</v>
+        <v>0.40504200000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1244,13 +1493,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.27687499999999998</v>
+        <v>0.22212499999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>0.75600000000000001</v>
+        <v>0.49316700000000002</v>
       </c>
       <c r="D8" s="1">
-        <v>0.45241700000000001</v>
+        <v>0.40329199999999998</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>9</v>
@@ -1264,13 +1513,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.278833</v>
+        <v>0.22583300000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>0.72966699999999995</v>
+        <v>0.50508399999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>0.45587499999999997</v>
+        <v>0.40737499999999999</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
@@ -1290,25 +1539,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.28162500000000001</v>
+        <v>0.228459</v>
       </c>
       <c r="C10" s="1">
-        <v>0.73445800000000006</v>
+        <v>0.52166599999999996</v>
       </c>
       <c r="D10" s="1">
-        <v>0.45124999999999998</v>
+        <v>0.40279199999999998</v>
       </c>
       <c r="I10" s="1">
         <f>AVERAGE(テーブル245656567891011[sequential])</f>
-        <v>0.28040207000000017</v>
+        <v>0.22538257000000009</v>
       </c>
       <c r="J10" s="1">
         <f>AVERAGE(テーブル245656567891011[multi-thread])</f>
-        <v>0.72422496999999975</v>
+        <v>0.50185417999999971</v>
       </c>
       <c r="K10" s="1">
         <f>AVERAGE(テーブル245656567891011[multi-fiber])</f>
-        <v>0.45461163999999998</v>
+        <v>0.40875494999999984</v>
       </c>
       <c r="L10" s="1" t="e">
         <f>AVERAGE(テーブル245656567891011[simd])</f>
@@ -1320,13 +1569,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.28012500000000001</v>
+        <v>0.22254199999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>0.68754199999999999</v>
+        <v>0.48</v>
       </c>
       <c r="D11" s="1">
-        <v>0.45174999999999998</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1334,13 +1583,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0.27929100000000001</v>
+        <v>0.21995799999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>0.73799999999999999</v>
+        <v>0.48462499999999997</v>
       </c>
       <c r="D12" s="1">
-        <v>0.449791</v>
+        <v>0.40375</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1348,13 +1597,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>0.277916</v>
+        <v>0.22554199999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>0.70037499999999997</v>
+        <v>0.503166</v>
       </c>
       <c r="D13" s="1">
-        <v>0.45500000000000002</v>
+        <v>0.40350000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1362,13 +1611,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>0.27787499999999998</v>
+        <v>0.22525000000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>0.730541</v>
+        <v>0.47670800000000002</v>
       </c>
       <c r="D14" s="1">
-        <v>0.45591700000000002</v>
+        <v>0.401167</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1376,13 +1625,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0.27862500000000001</v>
+        <v>0.23008400000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>0.86458299999999999</v>
+        <v>0.50404199999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>0.451625</v>
+        <v>0.40162500000000001</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1390,13 +1639,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>0.27670800000000001</v>
+        <v>0.222666</v>
       </c>
       <c r="C16" s="1">
-        <v>0.76708399999999999</v>
+        <v>0.51195900000000005</v>
       </c>
       <c r="D16" s="1">
-        <v>0.45508300000000002</v>
+        <v>0.40641699999999997</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1404,13 +1653,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>0.27524999999999999</v>
+        <v>0.22566700000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>0.74679200000000001</v>
+        <v>0.51166599999999995</v>
       </c>
       <c r="D17" s="1">
-        <v>0.45350000000000001</v>
+        <v>0.40741699999999997</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1418,13 +1667,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>0.276667</v>
+        <v>0.22679199999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>0.72795799999999999</v>
+        <v>0.50554200000000005</v>
       </c>
       <c r="D18" s="1">
-        <v>0.46033299999999999</v>
+        <v>0.41291699999999998</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1432,13 +1681,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.27441700000000002</v>
+        <v>0.222334</v>
       </c>
       <c r="C19" s="1">
-        <v>0.75004099999999996</v>
+        <v>0.52633399999999997</v>
       </c>
       <c r="D19" s="1">
-        <v>0.456208</v>
+        <v>0.41204200000000002</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1446,13 +1695,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>0.27600000000000002</v>
+        <v>0.223166</v>
       </c>
       <c r="C20" s="1">
-        <v>0.72358299999999998</v>
+        <v>0.49016700000000002</v>
       </c>
       <c r="D20" s="1">
-        <v>0.451542</v>
+        <v>0.40929100000000002</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1460,13 +1709,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>0.27812500000000001</v>
+        <v>0.22758400000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>0.75145799999999996</v>
+        <v>0.51295800000000003</v>
       </c>
       <c r="D21" s="1">
-        <v>0.45229200000000003</v>
+        <v>0.40275</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1474,13 +1723,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>0.27679100000000001</v>
+        <v>0.22737499999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>0.71429200000000004</v>
+        <v>0.49675000000000002</v>
       </c>
       <c r="D22" s="1">
-        <v>0.45291599999999999</v>
+        <v>0.41083399999999998</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1488,13 +1737,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>0.276167</v>
+        <v>0.22541700000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>0.69841699999999995</v>
+        <v>0.46825</v>
       </c>
       <c r="D23" s="1">
-        <v>0.448542</v>
+        <v>0.40275</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1502,13 +1751,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>0.27795799999999998</v>
+        <v>0.22429099999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>0.68087500000000001</v>
+        <v>0.50629199999999996</v>
       </c>
       <c r="D24" s="1">
-        <v>0.45629199999999998</v>
+        <v>0.41495799999999999</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1516,13 +1765,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>0.27891700000000003</v>
+        <v>0.22758300000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>0.71033299999999999</v>
+        <v>0.50820799999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>0.44879200000000002</v>
+        <v>0.40283400000000003</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1530,13 +1779,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>0.28345799999999999</v>
+        <v>0.221584</v>
       </c>
       <c r="C26" s="1">
-        <v>0.71775</v>
+        <v>0.43362499999999998</v>
       </c>
       <c r="D26" s="1">
-        <v>0.46987499999999999</v>
+        <v>0.40200000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1544,13 +1793,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>0.27708300000000002</v>
+        <v>0.22137499999999999</v>
       </c>
       <c r="C27" s="1">
-        <v>0.72291700000000003</v>
+        <v>0.50937500000000002</v>
       </c>
       <c r="D27" s="1">
-        <v>0.46220800000000001</v>
+        <v>0.404333</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1558,13 +1807,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>0.30033399999999999</v>
+        <v>0.23175000000000001</v>
       </c>
       <c r="C28" s="1">
-        <v>0.71329200000000004</v>
+        <v>0.480292</v>
       </c>
       <c r="D28" s="1">
-        <v>0.451708</v>
+        <v>0.40354200000000001</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1572,13 +1821,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>0.295958</v>
+        <v>0.22079199999999999</v>
       </c>
       <c r="C29" s="1">
-        <v>0.72795799999999999</v>
+        <v>0.48479100000000003</v>
       </c>
       <c r="D29" s="1">
-        <v>0.46162500000000001</v>
+        <v>0.40404099999999998</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1586,13 +1835,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>0.28299999999999997</v>
+        <v>0.22679199999999999</v>
       </c>
       <c r="C30" s="1">
-        <v>0.70820799999999995</v>
+        <v>0.51495800000000003</v>
       </c>
       <c r="D30" s="1">
-        <v>0.466916</v>
+        <v>0.402584</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1600,13 +1849,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.22654199999999999</v>
       </c>
       <c r="C31" s="1">
-        <v>0.72279199999999999</v>
+        <v>0.47679199999999999</v>
       </c>
       <c r="D31" s="1">
-        <v>0.45120900000000003</v>
+        <v>0.40391700000000003</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1614,13 +1863,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>0.34825</v>
+        <v>0.224333</v>
       </c>
       <c r="C32" s="1">
-        <v>0.71458299999999997</v>
+        <v>0.547458</v>
       </c>
       <c r="D32" s="1">
-        <v>0.45537499999999997</v>
+        <v>0.410333</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1628,13 +1877,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>0.280167</v>
+        <v>0.22766700000000001</v>
       </c>
       <c r="C33" s="1">
-        <v>0.74895800000000001</v>
+        <v>0.50324999999999998</v>
       </c>
       <c r="D33" s="1">
-        <v>0.45341599999999999</v>
+        <v>0.40920800000000002</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1642,13 +1891,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>0.28129199999999999</v>
+        <v>0.22175</v>
       </c>
       <c r="C34" s="1">
-        <v>0.72941599999999995</v>
+        <v>0.50549999999999995</v>
       </c>
       <c r="D34" s="1">
-        <v>0.455542</v>
+        <v>0.40391700000000003</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1656,13 +1905,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>0.277084</v>
+        <v>0.22441700000000001</v>
       </c>
       <c r="C35" s="8">
-        <v>0.71266700000000005</v>
+        <v>0.54962500000000003</v>
       </c>
       <c r="D35" s="8">
-        <v>0.45241599999999998</v>
+        <v>0.40483400000000003</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1670,13 +1919,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>0.27925</v>
+        <v>0.22766700000000001</v>
       </c>
       <c r="C36" s="1">
-        <v>0.70837499999999998</v>
+        <v>0.49179200000000001</v>
       </c>
       <c r="D36" s="1">
-        <v>0.44883299999999998</v>
+        <v>0.40500000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1684,13 +1933,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>0.28354200000000002</v>
+        <v>0.22483300000000001</v>
       </c>
       <c r="C37" s="1">
-        <v>0.70441699999999996</v>
+        <v>0.48358299999999999</v>
       </c>
       <c r="D37" s="1">
-        <v>0.452459</v>
+        <v>0.40708299999999997</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1698,13 +1947,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>0.27170800000000001</v>
+        <v>0.22454199999999999</v>
       </c>
       <c r="C38" s="1">
-        <v>0.75791699999999995</v>
+        <v>0.50512500000000005</v>
       </c>
       <c r="D38" s="1">
-        <v>0.44850000000000001</v>
+        <v>0.41158299999999998</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1712,13 +1961,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>0.27474999999999999</v>
+        <v>0.222583</v>
       </c>
       <c r="C39" s="1">
-        <v>0.69791599999999998</v>
+        <v>0.52095800000000003</v>
       </c>
       <c r="D39" s="1">
-        <v>0.46600000000000003</v>
+        <v>0.40179100000000001</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1726,13 +1975,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>0.280833</v>
+        <v>0.22495799999999999</v>
       </c>
       <c r="C40" s="1">
-        <v>0.71299999999999997</v>
+        <v>0.486875</v>
       </c>
       <c r="D40" s="1">
-        <v>0.44829200000000002</v>
+        <v>0.406416</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1740,13 +1989,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>0.27583299999999999</v>
+        <v>0.22583300000000001</v>
       </c>
       <c r="C41" s="1">
-        <v>0.71829200000000004</v>
+        <v>0.50987499999999997</v>
       </c>
       <c r="D41" s="1">
-        <v>0.44783299999999998</v>
+        <v>0.417292</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1754,13 +2003,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>0.28062500000000001</v>
+        <v>0.22345899999999999</v>
       </c>
       <c r="C42" s="1">
-        <v>0.72950000000000004</v>
+        <v>0.50916600000000001</v>
       </c>
       <c r="D42" s="1">
-        <v>0.45033299999999998</v>
+        <v>0.40216600000000002</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1768,13 +2017,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>0.279667</v>
+        <v>0.220834</v>
       </c>
       <c r="C43" s="1">
-        <v>0.67966599999999999</v>
+        <v>0.49175000000000002</v>
       </c>
       <c r="D43" s="1">
-        <v>0.45137500000000003</v>
+        <v>0.40562500000000001</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1782,13 +2031,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>0.28445900000000002</v>
+        <v>0.22075</v>
       </c>
       <c r="C44" s="1">
-        <v>0.74199999999999999</v>
+        <v>0.51958400000000005</v>
       </c>
       <c r="D44" s="1">
-        <v>0.453208</v>
+        <v>0.404667</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1796,13 +2045,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>0.279167</v>
+        <v>0.23633299999999999</v>
       </c>
       <c r="C45" s="1">
-        <v>0.72479099999999996</v>
+        <v>0.53670799999999996</v>
       </c>
       <c r="D45" s="1">
-        <v>0.45474999999999999</v>
+        <v>0.59624999999999995</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1810,13 +2059,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>0.27750000000000002</v>
+        <v>0.22304199999999999</v>
       </c>
       <c r="C46" s="1">
-        <v>0.74887499999999996</v>
+        <v>0.51795800000000003</v>
       </c>
       <c r="D46" s="1">
-        <v>0.45987499999999998</v>
+        <v>0.40220800000000001</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1824,13 +2073,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>0.27912500000000001</v>
+        <v>0.22895799999999999</v>
       </c>
       <c r="C47" s="1">
-        <v>0.70416599999999996</v>
+        <v>0.51195900000000005</v>
       </c>
       <c r="D47" s="1">
-        <v>0.45420899999999997</v>
+        <v>0.41337499999999999</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1838,13 +2087,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>0.27341700000000002</v>
+        <v>0.221916</v>
       </c>
       <c r="C48" s="1">
-        <v>0.745</v>
+        <v>0.49008299999999999</v>
       </c>
       <c r="D48" s="1">
-        <v>0.45008399999999998</v>
+        <v>0.40570800000000001</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1852,13 +2101,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>0.27487499999999998</v>
+        <v>0.22608400000000001</v>
       </c>
       <c r="C49" s="1">
-        <v>0.69895799999999997</v>
+        <v>0.497</v>
       </c>
       <c r="D49" s="1">
-        <v>0.46920800000000001</v>
+        <v>0.41016599999999998</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1866,13 +2115,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>0.276916</v>
+        <v>0.22329199999999999</v>
       </c>
       <c r="C50" s="1">
-        <v>0.68116699999999997</v>
+        <v>0.50049999999999994</v>
       </c>
       <c r="D50" s="1">
-        <v>0.44829200000000002</v>
+        <v>0.40362500000000001</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1880,13 +2129,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>0.27483299999999999</v>
+        <v>0.22470799999999999</v>
       </c>
       <c r="C51" s="1">
-        <v>0.72445800000000005</v>
+        <v>0.49804199999999998</v>
       </c>
       <c r="D51" s="1">
-        <v>0.44916699999999998</v>
+        <v>0.40975</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1894,13 +2143,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>0.28345799999999999</v>
+        <v>0.22312499999999999</v>
       </c>
       <c r="C52" s="1">
-        <v>0.75349999999999995</v>
+        <v>0.49820799999999998</v>
       </c>
       <c r="D52" s="1">
-        <v>0.45024999999999998</v>
+        <v>0.40487499999999998</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1908,13 +2157,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>0.28037499999999999</v>
+        <v>0.22708400000000001</v>
       </c>
       <c r="C53" s="1">
-        <v>0.73479099999999997</v>
+        <v>0.51649999999999996</v>
       </c>
       <c r="D53" s="1">
-        <v>0.451542</v>
+        <v>0.42391699999999999</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1922,13 +2171,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>0.27895799999999998</v>
+        <v>0.22787499999999999</v>
       </c>
       <c r="C54" s="1">
-        <v>0.68187500000000001</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="D54" s="1">
-        <v>0.45120900000000003</v>
+        <v>0.40087499999999998</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1936,13 +2185,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>0.27879199999999998</v>
+        <v>0.228959</v>
       </c>
       <c r="C55" s="1">
-        <v>0.72366699999999995</v>
+        <v>0.48304200000000003</v>
       </c>
       <c r="D55" s="1">
-        <v>0.451042</v>
+        <v>0.40925</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1950,13 +2199,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>0.282833</v>
+        <v>0.22270799999999999</v>
       </c>
       <c r="C56" s="1">
-        <v>0.73716599999999999</v>
+        <v>0.50841700000000001</v>
       </c>
       <c r="D56" s="1">
-        <v>0.45037500000000003</v>
+        <v>0.40279199999999998</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1964,13 +2213,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>0.28162500000000001</v>
+        <v>0.22275</v>
       </c>
       <c r="C57" s="1">
-        <v>0.70933299999999999</v>
+        <v>0.51379200000000003</v>
       </c>
       <c r="D57" s="1">
-        <v>0.44850000000000001</v>
+        <v>0.40799999999999997</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1978,13 +2227,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>0.28249999999999997</v>
+        <v>0.22966700000000001</v>
       </c>
       <c r="C58" s="1">
-        <v>0.76395800000000003</v>
+        <v>0.51195900000000005</v>
       </c>
       <c r="D58" s="1">
-        <v>0.457042</v>
+        <v>0.40212500000000001</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1992,13 +2241,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>0.27312500000000001</v>
+        <v>0.222</v>
       </c>
       <c r="C59" s="1">
-        <v>0.72483299999999995</v>
+        <v>0.48666599999999999</v>
       </c>
       <c r="D59" s="1">
-        <v>0.45645799999999997</v>
+        <v>0.41054099999999999</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2006,13 +2255,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>0.27758300000000002</v>
+        <v>0.22816600000000001</v>
       </c>
       <c r="C60" s="1">
-        <v>0.69620899999999997</v>
+        <v>0.51024999999999998</v>
       </c>
       <c r="D60" s="1">
-        <v>0.45141700000000001</v>
+        <v>0.40516600000000003</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2020,13 +2269,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="1">
-        <v>0.277584</v>
+        <v>0.22245799999999999</v>
       </c>
       <c r="C61" s="1">
-        <v>0.74495800000000001</v>
+        <v>0.48454199999999997</v>
       </c>
       <c r="D61" s="1">
-        <v>0.45287500000000003</v>
+        <v>0.40695900000000002</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2034,13 +2283,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="1">
-        <v>0.29262500000000002</v>
+        <v>0.22587499999999999</v>
       </c>
       <c r="C62" s="1">
-        <v>0.75345799999999996</v>
+        <v>0.50791699999999995</v>
       </c>
       <c r="D62" s="1">
-        <v>0.449959</v>
+        <v>0.41099999999999998</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2048,13 +2297,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>0.28404200000000002</v>
+        <v>0.222667</v>
       </c>
       <c r="C63" s="1">
-        <v>0.71004100000000003</v>
+        <v>0.53004099999999998</v>
       </c>
       <c r="D63" s="1">
-        <v>0.471333</v>
+        <v>0.40420800000000001</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2062,13 +2311,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>0.27600000000000002</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="C64" s="1">
-        <v>0.80308400000000002</v>
+        <v>0.48562499999999997</v>
       </c>
       <c r="D64" s="1">
-        <v>0.45800000000000002</v>
+        <v>0.41799999999999998</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2076,13 +2325,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>0.28295900000000002</v>
+        <v>0.22608300000000001</v>
       </c>
       <c r="C65" s="1">
-        <v>0.72383399999999998</v>
+        <v>0.49</v>
       </c>
       <c r="D65" s="1">
-        <v>0.45545799999999997</v>
+        <v>0.404916</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2090,13 +2339,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>0.27695900000000001</v>
+        <v>0.223833</v>
       </c>
       <c r="C66" s="1">
-        <v>0.71012500000000001</v>
+        <v>0.49770900000000001</v>
       </c>
       <c r="D66" s="1">
-        <v>0.455125</v>
+        <v>0.40520800000000001</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2104,13 +2353,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>0.29358299999999998</v>
+        <v>0.222667</v>
       </c>
       <c r="C67" s="1">
-        <v>0.71329200000000004</v>
+        <v>0.49358400000000002</v>
       </c>
       <c r="D67" s="1">
-        <v>0.45</v>
+        <v>0.402833</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2118,13 +2367,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="1">
-        <v>0.27383400000000002</v>
+        <v>0.22075</v>
       </c>
       <c r="C68" s="1">
-        <v>0.72887500000000005</v>
+        <v>0.52462500000000001</v>
       </c>
       <c r="D68" s="1">
-        <v>0.45395799999999997</v>
+        <v>0.40195799999999998</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2132,13 +2381,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="1">
-        <v>0.27845799999999998</v>
+        <v>0.22541700000000001</v>
       </c>
       <c r="C69" s="1">
-        <v>0.70470900000000003</v>
+        <v>0.50208299999999995</v>
       </c>
       <c r="D69" s="1">
-        <v>0.45374999999999999</v>
+        <v>0.40687499999999999</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2146,13 +2395,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>0.27912500000000001</v>
+        <v>0.22575000000000001</v>
       </c>
       <c r="C70" s="1">
-        <v>0.71325000000000005</v>
+        <v>0.49254199999999998</v>
       </c>
       <c r="D70" s="1">
-        <v>0.45241700000000001</v>
+        <v>0.402416</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2160,13 +2409,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="1">
-        <v>0.27687499999999998</v>
+        <v>0.223584</v>
       </c>
       <c r="C71" s="1">
-        <v>0.71483399999999997</v>
+        <v>0.50824999999999998</v>
       </c>
       <c r="D71" s="1">
-        <v>0.45279199999999997</v>
+        <v>0.40233400000000002</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2174,13 +2423,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="1">
-        <v>0.27812500000000001</v>
+        <v>0.22245799999999999</v>
       </c>
       <c r="C72" s="1">
-        <v>0.71037499999999998</v>
+        <v>0.51129199999999997</v>
       </c>
       <c r="D72" s="1">
-        <v>0.463916</v>
+        <v>0.40150000000000002</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2188,13 +2437,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>0.27508300000000002</v>
+        <v>0.22891600000000001</v>
       </c>
       <c r="C73" s="1">
-        <v>0.73350000000000004</v>
+        <v>0.50095800000000001</v>
       </c>
       <c r="D73" s="1">
-        <v>0.45191700000000001</v>
+        <v>0.40400000000000003</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2202,13 +2451,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>0.27870800000000001</v>
+        <v>0.223583</v>
       </c>
       <c r="C74" s="1">
-        <v>0.75329199999999996</v>
+        <v>0.49362499999999998</v>
       </c>
       <c r="D74" s="1">
-        <v>0.45445799999999997</v>
+        <v>0.40799999999999997</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2216,13 +2465,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>0.276333</v>
+        <v>0.22404199999999999</v>
       </c>
       <c r="C75" s="1">
-        <v>0.69699999999999995</v>
+        <v>0.50524999999999998</v>
       </c>
       <c r="D75" s="1">
-        <v>0.45008300000000001</v>
+        <v>0.41275000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2230,13 +2479,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="1">
-        <v>0.28016600000000003</v>
+        <v>0.22512499999999999</v>
       </c>
       <c r="C76" s="1">
-        <v>0.76545799999999997</v>
+        <v>0.48549999999999999</v>
       </c>
       <c r="D76" s="1">
-        <v>0.45791700000000002</v>
+        <v>0.404167</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2244,13 +2493,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>0.27604099999999998</v>
+        <v>0.22895799999999999</v>
       </c>
       <c r="C77" s="1">
-        <v>0.64704200000000001</v>
+        <v>0.50279200000000002</v>
       </c>
       <c r="D77" s="1">
-        <v>0.45191700000000001</v>
+        <v>0.40812500000000002</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2258,13 +2507,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="1">
-        <v>0.278416</v>
+        <v>0.22554199999999999</v>
       </c>
       <c r="C78" s="1">
-        <v>0.74420900000000001</v>
+        <v>0.46316600000000002</v>
       </c>
       <c r="D78" s="1">
-        <v>0.45016600000000001</v>
+        <v>0.41104099999999999</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2272,13 +2521,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>0.277667</v>
+        <v>0.22875000000000001</v>
       </c>
       <c r="C79" s="1">
-        <v>0.721333</v>
+        <v>0.49620799999999998</v>
       </c>
       <c r="D79" s="1">
-        <v>0.452208</v>
+        <v>0.43254199999999998</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2286,13 +2535,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>0.27787499999999998</v>
+        <v>0.22275</v>
       </c>
       <c r="C80" s="1">
-        <v>0.77112499999999995</v>
+        <v>0.49775000000000003</v>
       </c>
       <c r="D80" s="1">
-        <v>0.45324999999999999</v>
+        <v>0.40795799999999999</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2300,13 +2549,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="1">
-        <v>0.28100000000000003</v>
+        <v>0.22537499999999999</v>
       </c>
       <c r="C81" s="1">
-        <v>0.68033299999999997</v>
+        <v>0.52391699999999997</v>
       </c>
       <c r="D81" s="1">
-        <v>0.48025000000000001</v>
+        <v>0.40154099999999998</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2314,13 +2563,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>0.278333</v>
+        <v>0.22891600000000001</v>
       </c>
       <c r="C82" s="1">
-        <v>0.73350000000000004</v>
+        <v>0.46820800000000001</v>
       </c>
       <c r="D82" s="1">
-        <v>0.466333</v>
+        <v>0.41975000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2328,13 +2577,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="1">
-        <v>0.28833300000000001</v>
+        <v>0.23083400000000001</v>
       </c>
       <c r="C83" s="1">
-        <v>0.75575000000000003</v>
+        <v>0.49420900000000001</v>
       </c>
       <c r="D83" s="1">
-        <v>0.44991700000000001</v>
+        <v>0.40787499999999999</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2342,13 +2591,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="1">
-        <v>0.28704200000000002</v>
+        <v>0.22320899999999999</v>
       </c>
       <c r="C84" s="1">
-        <v>0.71795799999999999</v>
+        <v>0.50695800000000002</v>
       </c>
       <c r="D84" s="1">
-        <v>0.45974999999999999</v>
+        <v>0.40975</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2356,13 +2605,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>0.27862500000000001</v>
+        <v>0.22620799999999999</v>
       </c>
       <c r="C85" s="1">
-        <v>0.66108299999999998</v>
+        <v>0.50395800000000002</v>
       </c>
       <c r="D85" s="1">
-        <v>0.451791</v>
+        <v>0.40575</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2370,13 +2619,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="1">
-        <v>0.33879199999999998</v>
+        <v>0.22629199999999999</v>
       </c>
       <c r="C86" s="1">
-        <v>0.72841599999999995</v>
+        <v>0.49704199999999998</v>
       </c>
       <c r="D86" s="1">
-        <v>0.450542</v>
+        <v>0.40470899999999999</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2384,13 +2633,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="1">
-        <v>0.27604099999999998</v>
+        <v>0.22537499999999999</v>
       </c>
       <c r="C87" s="1">
-        <v>0.71583300000000005</v>
+        <v>0.544875</v>
       </c>
       <c r="D87" s="1">
-        <v>0.45341700000000001</v>
+        <v>0.40725</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2398,13 +2647,13 @@
         <v>86</v>
       </c>
       <c r="B88" s="1">
-        <v>0.27954200000000001</v>
+        <v>0.23566699999999999</v>
       </c>
       <c r="C88" s="1">
-        <v>0.69166700000000003</v>
+        <v>0.520208</v>
       </c>
       <c r="D88" s="1">
-        <v>0.46108300000000002</v>
+        <v>0.41245799999999999</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2412,13 +2661,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="1">
-        <v>0.26983400000000002</v>
+        <v>0.22225</v>
       </c>
       <c r="C89" s="1">
-        <v>0.75841700000000001</v>
+        <v>0.51649999999999996</v>
       </c>
       <c r="D89" s="1">
-        <v>0.45174999999999998</v>
+        <v>0.40804099999999999</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2426,13 +2675,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="1">
-        <v>0.28120800000000001</v>
+        <v>0.22883300000000001</v>
       </c>
       <c r="C90" s="1">
-        <v>0.73320799999999997</v>
+        <v>0.52416700000000005</v>
       </c>
       <c r="D90" s="1">
-        <v>0.45200000000000001</v>
+        <v>0.40720800000000001</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2440,13 +2689,13 @@
         <v>89</v>
       </c>
       <c r="B91" s="1">
-        <v>0.27854099999999998</v>
+        <v>0.22691700000000001</v>
       </c>
       <c r="C91" s="1">
-        <v>0.713916</v>
+        <v>0.49625000000000002</v>
       </c>
       <c r="D91" s="1">
-        <v>0.45045800000000003</v>
+        <v>0.40712500000000001</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2454,13 +2703,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="1">
-        <v>0.27629199999999998</v>
+        <v>0.22583300000000001</v>
       </c>
       <c r="C92" s="1">
-        <v>0.71587500000000004</v>
+        <v>0.495083</v>
       </c>
       <c r="D92" s="1">
-        <v>0.44874999999999998</v>
+        <v>0.41049999999999998</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2468,13 +2717,13 @@
         <v>91</v>
       </c>
       <c r="B93" s="1">
-        <v>0.27870800000000001</v>
+        <v>0.22320899999999999</v>
       </c>
       <c r="C93" s="1">
-        <v>0.69137499999999996</v>
+        <v>0.47662500000000002</v>
       </c>
       <c r="D93" s="1">
-        <v>0.44987500000000002</v>
+        <v>0.40237499999999998</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2482,13 +2731,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="1">
-        <v>0.28145799999999999</v>
+        <v>0.22445899999999999</v>
       </c>
       <c r="C94" s="1">
-        <v>0.72070800000000002</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="D94" s="1">
-        <v>0.45191700000000001</v>
+        <v>0.40254099999999998</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2496,13 +2745,13 @@
         <v>93</v>
       </c>
       <c r="B95" s="1">
-        <v>0.27654200000000001</v>
+        <v>0.234875</v>
       </c>
       <c r="C95" s="1">
-        <v>0.68883399999999995</v>
+        <v>0.49354199999999998</v>
       </c>
       <c r="D95" s="1">
-        <v>0.452291</v>
+        <v>0.40662500000000001</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2510,13 +2759,13 @@
         <v>94</v>
       </c>
       <c r="B96" s="1">
-        <v>0.27775</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="C96" s="1">
-        <v>0.68799999999999994</v>
+        <v>0.50504199999999999</v>
       </c>
       <c r="D96" s="1">
-        <v>0.46300000000000002</v>
+        <v>0.41633399999999998</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2524,13 +2773,13 @@
         <v>95</v>
       </c>
       <c r="B97" s="1">
-        <v>0.27470800000000001</v>
+        <v>0.22237499999999999</v>
       </c>
       <c r="C97" s="1">
-        <v>0.70674999999999999</v>
+        <v>0.50470899999999996</v>
       </c>
       <c r="D97" s="1">
-        <v>0.44866600000000001</v>
+        <v>0.40720800000000001</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2538,13 +2787,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="1">
-        <v>0.27595900000000001</v>
+        <v>0.22179199999999999</v>
       </c>
       <c r="C98" s="1">
-        <v>0.70979199999999998</v>
+        <v>0.51916700000000005</v>
       </c>
       <c r="D98" s="1">
-        <v>0.455125</v>
+        <v>0.40200000000000002</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2552,13 +2801,13 @@
         <v>97</v>
       </c>
       <c r="B99" s="1">
-        <v>0.27529199999999998</v>
+        <v>0.22354199999999999</v>
       </c>
       <c r="C99" s="1">
-        <v>0.74150000000000005</v>
+        <v>0.48279100000000003</v>
       </c>
       <c r="D99" s="1">
-        <v>0.456125</v>
+        <v>0.41049999999999998</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2566,13 +2815,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="1">
-        <v>0.27529199999999998</v>
+        <v>0.22416700000000001</v>
       </c>
       <c r="C100" s="1">
-        <v>0.75570800000000005</v>
+        <v>0.47749999999999998</v>
       </c>
       <c r="D100" s="1">
-        <v>0.451625</v>
+        <v>0.409084</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2580,13 +2829,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="1">
-        <v>0.27870899999999998</v>
+        <v>0.22416700000000001</v>
       </c>
       <c r="C101" s="1">
-        <v>0.778667</v>
+        <v>0.51041700000000001</v>
       </c>
       <c r="D101" s="1">
-        <v>0.45341599999999999</v>
+        <v>0.40195799999999998</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2594,13 +2843,13 @@
         <v>100</v>
       </c>
       <c r="B102" s="1">
-        <v>0.28020800000000001</v>
+        <v>0.237791</v>
       </c>
       <c r="C102" s="1">
-        <v>0.71837499999999999</v>
+        <v>0.483292</v>
       </c>
       <c r="D102" s="1">
-        <v>0.45104100000000003</v>
+        <v>0.40450000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -2620,8 +2869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662F5CEE-B597-0941-966B-E319678C9A58}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
@@ -2662,85 +2911,31 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.41320800000000002</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.94429099999999999</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.58833299999999999</v>
-      </c>
     </row>
     <row r="4" spans="1:12" ht="15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.37808399999999998</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.0780799999999999</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.59012500000000001</v>
-      </c>
     </row>
     <row r="5" spans="1:12" ht="15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.37537500000000001</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.0666199999999999</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.58233400000000002</v>
-      </c>
     </row>
     <row r="6" spans="1:12" ht="15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.39066699999999999</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.0716699999999999</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.59083399999999997</v>
-      </c>
     </row>
     <row r="7" spans="1:12" ht="15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.36683300000000002</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.0794999999999999</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.58983399999999997</v>
-      </c>
     </row>
     <row r="8" spans="1:12" ht="15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.36904100000000001</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.0395399999999999</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.58625000000000005</v>
-      </c>
       <c r="I8" s="7" t="s">
         <v>9</v>
       </c>
@@ -2752,15 +2947,6 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.36583399999999999</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.02979</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.58945899999999996</v>
-      </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2778,26 +2964,17 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.36375000000000002</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.04992</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.58316599999999996</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="I10" s="1" t="e">
         <f>AVERAGE(テーブル2456565678910119[sequential])</f>
-        <v>0.36803301999999993</v>
-      </c>
-      <c r="J10" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="1" t="e">
         <f>AVERAGE(テーブル2456565678910119[multi-thread])</f>
-        <v>1.05358353</v>
-      </c>
-      <c r="K10" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="1" t="e">
         <f>AVERAGE(テーブル2456565678910119[multi-fiber])</f>
-        <v>0.58978542000000034</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L10" s="1" t="e">
         <f>AVERAGE(テーブル2456565678910119[simd])</f>
@@ -2808,1288 +2985,1053 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.36925000000000002</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.0449600000000001</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.58474999999999999</v>
-      </c>
     </row>
     <row r="12" spans="1:12" ht="15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>0.36749999999999999</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1.04521</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.58612500000000001</v>
-      </c>
     </row>
     <row r="13" spans="1:12" ht="15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.36933300000000002</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1.06467</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.58620799999999995</v>
-      </c>
     </row>
     <row r="14" spans="1:12" ht="15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>0.36554199999999998</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.0778300000000001</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.589167</v>
-      </c>
     </row>
     <row r="15" spans="1:12" ht="15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.36333300000000002</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1.07883</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.58745800000000004</v>
-      </c>
     </row>
     <row r="16" spans="1:12" ht="15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
-        <v>0.37070799999999998</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1.1080000000000001</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.59566600000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15">
+    </row>
+    <row r="17" spans="1:1" ht="15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
-        <v>0.36375000000000002</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1.02525</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.58550000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15">
+    </row>
+    <row r="18" spans="1:1" ht="15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
-        <v>0.36133300000000002</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1.0260800000000001</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.58787500000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15">
+    </row>
+    <row r="19" spans="1:1" ht="15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
-        <v>0.370417</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1.05775</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.58770800000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15">
+    </row>
+    <row r="20" spans="1:1" ht="15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
-        <v>0.36241699999999999</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.05942</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.58925000000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15">
+    </row>
+    <row r="21" spans="1:1" ht="15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
-        <v>0.36162499999999997</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.0523800000000001</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.59250000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15">
+    </row>
+    <row r="22" spans="1:1" ht="15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
-        <v>0.36508299999999999</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1.0551299999999999</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.59354200000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15">
+    </row>
+    <row r="23" spans="1:1" ht="15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
-        <v>0.372917</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1.0940799999999999</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.58812500000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15">
+    </row>
+    <row r="24" spans="1:1" ht="15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
-        <v>0.362792</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1.07308</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.589333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15">
+    </row>
+    <row r="25" spans="1:1" ht="15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
-        <v>0.36383399999999999</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1.0603800000000001</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.593584</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15">
+    </row>
+    <row r="26" spans="1:1" ht="15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
-        <v>0.36775000000000002</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1.06196</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.59366699999999994</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15">
+    </row>
+    <row r="27" spans="1:1" ht="15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="1">
-        <v>0.36912499999999998</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1.0382100000000001</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.582542</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15">
+    </row>
+    <row r="28" spans="1:1" ht="15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="1">
-        <v>0.37112499999999998</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1.0657099999999999</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.58791700000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15">
+    </row>
+    <row r="29" spans="1:1" ht="15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="1">
-        <v>0.37087500000000001</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1.0801700000000001</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.58512500000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15">
+    </row>
+    <row r="30" spans="1:1" ht="15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="1">
-        <v>0.36637500000000001</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1.03383</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.58516699999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15">
+    </row>
+    <row r="31" spans="1:1" ht="15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="1">
-        <v>0.37187500000000001</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1.05908</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.59112500000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15">
+    </row>
+    <row r="32" spans="1:1" ht="15">
       <c r="A32" s="1">
         <v>30</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0.36829200000000001</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1.0102100000000001</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.58979199999999998</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="1">
-        <v>0.371583</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1.0438799999999999</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.58845899999999995</v>
-      </c>
     </row>
     <row r="34" spans="1:4" ht="15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="1">
-        <v>0.36812499999999998</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1.0528299999999999</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.59112500000000001</v>
-      </c>
     </row>
     <row r="35" spans="1:4" ht="15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="1">
-        <v>0.36475000000000002</v>
-      </c>
-      <c r="C35" s="8">
-        <v>1.04508</v>
-      </c>
-      <c r="D35" s="8">
-        <v>0.58637499999999998</v>
-      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" ht="15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="1">
-        <v>0.360209</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1.04071</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.59358299999999997</v>
-      </c>
     </row>
     <row r="37" spans="1:4" ht="15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="1">
-        <v>0.37025000000000002</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1.0595000000000001</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0.59424999999999994</v>
-      </c>
     </row>
     <row r="38" spans="1:4" ht="15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="1">
-        <v>0.36645899999999998</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1.06742</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0.58562499999999995</v>
-      </c>
     </row>
     <row r="39" spans="1:4" ht="15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="1">
-        <v>0.36741699999999999</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1.1179600000000001</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0.59362499999999996</v>
-      </c>
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="1">
-        <v>0.37774999999999997</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1.02521</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0.58820899999999998</v>
-      </c>
     </row>
     <row r="41" spans="1:4" ht="15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="1">
-        <v>0.36666700000000002</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1.04758</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0.58929200000000004</v>
-      </c>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="1">
-        <v>0.36729200000000001</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1.1242099999999999</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0.58875</v>
-      </c>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="1">
-        <v>0.36712499999999998</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1.0667899999999999</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0.58529200000000003</v>
-      </c>
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="1">
-        <v>0.36737500000000001</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1.0905800000000001</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0.61183299999999996</v>
-      </c>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="1">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1.0279199999999999</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0.58504199999999995</v>
-      </c>
     </row>
     <row r="46" spans="1:4" ht="15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="1">
-        <v>0.36904199999999998</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1.0117499999999999</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0.58729200000000004</v>
-      </c>
     </row>
     <row r="47" spans="1:4" ht="15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="1">
-        <v>0.36720900000000001</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1.04196</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0.60250000000000004</v>
-      </c>
     </row>
     <row r="48" spans="1:4" ht="15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="1">
-        <v>0.36758400000000002</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1.0818300000000001</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0.58791700000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15">
+    </row>
+    <row r="49" spans="1:1" ht="15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="1">
-        <v>0.36658299999999999</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1.09046</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0.59129100000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15">
+    </row>
+    <row r="50" spans="1:1" ht="15">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="1">
-        <v>0.36458400000000002</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0.99950000000000006</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0.58545800000000003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15">
+    </row>
+    <row r="51" spans="1:1" ht="15">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="1">
-        <v>0.36929200000000001</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1.0091699999999999</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0.592167</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15">
+    </row>
+    <row r="52" spans="1:1" ht="15">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="1">
-        <v>0.36649999999999999</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1.0628299999999999</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0.58745800000000004</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15">
+    </row>
+    <row r="53" spans="1:1" ht="15">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="1">
-        <v>0.368834</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1.02921</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0.58304100000000003</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15">
+    </row>
+    <row r="54" spans="1:1" ht="15">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="1">
-        <v>0.36787500000000001</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1.0595399999999999</v>
-      </c>
-      <c r="D54" s="1">
-        <v>0.612792</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15">
+    </row>
+    <row r="55" spans="1:1" ht="15">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="1">
-        <v>0.37045899999999998</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1.03287</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0.612792</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15">
+    </row>
+    <row r="56" spans="1:1" ht="15">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="1">
-        <v>0.37295899999999998</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1.0615399999999999</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0.58399999999999996</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15">
+    </row>
+    <row r="57" spans="1:1" ht="15">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="1">
-        <v>0.36349999999999999</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1.0976300000000001</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0.58912500000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15">
+    </row>
+    <row r="58" spans="1:1" ht="15">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="1">
-        <v>0.36579200000000001</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0.99666699999999997</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0.58983300000000005</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15">
+    </row>
+    <row r="59" spans="1:1" ht="15">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="1">
-        <v>0.37033300000000002</v>
-      </c>
-      <c r="C59" s="1">
-        <v>1.0542499999999999</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0.58950000000000002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15">
+    </row>
+    <row r="60" spans="1:1" ht="15">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="1">
-        <v>0.36175000000000002</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0.99312500000000004</v>
-      </c>
-      <c r="D60" s="1">
-        <v>0.58166700000000005</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15">
+    </row>
+    <row r="61" spans="1:1" ht="15">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="1">
-        <v>0.36149999999999999</v>
-      </c>
-      <c r="C61" s="1">
-        <v>1.05525</v>
-      </c>
-      <c r="D61" s="1">
-        <v>0.59816599999999998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15">
+    </row>
+    <row r="62" spans="1:1" ht="15">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="1">
-        <v>0.36858400000000002</v>
-      </c>
-      <c r="C62" s="1">
-        <v>1.09754</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0.58441699999999996</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15">
+    </row>
+    <row r="63" spans="1:1" ht="15">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="1">
-        <v>0.363875</v>
-      </c>
-      <c r="C63" s="1">
-        <v>1.0362499999999999</v>
-      </c>
-      <c r="D63" s="1">
-        <v>0.58854099999999998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15">
+    </row>
+    <row r="64" spans="1:1" ht="15">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="1">
-        <v>0.36566700000000002</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1.0738300000000001</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0.58470800000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15">
+    </row>
+    <row r="65" spans="1:1" ht="15">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="1">
-        <v>0.36537500000000001</v>
-      </c>
-      <c r="C65" s="1">
-        <v>1.0378799999999999</v>
-      </c>
-      <c r="D65" s="1">
-        <v>0.59724999999999995</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15">
+    </row>
+    <row r="66" spans="1:1" ht="15">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="1">
-        <v>0.362375</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1.0541700000000001</v>
-      </c>
-      <c r="D66" s="1">
-        <v>0.58733299999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15">
+    </row>
+    <row r="67" spans="1:1" ht="15">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="1">
-        <v>0.37087500000000001</v>
-      </c>
-      <c r="C67" s="1">
-        <v>1.05233</v>
-      </c>
-      <c r="D67" s="1">
-        <v>0.59058299999999997</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15">
+    </row>
+    <row r="68" spans="1:1" ht="15">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="1">
-        <v>0.362792</v>
-      </c>
-      <c r="C68" s="1">
-        <v>1.0157099999999999</v>
-      </c>
-      <c r="D68" s="1">
-        <v>0.59316599999999997</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15">
+    </row>
+    <row r="69" spans="1:1" ht="15">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="1">
-        <v>0.36849999999999999</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1.07179</v>
-      </c>
-      <c r="D69" s="1">
-        <v>0.59075</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15">
+    </row>
+    <row r="70" spans="1:1" ht="15">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="1">
-        <v>0.36858400000000002</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1.0382899999999999</v>
-      </c>
-      <c r="D70" s="1">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15">
+    </row>
+    <row r="71" spans="1:1" ht="15">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="1">
-        <v>0.36612499999999998</v>
-      </c>
-      <c r="C71" s="1">
-        <v>1.0769200000000001</v>
-      </c>
-      <c r="D71" s="1">
-        <v>0.60104100000000005</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15">
+    </row>
+    <row r="72" spans="1:1" ht="15">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="1">
-        <v>0.363875</v>
-      </c>
-      <c r="C72" s="1">
-        <v>1.0994999999999999</v>
-      </c>
-      <c r="D72" s="1">
-        <v>0.58945899999999996</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15">
+    </row>
+    <row r="73" spans="1:1" ht="15">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="1">
-        <v>0.364375</v>
-      </c>
-      <c r="C73" s="1">
-        <v>1.05392</v>
-      </c>
-      <c r="D73" s="1">
-        <v>0.58766700000000005</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15">
+    </row>
+    <row r="74" spans="1:1" ht="15">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="1">
-        <v>0.36929200000000001</v>
-      </c>
-      <c r="C74" s="1">
-        <v>1.01763</v>
-      </c>
-      <c r="D74" s="1">
-        <v>0.58920899999999998</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15">
+    </row>
+    <row r="75" spans="1:1" ht="15">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="1">
-        <v>0.365541</v>
-      </c>
-      <c r="C75" s="1">
-        <v>1.0070399999999999</v>
-      </c>
-      <c r="D75" s="1">
-        <v>0.59337499999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15">
+    </row>
+    <row r="76" spans="1:1" ht="15">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="1">
-        <v>0.36295899999999998</v>
-      </c>
-      <c r="C76" s="1">
-        <v>1.0282500000000001</v>
-      </c>
-      <c r="D76" s="1">
-        <v>0.59183300000000005</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15">
+    </row>
+    <row r="77" spans="1:1" ht="15">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="1">
-        <v>0.36449999999999999</v>
-      </c>
-      <c r="C77" s="1">
-        <v>1.044</v>
-      </c>
-      <c r="D77" s="1">
-        <v>0.58437499999999998</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15">
+    </row>
+    <row r="78" spans="1:1" ht="15">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="1">
-        <v>0.36925000000000002</v>
-      </c>
-      <c r="C78" s="1">
-        <v>1.0165</v>
-      </c>
-      <c r="D78" s="1">
-        <v>0.58716599999999997</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15">
+    </row>
+    <row r="79" spans="1:1" ht="15">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="1">
-        <v>0.36849999999999999</v>
-      </c>
-      <c r="C79" s="1">
-        <v>1.0729200000000001</v>
-      </c>
-      <c r="D79" s="1">
-        <v>0.58641600000000005</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15">
+    </row>
+    <row r="80" spans="1:1" ht="15">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="1">
-        <v>0.36925000000000002</v>
-      </c>
-      <c r="C80" s="1">
-        <v>1.0522499999999999</v>
-      </c>
-      <c r="D80" s="1">
-        <v>0.58908300000000002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15">
+    </row>
+    <row r="81" spans="1:1" ht="15">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="1">
-        <v>0.36937500000000001</v>
-      </c>
-      <c r="C81" s="1">
-        <v>1.02267</v>
-      </c>
-      <c r="D81" s="1">
-        <v>0.58783399999999997</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15">
+    </row>
+    <row r="82" spans="1:1" ht="15">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="1">
-        <v>0.37987500000000002</v>
-      </c>
-      <c r="C82" s="1">
-        <v>1.0774600000000001</v>
-      </c>
-      <c r="D82" s="1">
-        <v>0.58920799999999995</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15">
+    </row>
+    <row r="83" spans="1:1" ht="15">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="1">
-        <v>0.36412499999999998</v>
-      </c>
-      <c r="C83" s="1">
-        <v>1.0771299999999999</v>
-      </c>
-      <c r="D83" s="1">
-        <v>0.59350000000000003</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15">
+    </row>
+    <row r="84" spans="1:1" ht="15">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="1">
-        <v>0.36658299999999999</v>
-      </c>
-      <c r="C84" s="1">
-        <v>1.03887</v>
-      </c>
-      <c r="D84" s="1">
-        <v>0.59204199999999996</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15">
+    </row>
+    <row r="85" spans="1:1" ht="15">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="1">
-        <v>0.36483300000000002</v>
-      </c>
-      <c r="C85" s="1">
-        <v>1.0509200000000001</v>
-      </c>
-      <c r="D85" s="1">
-        <v>0.58841600000000005</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15">
+    </row>
+    <row r="86" spans="1:1" ht="15">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="1">
-        <v>0.36316700000000002</v>
-      </c>
-      <c r="C86" s="1">
-        <v>1.0169999999999999</v>
-      </c>
-      <c r="D86" s="1">
-        <v>0.59583299999999995</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15">
+    </row>
+    <row r="87" spans="1:1" ht="15">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="1">
-        <v>0.36408299999999999</v>
-      </c>
-      <c r="C87" s="1">
-        <v>1.01963</v>
-      </c>
-      <c r="D87" s="1">
-        <v>0.58908300000000002</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15">
+    </row>
+    <row r="88" spans="1:1" ht="15">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="1">
-        <v>0.36591699999999999</v>
-      </c>
-      <c r="C88" s="1">
-        <v>1.1294599999999999</v>
-      </c>
-      <c r="D88" s="1">
-        <v>0.58612500000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15">
+    </row>
+    <row r="89" spans="1:1" ht="15">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="1">
-        <v>0.36749999999999999</v>
-      </c>
-      <c r="C89" s="1">
-        <v>1.11408</v>
-      </c>
-      <c r="D89" s="1">
-        <v>0.590333</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15">
+    </row>
+    <row r="90" spans="1:1" ht="15">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="1">
-        <v>0.36870799999999998</v>
-      </c>
-      <c r="C90" s="1">
-        <v>1.0513699999999999</v>
-      </c>
-      <c r="D90" s="1">
-        <v>0.58404199999999995</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15">
+    </row>
+    <row r="91" spans="1:1" ht="15">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="1">
-        <v>0.36891600000000002</v>
-      </c>
-      <c r="C91" s="1">
-        <v>1.0793299999999999</v>
-      </c>
-      <c r="D91" s="1">
-        <v>0.59191700000000003</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="15">
+    </row>
+    <row r="92" spans="1:1" ht="15">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="1">
-        <v>0.36616700000000002</v>
-      </c>
-      <c r="C92" s="1">
-        <v>1.0480799999999999</v>
-      </c>
-      <c r="D92" s="1">
-        <v>0.58837499999999998</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15">
+    </row>
+    <row r="93" spans="1:1" ht="15">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" s="1">
-        <v>0.36116700000000002</v>
-      </c>
-      <c r="C93" s="1">
-        <v>1.1282099999999999</v>
-      </c>
-      <c r="D93" s="1">
-        <v>0.58829200000000004</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="15">
+    </row>
+    <row r="94" spans="1:1" ht="15">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" s="1">
-        <v>0.36679200000000001</v>
-      </c>
-      <c r="C94" s="1">
-        <v>1.0673699999999999</v>
-      </c>
-      <c r="D94" s="1">
-        <v>0.58516699999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="15">
+    </row>
+    <row r="95" spans="1:1" ht="15">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="1">
-        <v>0.36258400000000002</v>
-      </c>
-      <c r="C95" s="1">
-        <v>1.05646</v>
-      </c>
-      <c r="D95" s="1">
-        <v>0.58525000000000005</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="15">
+    </row>
+    <row r="96" spans="1:1" ht="15">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" s="1">
-        <v>0.36616700000000002</v>
-      </c>
-      <c r="C96" s="1">
-        <v>1.00471</v>
-      </c>
-      <c r="D96" s="1">
-        <v>0.58537499999999998</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15">
+    </row>
+    <row r="97" spans="1:1" ht="15">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" s="1">
-        <v>0.36791699999999999</v>
-      </c>
-      <c r="C97" s="1">
-        <v>1.05254</v>
-      </c>
-      <c r="D97" s="1">
-        <v>0.59183300000000005</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="15">
+    </row>
+    <row r="98" spans="1:1" ht="15">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" s="1">
-        <v>0.36825000000000002</v>
-      </c>
-      <c r="C98" s="1">
-        <v>1.0230399999999999</v>
-      </c>
-      <c r="D98" s="1">
-        <v>0.58899999999999997</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15">
+    </row>
+    <row r="99" spans="1:1" ht="15">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" s="1">
-        <v>0.37887500000000002</v>
-      </c>
-      <c r="C99" s="1">
-        <v>1.05592</v>
-      </c>
-      <c r="D99" s="1">
-        <v>0.58616699999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15">
+    </row>
+    <row r="100" spans="1:1" ht="15">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" s="1">
-        <v>0.36749999999999999</v>
-      </c>
-      <c r="C100" s="1">
-        <v>1.0396700000000001</v>
-      </c>
-      <c r="D100" s="1">
-        <v>0.59412500000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15">
+    </row>
+    <row r="101" spans="1:1" ht="15">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" s="1">
-        <v>0.36370799999999998</v>
-      </c>
-      <c r="C101" s="1">
-        <v>1.0947899999999999</v>
-      </c>
-      <c r="D101" s="1">
-        <v>0.59066600000000002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15">
+    </row>
+    <row r="102" spans="1:1" ht="15">
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" s="1">
-        <v>0.37795800000000002</v>
-      </c>
-      <c r="C102" s="1">
-        <v>1.0440400000000001</v>
-      </c>
-      <c r="D102" s="1">
-        <v>0.59066700000000005</v>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I8:L8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A75A410-8138-534C-A775-8CEAA3E70A72}">
+  <dimension ref="A1:L102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" ht="15">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1" t="e">
+        <f>AVERAGE(テーブル245656567891011910[sequential])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="1" t="e">
+        <f>AVERAGE(テーブル245656567891011910[multi-thread])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="1" t="e">
+        <f>AVERAGE(テーブル245656567891011910[multi-fiber])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="1" t="e">
+        <f>AVERAGE(テーブル245656567891011910[simd])</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" ht="15">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="15">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="15">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15">
+      <c r="A102" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2A1282-A330-2F45-8ED7-1940BCE2191B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13405642-9C19-2B45-BB86-A31BDAFA4117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="920" windowWidth="14440" windowHeight="16440" activeTab="1" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="14440" windowHeight="16440" activeTab="2" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
   <sheets>
     <sheet name="result of all" sheetId="1" r:id="rId1"/>
@@ -1212,7 +1212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCC3EA3-5E50-2748-BD2A-C2B8CF08A0DE}">
   <dimension ref="A2:I10"/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1274,13 +1274,13 @@
         <f>ham3tc.tfc!I10</f>
         <v>0.22538257000000009</v>
       </c>
-      <c r="G4" s="9" t="e">
+      <c r="G4" s="9">
         <f>ham3tc.tfc!J10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H4" s="9" t="e">
+        <v>0.50185417999999971</v>
+      </c>
+      <c r="H4" s="9">
         <f>ham3tc.tfc!K10</f>
-        <v>#DIV/0!</v>
+        <v>0.40875494999999984</v>
       </c>
       <c r="I4" s="9" t="e">
         <f>ham3tc.tfc!L10</f>
@@ -1300,9 +1300,9 @@
       <c r="D5" s="9">
         <v>12</v>
       </c>
-      <c r="F5" s="9" t="e">
+      <c r="F5" s="9">
         <f>'3_17tc.tfc'!I10</f>
-        <v>#DIV/0!</v>
+        <v>0.28870964999999998</v>
       </c>
       <c r="G5" s="9" t="e">
         <f>'3_17tc.tfc'!J10</f>
@@ -1380,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5683DF-DD1F-914F-B880-0E0A08994056}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -1425,6 +1425,12 @@
       <c r="B3" s="1">
         <v>0.222167</v>
       </c>
+      <c r="C3" s="1">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.40445799999999998</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
@@ -1433,6 +1439,12 @@
       <c r="B4" s="1">
         <v>0.22783400000000001</v>
       </c>
+      <c r="C4" s="1">
+        <v>0.51487499999999997</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.40579100000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -1441,6 +1453,12 @@
       <c r="B5" s="1">
         <v>0.22304199999999999</v>
       </c>
+      <c r="C5" s="1">
+        <v>0.51837500000000003</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.39958300000000002</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
@@ -1449,6 +1467,12 @@
       <c r="B6" s="1">
         <v>0.224333</v>
       </c>
+      <c r="C6" s="1">
+        <v>0.50604099999999996</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.40808299999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
@@ -1457,6 +1481,12 @@
       <c r="B7" s="1">
         <v>0.22179099999999999</v>
       </c>
+      <c r="C7" s="1">
+        <v>0.48016599999999998</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.40504200000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
@@ -1465,6 +1495,12 @@
       <c r="B8" s="1">
         <v>0.22212499999999999</v>
       </c>
+      <c r="C8" s="1">
+        <v>0.49316700000000002</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.40329199999999998</v>
+      </c>
       <c r="I8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1479,6 +1515,12 @@
       <c r="B9" s="1">
         <v>0.22583300000000001</v>
       </c>
+      <c r="C9" s="1">
+        <v>0.50508399999999998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.40737499999999999</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1499,17 +1541,23 @@
       <c r="B10" s="1">
         <v>0.228459</v>
       </c>
+      <c r="C10" s="1">
+        <v>0.52166599999999996</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.40279199999999998</v>
+      </c>
       <c r="I10" s="1">
         <f>AVERAGE(テーブル245656567891011[sequential])</f>
         <v>0.22538257000000009</v>
       </c>
-      <c r="J10" s="1" t="e">
+      <c r="J10" s="1">
         <f>AVERAGE(テーブル245656567891011[multi-thread])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="1" t="e">
+        <v>0.50185417999999971</v>
+      </c>
+      <c r="K10" s="1">
         <f>AVERAGE(テーブル245656567891011[multi-fiber])</f>
-        <v>#DIV/0!</v>
+        <v>0.40875494999999984</v>
       </c>
       <c r="L10" s="1" t="e">
         <f>AVERAGE(テーブル245656567891011[simd])</f>
@@ -1523,6 +1571,12 @@
       <c r="B11" s="1">
         <v>0.22254199999999999</v>
       </c>
+      <c r="C11" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.40600000000000003</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
@@ -1531,6 +1585,12 @@
       <c r="B12" s="1">
         <v>0.21995799999999999</v>
       </c>
+      <c r="C12" s="1">
+        <v>0.48462499999999997</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.40375</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
@@ -1539,6 +1599,12 @@
       <c r="B13" s="1">
         <v>0.22554199999999999</v>
       </c>
+      <c r="C13" s="1">
+        <v>0.503166</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.40350000000000003</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
@@ -1547,6 +1613,12 @@
       <c r="B14" s="1">
         <v>0.22525000000000001</v>
       </c>
+      <c r="C14" s="1">
+        <v>0.47670800000000002</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.401167</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
@@ -1555,6 +1627,12 @@
       <c r="B15" s="1">
         <v>0.23008400000000001</v>
       </c>
+      <c r="C15" s="1">
+        <v>0.50404199999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.40162500000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
@@ -1563,133 +1641,235 @@
       <c r="B16" s="1">
         <v>0.222666</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="1">
+        <v>0.51195900000000005</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.40641699999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.22566700000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="1">
+        <v>0.51166599999999995</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.40741699999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.22679199999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="1">
+        <v>0.50554200000000005</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.41291699999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.222334</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="1">
+        <v>0.52633399999999997</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.41204200000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.223166</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="1">
+        <v>0.49016700000000002</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.40929100000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.22758400000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="1">
+        <v>0.51295800000000003</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.40275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.22737499999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="1">
+        <v>0.49675000000000002</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.41083399999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.22541700000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="1">
+        <v>0.46825</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.40275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.22429099999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="1">
+        <v>0.50629199999999996</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.41495799999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.22758300000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="1">
+        <v>0.50820799999999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.40283400000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0.221584</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="1">
+        <v>0.43362499999999998</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.22137499999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="1">
+        <v>0.50937500000000002</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.404333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.23175000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="1">
+        <v>0.480292</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.40354200000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.22079199999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="1">
+        <v>0.48479100000000003</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.40404099999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.22679199999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="1">
+        <v>0.51495800000000003</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.402584</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0.22654199999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="1">
+        <v>0.47679199999999999</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.40391700000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>0.224333</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.547458</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.410333</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1699,6 +1879,12 @@
       <c r="B33" s="1">
         <v>0.22766700000000001</v>
       </c>
+      <c r="C33" s="1">
+        <v>0.50324999999999998</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.40920800000000002</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
@@ -1707,6 +1893,12 @@
       <c r="B34" s="1">
         <v>0.22175</v>
       </c>
+      <c r="C34" s="1">
+        <v>0.50549999999999995</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.40391700000000003</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
@@ -1715,8 +1907,12 @@
       <c r="B35" s="1">
         <v>0.22441700000000001</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="C35" s="8">
+        <v>0.54962500000000003</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0.40483400000000003</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
@@ -1725,6 +1921,12 @@
       <c r="B36" s="1">
         <v>0.22766700000000001</v>
       </c>
+      <c r="C36" s="1">
+        <v>0.49179200000000001</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.40500000000000003</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
@@ -1733,6 +1935,12 @@
       <c r="B37" s="1">
         <v>0.22483300000000001</v>
       </c>
+      <c r="C37" s="1">
+        <v>0.48358299999999999</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.40708299999999997</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
@@ -1741,6 +1949,12 @@
       <c r="B38" s="1">
         <v>0.22454199999999999</v>
       </c>
+      <c r="C38" s="1">
+        <v>0.50512500000000005</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.41158299999999998</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
@@ -1749,6 +1963,12 @@
       <c r="B39" s="1">
         <v>0.222583</v>
       </c>
+      <c r="C39" s="1">
+        <v>0.52095800000000003</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.40179100000000001</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
@@ -1757,6 +1977,12 @@
       <c r="B40" s="1">
         <v>0.22495799999999999</v>
       </c>
+      <c r="C40" s="1">
+        <v>0.486875</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.406416</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
@@ -1765,6 +1991,12 @@
       <c r="B41" s="1">
         <v>0.22583300000000001</v>
       </c>
+      <c r="C41" s="1">
+        <v>0.50987499999999997</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.417292</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
@@ -1773,6 +2005,12 @@
       <c r="B42" s="1">
         <v>0.22345899999999999</v>
       </c>
+      <c r="C42" s="1">
+        <v>0.50916600000000001</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.40216600000000002</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
@@ -1781,6 +2019,12 @@
       <c r="B43" s="1">
         <v>0.220834</v>
       </c>
+      <c r="C43" s="1">
+        <v>0.49175000000000002</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.40562500000000001</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1">
@@ -1789,6 +2033,12 @@
       <c r="B44" s="1">
         <v>0.22075</v>
       </c>
+      <c r="C44" s="1">
+        <v>0.51958400000000005</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.404667</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
@@ -1797,6 +2047,12 @@
       <c r="B45" s="1">
         <v>0.23633299999999999</v>
       </c>
+      <c r="C45" s="1">
+        <v>0.53670799999999996</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.59624999999999995</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
@@ -1805,6 +2061,12 @@
       <c r="B46" s="1">
         <v>0.22304199999999999</v>
       </c>
+      <c r="C46" s="1">
+        <v>0.51795800000000003</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.40220800000000001</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1">
@@ -1813,6 +2075,12 @@
       <c r="B47" s="1">
         <v>0.22895799999999999</v>
       </c>
+      <c r="C47" s="1">
+        <v>0.51195900000000005</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.41337499999999999</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
@@ -1821,437 +2089,767 @@
       <c r="B48" s="1">
         <v>0.221916</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" s="1">
+        <v>0.49008299999999999</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.40570800000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>0.22608400000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" s="1">
+        <v>0.497</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.41016599999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>0.22329199999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" s="1">
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.40362500000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>0.22470799999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" s="1">
+        <v>0.49804199999999998</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.40975</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>0.22312499999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" s="1">
+        <v>0.49820799999999998</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.40487499999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>0.22708400000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53" s="1">
+        <v>0.51649999999999996</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.42391699999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>0.22787499999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" s="1">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.40087499999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>0.228959</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55" s="1">
+        <v>0.48304200000000003</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.40925</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>0.22270799999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" s="1">
+        <v>0.50841700000000001</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.40279199999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>0.22275</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" s="1">
+        <v>0.51379200000000003</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>0.22966700000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58" s="1">
+        <v>0.51195900000000005</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.40212500000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>0.222</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" s="1">
+        <v>0.48666599999999999</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.41054099999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>0.22816600000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60" s="1">
+        <v>0.51024999999999998</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.40516600000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>0.22245799999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61" s="1">
+        <v>0.48454199999999997</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.40695900000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>0.22587499999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62" s="1">
+        <v>0.50791699999999995</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.41099999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="1">
         <v>0.222667</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63" s="1">
+        <v>0.53004099999999998</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.40420800000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="1">
         <v>0.22800000000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" s="1">
+        <v>0.48562499999999997</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="1">
         <v>0.22608300000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.404916</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="1">
         <v>0.223833</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" s="1">
+        <v>0.49770900000000001</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.40520800000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="1">
         <v>0.222667</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" s="1">
+        <v>0.49358400000000002</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.402833</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="1">
         <v>0.22075</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68" s="1">
+        <v>0.52462500000000001</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.40195799999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="1">
         <v>0.22541700000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" s="1">
+        <v>0.50208299999999995</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.40687499999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="1">
         <v>0.22575000000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70" s="1">
+        <v>0.49254199999999998</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.402416</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="1">
         <v>0.223584</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71" s="1">
+        <v>0.50824999999999998</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.40233400000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="1">
         <v>0.22245799999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72" s="1">
+        <v>0.51129199999999997</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.40150000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="1">
         <v>0.22891600000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73" s="1">
+        <v>0.50095800000000001</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="1">
         <v>0.223583</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74" s="1">
+        <v>0.49362499999999998</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="1">
         <v>0.22404199999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75" s="1">
+        <v>0.50524999999999998</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.41275000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="1">
         <v>0.22512499999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76" s="1">
+        <v>0.48549999999999999</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.404167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="1">
         <v>0.22895799999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77" s="1">
+        <v>0.50279200000000002</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.40812500000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="1">
         <v>0.22554199999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78" s="1">
+        <v>0.46316600000000002</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.41104099999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="1">
         <v>0.22875000000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79" s="1">
+        <v>0.49620799999999998</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.43254199999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="1">
         <v>0.22275</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80" s="1">
+        <v>0.49775000000000003</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.40795799999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="1">
         <v>0.22537499999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81" s="1">
+        <v>0.52391699999999997</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.40154099999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="1">
         <v>0.22891600000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82" s="1">
+        <v>0.46820800000000001</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.41975000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="1">
         <v>0.23083400000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83" s="1">
+        <v>0.49420900000000001</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.40787499999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="1">
         <v>0.22320899999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84" s="1">
+        <v>0.50695800000000002</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.40975</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="1">
         <v>0.22620799999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85" s="1">
+        <v>0.50395800000000002</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.40575</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="1">
         <v>0.22629199999999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86" s="1">
+        <v>0.49704199999999998</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.40470899999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" s="1">
         <v>0.22537499999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87" s="1">
+        <v>0.544875</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.40725</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" s="1">
         <v>0.23566699999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88" s="1">
+        <v>0.520208</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.41245799999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" s="1">
         <v>0.22225</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89" s="1">
+        <v>0.51649999999999996</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.40804099999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" s="1">
         <v>0.22883300000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90" s="1">
+        <v>0.52416700000000005</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.40720800000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" s="1">
         <v>0.22691700000000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91" s="1">
+        <v>0.49625000000000002</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.40712500000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" s="1">
         <v>0.22583300000000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92" s="1">
+        <v>0.495083</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.41049999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" s="1">
         <v>0.22320899999999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93" s="1">
+        <v>0.47662500000000002</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.40237499999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" s="1">
         <v>0.22445899999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94" s="1">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.40254099999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" s="1">
         <v>0.234875</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95" s="1">
+        <v>0.49354199999999998</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.40662500000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" s="1">
         <v>0.22800000000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96" s="1">
+        <v>0.50504199999999999</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.41633399999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="1">
         <v>0.22237499999999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="C97" s="1">
+        <v>0.50470899999999996</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.40720800000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" s="1">
         <v>0.22179199999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98" s="1">
+        <v>0.51916700000000005</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" s="1">
         <v>0.22354199999999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="C99" s="1">
+        <v>0.48279100000000003</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.41049999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" s="1">
         <v>0.22416700000000001</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100" s="1">
+        <v>0.47749999999999998</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.409084</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" s="1">
         <v>0.22416700000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="C101" s="1">
+        <v>0.51041700000000001</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.40195799999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" s="1">
         <v>0.237791</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.483292</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.40450000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -2271,8 +2869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662F5CEE-B597-0941-966B-E319678C9A58}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
@@ -2313,31 +2911,49 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3" s="1">
+        <v>0.28245799999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" s="1">
+        <v>0.30091699999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" s="1">
+        <v>0.28479199999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6" s="1">
+        <v>0.28879199999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" s="1">
+        <v>0.29508400000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8" s="1">
+        <v>0.29049999999999998</v>
+      </c>
       <c r="I8" s="7" t="s">
         <v>9</v>
       </c>
@@ -2349,6 +2965,9 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9" s="1">
+        <v>0.28945900000000002</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2366,9 +2985,12 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="I10" s="1" t="e">
+      <c r="B10" s="1">
+        <v>0.29029199999999999</v>
+      </c>
+      <c r="I10" s="1">
         <f>AVERAGE(テーブル2456565678910119[sequential])</f>
-        <v>#DIV/0!</v>
+        <v>0.28870964999999998</v>
       </c>
       <c r="J10" s="1" t="e">
         <f>AVERAGE(テーブル2456565678910119[multi-thread])</f>
@@ -2387,126 +3009,201 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11" s="1">
+        <v>0.28858299999999998</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12" s="1">
+        <v>0.28475</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13" s="1">
+        <v>0.283833</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14" s="1">
+        <v>0.28883300000000001</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15" s="1">
+        <v>0.28937499999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15">
+      <c r="B16" s="1">
+        <v>0.29208400000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15">
+      <c r="B17" s="1">
+        <v>0.28762500000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="15">
+      <c r="B18" s="1">
+        <v>0.28504099999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="15">
+      <c r="B19" s="1">
+        <v>0.29087499999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="15">
+      <c r="B20" s="1">
+        <v>0.29458299999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="15">
+      <c r="B21" s="1">
+        <v>0.29275000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="15">
+      <c r="B22" s="1">
+        <v>0.28558299999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="15">
+      <c r="B23" s="1">
+        <v>0.28787499999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="15">
+      <c r="B24" s="1">
+        <v>0.29045900000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="15">
+      <c r="B25" s="1">
+        <v>0.28949999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="15">
+      <c r="B26" s="1">
+        <v>0.28487499999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="15">
+      <c r="B27" s="1">
+        <v>0.296375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="15">
+      <c r="B28" s="1">
+        <v>0.28720899999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="15">
+      <c r="B29" s="1">
+        <v>0.28841699999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="15">
+      <c r="B30" s="1">
+        <v>0.28991699999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="15">
+      <c r="B31" s="1">
+        <v>0.28695900000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15">
       <c r="A32" s="1">
         <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.28899999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
+      <c r="B33" s="1">
+        <v>0.28729199999999999</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
+      <c r="B34" s="1">
+        <v>0.28845799999999999</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
+      <c r="B35" s="1">
+        <v>0.29462500000000003</v>
+      </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
     </row>
@@ -2514,335 +3211,536 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
+      <c r="B36" s="1">
+        <v>0.28887499999999999</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
+      <c r="B37" s="1">
+        <v>0.28999999999999998</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
+      <c r="B38" s="1">
+        <v>0.284833</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
+      <c r="B39" s="1">
+        <v>0.29349999999999998</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
+      <c r="B40" s="1">
+        <v>0.29558299999999998</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
+      <c r="B41" s="1">
+        <v>0.28804200000000002</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
+      <c r="B42" s="1">
+        <v>0.28445900000000002</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
+      <c r="B43" s="1">
+        <v>0.28925000000000001</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
+      <c r="B44" s="1">
+        <v>0.28575</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
+      <c r="B45" s="1">
+        <v>0.29066599999999998</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
+      <c r="B46" s="1">
+        <v>0.29020800000000002</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
+      <c r="B47" s="1">
+        <v>0.28979199999999999</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="15">
+      <c r="B48" s="1">
+        <v>0.28449999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="15">
+      <c r="B49" s="1">
+        <v>0.28575</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="15">
+      <c r="B50" s="1">
+        <v>0.29866700000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="15">
+      <c r="B51" s="1">
+        <v>0.28766599999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="15">
+      <c r="B52" s="1">
+        <v>0.29791600000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="15">
+      <c r="B53" s="1">
+        <v>0.285084</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="15">
+      <c r="B54" s="1">
+        <v>0.28829199999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="15">
+      <c r="B55" s="1">
+        <v>0.28504200000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="15">
+      <c r="B56" s="1">
+        <v>0.28779199999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="15">
+      <c r="B57" s="1">
+        <v>0.28933300000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="15">
+      <c r="B58" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="15">
+      <c r="B59" s="1">
+        <v>0.28908400000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="15">
+      <c r="B60" s="1">
+        <v>0.28954200000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="15">
+      <c r="B61" s="1">
+        <v>0.28812500000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="15">
+      <c r="B62" s="1">
+        <v>0.28658299999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" ht="15">
+      <c r="B63" s="1">
+        <v>0.29025000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="15">
+      <c r="B64" s="1">
+        <v>0.28545900000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="15">
+      <c r="B65" s="1">
+        <v>0.28562500000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="15">
+      <c r="B66" s="1">
+        <v>0.28312500000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="15">
+      <c r="B67" s="1">
+        <v>0.28475</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="15">
+      <c r="B68" s="1">
+        <v>0.28908299999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="15">
+      <c r="B69" s="1">
+        <v>0.29104200000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="15">
+      <c r="B70" s="1">
+        <v>0.28516599999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="15">
+      <c r="B71" s="1">
+        <v>0.28625</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="15">
+      <c r="B72" s="1">
+        <v>0.30104199999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="15">
+      <c r="B73" s="1">
+        <v>0.284667</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" ht="15">
+      <c r="B74" s="1">
+        <v>0.28675</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="15">
+      <c r="B75" s="1">
+        <v>0.28370800000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="15">
+      <c r="B76" s="1">
+        <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" ht="15">
+      <c r="B77" s="1">
+        <v>0.28662500000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="15">
+      <c r="B78" s="1">
+        <v>0.28749999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" ht="15">
+      <c r="B79" s="1">
+        <v>0.28933300000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="15">
+      <c r="B80" s="1">
+        <v>0.29083300000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="15">
+      <c r="B81" s="1">
+        <v>0.286833</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="15">
+      <c r="B82" s="1">
+        <v>0.28966700000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="15">
+      <c r="B83" s="1">
+        <v>0.29583399999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="15">
+      <c r="B84" s="1">
+        <v>0.28620800000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="15">
+      <c r="B85" s="1">
+        <v>0.28666700000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="15">
+      <c r="B86" s="1">
+        <v>0.28420800000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" ht="15">
+      <c r="B87" s="1">
+        <v>0.28904099999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="15">
+      <c r="B88" s="1">
+        <v>0.29062500000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" ht="15">
+      <c r="B89" s="1">
+        <v>0.28687499999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" ht="15">
+      <c r="B90" s="1">
+        <v>0.28637499999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" ht="15">
+      <c r="B91" s="1">
+        <v>0.28920899999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="15">
+      <c r="B92" s="1">
+        <v>0.285333</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" ht="15">
+      <c r="B93" s="1">
+        <v>0.28554200000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" ht="15">
+      <c r="B94" s="1">
+        <v>0.29020899999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" ht="15">
+      <c r="B95" s="1">
+        <v>0.28758400000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="15">
+      <c r="B96" s="1">
+        <v>0.291292</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="15">
+      <c r="B97" s="1">
+        <v>0.28666700000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="15">
+      <c r="B98" s="1">
+        <v>0.29041699999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="15">
+      <c r="B99" s="1">
+        <v>0.28754200000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="15">
+      <c r="B100" s="1">
+        <v>0.28854200000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" ht="15">
+      <c r="B101" s="1">
+        <v>0.28687499999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15">
       <c r="A102" s="1">
         <v>100</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0.29070800000000002</v>
       </c>
     </row>
   </sheetData>

--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13405642-9C19-2B45-BB86-A31BDAFA4117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABA035B-50DC-E348-B130-2EA3F7ACCC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="920" windowWidth="14440" windowHeight="16440" activeTab="2" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="14440" windowHeight="16440" activeTab="3" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
   <sheets>
     <sheet name="result of all" sheetId="1" r:id="rId1"/>
@@ -1304,13 +1304,13 @@
         <f>'3_17tc.tfc'!I10</f>
         <v>0.28870964999999998</v>
       </c>
-      <c r="G5" s="9" t="e">
+      <c r="G5" s="9">
         <f>'3_17tc.tfc'!J10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" s="9" t="e">
+        <v>0.65457544000000012</v>
+      </c>
+      <c r="H5" s="9">
         <f>'3_17tc.tfc'!K10</f>
-        <v>#DIV/0!</v>
+        <v>0.51913709000000008</v>
       </c>
       <c r="I5" s="9" t="e">
         <f>'3_17tc.tfc'!L10</f>
@@ -1330,9 +1330,9 @@
       <c r="D6" s="9">
         <v>63</v>
       </c>
-      <c r="F6" s="9" t="e">
+      <c r="F6" s="9">
         <f>hwb4tc.tfc!I10</f>
-        <v>#DIV/0!</v>
+        <v>0.70795834000000024</v>
       </c>
       <c r="G6" s="9" t="e">
         <f>hwb4tc.tfc!J10</f>
@@ -2869,8 +2869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662F5CEE-B597-0941-966B-E319678C9A58}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
@@ -2914,6 +2914,12 @@
       <c r="B3" s="1">
         <v>0.28245799999999999</v>
       </c>
+      <c r="C3" s="1">
+        <v>0.68604100000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.51545799999999997</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="15">
       <c r="A4" s="1">
@@ -2922,6 +2928,12 @@
       <c r="B4" s="1">
         <v>0.30091699999999999</v>
       </c>
+      <c r="C4" s="1">
+        <v>0.63108299999999995</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.52366599999999996</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="15">
       <c r="A5" s="1">
@@ -2930,6 +2942,12 @@
       <c r="B5" s="1">
         <v>0.28479199999999999</v>
       </c>
+      <c r="C5" s="1">
+        <v>0.609375</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.517042</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="15">
       <c r="A6" s="1">
@@ -2938,6 +2956,12 @@
       <c r="B6" s="1">
         <v>0.28879199999999999</v>
       </c>
+      <c r="C6" s="1">
+        <v>0.62429199999999996</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.52012499999999995</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="15">
       <c r="A7" s="1">
@@ -2946,6 +2970,12 @@
       <c r="B7" s="1">
         <v>0.29508400000000001</v>
       </c>
+      <c r="C7" s="1">
+        <v>0.66416600000000003</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.52137500000000003</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="15">
       <c r="A8" s="1">
@@ -2954,6 +2984,12 @@
       <c r="B8" s="1">
         <v>0.29049999999999998</v>
       </c>
+      <c r="C8" s="1">
+        <v>0.67620800000000003</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.52091699999999996</v>
+      </c>
       <c r="I8" s="7" t="s">
         <v>9</v>
       </c>
@@ -2968,6 +3004,12 @@
       <c r="B9" s="1">
         <v>0.28945900000000002</v>
       </c>
+      <c r="C9" s="1">
+        <v>0.66545799999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.51749999999999996</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2988,17 +3030,23 @@
       <c r="B10" s="1">
         <v>0.29029199999999999</v>
       </c>
+      <c r="C10" s="1">
+        <v>0.65845900000000002</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.51737500000000003</v>
+      </c>
       <c r="I10" s="1">
         <f>AVERAGE(テーブル2456565678910119[sequential])</f>
         <v>0.28870964999999998</v>
       </c>
-      <c r="J10" s="1" t="e">
+      <c r="J10" s="1">
         <f>AVERAGE(テーブル2456565678910119[multi-thread])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="1" t="e">
+        <v>0.65457544000000012</v>
+      </c>
+      <c r="K10" s="1">
         <f>AVERAGE(テーブル2456565678910119[multi-fiber])</f>
-        <v>#DIV/0!</v>
+        <v>0.51913709000000008</v>
       </c>
       <c r="L10" s="1" t="e">
         <f>AVERAGE(テーブル2456565678910119[simd])</f>
@@ -3012,6 +3060,12 @@
       <c r="B11" s="1">
         <v>0.28858299999999998</v>
       </c>
+      <c r="C11" s="1">
+        <v>0.68712499999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.57266600000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="15">
       <c r="A12" s="1">
@@ -3020,6 +3074,12 @@
       <c r="B12" s="1">
         <v>0.28475</v>
       </c>
+      <c r="C12" s="1">
+        <v>0.68795799999999996</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.51554100000000003</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="15">
       <c r="A13" s="1">
@@ -3028,6 +3088,12 @@
       <c r="B13" s="1">
         <v>0.283833</v>
       </c>
+      <c r="C13" s="1">
+        <v>0.706125</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.51808399999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="15">
       <c r="A14" s="1">
@@ -3036,6 +3102,12 @@
       <c r="B14" s="1">
         <v>0.28883300000000001</v>
       </c>
+      <c r="C14" s="1">
+        <v>0.66008299999999998</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.51424999999999998</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="15">
       <c r="A15" s="1">
@@ -3044,6 +3116,12 @@
       <c r="B15" s="1">
         <v>0.28937499999999999</v>
       </c>
+      <c r="C15" s="1">
+        <v>0.61245799999999995</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.51470800000000005</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="15">
       <c r="A16" s="1">
@@ -3052,133 +3130,235 @@
       <c r="B16" s="1">
         <v>0.29208400000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15">
+      <c r="C16" s="1">
+        <v>0.64470899999999998</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.51437500000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.28762500000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15">
+      <c r="C17" s="1">
+        <v>0.64233399999999996</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.52175000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.28504099999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15">
+      <c r="C18" s="1">
+        <v>0.61787499999999995</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.51741700000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.29087499999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15">
+      <c r="C19" s="1">
+        <v>0.62516700000000003</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.51587499999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.29458299999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15">
+      <c r="C20" s="1">
+        <v>0.65958399999999995</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.514791</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.29275000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15">
+      <c r="C21" s="1">
+        <v>0.65849999999999997</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.52275000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.28558299999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15">
+      <c r="C22" s="1">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.51570899999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.28787499999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15">
+      <c r="C23" s="1">
+        <v>0.66054199999999996</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.51570800000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.29045900000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15">
+      <c r="C24" s="1">
+        <v>0.64737500000000003</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.51691699999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.28949999999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15">
+      <c r="C25" s="1">
+        <v>0.66141700000000003</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.52212499999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0.28487499999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15">
+      <c r="C26" s="1">
+        <v>0.67529099999999997</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.51912499999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.296375</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15">
+      <c r="C27" s="1">
+        <v>0.65729199999999999</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.51791699999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.28720899999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15">
+      <c r="C28" s="1">
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.521791</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.28841699999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15">
+      <c r="C29" s="1">
+        <v>0.64762500000000001</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.51695800000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.28991699999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15">
+      <c r="C30" s="1">
+        <v>0.63891699999999996</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.51783299999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0.28695900000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15">
+      <c r="C31" s="1">
+        <v>0.668458</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.513625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>0.28899999999999998</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.65737500000000004</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.51470899999999997</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
@@ -3188,6 +3368,12 @@
       <c r="B33" s="1">
         <v>0.28729199999999999</v>
       </c>
+      <c r="C33" s="1">
+        <v>0.62649999999999995</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.52591699999999997</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="15">
       <c r="A34" s="1">
@@ -3196,6 +3382,12 @@
       <c r="B34" s="1">
         <v>0.28845799999999999</v>
       </c>
+      <c r="C34" s="1">
+        <v>0.67383400000000004</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.52258300000000002</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="15">
       <c r="A35" s="1">
@@ -3204,8 +3396,12 @@
       <c r="B35" s="1">
         <v>0.29462500000000003</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="C35" s="8">
+        <v>0.66895800000000005</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0.51700000000000002</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="15">
       <c r="A36" s="1">
@@ -3214,6 +3410,12 @@
       <c r="B36" s="1">
         <v>0.28887499999999999</v>
       </c>
+      <c r="C36" s="1">
+        <v>0.67325000000000002</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.51775000000000004</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15">
       <c r="A37" s="1">
@@ -3222,6 +3424,12 @@
       <c r="B37" s="1">
         <v>0.28999999999999998</v>
       </c>
+      <c r="C37" s="1">
+        <v>0.66795800000000005</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.52358300000000002</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="15">
       <c r="A38" s="1">
@@ -3230,6 +3438,12 @@
       <c r="B38" s="1">
         <v>0.284833</v>
       </c>
+      <c r="C38" s="1">
+        <v>0.66941700000000004</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.518625</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="15">
       <c r="A39" s="1">
@@ -3238,6 +3452,12 @@
       <c r="B39" s="1">
         <v>0.29349999999999998</v>
       </c>
+      <c r="C39" s="1">
+        <v>0.65837500000000004</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.52075000000000005</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="1">
@@ -3246,6 +3466,12 @@
       <c r="B40" s="1">
         <v>0.29558299999999998</v>
       </c>
+      <c r="C40" s="1">
+        <v>0.66512499999999997</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.53237500000000004</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="15">
       <c r="A41" s="1">
@@ -3254,6 +3480,12 @@
       <c r="B41" s="1">
         <v>0.28804200000000002</v>
       </c>
+      <c r="C41" s="1">
+        <v>0.64737500000000003</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.515042</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" s="1">
@@ -3262,6 +3494,12 @@
       <c r="B42" s="1">
         <v>0.28445900000000002</v>
       </c>
+      <c r="C42" s="1">
+        <v>0.62754200000000004</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.51783400000000002</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="1">
@@ -3270,6 +3508,12 @@
       <c r="B43" s="1">
         <v>0.28925000000000001</v>
       </c>
+      <c r="C43" s="1">
+        <v>0.64749999999999996</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.51708299999999996</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="1">
@@ -3278,6 +3522,12 @@
       <c r="B44" s="1">
         <v>0.28575</v>
       </c>
+      <c r="C44" s="1">
+        <v>0.64687499999999998</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.516042</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="1">
@@ -3286,6 +3536,12 @@
       <c r="B45" s="1">
         <v>0.29066599999999998</v>
       </c>
+      <c r="C45" s="1">
+        <v>0.63716700000000004</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.52024999999999999</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="15">
       <c r="A46" s="1">
@@ -3294,6 +3550,12 @@
       <c r="B46" s="1">
         <v>0.29020800000000002</v>
       </c>
+      <c r="C46" s="1">
+        <v>0.66558300000000004</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.51545799999999997</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="15">
       <c r="A47" s="1">
@@ -3302,6 +3564,12 @@
       <c r="B47" s="1">
         <v>0.28979199999999999</v>
       </c>
+      <c r="C47" s="1">
+        <v>0.64545799999999998</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.51812499999999995</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="15">
       <c r="A48" s="1">
@@ -3310,437 +3578,767 @@
       <c r="B48" s="1">
         <v>0.28449999999999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="15">
+      <c r="C48" s="1">
+        <v>0.65012499999999995</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.51549999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>0.28575</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="15">
+      <c r="C49" s="1">
+        <v>0.62270800000000004</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.518791</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>0.29866700000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="15">
+      <c r="C50" s="1">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.517208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>0.28766599999999998</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="15">
+      <c r="C51" s="1">
+        <v>0.62941599999999998</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.52429099999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>0.29791600000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="15">
+      <c r="C52" s="1">
+        <v>0.53741700000000003</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.513459</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>0.285084</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="15">
+      <c r="C53" s="1">
+        <v>0.73145899999999997</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.51670799999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>0.28829199999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="15">
+      <c r="C54" s="1">
+        <v>0.64675000000000005</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.52441700000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>0.28504200000000002</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="15">
+      <c r="C55" s="1">
+        <v>0.63916700000000004</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.51566699999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>0.28779199999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="15">
+      <c r="C56" s="1">
+        <v>0.676875</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.52633399999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>0.28933300000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="15">
+      <c r="C57" s="1">
+        <v>0.64416700000000005</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.515208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="15">
+      <c r="C58" s="1">
+        <v>0.64912499999999995</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.52029199999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>0.28908400000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="15">
+      <c r="C59" s="1">
+        <v>0.65995800000000004</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.51395900000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>0.28954200000000002</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="15">
+      <c r="C60" s="1">
+        <v>0.66116699999999995</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.51891699999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>0.28812500000000002</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="15">
+      <c r="C61" s="1">
+        <v>0.66425000000000001</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.51554199999999994</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>0.28658299999999998</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="15">
+      <c r="C62" s="1">
+        <v>0.64075000000000004</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.52625</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="1">
         <v>0.29025000000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="15">
+      <c r="C63" s="1">
+        <v>0.65929199999999999</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.51633300000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="1">
         <v>0.28545900000000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="15">
+      <c r="C64" s="1">
+        <v>0.64745799999999998</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.517042</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="1">
         <v>0.28562500000000002</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="15">
+      <c r="C65" s="1">
+        <v>0.68258300000000005</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.51587499999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="1">
         <v>0.28312500000000002</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="15">
+      <c r="C66" s="1">
+        <v>0.65458300000000003</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="1">
         <v>0.28475</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="15">
+      <c r="C67" s="1">
+        <v>0.65729199999999999</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="1">
         <v>0.28908299999999998</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="15">
+      <c r="C68" s="1">
+        <v>0.62945799999999996</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.52266699999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="1">
         <v>0.29104200000000002</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="15">
+      <c r="C69" s="1">
+        <v>0.69012499999999999</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.52070799999999995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="1">
         <v>0.28516599999999998</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="15">
+      <c r="C70" s="1">
+        <v>0.65962500000000002</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.52191699999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="1">
         <v>0.28625</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="15">
+      <c r="C71" s="1">
+        <v>0.67137500000000006</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="1">
         <v>0.30104199999999998</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="15">
+      <c r="C72" s="1">
+        <v>0.65483400000000003</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.51783299999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="1">
         <v>0.284667</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="15">
+      <c r="C73" s="1">
+        <v>0.67095899999999997</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.515625</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="1">
         <v>0.28675</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="15">
+      <c r="C74" s="1">
+        <v>0.66749999999999998</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.51529199999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="1">
         <v>0.28370800000000002</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="15">
+      <c r="C75" s="1">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.51683299999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="1">
         <v>0.28599999999999998</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="15">
+      <c r="C76" s="1">
+        <v>0.64387499999999998</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.51854100000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="1">
         <v>0.28662500000000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="15">
+      <c r="C77" s="1">
+        <v>0.69170900000000002</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.52016700000000005</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="1">
         <v>0.28749999999999998</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="15">
+      <c r="C78" s="1">
+        <v>0.65275000000000005</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.51324999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="1">
         <v>0.28933300000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="15">
+      <c r="C79" s="1">
+        <v>0.66720800000000002</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.51512500000000006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="1">
         <v>0.29083300000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="15">
+      <c r="C80" s="1">
+        <v>0.63912500000000005</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.51637500000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="1">
         <v>0.286833</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="15">
+      <c r="C81" s="1">
+        <v>0.63295800000000002</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.51749999999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="1">
         <v>0.28966700000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="15">
+      <c r="C82" s="1">
+        <v>0.65712499999999996</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.51554199999999994</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="1">
         <v>0.29583399999999999</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="15">
+      <c r="C83" s="1">
+        <v>0.64975000000000005</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.53633399999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="1">
         <v>0.28620800000000002</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="15">
+      <c r="C84" s="1">
+        <v>0.68266700000000002</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.51549999999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="1">
         <v>0.28666700000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="15">
+      <c r="C85" s="1">
+        <v>0.66462500000000002</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.51970799999999995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="1">
         <v>0.28420800000000002</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="15">
+      <c r="C86" s="1">
+        <v>0.62779200000000002</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.51833300000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" s="1">
         <v>0.28904099999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="15">
+      <c r="C87" s="1">
+        <v>0.66579100000000002</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.52204200000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" s="1">
         <v>0.29062500000000002</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" ht="15">
+      <c r="C88" s="1">
+        <v>0.66066599999999998</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.51354200000000005</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" s="1">
         <v>0.28687499999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="15">
+      <c r="C89" s="1">
+        <v>0.65170899999999998</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.51587499999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" s="1">
         <v>0.28637499999999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" ht="15">
+      <c r="C90" s="1">
+        <v>0.64320900000000003</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.514625</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" s="1">
         <v>0.28920899999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="15">
+      <c r="C91" s="1">
+        <v>0.64729099999999995</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.52449999999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" s="1">
         <v>0.285333</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="15">
+      <c r="C92" s="1">
+        <v>0.64070800000000006</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.51575000000000004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" s="1">
         <v>0.28554200000000002</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="15">
+      <c r="C93" s="1">
+        <v>0.62316700000000003</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.51733300000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" s="1">
         <v>0.29020899999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" ht="15">
+      <c r="C94" s="1">
+        <v>0.66808299999999998</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.52058300000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" s="1">
         <v>0.28758400000000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="15">
+      <c r="C95" s="1">
+        <v>0.69941699999999996</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.51766699999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" s="1">
         <v>0.291292</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="15">
+      <c r="C96" s="1">
+        <v>0.65608299999999997</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="1">
         <v>0.28666700000000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" ht="15">
+      <c r="C97" s="1">
+        <v>0.67525000000000002</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.52187499999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" s="1">
         <v>0.29041699999999998</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" ht="15">
+      <c r="C98" s="1">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.51549999999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" s="1">
         <v>0.28754200000000002</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" ht="15">
+      <c r="C99" s="1">
+        <v>0.67845800000000001</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.52745799999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" s="1">
         <v>0.28854200000000002</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" ht="15">
+      <c r="C100" s="1">
+        <v>0.64879200000000004</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.51716700000000004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" s="1">
         <v>0.28687499999999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="15">
+      <c r="C101" s="1">
+        <v>0.65912499999999996</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.52704200000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" s="1">
         <v>0.29070800000000002</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.62958400000000003</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.516208</v>
       </c>
     </row>
   </sheetData>
@@ -3760,8 +4358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A75A410-8138-534C-A775-8CEAA3E70A72}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
@@ -3802,31 +4400,49 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3" s="1">
+        <v>0.70204200000000005</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" s="1">
+        <v>0.72062499999999996</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" s="1">
+        <v>0.70637499999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6" s="1">
+        <v>0.70874999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" s="1">
+        <v>0.70833299999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8" s="1">
+        <v>0.70633299999999999</v>
+      </c>
       <c r="I8" s="7" t="s">
         <v>9</v>
       </c>
@@ -3838,6 +4454,9 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9" s="1">
+        <v>0.706291</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
       </c>
@@ -3855,9 +4474,12 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="I10" s="1" t="e">
+      <c r="B10" s="1">
+        <v>0.70737499999999998</v>
+      </c>
+      <c r="I10" s="1">
         <f>AVERAGE(テーブル245656567891011910[sequential])</f>
-        <v>#DIV/0!</v>
+        <v>0.70795834000000024</v>
       </c>
       <c r="J10" s="1" t="e">
         <f>AVERAGE(テーブル245656567891011910[multi-thread])</f>
@@ -3876,126 +4498,201 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11" s="1">
+        <v>0.699125</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12" s="1">
+        <v>0.71125000000000005</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13" s="1">
+        <v>0.70041600000000004</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14" s="1">
+        <v>0.72899999999999998</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15" s="1">
+        <v>0.70345800000000003</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15">
+      <c r="B16" s="1">
+        <v>0.72375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15">
+      <c r="B17" s="1">
+        <v>0.70633299999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="15">
+      <c r="B18" s="1">
+        <v>0.71612500000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="15">
+      <c r="B19" s="1">
+        <v>0.70291700000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="15">
+      <c r="B20" s="1">
+        <v>0.70320800000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="15">
+      <c r="B21" s="1">
+        <v>0.69879100000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="15">
+      <c r="B22" s="1">
+        <v>0.71345899999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="15">
+      <c r="B23" s="1">
+        <v>0.701125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="15">
+      <c r="B24" s="1">
+        <v>0.714167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="15">
+      <c r="B25" s="1">
+        <v>0.70358299999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="15">
+      <c r="B26" s="1">
+        <v>0.70233299999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="15">
+      <c r="B27" s="1">
+        <v>0.70083300000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="15">
+      <c r="B28" s="1">
+        <v>0.70250000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="15">
+      <c r="B29" s="1">
+        <v>0.70287500000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="15">
+      <c r="B30" s="1">
+        <v>0.70333299999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="15">
+      <c r="B31" s="1">
+        <v>0.70525000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15">
       <c r="A32" s="1">
         <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.79216699999999995</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
+      <c r="B33" s="1">
+        <v>0.71325000000000005</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
+      <c r="B34" s="1">
+        <v>0.70541699999999996</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
+      <c r="B35" s="1">
+        <v>0.70774999999999999</v>
+      </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
     </row>
@@ -4003,335 +4700,536 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
+      <c r="B36" s="1">
+        <v>0.70529200000000003</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
+      <c r="B37" s="1">
+        <v>0.707708</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
+      <c r="B38" s="1">
+        <v>0.70008300000000001</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
+      <c r="B39" s="1">
+        <v>0.703125</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
+      <c r="B40" s="1">
+        <v>0.73324999999999996</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
+      <c r="B41" s="1">
+        <v>0.70783300000000005</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
+      <c r="B42" s="1">
+        <v>0.70099999999999996</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
+      <c r="B43" s="1">
+        <v>0.706959</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
+      <c r="B44" s="1">
+        <v>0.70787500000000003</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
+      <c r="B45" s="1">
+        <v>0.70783300000000005</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
+      <c r="B46" s="1">
+        <v>0.69983399999999996</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
+      <c r="B47" s="1">
+        <v>0.73075000000000001</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="15">
+      <c r="B48" s="1">
+        <v>0.703708</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="15">
+      <c r="B49" s="1">
+        <v>0.70550000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="15">
+      <c r="B50" s="1">
+        <v>0.71858299999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="15">
+      <c r="B51" s="1">
+        <v>0.70825000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="15">
+      <c r="B52" s="1">
+        <v>0.70145800000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="15">
+      <c r="B53" s="1">
+        <v>0.71058299999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="15">
+      <c r="B54" s="1">
+        <v>0.70008400000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="15">
+      <c r="B55" s="1">
+        <v>0.70020800000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="15">
+      <c r="B56" s="1">
+        <v>0.71345899999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="15">
+      <c r="B57" s="1">
+        <v>0.69733299999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="15">
+      <c r="B58" s="1">
+        <v>0.70887500000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="15">
+      <c r="B59" s="1">
+        <v>0.708291</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="15">
+      <c r="B60" s="1">
+        <v>0.71037499999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="15">
+      <c r="B61" s="1">
+        <v>0.69929200000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="15">
+      <c r="B62" s="1">
+        <v>0.70233400000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" ht="15">
+      <c r="B63" s="1">
+        <v>0.70358399999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="15">
+      <c r="B64" s="1">
+        <v>0.70225000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="15">
+      <c r="B65" s="1">
+        <v>0.70954099999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="15">
+      <c r="B66" s="1">
+        <v>0.70379199999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="15">
+      <c r="B67" s="1">
+        <v>0.72312500000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="15">
+      <c r="B68" s="1">
+        <v>0.703959</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="15">
+      <c r="B69" s="1">
+        <v>0.70033299999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="15">
+      <c r="B70" s="1">
+        <v>0.70708400000000005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="15">
+      <c r="B71" s="1">
+        <v>0.70262500000000006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="15">
+      <c r="B72" s="1">
+        <v>0.70320899999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="15">
+      <c r="B73" s="1">
+        <v>0.70262500000000006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" ht="15">
+      <c r="B74" s="1">
+        <v>0.70966700000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="15">
+      <c r="B75" s="1">
+        <v>0.70004100000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="15">
+      <c r="B76" s="1">
+        <v>0.72399999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" ht="15">
+      <c r="B77" s="1">
+        <v>0.70316699999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="15">
+      <c r="B78" s="1">
+        <v>0.705542</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" ht="15">
+      <c r="B79" s="1">
+        <v>0.71883399999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="15">
+      <c r="B80" s="1">
+        <v>0.70150000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="15">
+      <c r="B81" s="1">
+        <v>0.721167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="15">
+      <c r="B82" s="1">
+        <v>0.69950000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="15">
+      <c r="B83" s="1">
+        <v>0.70745899999999995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="15">
+      <c r="B84" s="1">
+        <v>0.70833299999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="15">
+      <c r="B85" s="1">
+        <v>0.70283399999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="15">
+      <c r="B86" s="1">
+        <v>0.70708300000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" ht="15">
+      <c r="B87" s="1">
+        <v>0.70416699999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="15">
+      <c r="B88" s="1">
+        <v>0.70787500000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" ht="15">
+      <c r="B89" s="1">
+        <v>0.70266700000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" ht="15">
+      <c r="B90" s="1">
+        <v>0.70687500000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" ht="15">
+      <c r="B91" s="1">
+        <v>0.70625000000000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="15">
+      <c r="B92" s="1">
+        <v>0.70241600000000004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" ht="15">
+      <c r="B93" s="1">
+        <v>0.70095799999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" ht="15">
+      <c r="B94" s="1">
+        <v>0.70516699999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" ht="15">
+      <c r="B95" s="1">
+        <v>0.70420899999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="15">
+      <c r="B96" s="1">
+        <v>0.70479099999999995</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="15">
+      <c r="B97" s="1">
+        <v>0.70395799999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="15">
+      <c r="B98" s="1">
+        <v>0.72670900000000005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="15">
+      <c r="B99" s="1">
+        <v>0.70133299999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="15">
+      <c r="B100" s="1">
+        <v>0.70562499999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" ht="15">
+      <c r="B101" s="1">
+        <v>0.71708300000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15">
       <c r="A102" s="1">
         <v>100</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0.69608300000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABA035B-50DC-E348-B130-2EA3F7ACCC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179FA146-0BF4-0D44-8E18-E8B044214251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="920" windowWidth="14440" windowHeight="16440" activeTab="3" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
+    <workbookView xWindow="180" yWindow="900" windowWidth="15420" windowHeight="16500" activeTab="4" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
   <sheets>
     <sheet name="result of all" sheetId="1" r:id="rId1"/>
     <sheet name="ham3tc.tfc" sheetId="2" r:id="rId2"/>
     <sheet name="3_17tc.tfc" sheetId="3" r:id="rId3"/>
     <sheet name="hwb4tc.tfc" sheetId="4" r:id="rId4"/>
+    <sheet name="xor5d1.tfc" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="19">
   <si>
     <t>ham3tc.tfc</t>
     <phoneticPr fontId="1"/>
@@ -243,7 +244,201 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Futura Condensed Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -851,43 +1046,1101 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'result of all'!$F$2:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average of 100 times(ms)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'result of all'!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.22538257000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28870964999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70795834000000024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25224787000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F31F-3E40-9950-DDA98A077BF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'result of all'!$G$2:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average of 100 times(ms)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>multi-thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'result of all'!$G$4:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.50185417999999971</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65457544000000012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4842221000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F31F-3E40-9950-DDA98A077BF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'result of all'!$H$2:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average of 100 times(ms)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>multi-fiber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'result of all'!$H$4:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.40875494999999984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51913709000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2845061999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F31F-3E40-9950-DDA98A077BF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'result of all'!$I$2:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average of 100 times(ms)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>simd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'result of all'!$I$4:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F31F-3E40-9950-DDA98A077BF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1338821599"/>
+        <c:axId val="1300287631"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1338821599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1300287631"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1300287631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1338821599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E78E41DC-83F2-081D-9F5E-29763D1D95A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}" name="テーブル245656567891011" displayName="テーブル245656567891011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" headerRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}" name="テーブル245656567891011" displayName="テーブル245656567891011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="25">
   <autoFilter ref="A2:E102" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5BA224EE-6041-F344-B34A-9FBDF29A9510}" name="times" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{6CE03F36-CF34-9645-A348-C61D9EF118B4}" name="sequential" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{874D523F-A842-214F-8959-9A61540A9A8A}" name="multi-thread" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{2D90F0B7-A0EF-694E-91B3-7AF4BD0EADA8}" name="multi-fiber" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{61BBD1D9-647D-CA41-B58E-4467F0EE0459}" name="simd" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{5BA224EE-6041-F344-B34A-9FBDF29A9510}" name="times" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{6CE03F36-CF34-9645-A348-C61D9EF118B4}" name="sequential" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{874D523F-A842-214F-8959-9A61540A9A8A}" name="multi-thread" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{2D90F0B7-A0EF-694E-91B3-7AF4BD0EADA8}" name="multi-fiber" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{61BBD1D9-647D-CA41-B58E-4467F0EE0459}" name="simd" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82584110-A505-4543-82D8-BD808AA930A0}" name="テーブル2456565678910119" displayName="テーブル2456565678910119" ref="A2:E102" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82584110-A505-4543-82D8-BD808AA930A0}" name="テーブル2456565678910119" displayName="テーブル2456565678910119" ref="A2:E102" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="21">
   <autoFilter ref="A2:E102" xr:uid="{82584110-A505-4543-82D8-BD808AA930A0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4D465662-E697-4748-85BF-2F2EC8672C84}" name="times" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{0C48220D-731B-5643-951C-25F8B0805619}" name="sequential" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{7C0B3FE2-B06D-5747-B181-A167826473DE}" name="multi-thread" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{65911D59-AC68-BA43-8B87-7E5380B0D4D6}" name="multi-fiber" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{2FAA4EBB-E04F-1944-B3F3-4D62E902DC12}" name="simd" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{4D465662-E697-4748-85BF-2F2EC8672C84}" name="times" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{0C48220D-731B-5643-951C-25F8B0805619}" name="sequential" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{7C0B3FE2-B06D-5747-B181-A167826473DE}" name="multi-thread" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{65911D59-AC68-BA43-8B87-7E5380B0D4D6}" name="multi-fiber" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{2FAA4EBB-E04F-1944-B3F3-4D62E902DC12}" name="simd" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A8FAC881-4731-7343-8EE9-42A5625B15C1}" name="テーブル245656567891011910" displayName="テーブル245656567891011910" ref="A2:E102" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A8FAC881-4731-7343-8EE9-42A5625B15C1}" name="テーブル245656567891011910" displayName="テーブル245656567891011910" ref="A2:E102" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="13">
   <autoFilter ref="A2:E102" xr:uid="{A8FAC881-4731-7343-8EE9-42A5625B15C1}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7DC7A093-2326-6B4A-992F-B923642F87F8}" name="times" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{42430DD7-77E9-8149-9C1C-7264A4F0C9D0}" name="sequential" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{4F06783E-DB05-0749-B697-3DD162D0AD11}" name="multi-thread" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{5602D008-1E02-6045-9F32-7E6B7BB91324}" name="multi-fiber" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{DC415C3C-6475-3F44-AAB7-A763B098F097}" name="simd" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7DC7A093-2326-6B4A-992F-B923642F87F8}" name="times" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{42430DD7-77E9-8149-9C1C-7264A4F0C9D0}" name="sequential" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{4F06783E-DB05-0749-B697-3DD162D0AD11}" name="multi-thread" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{5602D008-1E02-6045-9F32-7E6B7BB91324}" name="multi-fiber" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{DC415C3C-6475-3F44-AAB7-A763B098F097}" name="simd" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0BC7CBD0-531E-8549-8487-A476FCA6B739}" name="テーブル24565656789101191011" displayName="テーブル24565656789101191011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="5">
+  <autoFilter ref="A2:E102" xr:uid="{0BC7CBD0-531E-8549-8487-A476FCA6B739}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{CAD9E614-4F7A-C34B-8293-317912427780}" name="times" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{B9A399FC-88DC-FD49-8703-01CC8D50B3FF}" name="sequential" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{1246FCE1-E3D2-FB4C-ADDD-9CF9A5971696}" name="multi-thread" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{8C3F5249-120B-8B4C-A10A-C14B7D716696}" name="multi-fiber" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{C7BA1BF7-2CB3-7C4C-920A-59BD9A0EDA4B}" name="simd" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1212,8 +2465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCC3EA3-5E50-2748-BD2A-C2B8CF08A0DE}">
   <dimension ref="A2:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1334,13 +2587,13 @@
         <f>hwb4tc.tfc!I10</f>
         <v>0.70795834000000024</v>
       </c>
-      <c r="G6" s="9" t="e">
+      <c r="G6" s="9">
         <f>hwb4tc.tfc!J10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H6" s="9" t="e">
+        <v>1.4842221000000007</v>
+      </c>
+      <c r="H6" s="9">
         <f>hwb4tc.tfc!K10</f>
-        <v>#DIV/0!</v>
+        <v>1.2845061999999998</v>
       </c>
       <c r="I6" s="9" t="e">
         <f>hwb4tc.tfc!L10</f>
@@ -1350,6 +2603,31 @@
     <row r="7" spans="1:9">
       <c r="A7" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9">
+        <v>4</v>
+      </c>
+      <c r="F7" s="9">
+        <f>xor5d1.tfc!I10</f>
+        <v>0.25224787000000004</v>
+      </c>
+      <c r="G7" s="9" t="e">
+        <f>xor5d1.tfc!J10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="9" t="e">
+        <f>xor5d1.tfc!K10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="9" t="e">
+        <f>xor5d1.tfc!L10</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1373,6 +2651,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4358,8 +5637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A75A410-8138-534C-A775-8CEAA3E70A72}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
@@ -4403,6 +5682,12 @@
       <c r="B3" s="1">
         <v>0.70204200000000005</v>
       </c>
+      <c r="C3" s="1">
+        <v>1.4813799999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.27742</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="15">
       <c r="A4" s="1">
@@ -4411,6 +5696,12 @@
       <c r="B4" s="1">
         <v>0.72062499999999996</v>
       </c>
+      <c r="C4" s="1">
+        <v>1.4835</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.31596</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="15">
       <c r="A5" s="1">
@@ -4419,6 +5710,12 @@
       <c r="B5" s="1">
         <v>0.70637499999999998</v>
       </c>
+      <c r="C5" s="1">
+        <v>1.48146</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.2842100000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="15">
       <c r="A6" s="1">
@@ -4427,6 +5724,12 @@
       <c r="B6" s="1">
         <v>0.70874999999999999</v>
       </c>
+      <c r="C6" s="1">
+        <v>1.4544999999999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.29942</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="15">
       <c r="A7" s="1">
@@ -4435,6 +5738,12 @@
       <c r="B7" s="1">
         <v>0.70833299999999999</v>
       </c>
+      <c r="C7" s="1">
+        <v>1.48783</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.27925</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="15">
       <c r="A8" s="1">
@@ -4443,6 +5752,12 @@
       <c r="B8" s="1">
         <v>0.70633299999999999</v>
       </c>
+      <c r="C8" s="1">
+        <v>1.4804999999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.30983</v>
+      </c>
       <c r="I8" s="7" t="s">
         <v>9</v>
       </c>
@@ -4457,6 +5772,12 @@
       <c r="B9" s="1">
         <v>0.706291</v>
       </c>
+      <c r="C9" s="1">
+        <v>1.4279200000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.2778799999999999</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
       </c>
@@ -4477,17 +5798,23 @@
       <c r="B10" s="1">
         <v>0.70737499999999998</v>
       </c>
+      <c r="C10" s="1">
+        <v>1.4595400000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.28617</v>
+      </c>
       <c r="I10" s="1">
         <f>AVERAGE(テーブル245656567891011910[sequential])</f>
         <v>0.70795834000000024</v>
       </c>
-      <c r="J10" s="1" t="e">
+      <c r="J10" s="1">
         <f>AVERAGE(テーブル245656567891011910[multi-thread])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="1" t="e">
+        <v>1.4842221000000007</v>
+      </c>
+      <c r="K10" s="1">
         <f>AVERAGE(テーブル245656567891011910[multi-fiber])</f>
-        <v>#DIV/0!</v>
+        <v>1.2845061999999998</v>
       </c>
       <c r="L10" s="1" t="e">
         <f>AVERAGE(テーブル245656567891011910[simd])</f>
@@ -4501,6 +5828,12 @@
       <c r="B11" s="1">
         <v>0.699125</v>
       </c>
+      <c r="C11" s="1">
+        <v>1.49404</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.2799199999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="15">
       <c r="A12" s="1">
@@ -4509,6 +5842,12 @@
       <c r="B12" s="1">
         <v>0.71125000000000005</v>
       </c>
+      <c r="C12" s="1">
+        <v>1.48875</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.27904</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="15">
       <c r="A13" s="1">
@@ -4517,6 +5856,12 @@
       <c r="B13" s="1">
         <v>0.70041600000000004</v>
       </c>
+      <c r="C13" s="1">
+        <v>1.46679</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.3018700000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="15">
       <c r="A14" s="1">
@@ -4525,6 +5870,12 @@
       <c r="B14" s="1">
         <v>0.72899999999999998</v>
       </c>
+      <c r="C14" s="1">
+        <v>1.4510400000000001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.3080400000000001</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="15">
       <c r="A15" s="1">
@@ -4533,6 +5884,12 @@
       <c r="B15" s="1">
         <v>0.70345800000000003</v>
       </c>
+      <c r="C15" s="1">
+        <v>1.4451700000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.3041700000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="15">
       <c r="A16" s="1">
@@ -4541,13 +5898,1424 @@
       <c r="B16" s="1">
         <v>0.72375</v>
       </c>
+      <c r="C16" s="1">
+        <v>1.5404599999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.28217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.70633299999999999</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.44933</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.2817099999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.71612500000000001</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.4646699999999999</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.2886200000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.70291700000000001</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.45367</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.2871300000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.70320800000000006</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.45408</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.28271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.69879100000000005</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.48092</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.2799199999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.71345899999999995</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.4970000000000001</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.28108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.701125</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.4908300000000001</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.28254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.714167</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.4882899999999999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.2842899999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.70358299999999996</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.4851700000000001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.2866200000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.70233299999999999</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.4617500000000001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.2793300000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.70083300000000004</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.5185</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.2775000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.70250000000000001</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.5553300000000001</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.28308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.70287500000000003</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.4775799999999999</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.2902100000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.70333299999999999</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.4762900000000001</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.2882100000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.70525000000000004</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.5053700000000001</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.2762100000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.79216699999999995</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1.5580000000000001</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.27763</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.71325000000000005</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.51396</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.2823800000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.70541699999999996</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1.48604</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.2861199999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.70774999999999999</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1.5037100000000001</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1.2925800000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.70529200000000003</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1.5443800000000001</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.2877099999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.707708</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.4791300000000001</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.2840400000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.70008300000000001</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.5175399999999999</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.2809600000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.703125</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1.49542</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1.28125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.73324999999999996</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1.4559599999999999</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.2795399999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.70783300000000005</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1.5357499999999999</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1.30342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1.4766300000000001</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1.2729999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.706959</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.28654</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.70787500000000003</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1.49621</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1.2809600000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.70783300000000005</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.46408</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1.27729</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.69983399999999996</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1.4626300000000001</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1.28287</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.73075000000000001</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1.4617899999999999</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1.2835000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.703708</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1.47142</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1.2802100000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.70550000000000002</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1.5636300000000001</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1.2860400000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.71858299999999997</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1.44679</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1.2835000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.70825000000000005</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1.46258</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1.27867</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.70145800000000003</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1.50658</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1.2822100000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.71058299999999996</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1.5108299999999999</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1.28746</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.70008400000000004</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1.4916700000000001</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1.29508</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.70020800000000005</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1.5208699999999999</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1.2811699999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.71345899999999995</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1.4739599999999999</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1.2869200000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.69733299999999998</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1.4623699999999999</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1.2829600000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.70887500000000003</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1.425</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1.2802899999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.708291</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1.58629</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1.2860799999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.71037499999999998</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1.4802500000000001</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1.2831300000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.69929200000000002</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1.40917</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1.28792</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.70233400000000001</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1.46313</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1.2924199999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.70358399999999999</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1.5265</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1.2836700000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.70225000000000004</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1.4838800000000001</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1.27963</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.70954099999999998</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1.4837899999999999</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1.2815799999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.70379199999999997</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1.4253800000000001</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1.2802899999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.72312500000000002</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1.5043299999999999</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1.28467</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.703959</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1.47383</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1.27579</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0.70033299999999998</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1.47417</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1.2806200000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.70708400000000005</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1.5173300000000001</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1.28908</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.70262500000000006</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1.49125</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1.2791699999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.70320899999999997</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1.4696199999999999</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1.27704</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.70262500000000006</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1.5342100000000001</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1.28942</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.70966700000000005</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1.4735</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1.2828299999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.70004100000000002</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1.49858</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1.27763</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1.47258</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1.2788299999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.70316699999999999</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1.4226700000000001</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1.28087</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.705542</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1.4879199999999999</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1.2862100000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0.71883399999999997</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1.494</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1.27796</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.70150000000000001</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1.4666300000000001</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1.28596</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.721167</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1.4936199999999999</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1.27671</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.69950000000000001</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1.45825</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1.28487</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0.70745899999999995</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1.47183</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1.27563</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0.70833299999999999</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1.37375</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1.2869200000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.70283399999999996</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1.48438</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1.2818799999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.70708300000000002</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1.4295</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1.28546</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0.70416699999999999</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1.4873700000000001</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1.2938799999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.70787500000000003</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1.50867</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1.2857099999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.70266700000000004</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1.5075000000000001</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1.2785</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0.70687500000000003</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1.5002899999999999</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1.27996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0.70625000000000004</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1.5052099999999999</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1.28108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0.70241600000000004</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1.49929</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1.2798799999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0.70095799999999997</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1.43204</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1.28267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0.70516699999999999</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1.4617899999999999</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1.2833699999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0.70420899999999997</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1.4857899999999999</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1.2809600000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0.70479099999999995</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1.6799200000000001</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1.28833</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0.70395799999999997</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1.4444600000000001</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1.2885800000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0.72670900000000005</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1.4842900000000001</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1.28033</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0.70133299999999998</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1.45933</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1.2762100000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0.70562499999999995</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1.4990399999999999</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1.2842899999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0.71708300000000003</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1.5047900000000001</v>
+      </c>
+      <c r="D101" s="1">
+        <v>1.28783</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0.69608300000000001</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1.4484999999999999</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1.28796</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I8:L8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A2288A-335C-B948-9A20-BF93C5E5B1C2}">
+  <dimension ref="A1:L102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.25708300000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.253666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.24945899999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.25612499999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.24995800000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.25012499999999999</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" ht="15">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.25570799999999999</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.25920799999999999</v>
+      </c>
+      <c r="I10" s="1">
+        <f>AVERAGE(テーブル24565656789101191011[sequential])</f>
+        <v>0.25224787000000004</v>
+      </c>
+      <c r="J10" s="1" t="e">
+        <f>AVERAGE(テーブル24565656789101191011[multi-thread])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="1" t="e">
+        <f>AVERAGE(テーブル24565656789101191011[multi-fiber])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="1" t="e">
+        <f>AVERAGE(テーブル24565656789101191011[simd])</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.24979199999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.25454100000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.25195800000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.25187500000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.25095899999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.25741700000000001</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>0.70633299999999999</v>
+        <v>0.25029200000000001</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
@@ -4555,7 +7323,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>0.71612500000000001</v>
+        <v>0.25700000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
@@ -4563,7 +7331,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.70291700000000001</v>
+        <v>0.251917</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
@@ -4571,7 +7339,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>0.70320800000000006</v>
+        <v>0.25224999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
@@ -4579,7 +7347,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>0.69879100000000005</v>
+        <v>0.25337500000000002</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
@@ -4587,7 +7355,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>0.71345899999999995</v>
+        <v>0.250417</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
@@ -4595,7 +7363,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>0.701125</v>
+        <v>0.25145800000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
@@ -4603,7 +7371,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>0.714167</v>
+        <v>0.24920900000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15">
@@ -4611,7 +7379,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>0.70358299999999996</v>
+        <v>0.24970899999999999</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
@@ -4619,7 +7387,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>0.70233299999999999</v>
+        <v>0.25012499999999999</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15">
@@ -4627,7 +7395,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>0.70083300000000004</v>
+        <v>0.25291599999999997</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15">
@@ -4635,7 +7403,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>0.70250000000000001</v>
+        <v>0.250334</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15">
@@ -4643,7 +7411,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>0.70287500000000003</v>
+        <v>0.25170799999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15">
@@ -4651,7 +7419,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>0.70333299999999999</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15">
@@ -4659,7 +7427,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>0.70525000000000004</v>
+        <v>0.260625</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15">
@@ -4667,7 +7435,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>0.79216699999999995</v>
+        <v>0.253834</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
@@ -4675,7 +7443,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>0.71325000000000005</v>
+        <v>0.24887500000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15">
@@ -4683,7 +7451,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>0.70541699999999996</v>
+        <v>0.254583</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15">
@@ -4691,7 +7459,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>0.70774999999999999</v>
+        <v>0.25212499999999999</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -4701,7 +7469,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>0.70529200000000003</v>
+        <v>0.2505</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15">
@@ -4709,7 +7477,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>0.707708</v>
+        <v>0.25062499999999999</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15">
@@ -4717,7 +7485,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>0.70008300000000001</v>
+        <v>0.25383299999999998</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15">
@@ -4725,7 +7493,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>0.703125</v>
+        <v>0.249917</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15">
@@ -4733,7 +7501,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>0.73324999999999996</v>
+        <v>0.25362499999999999</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15">
@@ -4741,7 +7509,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>0.70783300000000005</v>
+        <v>0.25229099999999999</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15">
@@ -4749,7 +7517,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>0.70099999999999996</v>
+        <v>0.25212499999999999</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15">
@@ -4757,7 +7525,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>0.706959</v>
+        <v>0.25324999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15">
@@ -4765,7 +7533,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>0.70787500000000003</v>
+        <v>0.24875</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15">
@@ -4773,7 +7541,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>0.70783300000000005</v>
+        <v>0.25583400000000001</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15">
@@ -4781,7 +7549,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>0.69983399999999996</v>
+        <v>0.25016699999999997</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15">
@@ -4789,7 +7557,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>0.73075000000000001</v>
+        <v>0.25237500000000002</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15">
@@ -4797,7 +7565,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>0.703708</v>
+        <v>0.25087500000000001</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15">
@@ -4805,7 +7573,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>0.70550000000000002</v>
+        <v>0.25395899999999999</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15">
@@ -4813,7 +7581,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>0.71858299999999997</v>
+        <v>0.247916</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15">
@@ -4821,7 +7589,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>0.70825000000000005</v>
+        <v>0.25212499999999999</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15">
@@ -4829,7 +7597,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>0.70145800000000003</v>
+        <v>0.255166</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15">
@@ -4837,7 +7605,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>0.71058299999999996</v>
+        <v>0.250334</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15">
@@ -4845,7 +7613,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>0.70008400000000004</v>
+        <v>0.254583</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15">
@@ -4853,7 +7621,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>0.70020800000000005</v>
+        <v>0.249833</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15">
@@ -4861,7 +7629,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>0.71345899999999995</v>
+        <v>0.25254199999999999</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15">
@@ -4869,7 +7637,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>0.69733299999999998</v>
+        <v>0.25124999999999997</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15">
@@ -4877,7 +7645,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>0.70887500000000003</v>
+        <v>0.25354100000000002</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15">
@@ -4885,7 +7653,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>0.708291</v>
+        <v>0.25229099999999999</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15">
@@ -4893,7 +7661,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>0.71037499999999998</v>
+        <v>0.25116699999999997</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15">
@@ -4901,7 +7669,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1">
-        <v>0.69929200000000002</v>
+        <v>0.25258399999999998</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15">
@@ -4909,7 +7677,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1">
-        <v>0.70233400000000001</v>
+        <v>0.25637500000000002</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15">
@@ -4917,7 +7685,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>0.70358399999999999</v>
+        <v>0.250166</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15">
@@ -4925,7 +7693,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>0.70225000000000004</v>
+        <v>0.25233299999999997</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15">
@@ -4933,7 +7701,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>0.70954099999999998</v>
+        <v>0.25079200000000001</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15">
@@ -4941,7 +7709,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>0.70379199999999997</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15">
@@ -4949,7 +7717,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>0.72312500000000002</v>
+        <v>0.2525</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15">
@@ -4957,7 +7725,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="1">
-        <v>0.703959</v>
+        <v>0.25329200000000002</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15">
@@ -4965,7 +7733,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="1">
-        <v>0.70033299999999998</v>
+        <v>0.25104199999999999</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15">
@@ -4973,7 +7741,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>0.70708400000000005</v>
+        <v>0.25120799999999999</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15">
@@ -4981,7 +7749,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="1">
-        <v>0.70262500000000006</v>
+        <v>0.25091599999999997</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15">
@@ -4989,7 +7757,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1">
-        <v>0.70320899999999997</v>
+        <v>0.25062499999999999</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15">
@@ -4997,7 +7765,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>0.70262500000000006</v>
+        <v>0.25024999999999997</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15">
@@ -5005,7 +7773,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>0.70966700000000005</v>
+        <v>0.249833</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15">
@@ -5013,7 +7781,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>0.70004100000000002</v>
+        <v>0.25170799999999999</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15">
@@ -5021,7 +7789,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="1">
-        <v>0.72399999999999998</v>
+        <v>0.25162499999999999</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15">
@@ -5029,7 +7797,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>0.70316699999999999</v>
+        <v>0.25337500000000002</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15">
@@ -5037,7 +7805,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="1">
-        <v>0.705542</v>
+        <v>0.25154199999999999</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15">
@@ -5045,7 +7813,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>0.71883399999999997</v>
+        <v>0.25545899999999999</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15">
@@ -5053,7 +7821,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>0.70150000000000001</v>
+        <v>0.25154100000000001</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15">
@@ -5061,7 +7829,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="1">
-        <v>0.721167</v>
+        <v>0.248333</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15">
@@ -5069,7 +7837,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>0.69950000000000001</v>
+        <v>0.253666</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15">
@@ -5077,7 +7845,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="1">
-        <v>0.70745899999999995</v>
+        <v>0.251417</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15">
@@ -5085,7 +7853,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="1">
-        <v>0.70833299999999999</v>
+        <v>0.25683299999999998</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15">
@@ -5093,7 +7861,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>0.70283399999999996</v>
+        <v>0.2525</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15">
@@ -5101,7 +7869,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="1">
-        <v>0.70708300000000002</v>
+        <v>0.25074999999999997</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15">
@@ -5109,7 +7877,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="1">
-        <v>0.70416699999999999</v>
+        <v>0.25012499999999999</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15">
@@ -5117,7 +7885,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="1">
-        <v>0.70787500000000003</v>
+        <v>0.25179099999999999</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15">
@@ -5125,7 +7893,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="1">
-        <v>0.70266700000000004</v>
+        <v>0.25133299999999997</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15">
@@ -5133,7 +7901,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="1">
-        <v>0.70687500000000003</v>
+        <v>0.252417</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15">
@@ -5141,7 +7909,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="1">
-        <v>0.70625000000000004</v>
+        <v>0.25245899999999999</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15">
@@ -5149,7 +7917,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="1">
-        <v>0.70241600000000004</v>
+        <v>0.25287500000000002</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15">
@@ -5157,7 +7925,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="1">
-        <v>0.70095799999999997</v>
+        <v>0.25179200000000002</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15">
@@ -5165,7 +7933,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="1">
-        <v>0.70516699999999999</v>
+        <v>0.25529099999999999</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15">
@@ -5173,7 +7941,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="1">
-        <v>0.70420899999999997</v>
+        <v>0.25083299999999997</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15">
@@ -5181,7 +7949,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="1">
-        <v>0.70479099999999995</v>
+        <v>0.25770799999999999</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15">
@@ -5189,7 +7957,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="1">
-        <v>0.70395799999999997</v>
+        <v>0.25041600000000003</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15">
@@ -5197,7 +7965,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="1">
-        <v>0.72670900000000005</v>
+        <v>0.25087500000000001</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15">
@@ -5205,7 +7973,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="1">
-        <v>0.70133299999999998</v>
+        <v>0.253666</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15">
@@ -5213,7 +7981,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="1">
-        <v>0.70562499999999995</v>
+        <v>0.25233299999999997</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15">
@@ -5221,7 +7989,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="1">
-        <v>0.71708300000000003</v>
+        <v>0.25104199999999999</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15">
@@ -5229,7 +7997,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="1">
-        <v>0.69608300000000001</v>
+        <v>0.249666</v>
       </c>
     </row>
   </sheetData>

--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179FA146-0BF4-0D44-8E18-E8B044214251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8DFDF1-3407-4744-884A-C1FD69927E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="900" windowWidth="15420" windowHeight="16500" activeTab="4" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
+    <workbookView xWindow="180" yWindow="900" windowWidth="15420" windowHeight="16500" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
   <sheets>
     <sheet name="result of all" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="3_17tc.tfc" sheetId="3" r:id="rId3"/>
     <sheet name="hwb4tc.tfc" sheetId="4" r:id="rId4"/>
     <sheet name="xor5d1.tfc" sheetId="5" r:id="rId5"/>
+    <sheet name="5mod5tc.tfc" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="19">
   <si>
     <t>ham3tc.tfc</t>
     <phoneticPr fontId="1"/>
@@ -244,7 +245,201 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="41">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Futura Condensed Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1127,10 +1322,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'result of all'!$F$4:$F$7</c:f>
+              <c:f>'result of all'!$F$4:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.22538257000000009</c:v>
                 </c:pt>
@@ -1142,6 +1337,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.25224787000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93740497000000034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1184,10 +1382,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'result of all'!$G$4:$G$7</c:f>
+              <c:f>'result of all'!$G$4:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.50185417999999971</c:v>
                 </c:pt>
@@ -1198,6 +1396,9 @@
                   <c:v>1.4842221000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.46653796000000014</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1241,10 +1442,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'result of all'!$H$4:$H$7</c:f>
+              <c:f>'result of all'!$H$4:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.40875494999999984</c:v>
                 </c:pt>
@@ -1255,6 +1456,9 @@
                   <c:v>1.2845061999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.38752078999999978</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1298,10 +1502,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'result of all'!$I$4:$I$7</c:f>
+              <c:f>'result of all'!$I$4:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1312,6 +1516,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2053,16 +2260,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>326465</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>67982</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>148665</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2091,56 +2298,70 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}" name="テーブル245656567891011" displayName="テーブル245656567891011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}" name="テーブル245656567891011" displayName="テーブル245656567891011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" headerRowBorderDxfId="33">
   <autoFilter ref="A2:E102" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5BA224EE-6041-F344-B34A-9FBDF29A9510}" name="times" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{6CE03F36-CF34-9645-A348-C61D9EF118B4}" name="sequential" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{874D523F-A842-214F-8959-9A61540A9A8A}" name="multi-thread" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{2D90F0B7-A0EF-694E-91B3-7AF4BD0EADA8}" name="multi-fiber" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{61BBD1D9-647D-CA41-B58E-4467F0EE0459}" name="simd" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{5BA224EE-6041-F344-B34A-9FBDF29A9510}" name="times" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{6CE03F36-CF34-9645-A348-C61D9EF118B4}" name="sequential" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{874D523F-A842-214F-8959-9A61540A9A8A}" name="multi-thread" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{2D90F0B7-A0EF-694E-91B3-7AF4BD0EADA8}" name="multi-fiber" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{61BBD1D9-647D-CA41-B58E-4467F0EE0459}" name="simd" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82584110-A505-4543-82D8-BD808AA930A0}" name="テーブル2456565678910119" displayName="テーブル2456565678910119" ref="A2:E102" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82584110-A505-4543-82D8-BD808AA930A0}" name="テーブル2456565678910119" displayName="テーブル2456565678910119" ref="A2:E102" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" headerRowBorderDxfId="29">
   <autoFilter ref="A2:E102" xr:uid="{82584110-A505-4543-82D8-BD808AA930A0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4D465662-E697-4748-85BF-2F2EC8672C84}" name="times" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{0C48220D-731B-5643-951C-25F8B0805619}" name="sequential" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{7C0B3FE2-B06D-5747-B181-A167826473DE}" name="multi-thread" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{65911D59-AC68-BA43-8B87-7E5380B0D4D6}" name="multi-fiber" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{2FAA4EBB-E04F-1944-B3F3-4D62E902DC12}" name="simd" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{4D465662-E697-4748-85BF-2F2EC8672C84}" name="times" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{0C48220D-731B-5643-951C-25F8B0805619}" name="sequential" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{7C0B3FE2-B06D-5747-B181-A167826473DE}" name="multi-thread" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{65911D59-AC68-BA43-8B87-7E5380B0D4D6}" name="multi-fiber" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{2FAA4EBB-E04F-1944-B3F3-4D62E902DC12}" name="simd" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A8FAC881-4731-7343-8EE9-42A5625B15C1}" name="テーブル245656567891011910" displayName="テーブル245656567891011910" ref="A2:E102" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A8FAC881-4731-7343-8EE9-42A5625B15C1}" name="テーブル245656567891011910" displayName="テーブル245656567891011910" ref="A2:E102" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="21">
   <autoFilter ref="A2:E102" xr:uid="{A8FAC881-4731-7343-8EE9-42A5625B15C1}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7DC7A093-2326-6B4A-992F-B923642F87F8}" name="times" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{42430DD7-77E9-8149-9C1C-7264A4F0C9D0}" name="sequential" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{4F06783E-DB05-0749-B697-3DD162D0AD11}" name="multi-thread" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{5602D008-1E02-6045-9F32-7E6B7BB91324}" name="multi-fiber" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{DC415C3C-6475-3F44-AAB7-A763B098F097}" name="simd" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{7DC7A093-2326-6B4A-992F-B923642F87F8}" name="times" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{42430DD7-77E9-8149-9C1C-7264A4F0C9D0}" name="sequential" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{4F06783E-DB05-0749-B697-3DD162D0AD11}" name="multi-thread" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{5602D008-1E02-6045-9F32-7E6B7BB91324}" name="multi-fiber" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{DC415C3C-6475-3F44-AAB7-A763B098F097}" name="simd" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0BC7CBD0-531E-8549-8487-A476FCA6B739}" name="テーブル24565656789101191011" displayName="テーブル24565656789101191011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0BC7CBD0-531E-8549-8487-A476FCA6B739}" name="テーブル24565656789101191011" displayName="テーブル24565656789101191011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="13">
   <autoFilter ref="A2:E102" xr:uid="{0BC7CBD0-531E-8549-8487-A476FCA6B739}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CAD9E614-4F7A-C34B-8293-317912427780}" name="times" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{B9A399FC-88DC-FD49-8703-01CC8D50B3FF}" name="sequential" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{1246FCE1-E3D2-FB4C-ADDD-9CF9A5971696}" name="multi-thread" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{8C3F5249-120B-8B4C-A10A-C14B7D716696}" name="multi-fiber" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{C7BA1BF7-2CB3-7C4C-920A-59BD9A0EDA4B}" name="simd" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CAD9E614-4F7A-C34B-8293-317912427780}" name="times" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{B9A399FC-88DC-FD49-8703-01CC8D50B3FF}" name="sequential" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{1246FCE1-E3D2-FB4C-ADDD-9CF9A5971696}" name="multi-thread" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{8C3F5249-120B-8B4C-A10A-C14B7D716696}" name="multi-fiber" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{C7BA1BF7-2CB3-7C4C-920A-59BD9A0EDA4B}" name="simd" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DF3F5530-A2E8-E242-A450-0BD65B08DBD0}" name="テーブル2456565678910119101112" displayName="テーブル2456565678910119101112" ref="A2:E102" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="5">
+  <autoFilter ref="A2:E102" xr:uid="{DF3F5530-A2E8-E242-A450-0BD65B08DBD0}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{0D83CB80-893A-0643-A91B-A5FBF5281EAA}" name="times" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{7E2D828B-BEE1-9B46-BCD4-B0F942EF5993}" name="sequential" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{E9FDD560-6C07-2B43-B21C-DC36FB8CD416}" name="multi-thread" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{6756949A-87D6-6D49-836C-AD5CA631BE5B}" name="multi-fiber" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{51F10C2B-3D6E-3145-83DC-74A75AD652C8}" name="simd" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2463,10 +2684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCC3EA3-5E50-2748-BD2A-C2B8CF08A0DE}">
-  <dimension ref="A2:I10"/>
+  <dimension ref="A2:I11"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="168" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2617,13 +2838,13 @@
         <f>xor5d1.tfc!I10</f>
         <v>0.25224787000000004</v>
       </c>
-      <c r="G7" s="9" t="e">
+      <c r="G7" s="9">
         <f>xor5d1.tfc!J10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" s="9" t="e">
+        <v>0.46653796000000014</v>
+      </c>
+      <c r="H7" s="9">
         <f>xor5d1.tfc!K10</f>
-        <v>#DIV/0!</v>
+        <v>0.38752078999999978</v>
       </c>
       <c r="I7" s="9" t="e">
         <f>xor5d1.tfc!L10</f>
@@ -2632,17 +2853,42 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="9" t="s">
         <v>16</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9">
+        <v>17</v>
+      </c>
+      <c r="D8" s="9">
+        <v>185</v>
+      </c>
+      <c r="F8" s="9">
+        <f>'5mod5tc.tfc'!I10</f>
+        <v>0.93740497000000034</v>
+      </c>
+      <c r="G8" s="9" t="e">
+        <f>'5mod5tc.tfc'!J10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" s="9" t="e">
+        <f>'5mod5tc.tfc'!K10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="9" t="e">
+        <f>'5mod5tc.tfc'!L10</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="9" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2659,7 +2905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5683DF-DD1F-914F-B880-0E0A08994056}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
@@ -7126,8 +7372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A2288A-335C-B948-9A20-BF93C5E5B1C2}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
@@ -7171,6 +7417,12 @@
       <c r="B3" s="1">
         <v>0.25708300000000001</v>
       </c>
+      <c r="C3" s="1">
+        <v>0.45587499999999997</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.38470799999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="15">
       <c r="A4" s="1">
@@ -7179,6 +7431,12 @@
       <c r="B4" s="1">
         <v>0.253666</v>
       </c>
+      <c r="C4" s="1">
+        <v>0.47183399999999998</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.38450000000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="15">
       <c r="A5" s="1">
@@ -7187,6 +7445,12 @@
       <c r="B5" s="1">
         <v>0.24945899999999999</v>
       </c>
+      <c r="C5" s="1">
+        <v>0.46654200000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.387042</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="15">
       <c r="A6" s="1">
@@ -7195,6 +7459,12 @@
       <c r="B6" s="1">
         <v>0.25612499999999999</v>
       </c>
+      <c r="C6" s="1">
+        <v>0.457208</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.393042</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="15">
       <c r="A7" s="1">
@@ -7203,6 +7473,12 @@
       <c r="B7" s="1">
         <v>0.24995800000000001</v>
       </c>
+      <c r="C7" s="1">
+        <v>0.47433399999999998</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.40387499999999998</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="15">
       <c r="A8" s="1">
@@ -7211,6 +7487,12 @@
       <c r="B8" s="1">
         <v>0.25012499999999999</v>
       </c>
+      <c r="C8" s="1">
+        <v>0.42516700000000002</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.38174999999999998</v>
+      </c>
       <c r="I8" s="7" t="s">
         <v>9</v>
       </c>
@@ -7225,6 +7507,12 @@
       <c r="B9" s="1">
         <v>0.25570799999999999</v>
       </c>
+      <c r="C9" s="1">
+        <v>0.47195900000000002</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.38500000000000001</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
       </c>
@@ -7245,17 +7533,23 @@
       <c r="B10" s="1">
         <v>0.25920799999999999</v>
       </c>
+      <c r="C10" s="1">
+        <v>0.43083399999999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.38704100000000002</v>
+      </c>
       <c r="I10" s="1">
         <f>AVERAGE(テーブル24565656789101191011[sequential])</f>
         <v>0.25224787000000004</v>
       </c>
-      <c r="J10" s="1" t="e">
+      <c r="J10" s="1">
         <f>AVERAGE(テーブル24565656789101191011[multi-thread])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="1" t="e">
+        <v>0.46653796000000014</v>
+      </c>
+      <c r="K10" s="1">
         <f>AVERAGE(テーブル24565656789101191011[multi-fiber])</f>
-        <v>#DIV/0!</v>
+        <v>0.38752078999999978</v>
       </c>
       <c r="L10" s="1" t="e">
         <f>AVERAGE(テーブル24565656789101191011[simd])</f>
@@ -7269,6 +7563,12 @@
       <c r="B11" s="1">
         <v>0.24979199999999999</v>
       </c>
+      <c r="C11" s="1">
+        <v>0.46245799999999998</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.38466600000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="15">
       <c r="A12" s="1">
@@ -7277,6 +7577,12 @@
       <c r="B12" s="1">
         <v>0.25454100000000002</v>
       </c>
+      <c r="C12" s="1">
+        <v>0.44645899999999999</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.38312499999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="15">
       <c r="A13" s="1">
@@ -7285,6 +7591,12 @@
       <c r="B13" s="1">
         <v>0.25195800000000002</v>
       </c>
+      <c r="C13" s="1">
+        <v>0.49166700000000002</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.38958300000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="15">
       <c r="A14" s="1">
@@ -7293,6 +7605,12 @@
       <c r="B14" s="1">
         <v>0.25187500000000002</v>
       </c>
+      <c r="C14" s="1">
+        <v>0.47204099999999999</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.38341599999999998</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="15">
       <c r="A15" s="1">
@@ -7301,6 +7619,12 @@
       <c r="B15" s="1">
         <v>0.25095899999999999</v>
       </c>
+      <c r="C15" s="1">
+        <v>0.45687499999999998</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.38916699999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="15">
       <c r="A16" s="1">
@@ -7309,13 +7633,1424 @@
       <c r="B16" s="1">
         <v>0.25741700000000001</v>
       </c>
+      <c r="C16" s="1">
+        <v>0.45554099999999997</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.38316600000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.25029200000000001</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.46912500000000001</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.38237500000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.46470899999999998</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.38637500000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.251917</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.46216699999999999</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.38091599999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.25224999999999997</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.47570800000000002</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.38729200000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.25337500000000002</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.46741700000000003</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.38295800000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.250417</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.46208300000000002</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.38133299999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.25145800000000001</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.46245900000000001</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.38312499999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.24920900000000001</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.38808300000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.24970899999999999</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.44770799999999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.388542</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.25012499999999999</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.458625</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.38262499999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.25291599999999997</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.49029200000000001</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.38650000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.250334</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.485541</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.39850000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.25170799999999999</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.45545799999999997</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.39566600000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.251</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.46654200000000001</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.38291700000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.260625</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.503417</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.38937500000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.253834</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.42258400000000002</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.38533400000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.24887500000000001</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.44824999999999998</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.38524999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.254583</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.46095900000000001</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.390625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.25212499999999999</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.49837500000000001</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0.38737500000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.2505</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.47062500000000002</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.38395800000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.25062499999999999</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.52187499999999998</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.38708300000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.25383299999999998</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.38950000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.249917</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.46525</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.384959</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.25362499999999999</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.46495799999999998</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.401916</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.25229099999999999</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.436083</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.39774999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.25212499999999999</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.442</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.38412499999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.25324999999999998</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.48554199999999997</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.38416699999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.24875</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.47837499999999999</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.38437500000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.25583400000000001</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.47691699999999998</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.385625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.25016699999999997</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.49087500000000001</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.38224999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.25237500000000002</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.485209</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.385125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.25087500000000001</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.46154099999999998</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.38450000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.25395899999999999</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.51283299999999998</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.38524999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.247916</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.44374999999999998</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.38416600000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.25212499999999999</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.450208</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.38408399999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.255166</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.44858300000000001</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.38937500000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.250334</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.45837499999999998</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.38574999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.254583</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.41549999999999998</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.38295800000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.249833</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.503166</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.393459</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.25254199999999999</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.484958</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.38774999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.25124999999999997</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.46704099999999998</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.38566600000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.25354100000000002</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.46416600000000002</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.41645799999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.25229099999999999</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.44845800000000002</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.39087499999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.25116699999999997</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.47287499999999999</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.38608399999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.25258399999999998</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.465084</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.387708</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.25637500000000002</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.47275</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.38520900000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.250166</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.49275000000000002</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.39233299999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.25233299999999997</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.47558299999999998</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.38229099999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.25079200000000001</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.45508399999999999</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.39116699999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.251</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.46358300000000002</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.38329200000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.2525</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.49654199999999998</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.38904100000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.25329200000000002</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.464084</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.38333299999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0.25104199999999999</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.47037499999999999</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.38424999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.25120799999999999</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.466833</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.388459</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.25091599999999997</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.483792</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.38287500000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.25062499999999999</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.46675</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.39137499999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.25024999999999997</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.46404200000000001</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.38324999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.249833</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.451542</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.38424999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.25170799999999999</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.47387499999999999</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.25162499999999999</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.471333</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.38300000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.25337500000000002</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.457959</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.395791</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.25154199999999999</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.48941699999999999</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.38312499999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0.25545899999999999</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.46054200000000001</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.391291</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.25154100000000001</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.45091700000000001</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.39441700000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.248333</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.47387499999999999</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.386625</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.253666</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.46183299999999999</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.38370900000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0.251417</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.47895799999999999</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.38300000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0.25683299999999998</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.47341699999999998</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.39574999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.2525</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.47279100000000002</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.39095800000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.25074999999999997</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.46916600000000003</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.38474999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0.25012499999999999</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.46020800000000001</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.38808399999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.25179099999999999</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.46533400000000003</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.38666699999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.25133299999999997</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.49833300000000003</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.39608300000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0.252417</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.46237499999999998</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.39474999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0.25245899999999999</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.45874999999999999</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.39024999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0.25287500000000002</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.46050000000000002</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.38287500000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0.25179200000000002</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.49270799999999998</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.39020899999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0.25529099999999999</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.46045799999999998</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.38220799999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0.25083299999999997</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.458042</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.38937500000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0.25770799999999999</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0.47795799999999999</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.39995799999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0.25041600000000003</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0.47275</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.38345800000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0.25087500000000001</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.45533400000000002</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.38787500000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0.253666</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.46604200000000001</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.38458399999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0.25233299999999997</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.44416699999999998</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.390125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0.25104199999999999</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.432417</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.38408300000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0.249666</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.45641700000000002</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.38279099999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I8:L8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C97FA3-715C-C547-8FFB-434EDE9B7642}">
+  <dimension ref="A1:L102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.93108299999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.94908300000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.9325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.92987500000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.927458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" ht="15">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.93970799999999999</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.93087500000000001</v>
+      </c>
+      <c r="I10" s="1">
+        <f>AVERAGE(テーブル2456565678910119101112[sequential])</f>
+        <v>0.93740497000000034</v>
+      </c>
+      <c r="J10" s="1" t="e">
+        <f>AVERAGE(テーブル2456565678910119101112[multi-thread])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="1" t="e">
+        <f>AVERAGE(テーブル2456565678910119101112[multi-fiber])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="1" t="e">
+        <f>AVERAGE(テーブル2456565678910119101112[simd])</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.93762500000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.93841699999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.92949999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.93566700000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.93516699999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.93745900000000004</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>0.25029200000000001</v>
+        <v>0.93795799999999996</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
@@ -7323,7 +9058,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>0.25700000000000001</v>
+        <v>0.94179199999999996</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
@@ -7331,7 +9066,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.251917</v>
+        <v>0.93300000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
@@ -7339,7 +9074,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>0.25224999999999997</v>
+        <v>0.93545800000000001</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
@@ -7347,7 +9082,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>0.25337500000000002</v>
+        <v>0.94029200000000002</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
@@ -7355,7 +9090,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>0.250417</v>
+        <v>0.93416699999999997</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
@@ -7363,7 +9098,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>0.25145800000000001</v>
+        <v>0.93866700000000003</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
@@ -7371,7 +9106,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>0.24920900000000001</v>
+        <v>0.935917</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15">
@@ -7379,7 +9114,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>0.24970899999999999</v>
+        <v>0.93858299999999995</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
@@ -7387,7 +9122,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>0.25012499999999999</v>
+        <v>0.93858299999999995</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15">
@@ -7395,7 +9130,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>0.25291599999999997</v>
+        <v>0.934666</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15">
@@ -7403,7 +9138,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>0.250334</v>
+        <v>0.94270799999999999</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15">
@@ -7411,7 +9146,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>0.25170799999999999</v>
+        <v>0.93074999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15">
@@ -7419,7 +9154,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>0.251</v>
+        <v>0.94687500000000002</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15">
@@ -7427,7 +9162,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>0.260625</v>
+        <v>0.92958399999999997</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15">
@@ -7435,7 +9170,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>0.253834</v>
+        <v>0.93695799999999996</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
@@ -7443,7 +9178,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>0.24887500000000001</v>
+        <v>0.94125000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15">
@@ -7451,7 +9186,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>0.254583</v>
+        <v>0.93820800000000004</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15">
@@ -7459,7 +9194,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>0.25212499999999999</v>
+        <v>0.93145800000000001</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -7469,7 +9204,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>0.2505</v>
+        <v>0.942666</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15">
@@ -7477,7 +9212,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>0.25062499999999999</v>
+        <v>0.93300000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15">
@@ -7485,7 +9220,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>0.25383299999999998</v>
+        <v>0.93833299999999997</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15">
@@ -7493,7 +9228,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>0.249917</v>
+        <v>0.92941600000000002</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15">
@@ -7501,7 +9236,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>0.25362499999999999</v>
+        <v>0.94037499999999996</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15">
@@ -7509,7 +9244,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>0.25229099999999999</v>
+        <v>0.931334</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15">
@@ -7517,7 +9252,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>0.25212499999999999</v>
+        <v>0.9425</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15">
@@ -7525,7 +9260,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>0.25324999999999998</v>
+        <v>0.93179100000000004</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15">
@@ -7533,7 +9268,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>0.24875</v>
+        <v>0.95091700000000001</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15">
@@ -7541,7 +9276,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>0.25583400000000001</v>
+        <v>0.94095799999999996</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15">
@@ -7549,7 +9284,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>0.25016699999999997</v>
+        <v>0.92945800000000001</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15">
@@ -7557,7 +9292,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>0.25237500000000002</v>
+        <v>0.93616600000000005</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15">
@@ -7565,7 +9300,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>0.25087500000000001</v>
+        <v>0.931917</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15">
@@ -7573,7 +9308,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>0.25395899999999999</v>
+        <v>0.93525000000000003</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15">
@@ -7581,7 +9316,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>0.247916</v>
+        <v>0.93149999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15">
@@ -7589,7 +9324,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>0.25212499999999999</v>
+        <v>0.92654099999999995</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15">
@@ -7597,7 +9332,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>0.255166</v>
+        <v>0.93091599999999997</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15">
@@ -7605,7 +9340,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>0.250334</v>
+        <v>0.93629099999999998</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15">
@@ -7613,7 +9348,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>0.254583</v>
+        <v>0.94550000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15">
@@ -7621,7 +9356,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>0.249833</v>
+        <v>0.94916699999999998</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15">
@@ -7629,7 +9364,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>0.25254199999999999</v>
+        <v>0.93045800000000001</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15">
@@ -7637,7 +9372,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>0.25124999999999997</v>
+        <v>0.93370799999999998</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15">
@@ -7645,7 +9380,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>0.25354100000000002</v>
+        <v>0.94358299999999995</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15">
@@ -7653,7 +9388,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>0.25229099999999999</v>
+        <v>0.93220800000000004</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15">
@@ -7661,7 +9396,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>0.25116699999999997</v>
+        <v>0.94354199999999999</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15">
@@ -7669,7 +9404,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1">
-        <v>0.25258399999999998</v>
+        <v>0.932917</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15">
@@ -7677,7 +9412,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1">
-        <v>0.25637500000000002</v>
+        <v>0.93829099999999999</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15">
@@ -7685,7 +9420,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>0.250166</v>
+        <v>0.95170900000000003</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15">
@@ -7693,7 +9428,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>0.25233299999999997</v>
+        <v>0.940083</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15">
@@ -7701,7 +9436,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>0.25079200000000001</v>
+        <v>0.957542</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15">
@@ -7709,7 +9444,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>0.251</v>
+        <v>0.93325000000000002</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15">
@@ -7717,7 +9452,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>0.2525</v>
+        <v>0.92766599999999999</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15">
@@ -7725,7 +9460,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="1">
-        <v>0.25329200000000002</v>
+        <v>0.94262500000000005</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15">
@@ -7733,7 +9468,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="1">
-        <v>0.25104199999999999</v>
+        <v>0.95608300000000002</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15">
@@ -7741,7 +9476,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>0.25120799999999999</v>
+        <v>0.92812499999999998</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15">
@@ -7749,7 +9484,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="1">
-        <v>0.25091599999999997</v>
+        <v>0.93383400000000005</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15">
@@ -7757,7 +9492,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1">
-        <v>0.25062499999999999</v>
+        <v>0.9395</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15">
@@ -7765,7 +9500,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>0.25024999999999997</v>
+        <v>0.93300000000000005</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15">
@@ -7773,7 +9508,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>0.249833</v>
+        <v>0.93629200000000001</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15">
@@ -7781,7 +9516,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>0.25170799999999999</v>
+        <v>0.94066700000000003</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15">
@@ -7789,7 +9524,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="1">
-        <v>0.25162499999999999</v>
+        <v>0.93974999999999997</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15">
@@ -7797,7 +9532,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>0.25337500000000002</v>
+        <v>0.93541700000000005</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15">
@@ -7805,7 +9540,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="1">
-        <v>0.25154199999999999</v>
+        <v>0.94716699999999998</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15">
@@ -7813,7 +9548,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>0.25545899999999999</v>
+        <v>0.92879199999999995</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15">
@@ -7821,7 +9556,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>0.25154100000000001</v>
+        <v>0.94420899999999996</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15">
@@ -7829,7 +9564,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="1">
-        <v>0.248333</v>
+        <v>0.93583400000000005</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15">
@@ -7837,7 +9572,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>0.253666</v>
+        <v>0.936917</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15">
@@ -7845,7 +9580,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="1">
-        <v>0.251417</v>
+        <v>0.94254199999999999</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15">
@@ -7853,7 +9588,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="1">
-        <v>0.25683299999999998</v>
+        <v>0.92995899999999998</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15">
@@ -7861,7 +9596,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>0.2525</v>
+        <v>0.94479199999999997</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15">
@@ -7869,7 +9604,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="1">
-        <v>0.25074999999999997</v>
+        <v>0.95045800000000003</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15">
@@ -7877,7 +9612,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="1">
-        <v>0.25012499999999999</v>
+        <v>0.93733299999999997</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15">
@@ -7885,7 +9620,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="1">
-        <v>0.25179099999999999</v>
+        <v>0.93133299999999997</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15">
@@ -7893,7 +9628,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="1">
-        <v>0.25133299999999997</v>
+        <v>0.94345800000000002</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15">
@@ -7901,7 +9636,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="1">
-        <v>0.252417</v>
+        <v>0.93712499999999999</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15">
@@ -7909,7 +9644,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="1">
-        <v>0.25245899999999999</v>
+        <v>0.95416599999999996</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15">
@@ -7917,7 +9652,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="1">
-        <v>0.25287500000000002</v>
+        <v>0.93266700000000002</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15">
@@ -7925,7 +9660,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="1">
-        <v>0.25179200000000002</v>
+        <v>0.93383300000000002</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15">
@@ -7933,7 +9668,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="1">
-        <v>0.25529099999999999</v>
+        <v>0.93491599999999997</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15">
@@ -7941,7 +9676,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="1">
-        <v>0.25083299999999997</v>
+        <v>0.93429200000000001</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15">
@@ -7949,7 +9684,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="1">
-        <v>0.25770799999999999</v>
+        <v>0.94325000000000003</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15">
@@ -7957,7 +9692,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="1">
-        <v>0.25041600000000003</v>
+        <v>0.93674999999999997</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15">
@@ -7965,7 +9700,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="1">
-        <v>0.25087500000000001</v>
+        <v>0.93620899999999996</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15">
@@ -7973,7 +9708,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="1">
-        <v>0.253666</v>
+        <v>0.93904100000000001</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15">
@@ -7981,7 +9716,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="1">
-        <v>0.25233299999999997</v>
+        <v>0.93208299999999999</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15">
@@ -7989,7 +9724,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="1">
-        <v>0.25104199999999999</v>
+        <v>0.93654199999999999</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15">
@@ -7997,7 +9732,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="1">
-        <v>0.249666</v>
+        <v>0.93429200000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8DFDF1-3407-4744-884A-C1FD69927E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D4D820-5BE6-684E-9100-C1AC84697CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="900" windowWidth="15420" windowHeight="16500" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="hwb4tc.tfc" sheetId="4" r:id="rId4"/>
     <sheet name="xor5d1.tfc" sheetId="5" r:id="rId5"/>
     <sheet name="5mod5tc.tfc" sheetId="6" r:id="rId6"/>
+    <sheet name="hwb5tc.tfc" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="19">
   <si>
     <t>ham3tc.tfc</t>
     <phoneticPr fontId="1"/>
@@ -245,7 +246,201 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="49">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Futura Condensed Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1322,10 +1517,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'result of all'!$F$4:$F$8</c:f>
+              <c:f>'result of all'!$F$4:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.22538257000000009</c:v>
                 </c:pt>
@@ -1339,6 +1534,9 @@
                   <c:v>0.25224787000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.7738918999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.93740497000000034</c:v>
                 </c:pt>
               </c:numCache>
@@ -1382,10 +1580,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'result of all'!$G$4:$G$8</c:f>
+              <c:f>'result of all'!$G$4:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.50185417999999971</c:v>
                 </c:pt>
@@ -1400,6 +1598,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7163025000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1442,10 +1643,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'result of all'!$H$4:$H$8</c:f>
+              <c:f>'result of all'!$H$4:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.40875494999999984</c:v>
                 </c:pt>
@@ -1460,6 +1661,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7711123000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1502,10 +1706,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'result of all'!$I$4:$I$8</c:f>
+              <c:f>'result of all'!$I$4:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1519,6 +1723,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2260,16 +2467,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>326465</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>770965</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>67982</xdr:rowOff>
+      <xdr:rowOff>220382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>148665</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>936065</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>80682</xdr:rowOff>
+      <xdr:rowOff>233082</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2298,70 +2505,84 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}" name="テーブル245656567891011" displayName="テーブル245656567891011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" headerRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}" name="テーブル245656567891011" displayName="テーブル245656567891011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" headerRowBorderDxfId="41">
   <autoFilter ref="A2:E102" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5BA224EE-6041-F344-B34A-9FBDF29A9510}" name="times" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{6CE03F36-CF34-9645-A348-C61D9EF118B4}" name="sequential" dataDxfId="39"/>
-    <tableColumn id="6" xr3:uid="{874D523F-A842-214F-8959-9A61540A9A8A}" name="multi-thread" dataDxfId="38"/>
-    <tableColumn id="8" xr3:uid="{2D90F0B7-A0EF-694E-91B3-7AF4BD0EADA8}" name="multi-fiber" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{61BBD1D9-647D-CA41-B58E-4467F0EE0459}" name="simd" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{5BA224EE-6041-F344-B34A-9FBDF29A9510}" name="times" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{6CE03F36-CF34-9645-A348-C61D9EF118B4}" name="sequential" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{874D523F-A842-214F-8959-9A61540A9A8A}" name="multi-thread" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{2D90F0B7-A0EF-694E-91B3-7AF4BD0EADA8}" name="multi-fiber" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{61BBD1D9-647D-CA41-B58E-4467F0EE0459}" name="simd" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82584110-A505-4543-82D8-BD808AA930A0}" name="テーブル2456565678910119" displayName="テーブル2456565678910119" ref="A2:E102" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" headerRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82584110-A505-4543-82D8-BD808AA930A0}" name="テーブル2456565678910119" displayName="テーブル2456565678910119" ref="A2:E102" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" headerRowBorderDxfId="37">
   <autoFilter ref="A2:E102" xr:uid="{82584110-A505-4543-82D8-BD808AA930A0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4D465662-E697-4748-85BF-2F2EC8672C84}" name="times" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{0C48220D-731B-5643-951C-25F8B0805619}" name="sequential" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{7C0B3FE2-B06D-5747-B181-A167826473DE}" name="multi-thread" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{65911D59-AC68-BA43-8B87-7E5380B0D4D6}" name="multi-fiber" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{2FAA4EBB-E04F-1944-B3F3-4D62E902DC12}" name="simd" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{4D465662-E697-4748-85BF-2F2EC8672C84}" name="times" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{0C48220D-731B-5643-951C-25F8B0805619}" name="sequential" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{7C0B3FE2-B06D-5747-B181-A167826473DE}" name="multi-thread" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{65911D59-AC68-BA43-8B87-7E5380B0D4D6}" name="multi-fiber" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{2FAA4EBB-E04F-1944-B3F3-4D62E902DC12}" name="simd" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A8FAC881-4731-7343-8EE9-42A5625B15C1}" name="テーブル245656567891011910" displayName="テーブル245656567891011910" ref="A2:E102" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A8FAC881-4731-7343-8EE9-42A5625B15C1}" name="テーブル245656567891011910" displayName="テーブル245656567891011910" ref="A2:E102" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" headerRowBorderDxfId="29">
   <autoFilter ref="A2:E102" xr:uid="{A8FAC881-4731-7343-8EE9-42A5625B15C1}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7DC7A093-2326-6B4A-992F-B923642F87F8}" name="times" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{42430DD7-77E9-8149-9C1C-7264A4F0C9D0}" name="sequential" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{4F06783E-DB05-0749-B697-3DD162D0AD11}" name="multi-thread" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{5602D008-1E02-6045-9F32-7E6B7BB91324}" name="multi-fiber" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{DC415C3C-6475-3F44-AAB7-A763B098F097}" name="simd" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{7DC7A093-2326-6B4A-992F-B923642F87F8}" name="times" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{42430DD7-77E9-8149-9C1C-7264A4F0C9D0}" name="sequential" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{4F06783E-DB05-0749-B697-3DD162D0AD11}" name="multi-thread" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{5602D008-1E02-6045-9F32-7E6B7BB91324}" name="multi-fiber" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{DC415C3C-6475-3F44-AAB7-A763B098F097}" name="simd" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0BC7CBD0-531E-8549-8487-A476FCA6B739}" name="テーブル24565656789101191011" displayName="テーブル24565656789101191011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0BC7CBD0-531E-8549-8487-A476FCA6B739}" name="テーブル24565656789101191011" displayName="テーブル24565656789101191011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="21">
   <autoFilter ref="A2:E102" xr:uid="{0BC7CBD0-531E-8549-8487-A476FCA6B739}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CAD9E614-4F7A-C34B-8293-317912427780}" name="times" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{B9A399FC-88DC-FD49-8703-01CC8D50B3FF}" name="sequential" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{1246FCE1-E3D2-FB4C-ADDD-9CF9A5971696}" name="multi-thread" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{8C3F5249-120B-8B4C-A10A-C14B7D716696}" name="multi-fiber" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{C7BA1BF7-2CB3-7C4C-920A-59BD9A0EDA4B}" name="simd" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{CAD9E614-4F7A-C34B-8293-317912427780}" name="times" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{B9A399FC-88DC-FD49-8703-01CC8D50B3FF}" name="sequential" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{1246FCE1-E3D2-FB4C-ADDD-9CF9A5971696}" name="multi-thread" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{8C3F5249-120B-8B4C-A10A-C14B7D716696}" name="multi-fiber" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{C7BA1BF7-2CB3-7C4C-920A-59BD9A0EDA4B}" name="simd" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DF3F5530-A2E8-E242-A450-0BD65B08DBD0}" name="テーブル2456565678910119101112" displayName="テーブル2456565678910119101112" ref="A2:E102" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DF3F5530-A2E8-E242-A450-0BD65B08DBD0}" name="テーブル2456565678910119101112" displayName="テーブル2456565678910119101112" ref="A2:E102" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="13">
   <autoFilter ref="A2:E102" xr:uid="{DF3F5530-A2E8-E242-A450-0BD65B08DBD0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0D83CB80-893A-0643-A91B-A5FBF5281EAA}" name="times" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{7E2D828B-BEE1-9B46-BCD4-B0F942EF5993}" name="sequential" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{E9FDD560-6C07-2B43-B21C-DC36FB8CD416}" name="multi-thread" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{6756949A-87D6-6D49-836C-AD5CA631BE5B}" name="multi-fiber" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{51F10C2B-3D6E-3145-83DC-74A75AD652C8}" name="simd" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0D83CB80-893A-0643-A91B-A5FBF5281EAA}" name="times" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{7E2D828B-BEE1-9B46-BCD4-B0F942EF5993}" name="sequential" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{E9FDD560-6C07-2B43-B21C-DC36FB8CD416}" name="multi-thread" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{6756949A-87D6-6D49-836C-AD5CA631BE5B}" name="multi-fiber" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{51F10C2B-3D6E-3145-83DC-74A75AD652C8}" name="simd" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{58A7FBD7-CC5F-474E-B7C8-C9FA6B34365B}" name="テーブル2456565678910119101113" displayName="テーブル2456565678910119101113" ref="A2:E102" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="5">
+  <autoFilter ref="A2:E102" xr:uid="{58A7FBD7-CC5F-474E-B7C8-C9FA6B34365B}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{78FE6EF4-54B8-DD48-804B-55674A24DC97}" name="times" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{72088382-6A14-3148-BE3E-E6AC1276F394}" name="sequential" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{26734A0B-7D1B-4046-B6EA-6E1CD8024EEB}" name="multi-thread" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{FA677673-8095-7443-AB55-890EFF1A863E}" name="multi-fiber" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{8B3609C9-509E-ED45-8116-6E491AF68C1B}" name="simd" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2686,8 +2907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCC3EA3-5E50-2748-BD2A-C2B8CF08A0DE}">
   <dimension ref="A2:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="168" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2853,37 +3074,62 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9">
+        <v>55</v>
+      </c>
+      <c r="D8" s="9">
+        <v>313</v>
+      </c>
+      <c r="F8" s="9">
+        <f>hwb5tc.tfc!I10</f>
+        <v>1.7738918999999997</v>
+      </c>
+      <c r="G8" s="9" t="e">
+        <f>hwb5tc.tfc!J10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" s="9" t="e">
+        <f>hwb5tc.tfc!K10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="9" t="e">
+        <f>hwb5tc.tfc!L10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>6</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C9" s="9">
         <v>17</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D9" s="9">
         <v>185</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="9">
         <f>'5mod5tc.tfc'!I10</f>
         <v>0.93740497000000034</v>
       </c>
-      <c r="G8" s="9" t="e">
+      <c r="G9" s="9">
         <f>'5mod5tc.tfc'!J10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="9" t="e">
+        <v>1.7163025000000003</v>
+      </c>
+      <c r="H9" s="9">
         <f>'5mod5tc.tfc'!K10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="9" t="e">
+        <v>1.7711123000000006</v>
+      </c>
+      <c r="I9" s="9" t="e">
         <f>'5mod5tc.tfc'!L10</f>
         <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -8861,7 +9107,1496 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C97FA3-715C-C547-8FFB-434EDE9B7642}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.93108299999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.73404</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.79217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.94908300000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.6830400000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.7749600000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.9325</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.6917899999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.7630399999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.92987500000000001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.72258</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.76467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.927458</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.7700800000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.75221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.70513</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.74783</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" ht="15">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.93970799999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.73892</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.7641199999999999</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.93087500000000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.6607099999999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.7756700000000001</v>
+      </c>
+      <c r="I10" s="1">
+        <f>AVERAGE(テーブル2456565678910119101112[sequential])</f>
+        <v>0.93740497000000034</v>
+      </c>
+      <c r="J10" s="1">
+        <f>AVERAGE(テーブル2456565678910119101112[multi-thread])</f>
+        <v>1.7163025000000003</v>
+      </c>
+      <c r="K10" s="1">
+        <f>AVERAGE(テーブル2456565678910119101112[multi-fiber])</f>
+        <v>1.7711123000000006</v>
+      </c>
+      <c r="L10" s="1" t="e">
+        <f>AVERAGE(テーブル2456565678910119101112[simd])</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.93762500000000004</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.72679</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.7576700000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.93841699999999995</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.72217</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.7551699999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.7243299999999999</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.80796</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.93566700000000003</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.7113799999999999</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.76508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.93516699999999997</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.7613700000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.75875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.93745900000000004</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.7213799999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.78396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.93795799999999996</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.7760400000000001</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.7549999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.94179199999999996</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.7239199999999999</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.79871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.6970000000000001</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.7818799999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.93545800000000001</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.7746200000000001</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.78383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.94029200000000002</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.73217</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.7900799999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.93416699999999997</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.63733</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.77946</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.93866700000000003</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.7571699999999999</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.8041199999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.935917</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.7159599999999999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.7623800000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.93858299999999995</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.6953800000000001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.76983</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.93858299999999995</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.72437</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.76908</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.934666</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.7104200000000001</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.7584200000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.94270799999999999</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.7392099999999999</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.7704599999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.93074999999999997</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.7151700000000001</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.7604200000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.94687500000000002</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.63625</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.77721</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.92958399999999997</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.6993799999999999</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.7544200000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.93695799999999996</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1.6535</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.7544200000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.94125000000000003</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.6879200000000001</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.75671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.93820800000000004</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1.7084600000000001</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.7515799999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.93145800000000001</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1.7035</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1.7550399999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.942666</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1.6737899999999999</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.75604</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.7463299999999999</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.7462899999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.93833299999999997</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.68458</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.7616700000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.92941600000000002</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1.651</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1.7621199999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.94037499999999996</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1.7255400000000001</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.7635000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.931334</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1.70804</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1.77033</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.9425</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1.7638799999999999</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1.7552099999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.93179100000000004</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.71258</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.7635400000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.95091700000000001</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1.6807099999999999</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1.7902100000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.94095799999999996</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.754</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1.74708</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.92945800000000001</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1.7199599999999999</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1.7806200000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.93616600000000005</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1.7264200000000001</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1.7573700000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.931917</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1.7691300000000001</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1.7588699999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.93525000000000003</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1.7350000000000001</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1.77254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.93149999999999999</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1.7720800000000001</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1.7450000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.92654099999999995</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1.7384999999999999</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1.78304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.93091599999999997</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1.6966699999999999</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1.7685</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.93629099999999998</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1.7284999999999999</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1.74817</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1.6845399999999999</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1.7591300000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.94916699999999998</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1.74796</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1.7933699999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.93045800000000001</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1.7130799999999999</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1.7806200000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.93370799999999998</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1.7081200000000001</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1.7684599999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.94358299999999995</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1.6752499999999999</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1.8534200000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.93220800000000004</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1.72133</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1.7828299999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.94354199999999999</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1.7246300000000001</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1.7648299999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.932917</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1.7411300000000001</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1.7875399999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.93829099999999999</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1.74658</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1.76275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.95170900000000003</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1.74925</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1.79054</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.940083</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1.76342</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1.76292</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.957542</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1.6563699999999999</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1.7562500000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.93325000000000002</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1.7332099999999999</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1.7666200000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.92766599999999999</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1.5998300000000001</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1.7683800000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.94262500000000005</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1.7597499999999999</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1.7987500000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0.95608300000000002</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1.7197899999999999</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1.7945800000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.92812499999999998</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1.67296</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1.7598800000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.93383400000000005</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1.7920799999999999</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1.7600800000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.9395</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1.7728299999999999</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1.7504200000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1.7464599999999999</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1.7741199999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.93629200000000001</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1.6693800000000001</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1.8268800000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.94066700000000003</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1.7201200000000001</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1.77346</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.93974999999999997</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1.7457499999999999</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1.7780400000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.93541700000000005</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1.68296</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1.7715000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.94716699999999998</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1.77475</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1.7893300000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0.92879199999999995</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1.7248699999999999</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1.7491300000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.94420899999999996</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1.70112</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1.7886200000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.93583400000000005</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1.6910799999999999</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1.76796</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.936917</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1.59758</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1.7560800000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0.94254199999999999</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1.7532099999999999</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1.78342</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0.92995899999999998</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1.67571</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1.77383</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.94479199999999997</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1.6927099999999999</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1.77146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.95045800000000003</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1.7330000000000001</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1.73254</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0.93733299999999997</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1.70842</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1.7650399999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.93133299999999997</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1.7199599999999999</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1.8048299999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.94345800000000002</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1.65683</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1.7702100000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0.93712499999999999</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1.6721699999999999</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1.7464200000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0.95416599999999996</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1.76617</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1.7613300000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0.93266700000000002</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1.76692</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1.7346299999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0.93383300000000002</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1.7220800000000001</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1.76146</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0.93491599999999997</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1.7909600000000001</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1.76579</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0.93429200000000001</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1.7706200000000001</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1.7862100000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0.94325000000000003</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1.6817899999999999</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1.7720800000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0.93674999999999997</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1.70808</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1.7911300000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0.93620899999999996</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1.7803800000000001</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1.7945800000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0.93904100000000001</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1.6728700000000001</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1.7786200000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0.93208299999999999</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1.6186199999999999</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1.75271</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0.93654199999999999</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1.6752100000000001</v>
+      </c>
+      <c r="D101" s="1">
+        <v>1.8131699999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0.93429200000000001</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1.78017</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1.78887</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I8:L8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0B7F4B-D19B-D149-B9DC-A95EC52FD947}">
+  <dimension ref="A1:L102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
@@ -8904,7 +10639,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.93108299999999999</v>
+        <v>1.76179</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15">
@@ -8912,7 +10647,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.94908300000000001</v>
+        <v>1.7604200000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15">
@@ -8920,7 +10655,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.9325</v>
+        <v>1.7484200000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15">
@@ -8928,7 +10663,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.92987500000000001</v>
+        <v>1.7715799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15">
@@ -8936,7 +10671,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.927458</v>
+        <v>1.7952900000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15">
@@ -8944,7 +10679,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.93700000000000006</v>
+        <v>1.78392</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>9</v>
@@ -8958,7 +10693,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.93970799999999999</v>
+        <v>1.7622500000000001</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
@@ -8978,22 +10713,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.93087500000000001</v>
+        <v>1.7833300000000001</v>
       </c>
       <c r="I10" s="1">
-        <f>AVERAGE(テーブル2456565678910119101112[sequential])</f>
-        <v>0.93740497000000034</v>
+        <f>AVERAGE(テーブル2456565678910119101113[sequential])</f>
+        <v>1.7738918999999997</v>
       </c>
       <c r="J10" s="1" t="e">
-        <f>AVERAGE(テーブル2456565678910119101112[multi-thread])</f>
+        <f>AVERAGE(テーブル2456565678910119101113[multi-thread])</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K10" s="1" t="e">
-        <f>AVERAGE(テーブル2456565678910119101112[multi-fiber])</f>
+        <f>AVERAGE(テーブル2456565678910119101113[multi-fiber])</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L10" s="1" t="e">
-        <f>AVERAGE(テーブル2456565678910119101112[simd])</f>
+        <f>AVERAGE(テーブル2456565678910119101113[simd])</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9002,7 +10737,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.93762500000000004</v>
+        <v>1.78217</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15">
@@ -9010,7 +10745,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0.93841699999999995</v>
+        <v>1.7609600000000001</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15">
@@ -9018,7 +10753,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>0.92949999999999999</v>
+        <v>1.76362</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15">
@@ -9026,7 +10761,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>0.93566700000000003</v>
+        <v>1.7710399999999999</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15">
@@ -9034,7 +10769,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0.93516699999999997</v>
+        <v>1.7782100000000001</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15">
@@ -9042,7 +10777,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>0.93745900000000004</v>
+        <v>1.7907500000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
@@ -9050,7 +10785,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>0.93795799999999996</v>
+        <v>1.76475</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
@@ -9058,7 +10793,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>0.94179199999999996</v>
+        <v>1.7593700000000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
@@ -9066,7 +10801,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.93300000000000005</v>
+        <v>1.75929</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
@@ -9074,7 +10809,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>0.93545800000000001</v>
+        <v>1.7742899999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
@@ -9082,7 +10817,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>0.94029200000000002</v>
+        <v>1.7646299999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
@@ -9090,7 +10825,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>0.93416699999999997</v>
+        <v>1.7680800000000001</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
@@ -9098,7 +10833,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>0.93866700000000003</v>
+        <v>1.7590399999999999</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
@@ -9106,7 +10841,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>0.935917</v>
+        <v>1.75929</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15">
@@ -9114,7 +10849,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>0.93858299999999995</v>
+        <v>1.7642100000000001</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
@@ -9122,7 +10857,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>0.93858299999999995</v>
+        <v>1.7739199999999999</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15">
@@ -9130,7 +10865,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>0.934666</v>
+        <v>1.7884599999999999</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15">
@@ -9138,7 +10873,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>0.94270799999999999</v>
+        <v>1.76867</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15">
@@ -9146,7 +10881,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>0.93074999999999997</v>
+        <v>1.7757499999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15">
@@ -9154,7 +10889,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>0.94687500000000002</v>
+        <v>1.7700800000000001</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15">
@@ -9162,7 +10897,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>0.92958399999999997</v>
+        <v>1.79304</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15">
@@ -9170,7 +10905,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>0.93695799999999996</v>
+        <v>1.77379</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
@@ -9178,7 +10913,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>0.94125000000000003</v>
+        <v>1.76492</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15">
@@ -9186,7 +10921,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>0.93820800000000004</v>
+        <v>1.7857499999999999</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15">
@@ -9194,7 +10929,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>0.93145800000000001</v>
+        <v>1.7776700000000001</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -9204,7 +10939,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>0.942666</v>
+        <v>1.7640400000000001</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15">
@@ -9212,7 +10947,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>0.93300000000000005</v>
+        <v>1.76017</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15">
@@ -9220,7 +10955,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>0.93833299999999997</v>
+        <v>1.76725</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15">
@@ -9228,7 +10963,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>0.92941600000000002</v>
+        <v>1.76529</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15">
@@ -9236,7 +10971,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>0.94037499999999996</v>
+        <v>1.75708</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15">
@@ -9244,7 +10979,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>0.931334</v>
+        <v>1.7909600000000001</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15">
@@ -9252,7 +10987,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>0.9425</v>
+        <v>1.79192</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15">
@@ -9260,7 +10995,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>0.93179100000000004</v>
+        <v>1.75796</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15">
@@ -9268,7 +11003,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>0.95091700000000001</v>
+        <v>1.81288</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15">
@@ -9276,7 +11011,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>0.94095799999999996</v>
+        <v>1.7697099999999999</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15">
@@ -9284,7 +11019,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>0.92945800000000001</v>
+        <v>1.8345800000000001</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15">
@@ -9292,7 +11027,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>0.93616600000000005</v>
+        <v>1.75979</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15">
@@ -9300,7 +11035,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>0.931917</v>
+        <v>1.7916300000000001</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15">
@@ -9308,7 +11043,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>0.93525000000000003</v>
+        <v>1.7593700000000001</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15">
@@ -9316,7 +11051,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>0.93149999999999999</v>
+        <v>1.76108</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15">
@@ -9324,7 +11059,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>0.92654099999999995</v>
+        <v>1.76583</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15">
@@ -9332,7 +11067,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>0.93091599999999997</v>
+        <v>1.7831699999999999</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15">
@@ -9340,7 +11075,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>0.93629099999999998</v>
+        <v>1.76783</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15">
@@ -9348,7 +11083,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>0.94550000000000001</v>
+        <v>1.7606299999999999</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15">
@@ -9356,7 +11091,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>0.94916699999999998</v>
+        <v>1.79104</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15">
@@ -9364,7 +11099,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>0.93045800000000001</v>
+        <v>1.75875</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15">
@@ -9372,7 +11107,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>0.93370799999999998</v>
+        <v>1.76325</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15">
@@ -9380,7 +11115,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>0.94358299999999995</v>
+        <v>1.76742</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15">
@@ -9388,7 +11123,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>0.93220800000000004</v>
+        <v>1.7591300000000001</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15">
@@ -9396,7 +11131,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>0.94354199999999999</v>
+        <v>1.7815799999999999</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15">
@@ -9404,7 +11139,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1">
-        <v>0.932917</v>
+        <v>1.7909200000000001</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15">
@@ -9412,7 +11147,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1">
-        <v>0.93829099999999999</v>
+        <v>1.76254</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15">
@@ -9420,7 +11155,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>0.95170900000000003</v>
+        <v>1.8120400000000001</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15">
@@ -9428,7 +11163,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>0.940083</v>
+        <v>1.79108</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15">
@@ -9436,7 +11171,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>0.957542</v>
+        <v>1.7631300000000001</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15">
@@ -9444,7 +11179,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>0.93325000000000002</v>
+        <v>1.7643800000000001</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15">
@@ -9452,7 +11187,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>0.92766599999999999</v>
+        <v>1.7647900000000001</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15">
@@ -9460,7 +11195,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="1">
-        <v>0.94262500000000005</v>
+        <v>1.77071</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15">
@@ -9468,7 +11203,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="1">
-        <v>0.95608300000000002</v>
+        <v>1.7773699999999999</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15">
@@ -9476,7 +11211,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>0.92812499999999998</v>
+        <v>1.75983</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15">
@@ -9484,7 +11219,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="1">
-        <v>0.93383400000000005</v>
+        <v>1.75742</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15">
@@ -9492,7 +11227,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1">
-        <v>0.9395</v>
+        <v>1.7598800000000001</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15">
@@ -9500,7 +11235,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>0.93300000000000005</v>
+        <v>1.7740400000000001</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15">
@@ -9508,7 +11243,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>0.93629200000000001</v>
+        <v>1.80192</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15">
@@ -9516,7 +11251,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>0.94066700000000003</v>
+        <v>1.7978700000000001</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15">
@@ -9524,7 +11259,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="1">
-        <v>0.93974999999999997</v>
+        <v>1.75671</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15">
@@ -9532,7 +11267,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>0.93541700000000005</v>
+        <v>1.7721199999999999</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15">
@@ -9540,7 +11275,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="1">
-        <v>0.94716699999999998</v>
+        <v>1.78525</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15">
@@ -9548,7 +11283,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>0.92879199999999995</v>
+        <v>1.76542</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15">
@@ -9556,7 +11291,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>0.94420899999999996</v>
+        <v>1.7853699999999999</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15">
@@ -9564,7 +11299,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="1">
-        <v>0.93583400000000005</v>
+        <v>1.80983</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15">
@@ -9572,7 +11307,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>0.936917</v>
+        <v>1.7692099999999999</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15">
@@ -9580,7 +11315,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="1">
-        <v>0.94254199999999999</v>
+        <v>1.77271</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15">
@@ -9588,7 +11323,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="1">
-        <v>0.92995899999999998</v>
+        <v>1.76963</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15">
@@ -9596,7 +11331,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>0.94479199999999997</v>
+        <v>1.76108</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15">
@@ -9604,7 +11339,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="1">
-        <v>0.95045800000000003</v>
+        <v>1.76454</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15">
@@ -9612,7 +11347,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="1">
-        <v>0.93733299999999997</v>
+        <v>1.76346</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15">
@@ -9620,7 +11355,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="1">
-        <v>0.93133299999999997</v>
+        <v>1.7880799999999999</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15">
@@ -9628,7 +11363,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="1">
-        <v>0.94345800000000002</v>
+        <v>1.7626299999999999</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15">
@@ -9636,7 +11371,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="1">
-        <v>0.93712499999999999</v>
+        <v>1.79504</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15">
@@ -9644,7 +11379,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="1">
-        <v>0.95416599999999996</v>
+        <v>1.7602899999999999</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15">
@@ -9652,7 +11387,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="1">
-        <v>0.93266700000000002</v>
+        <v>1.76467</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15">
@@ -9660,7 +11395,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="1">
-        <v>0.93383300000000002</v>
+        <v>1.8091299999999999</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15">
@@ -9668,7 +11403,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="1">
-        <v>0.93491599999999997</v>
+        <v>1.7764599999999999</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15">
@@ -9676,7 +11411,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="1">
-        <v>0.93429200000000001</v>
+        <v>1.7659199999999999</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15">
@@ -9684,7 +11419,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="1">
-        <v>0.94325000000000003</v>
+        <v>1.79467</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15">
@@ -9692,7 +11427,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="1">
-        <v>0.93674999999999997</v>
+        <v>1.75858</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15">
@@ -9700,7 +11435,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="1">
-        <v>0.93620899999999996</v>
+        <v>1.7785</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15">
@@ -9708,7 +11443,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="1">
-        <v>0.93904100000000001</v>
+        <v>1.7675799999999999</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15">
@@ -9716,7 +11451,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="1">
-        <v>0.93208299999999999</v>
+        <v>1.7676700000000001</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15">
@@ -9724,7 +11459,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="1">
-        <v>0.93654199999999999</v>
+        <v>1.7896300000000001</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15">
@@ -9732,7 +11467,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="1">
-        <v>0.93429200000000001</v>
+        <v>1.786</v>
       </c>
     </row>
   </sheetData>

--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F44A24-E4E7-C342-B40A-6E6F4376860E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAEA488-CC0B-5B48-82FE-90ACA171D879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="900" windowWidth="15420" windowHeight="16500" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="5mod5tc.tfc" sheetId="6" r:id="rId6"/>
     <sheet name="hwb5tc.tfc" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -218,35 +218,31 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="48">
     <dxf>
       <font>
         <strike val="0"/>
@@ -373,13 +369,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -404,6 +393,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -567,13 +563,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -598,6 +587,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -761,13 +757,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -792,6 +781,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -955,13 +951,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -986,6 +975,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1149,13 +1145,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1182,85 +1171,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Futura Condensed Medium"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Futura Medium"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1422,6 +1337,75 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Futura Condensed Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2505,21 +2489,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}" name="テーブル245656567891011" displayName="テーブル245656567891011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" headerRowBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}" name="テーブル245656567891011" displayName="テーブル245656567891011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46">
   <autoFilter ref="A2:E102" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5BA224EE-6041-F344-B34A-9FBDF29A9510}" name="times" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{6CE03F36-CF34-9645-A348-C61D9EF118B4}" name="sequential" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{874D523F-A842-214F-8959-9A61540A9A8A}" name="multi-thread" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{2D90F0B7-A0EF-694E-91B3-7AF4BD0EADA8}" name="multi-fiber" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{61BBD1D9-647D-CA41-B58E-4467F0EE0459}" name="simd" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{5BA224EE-6041-F344-B34A-9FBDF29A9510}" name="times" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{6CE03F36-CF34-9645-A348-C61D9EF118B4}" name="sequential" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{874D523F-A842-214F-8959-9A61540A9A8A}" name="multi-thread" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{2D90F0B7-A0EF-694E-91B3-7AF4BD0EADA8}" name="multi-fiber" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{61BBD1D9-647D-CA41-B58E-4467F0EE0459}" name="simd" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82584110-A505-4543-82D8-BD808AA930A0}" name="テーブル2456565678910119" displayName="テーブル2456565678910119" ref="A2:E102" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" headerRowBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82584110-A505-4543-82D8-BD808AA930A0}" name="テーブル2456565678910119" displayName="テーブル2456565678910119" ref="A2:E102" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38">
   <autoFilter ref="A2:E102" xr:uid="{82584110-A505-4543-82D8-BD808AA930A0}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4D465662-E697-4748-85BF-2F2EC8672C84}" name="times" dataDxfId="36"/>
@@ -2533,7 +2517,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A8FAC881-4731-7343-8EE9-42A5625B15C1}" name="テーブル245656567891011910" displayName="テーブル245656567891011910" ref="A2:E102" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" headerRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A8FAC881-4731-7343-8EE9-42A5625B15C1}" name="テーブル245656567891011910" displayName="テーブル245656567891011910" ref="A2:E102" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30">
   <autoFilter ref="A2:E102" xr:uid="{A8FAC881-4731-7343-8EE9-42A5625B15C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7DC7A093-2326-6B4A-992F-B923642F87F8}" name="times" dataDxfId="28"/>
@@ -2547,7 +2531,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0BC7CBD0-531E-8549-8487-A476FCA6B739}" name="テーブル24565656789101191011" displayName="テーブル24565656789101191011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0BC7CBD0-531E-8549-8487-A476FCA6B739}" name="テーブル24565656789101191011" displayName="テーブル24565656789101191011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22">
   <autoFilter ref="A2:E102" xr:uid="{0BC7CBD0-531E-8549-8487-A476FCA6B739}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{CAD9E614-4F7A-C34B-8293-317912427780}" name="times" dataDxfId="20"/>
@@ -2561,7 +2545,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DF3F5530-A2E8-E242-A450-0BD65B08DBD0}" name="テーブル2456565678910119101112" displayName="テーブル2456565678910119101112" ref="A2:E102" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DF3F5530-A2E8-E242-A450-0BD65B08DBD0}" name="テーブル2456565678910119101112" displayName="テーブル2456565678910119101112" ref="A2:E102" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14">
   <autoFilter ref="A2:E102" xr:uid="{DF3F5530-A2E8-E242-A450-0BD65B08DBD0}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0D83CB80-893A-0643-A91B-A5FBF5281EAA}" name="times" dataDxfId="12"/>
@@ -2575,7 +2559,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{58A7FBD7-CC5F-474E-B7C8-C9FA6B34365B}" name="テーブル2456565678910119101113" displayName="テーブル2456565678910119101113" ref="A2:E102" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{58A7FBD7-CC5F-474E-B7C8-C9FA6B34365B}" name="テーブル2456565678910119101113" displayName="テーブル2456565678910119101113" ref="A2:E102" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6">
   <autoFilter ref="A2:E102" xr:uid="{58A7FBD7-CC5F-474E-B7C8-C9FA6B34365B}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{78FE6EF4-54B8-DD48-804B-55674A24DC97}" name="times" dataDxfId="4"/>
@@ -2913,227 +2897,224 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="9"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="9"/>
-    <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.85546875" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="9"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="9" t="s">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4">
         <v>7</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4">
         <f>ham3tc.tfc!I10</f>
         <v>0.22538257000000009</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4">
         <f>ham3tc.tfc!J10</f>
         <v>0.50185417999999971</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4">
         <f>ham3tc.tfc!K10</f>
         <v>0.40875494999999984</v>
       </c>
-      <c r="I4" s="9" t="e">
+      <c r="I4" t="e">
         <f>ham3tc.tfc!L10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="9" t="s">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5">
         <v>12</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5">
         <f>'3_17tc.tfc'!I10</f>
         <v>0.28870964999999998</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5">
         <f>'3_17tc.tfc'!J10</f>
         <v>0.65457544000000012</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5">
         <f>'3_17tc.tfc'!K10</f>
         <v>0.51913709000000008</v>
       </c>
-      <c r="I5" s="9" t="e">
+      <c r="I5" t="e">
         <f>'3_17tc.tfc'!L10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="9" t="s">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6">
         <v>17</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6">
         <v>63</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6">
         <f>hwb4tc.tfc!I10</f>
         <v>0.70795834000000024</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6">
         <f>hwb4tc.tfc!J10</f>
         <v>1.4842221000000007</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6">
         <f>hwb4tc.tfc!K10</f>
         <v>1.2845061999999998</v>
       </c>
-      <c r="I6" s="9" t="e">
+      <c r="I6" t="e">
         <f>hwb4tc.tfc!L10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="9" t="s">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7">
         <f>xor5d1.tfc!I10</f>
         <v>0.25224787000000004</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7">
         <f>xor5d1.tfc!J10</f>
         <v>0.46653796000000014</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7">
         <f>xor5d1.tfc!K10</f>
         <v>0.38752078999999978</v>
       </c>
-      <c r="I7" s="9" t="e">
+      <c r="I7" t="e">
         <f>xor5d1.tfc!L10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="9" t="s">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8">
         <v>55</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8">
         <v>313</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8">
         <f>hwb5tc.tfc!I10</f>
         <v>1.7738918999999997</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8">
         <f>hwb5tc.tfc!J10</f>
         <v>3.4379569999999999</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8">
         <f>hwb5tc.tfc!K10</f>
         <v>3.8349852000000002</v>
       </c>
-      <c r="I8" s="9" t="e">
+      <c r="I8" t="e">
         <f>hwb5tc.tfc!L10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9">
         <v>17</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9">
         <v>185</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9">
         <f>'5mod5tc.tfc'!I10</f>
         <v>0.93740497000000034</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9">
         <f>'5mod5tc.tfc'!J10</f>
         <v>1.7163025000000003</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9">
         <f>'5mod5tc.tfc'!K10</f>
         <v>1.7711123000000006</v>
       </c>
-      <c r="I9" s="9" t="e">
+      <c r="I9" t="e">
         <f>'5mod5tc.tfc'!L10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="9" t="s">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3163,29 +3144,29 @@
     <col min="5" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3272,12 +3253,12 @@
       <c r="D8" s="1">
         <v>0.40329199999999998</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -3678,10 +3659,10 @@
       <c r="B35" s="1">
         <v>0.22441700000000001</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="1">
         <v>0.54962500000000003</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="1">
         <v>0.40483400000000003</v>
       </c>
     </row>
@@ -4644,7 +4625,7 @@
       <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.85546875" style="1"/>
@@ -4652,33 +4633,33 @@
     <col min="5" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4692,7 +4673,7 @@
         <v>0.51545799999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4706,7 +4687,7 @@
         <v>0.52366599999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4720,7 +4701,7 @@
         <v>0.517042</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4734,7 +4715,7 @@
         <v>0.52012499999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4748,7 +4729,7 @@
         <v>0.52137500000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4761,14 +4742,14 @@
       <c r="D8" s="1">
         <v>0.52091699999999996</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" ht="15">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4794,7 +4775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4824,7 +4805,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4838,7 +4819,7 @@
         <v>0.57266600000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4852,7 +4833,7 @@
         <v>0.51554100000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4866,7 +4847,7 @@
         <v>0.51808399999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4880,7 +4861,7 @@
         <v>0.51424999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4894,7 +4875,7 @@
         <v>0.51470800000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4908,7 +4889,7 @@
         <v>0.51437500000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4922,7 +4903,7 @@
         <v>0.52175000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4936,7 +4917,7 @@
         <v>0.51741700000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4950,7 +4931,7 @@
         <v>0.51587499999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4964,7 +4945,7 @@
         <v>0.514791</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4978,7 +4959,7 @@
         <v>0.52275000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4992,7 +4973,7 @@
         <v>0.51570899999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5006,7 +4987,7 @@
         <v>0.51570800000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5020,7 +5001,7 @@
         <v>0.51691699999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5034,7 +5015,7 @@
         <v>0.52212499999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5048,7 +5029,7 @@
         <v>0.51912499999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5062,7 +5043,7 @@
         <v>0.51791699999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5076,7 +5057,7 @@
         <v>0.521791</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5090,7 +5071,7 @@
         <v>0.51695800000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5104,7 +5085,7 @@
         <v>0.51783299999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5118,7 +5099,7 @@
         <v>0.513625</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5132,7 +5113,7 @@
         <v>0.51470899999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5146,7 +5127,7 @@
         <v>0.52591699999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5160,21 +5141,21 @@
         <v>0.52258300000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.29462500000000003</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="1">
         <v>0.66895800000000005</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="1">
         <v>0.51700000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5188,7 +5169,7 @@
         <v>0.51775000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -5202,7 +5183,7 @@
         <v>0.52358300000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -5216,7 +5197,7 @@
         <v>0.518625</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -5230,7 +5211,7 @@
         <v>0.52075000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -5244,7 +5225,7 @@
         <v>0.53237500000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5258,7 +5239,7 @@
         <v>0.515042</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -5272,7 +5253,7 @@
         <v>0.51783400000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -5286,7 +5267,7 @@
         <v>0.51708299999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -5300,7 +5281,7 @@
         <v>0.516042</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -5314,7 +5295,7 @@
         <v>0.52024999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -5328,7 +5309,7 @@
         <v>0.51545799999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5342,7 +5323,7 @@
         <v>0.51812499999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15">
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5356,7 +5337,7 @@
         <v>0.51549999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -5370,7 +5351,7 @@
         <v>0.518791</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5384,7 +5365,7 @@
         <v>0.517208</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15">
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5398,7 +5379,7 @@
         <v>0.52429099999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15">
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5412,7 +5393,7 @@
         <v>0.513459</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5426,7 +5407,7 @@
         <v>0.51670799999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15">
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5440,7 +5421,7 @@
         <v>0.52441700000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15">
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5454,7 +5435,7 @@
         <v>0.51566699999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15">
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5468,7 +5449,7 @@
         <v>0.52633399999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15">
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5482,7 +5463,7 @@
         <v>0.515208</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15">
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5496,7 +5477,7 @@
         <v>0.52029199999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15">
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5510,7 +5491,7 @@
         <v>0.51395900000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15">
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5524,7 +5505,7 @@
         <v>0.51891699999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15">
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5538,7 +5519,7 @@
         <v>0.51554199999999994</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15">
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5552,7 +5533,7 @@
         <v>0.52625</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15">
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5566,7 +5547,7 @@
         <v>0.51633300000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15">
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5580,7 +5561,7 @@
         <v>0.517042</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15">
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5594,7 +5575,7 @@
         <v>0.51587499999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15">
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5608,7 +5589,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15">
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5622,7 +5603,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15">
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5636,7 +5617,7 @@
         <v>0.52266699999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15">
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5650,7 +5631,7 @@
         <v>0.52070799999999995</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15">
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5664,7 +5645,7 @@
         <v>0.52191699999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15">
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5678,7 +5659,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15">
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5692,7 +5673,7 @@
         <v>0.51783299999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15">
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5706,7 +5687,7 @@
         <v>0.515625</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15">
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5720,7 +5701,7 @@
         <v>0.51529199999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15">
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5734,7 +5715,7 @@
         <v>0.51683299999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15">
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5748,7 +5729,7 @@
         <v>0.51854100000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15">
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5762,7 +5743,7 @@
         <v>0.52016700000000005</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15">
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5776,7 +5757,7 @@
         <v>0.51324999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15">
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5790,7 +5771,7 @@
         <v>0.51512500000000006</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15">
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5804,7 +5785,7 @@
         <v>0.51637500000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15">
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5818,7 +5799,7 @@
         <v>0.51749999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15">
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5832,7 +5813,7 @@
         <v>0.51554199999999994</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15">
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5846,7 +5827,7 @@
         <v>0.53633399999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15">
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5860,7 +5841,7 @@
         <v>0.51549999999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15">
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5874,7 +5855,7 @@
         <v>0.51970799999999995</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15">
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5888,7 +5869,7 @@
         <v>0.51833300000000004</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15">
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5902,7 +5883,7 @@
         <v>0.52204200000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15">
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5916,7 +5897,7 @@
         <v>0.51354200000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15">
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5930,7 +5911,7 @@
         <v>0.51587499999999997</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15">
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5944,7 +5925,7 @@
         <v>0.514625</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15">
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5958,7 +5939,7 @@
         <v>0.52449999999999997</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15">
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5972,7 +5953,7 @@
         <v>0.51575000000000004</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15">
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5986,7 +5967,7 @@
         <v>0.51733300000000004</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15">
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6000,7 +5981,7 @@
         <v>0.52058300000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15">
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6014,7 +5995,7 @@
         <v>0.51766699999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15">
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6028,7 +6009,7 @@
         <v>0.51500000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15">
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6042,7 +6023,7 @@
         <v>0.52187499999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15">
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6056,7 +6037,7 @@
         <v>0.51549999999999996</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15">
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6070,7 +6051,7 @@
         <v>0.52745799999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15">
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6084,7 +6065,7 @@
         <v>0.51716700000000004</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15">
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6098,7 +6079,7 @@
         <v>0.52704200000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15">
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6133,7 +6114,7 @@
       <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.85546875" style="1"/>
@@ -6141,33 +6122,33 @@
     <col min="5" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6181,7 +6162,7 @@
         <v>1.27742</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6195,7 +6176,7 @@
         <v>1.31596</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6209,7 +6190,7 @@
         <v>1.2842100000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6223,7 +6204,7 @@
         <v>1.29942</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6237,7 +6218,7 @@
         <v>1.27925</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6250,14 +6231,14 @@
       <c r="D8" s="1">
         <v>1.30983</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" ht="15">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6283,7 +6264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6313,7 +6294,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6327,7 +6308,7 @@
         <v>1.2799199999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6341,7 +6322,7 @@
         <v>1.27904</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6355,7 +6336,7 @@
         <v>1.3018700000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6369,7 +6350,7 @@
         <v>1.3080400000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6383,7 +6364,7 @@
         <v>1.3041700000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6397,7 +6378,7 @@
         <v>1.28217</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6411,7 +6392,7 @@
         <v>1.2817099999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6425,7 +6406,7 @@
         <v>1.2886200000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6439,7 +6420,7 @@
         <v>1.2871300000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6453,7 +6434,7 @@
         <v>1.28271</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6467,7 +6448,7 @@
         <v>1.2799199999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6481,7 +6462,7 @@
         <v>1.28108</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6495,7 +6476,7 @@
         <v>1.28254</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6509,7 +6490,7 @@
         <v>1.2842899999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6523,7 +6504,7 @@
         <v>1.2866200000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6537,7 +6518,7 @@
         <v>1.2793300000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6551,7 +6532,7 @@
         <v>1.2775000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6565,7 +6546,7 @@
         <v>1.28308</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6579,7 +6560,7 @@
         <v>1.2902100000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -6593,7 +6574,7 @@
         <v>1.2882100000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6607,7 +6588,7 @@
         <v>1.2762100000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -6621,7 +6602,7 @@
         <v>1.27763</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6635,7 +6616,7 @@
         <v>1.2823800000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6649,21 +6630,21 @@
         <v>1.2861199999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.70774999999999999</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="1">
         <v>1.5037100000000001</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="1">
         <v>1.2925800000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6677,7 +6658,7 @@
         <v>1.2877099999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6691,7 +6672,7 @@
         <v>1.2840400000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6705,7 +6686,7 @@
         <v>1.2809600000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6719,7 +6700,7 @@
         <v>1.28125</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6733,7 +6714,7 @@
         <v>1.2795399999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6747,7 +6728,7 @@
         <v>1.30342</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6761,7 +6742,7 @@
         <v>1.2729999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6775,7 +6756,7 @@
         <v>1.28654</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6789,7 +6770,7 @@
         <v>1.2809600000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6803,7 +6784,7 @@
         <v>1.27729</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6817,7 +6798,7 @@
         <v>1.28287</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6831,7 +6812,7 @@
         <v>1.2835000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15">
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6845,7 +6826,7 @@
         <v>1.2802100000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6859,7 +6840,7 @@
         <v>1.2860400000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6873,7 +6854,7 @@
         <v>1.2835000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15">
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6887,7 +6868,7 @@
         <v>1.27867</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15">
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6901,7 +6882,7 @@
         <v>1.2822100000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6915,7 +6896,7 @@
         <v>1.28746</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15">
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6929,7 +6910,7 @@
         <v>1.29508</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15">
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6943,7 +6924,7 @@
         <v>1.2811699999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15">
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6957,7 +6938,7 @@
         <v>1.2869200000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15">
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6971,7 +6952,7 @@
         <v>1.2829600000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15">
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6985,7 +6966,7 @@
         <v>1.2802899999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15">
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -6999,7 +6980,7 @@
         <v>1.2860799999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15">
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7013,7 +6994,7 @@
         <v>1.2831300000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15">
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7027,7 +7008,7 @@
         <v>1.28792</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15">
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7041,7 +7022,7 @@
         <v>1.2924199999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15">
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7055,7 +7036,7 @@
         <v>1.2836700000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15">
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7069,7 +7050,7 @@
         <v>1.27963</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15">
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7083,7 +7064,7 @@
         <v>1.2815799999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15">
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7097,7 +7078,7 @@
         <v>1.2802899999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15">
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7111,7 +7092,7 @@
         <v>1.28467</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15">
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7125,7 +7106,7 @@
         <v>1.27579</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15">
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7139,7 +7120,7 @@
         <v>1.2806200000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15">
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7153,7 +7134,7 @@
         <v>1.28908</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15">
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7167,7 +7148,7 @@
         <v>1.2791699999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15">
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7181,7 +7162,7 @@
         <v>1.27704</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15">
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7195,7 +7176,7 @@
         <v>1.28942</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15">
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7209,7 +7190,7 @@
         <v>1.2828299999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15">
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7223,7 +7204,7 @@
         <v>1.27763</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15">
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7237,7 +7218,7 @@
         <v>1.2788299999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15">
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7251,7 +7232,7 @@
         <v>1.28087</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15">
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7265,7 +7246,7 @@
         <v>1.2862100000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15">
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7279,7 +7260,7 @@
         <v>1.27796</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15">
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7293,7 +7274,7 @@
         <v>1.28596</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15">
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7307,7 +7288,7 @@
         <v>1.27671</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15">
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7321,7 +7302,7 @@
         <v>1.28487</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15">
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7335,7 +7316,7 @@
         <v>1.27563</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15">
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7349,7 +7330,7 @@
         <v>1.2869200000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15">
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -7363,7 +7344,7 @@
         <v>1.2818799999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15">
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -7377,7 +7358,7 @@
         <v>1.28546</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15">
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -7391,7 +7372,7 @@
         <v>1.2938799999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15">
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -7405,7 +7386,7 @@
         <v>1.2857099999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15">
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -7419,7 +7400,7 @@
         <v>1.2785</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15">
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -7433,7 +7414,7 @@
         <v>1.27996</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15">
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -7447,7 +7428,7 @@
         <v>1.28108</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15">
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -7461,7 +7442,7 @@
         <v>1.2798799999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15">
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -7475,7 +7456,7 @@
         <v>1.28267</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15">
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -7489,7 +7470,7 @@
         <v>1.2833699999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15">
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -7503,7 +7484,7 @@
         <v>1.2809600000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15">
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -7517,7 +7498,7 @@
         <v>1.28833</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15">
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7531,7 +7512,7 @@
         <v>1.2885800000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15">
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -7545,7 +7526,7 @@
         <v>1.28033</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15">
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -7559,7 +7540,7 @@
         <v>1.2762100000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15">
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7573,7 +7554,7 @@
         <v>1.2842899999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15">
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7587,7 +7568,7 @@
         <v>1.28783</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15">
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7622,7 +7603,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.85546875" style="1"/>
@@ -7630,33 +7611,33 @@
     <col min="5" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7670,7 +7651,7 @@
         <v>0.38470799999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7684,7 +7665,7 @@
         <v>0.38450000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7698,7 +7679,7 @@
         <v>0.387042</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7712,7 +7693,7 @@
         <v>0.393042</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7726,7 +7707,7 @@
         <v>0.40387499999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7739,14 +7720,14 @@
       <c r="D8" s="1">
         <v>0.38174999999999998</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" ht="15">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7772,7 +7753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -7802,7 +7783,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7816,7 +7797,7 @@
         <v>0.38466600000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7830,7 +7811,7 @@
         <v>0.38312499999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7844,7 +7825,7 @@
         <v>0.38958300000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7858,7 +7839,7 @@
         <v>0.38341599999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -7872,7 +7853,7 @@
         <v>0.38916699999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -7886,7 +7867,7 @@
         <v>0.38316600000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -7900,7 +7881,7 @@
         <v>0.38237500000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -7914,7 +7895,7 @@
         <v>0.38637500000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -7928,7 +7909,7 @@
         <v>0.38091599999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -7942,7 +7923,7 @@
         <v>0.38729200000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -7956,7 +7937,7 @@
         <v>0.38295800000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -7970,7 +7951,7 @@
         <v>0.38133299999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -7984,7 +7965,7 @@
         <v>0.38312499999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -7998,7 +7979,7 @@
         <v>0.38808300000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -8012,7 +7993,7 @@
         <v>0.388542</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -8026,7 +8007,7 @@
         <v>0.38262499999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8040,7 +8021,7 @@
         <v>0.38650000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8054,7 +8035,7 @@
         <v>0.39850000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8068,7 +8049,7 @@
         <v>0.39566600000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8082,7 +8063,7 @@
         <v>0.38291700000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -8096,7 +8077,7 @@
         <v>0.38937500000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -8110,7 +8091,7 @@
         <v>0.38533400000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -8124,7 +8105,7 @@
         <v>0.38524999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -8138,21 +8119,21 @@
         <v>0.390625</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.25212499999999999</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="1">
         <v>0.49837500000000001</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="1">
         <v>0.38737500000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -8166,7 +8147,7 @@
         <v>0.38395800000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -8180,7 +8161,7 @@
         <v>0.38708300000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -8194,7 +8175,7 @@
         <v>0.38950000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -8208,7 +8189,7 @@
         <v>0.384959</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -8222,7 +8203,7 @@
         <v>0.401916</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -8236,7 +8217,7 @@
         <v>0.39774999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -8250,7 +8231,7 @@
         <v>0.38412499999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -8264,7 +8245,7 @@
         <v>0.38416699999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -8278,7 +8259,7 @@
         <v>0.38437500000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -8292,7 +8273,7 @@
         <v>0.385625</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -8306,7 +8287,7 @@
         <v>0.38224999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -8320,7 +8301,7 @@
         <v>0.385125</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15">
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -8334,7 +8315,7 @@
         <v>0.38450000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -8348,7 +8329,7 @@
         <v>0.38524999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -8362,7 +8343,7 @@
         <v>0.38416600000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15">
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -8376,7 +8357,7 @@
         <v>0.38408399999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15">
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -8390,7 +8371,7 @@
         <v>0.38937500000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -8404,7 +8385,7 @@
         <v>0.38574999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15">
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -8418,7 +8399,7 @@
         <v>0.38295800000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15">
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -8432,7 +8413,7 @@
         <v>0.393459</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15">
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -8446,7 +8427,7 @@
         <v>0.38774999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15">
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -8460,7 +8441,7 @@
         <v>0.38566600000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15">
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -8474,7 +8455,7 @@
         <v>0.41645799999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15">
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -8488,7 +8469,7 @@
         <v>0.39087499999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15">
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -8502,7 +8483,7 @@
         <v>0.38608399999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15">
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -8516,7 +8497,7 @@
         <v>0.387708</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15">
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -8530,7 +8511,7 @@
         <v>0.38520900000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15">
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -8544,7 +8525,7 @@
         <v>0.39233299999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15">
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -8558,7 +8539,7 @@
         <v>0.38229099999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15">
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -8572,7 +8553,7 @@
         <v>0.39116699999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15">
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -8586,7 +8567,7 @@
         <v>0.38329200000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15">
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -8600,7 +8581,7 @@
         <v>0.38904100000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15">
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -8614,7 +8595,7 @@
         <v>0.38333299999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15">
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -8628,7 +8609,7 @@
         <v>0.38424999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15">
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -8642,7 +8623,7 @@
         <v>0.388459</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15">
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -8656,7 +8637,7 @@
         <v>0.38287500000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15">
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -8670,7 +8651,7 @@
         <v>0.39137499999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15">
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -8684,7 +8665,7 @@
         <v>0.38324999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15">
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -8698,7 +8679,7 @@
         <v>0.38424999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15">
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -8712,7 +8693,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15">
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -8726,7 +8707,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15">
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -8740,7 +8721,7 @@
         <v>0.395791</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15">
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -8754,7 +8735,7 @@
         <v>0.38312499999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15">
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -8768,7 +8749,7 @@
         <v>0.391291</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15">
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -8782,7 +8763,7 @@
         <v>0.39441700000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15">
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -8796,7 +8777,7 @@
         <v>0.386625</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15">
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -8810,7 +8791,7 @@
         <v>0.38370900000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15">
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -8824,7 +8805,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15">
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -8838,7 +8819,7 @@
         <v>0.39574999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15">
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -8852,7 +8833,7 @@
         <v>0.39095800000000003</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15">
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -8866,7 +8847,7 @@
         <v>0.38474999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15">
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -8880,7 +8861,7 @@
         <v>0.38808399999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15">
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8894,7 +8875,7 @@
         <v>0.38666699999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15">
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8908,7 +8889,7 @@
         <v>0.39608300000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15">
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8922,7 +8903,7 @@
         <v>0.39474999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15">
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -8936,7 +8917,7 @@
         <v>0.39024999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15">
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8950,7 +8931,7 @@
         <v>0.38287500000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15">
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8964,7 +8945,7 @@
         <v>0.39020899999999997</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15">
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8978,7 +8959,7 @@
         <v>0.38220799999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15">
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8992,7 +8973,7 @@
         <v>0.38937500000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15">
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -9006,7 +8987,7 @@
         <v>0.39995799999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15">
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -9020,7 +9001,7 @@
         <v>0.38345800000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15">
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -9034,7 +9015,7 @@
         <v>0.38787500000000003</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15">
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -9048,7 +9029,7 @@
         <v>0.38458399999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15">
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -9062,7 +9043,7 @@
         <v>0.390125</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15">
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -9076,7 +9057,7 @@
         <v>0.38408300000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15">
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -9111,7 +9092,7 @@
       <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.85546875" style="1"/>
@@ -9119,33 +9100,33 @@
     <col min="5" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -9159,7 +9140,7 @@
         <v>1.79217</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -9173,7 +9154,7 @@
         <v>1.7749600000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -9187,7 +9168,7 @@
         <v>1.7630399999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -9201,7 +9182,7 @@
         <v>1.76467</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -9215,7 +9196,7 @@
         <v>1.75221</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -9228,14 +9209,14 @@
       <c r="D8" s="1">
         <v>1.74783</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" ht="15">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -9261,7 +9242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -9291,7 +9272,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -9305,7 +9286,7 @@
         <v>1.7576700000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -9319,7 +9300,7 @@
         <v>1.7551699999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -9333,7 +9314,7 @@
         <v>1.80796</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -9347,7 +9328,7 @@
         <v>1.76508</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -9361,7 +9342,7 @@
         <v>1.75875</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -9375,7 +9356,7 @@
         <v>1.78396</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -9389,7 +9370,7 @@
         <v>1.7549999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -9403,7 +9384,7 @@
         <v>1.79871</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -9417,7 +9398,7 @@
         <v>1.7818799999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -9431,7 +9412,7 @@
         <v>1.78383</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -9445,7 +9426,7 @@
         <v>1.7900799999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -9459,7 +9440,7 @@
         <v>1.77946</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -9473,7 +9454,7 @@
         <v>1.8041199999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -9487,7 +9468,7 @@
         <v>1.7623800000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -9501,7 +9482,7 @@
         <v>1.76983</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -9515,7 +9496,7 @@
         <v>1.76908</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -9529,7 +9510,7 @@
         <v>1.7584200000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -9543,7 +9524,7 @@
         <v>1.7704599999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -9557,7 +9538,7 @@
         <v>1.7604200000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -9571,7 +9552,7 @@
         <v>1.77721</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -9585,7 +9566,7 @@
         <v>1.7544200000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -9599,7 +9580,7 @@
         <v>1.7544200000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -9613,7 +9594,7 @@
         <v>1.75671</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -9627,21 +9608,21 @@
         <v>1.7515799999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.93145800000000001</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="1">
         <v>1.7035</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="1">
         <v>1.7550399999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -9655,7 +9636,7 @@
         <v>1.75604</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -9669,7 +9650,7 @@
         <v>1.7462899999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -9683,7 +9664,7 @@
         <v>1.7616700000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -9697,7 +9678,7 @@
         <v>1.7621199999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -9711,7 +9692,7 @@
         <v>1.7635000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -9725,7 +9706,7 @@
         <v>1.77033</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -9739,7 +9720,7 @@
         <v>1.7552099999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -9753,7 +9734,7 @@
         <v>1.7635400000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -9767,7 +9748,7 @@
         <v>1.7902100000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -9781,7 +9762,7 @@
         <v>1.74708</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -9795,7 +9776,7 @@
         <v>1.7806200000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9809,7 +9790,7 @@
         <v>1.7573700000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15">
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -9823,7 +9804,7 @@
         <v>1.7588699999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -9837,7 +9818,7 @@
         <v>1.77254</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -9851,7 +9832,7 @@
         <v>1.7450000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15">
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -9865,7 +9846,7 @@
         <v>1.78304</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15">
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -9879,7 +9860,7 @@
         <v>1.7685</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -9893,7 +9874,7 @@
         <v>1.74817</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15">
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -9907,7 +9888,7 @@
         <v>1.7591300000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15">
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -9921,7 +9902,7 @@
         <v>1.7933699999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15">
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -9935,7 +9916,7 @@
         <v>1.7806200000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15">
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -9949,7 +9930,7 @@
         <v>1.7684599999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15">
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -9963,7 +9944,7 @@
         <v>1.8534200000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15">
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -9977,7 +9958,7 @@
         <v>1.7828299999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15">
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -9991,7 +9972,7 @@
         <v>1.7648299999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15">
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -10005,7 +9986,7 @@
         <v>1.7875399999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15">
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -10019,7 +10000,7 @@
         <v>1.76275</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15">
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -10033,7 +10014,7 @@
         <v>1.79054</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15">
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -10047,7 +10028,7 @@
         <v>1.76292</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15">
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -10061,7 +10042,7 @@
         <v>1.7562500000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15">
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -10075,7 +10056,7 @@
         <v>1.7666200000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15">
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -10089,7 +10070,7 @@
         <v>1.7683800000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15">
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -10103,7 +10084,7 @@
         <v>1.7987500000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15">
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -10117,7 +10098,7 @@
         <v>1.7945800000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15">
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -10131,7 +10112,7 @@
         <v>1.7598800000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15">
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -10145,7 +10126,7 @@
         <v>1.7600800000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15">
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -10159,7 +10140,7 @@
         <v>1.7504200000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15">
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -10173,7 +10154,7 @@
         <v>1.7741199999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15">
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -10187,7 +10168,7 @@
         <v>1.8268800000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15">
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -10201,7 +10182,7 @@
         <v>1.77346</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15">
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -10215,7 +10196,7 @@
         <v>1.7780400000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15">
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -10229,7 +10210,7 @@
         <v>1.7715000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15">
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -10243,7 +10224,7 @@
         <v>1.7893300000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15">
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -10257,7 +10238,7 @@
         <v>1.7491300000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15">
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -10271,7 +10252,7 @@
         <v>1.7886200000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15">
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -10285,7 +10266,7 @@
         <v>1.76796</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15">
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -10299,7 +10280,7 @@
         <v>1.7560800000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15">
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -10313,7 +10294,7 @@
         <v>1.78342</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15">
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -10327,7 +10308,7 @@
         <v>1.77383</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15">
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -10341,7 +10322,7 @@
         <v>1.77146</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15">
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -10355,7 +10336,7 @@
         <v>1.73254</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15">
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -10369,7 +10350,7 @@
         <v>1.7650399999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15">
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -10383,7 +10364,7 @@
         <v>1.8048299999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15">
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -10397,7 +10378,7 @@
         <v>1.7702100000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15">
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -10411,7 +10392,7 @@
         <v>1.7464200000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15">
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -10425,7 +10406,7 @@
         <v>1.7613300000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15">
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -10439,7 +10420,7 @@
         <v>1.7346299999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15">
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -10453,7 +10434,7 @@
         <v>1.76146</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15">
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -10467,7 +10448,7 @@
         <v>1.76579</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15">
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -10481,7 +10462,7 @@
         <v>1.7862100000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15">
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -10495,7 +10476,7 @@
         <v>1.7720800000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15">
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -10509,7 +10490,7 @@
         <v>1.7911300000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15">
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -10523,7 +10504,7 @@
         <v>1.7945800000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15">
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -10537,7 +10518,7 @@
         <v>1.7786200000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15">
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -10551,7 +10532,7 @@
         <v>1.75271</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15">
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -10565,7 +10546,7 @@
         <v>1.8131699999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15">
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -10600,7 +10581,7 @@
       <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.85546875" style="1"/>
@@ -10608,33 +10589,33 @@
     <col min="5" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -10648,7 +10629,7 @@
         <v>3.81175</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -10662,7 +10643,7 @@
         <v>3.7935400000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -10676,7 +10657,7 @@
         <v>3.9397899999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -10690,7 +10671,7 @@
         <v>3.8081700000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -10704,7 +10685,7 @@
         <v>3.77338</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -10717,14 +10698,14 @@
       <c r="D8" s="1">
         <v>3.7953299999999999</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" ht="15">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -10750,7 +10731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -10780,7 +10761,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -10794,7 +10775,7 @@
         <v>3.7497099999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -10808,7 +10789,7 @@
         <v>3.7364199999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -10822,7 +10803,7 @@
         <v>3.8251200000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -10836,7 +10817,7 @@
         <v>3.8320799999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -10850,7 +10831,7 @@
         <v>3.8835000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -10864,7 +10845,7 @@
         <v>3.6547100000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -10878,7 +10859,7 @@
         <v>3.8395000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -10892,7 +10873,7 @@
         <v>3.93825</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -10906,7 +10887,7 @@
         <v>3.8692099999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -10920,7 +10901,7 @@
         <v>3.8466200000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -10934,7 +10915,7 @@
         <v>3.9510399999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -10948,7 +10929,7 @@
         <v>3.76383</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -10962,7 +10943,7 @@
         <v>3.7436699999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -10976,7 +10957,7 @@
         <v>3.81596</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -10990,7 +10971,7 @@
         <v>3.7974999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -11004,7 +10985,7 @@
         <v>3.86937</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -11018,7 +10999,7 @@
         <v>3.8388300000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -11032,7 +11013,7 @@
         <v>3.80538</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -11046,7 +11027,7 @@
         <v>3.80538</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -11060,7 +11041,7 @@
         <v>3.7593299999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -11074,7 +11055,7 @@
         <v>3.8425799999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -11088,7 +11069,7 @@
         <v>3.9112499999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -11102,7 +11083,7 @@
         <v>3.8987500000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -11116,21 +11097,21 @@
         <v>3.7007500000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>1.7776700000000001</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="1">
         <v>3.5212500000000002</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="1">
         <v>3.7652100000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -11144,7 +11125,7 @@
         <v>3.7160799999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -11158,7 +11139,7 @@
         <v>4.04413</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -11172,7 +11153,7 @@
         <v>3.9809999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -11186,7 +11167,7 @@
         <v>3.8885399999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -11200,7 +11181,7 @@
         <v>3.8440799999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -11214,7 +11195,7 @@
         <v>3.9757500000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -11228,7 +11209,7 @@
         <v>3.85758</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -11242,7 +11223,7 @@
         <v>3.7806700000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -11256,7 +11237,7 @@
         <v>3.9051200000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -11270,7 +11251,7 @@
         <v>3.8672900000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -11284,7 +11265,7 @@
         <v>3.7937500000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -11298,7 +11279,7 @@
         <v>3.7769200000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15">
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -11312,7 +11293,7 @@
         <v>3.7017099999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -11326,7 +11307,7 @@
         <v>3.7861699999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -11340,7 +11321,7 @@
         <v>3.79183</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15">
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -11354,7 +11335,7 @@
         <v>3.8643299999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15">
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -11368,7 +11349,7 @@
         <v>3.86883</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -11382,7 +11363,7 @@
         <v>3.8189199999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15">
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -11396,7 +11377,7 @@
         <v>4.0158800000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15">
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -11410,7 +11391,7 @@
         <v>3.87812</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15">
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -11424,7 +11405,7 @@
         <v>3.82429</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15">
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -11438,7 +11419,7 @@
         <v>3.9216700000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15">
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -11452,7 +11433,7 @@
         <v>3.8765399999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15">
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -11466,7 +11447,7 @@
         <v>3.8241700000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15">
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -11480,7 +11461,7 @@
         <v>3.7097500000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15">
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -11494,7 +11475,7 @@
         <v>3.9785400000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15">
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -11508,7 +11489,7 @@
         <v>3.7566299999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15">
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -11522,7 +11503,7 @@
         <v>3.7452100000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15">
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -11536,7 +11517,7 @@
         <v>3.8074599999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15">
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -11550,7 +11531,7 @@
         <v>3.8534999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15">
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -11564,7 +11545,7 @@
         <v>3.90767</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15">
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -11578,7 +11559,7 @@
         <v>3.9182899999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15">
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -11592,7 +11573,7 @@
         <v>3.8511299999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15">
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -11606,7 +11587,7 @@
         <v>3.9132099999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15">
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -11620,7 +11601,7 @@
         <v>3.82287</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15">
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -11634,7 +11615,7 @@
         <v>3.7475800000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15">
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -11648,7 +11629,7 @@
         <v>3.7065800000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15">
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -11662,7 +11643,7 @@
         <v>3.7227100000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15">
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -11676,7 +11657,7 @@
         <v>3.9466700000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15">
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -11690,7 +11671,7 @@
         <v>3.7929200000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15">
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -11704,7 +11685,7 @@
         <v>3.7835000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15">
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -11718,7 +11699,7 @@
         <v>3.86042</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15">
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -11732,7 +11713,7 @@
         <v>3.9613299999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15">
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -11746,7 +11727,7 @@
         <v>3.84667</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15">
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -11760,7 +11741,7 @@
         <v>3.8035800000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15">
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -11774,7 +11755,7 @@
         <v>3.8182900000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15">
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -11788,7 +11769,7 @@
         <v>3.9057900000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15">
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -11802,7 +11783,7 @@
         <v>4.0060799999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15">
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -11816,7 +11797,7 @@
         <v>3.91879</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15">
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -11830,7 +11811,7 @@
         <v>3.7317499999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15">
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -11844,7 +11825,7 @@
         <v>3.8597100000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15">
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -11858,7 +11839,7 @@
         <v>3.7940800000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15">
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -11872,7 +11853,7 @@
         <v>3.7028300000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15">
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -11886,7 +11867,7 @@
         <v>3.7458300000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15">
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -11900,7 +11881,7 @@
         <v>3.7203300000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15">
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -11914,7 +11895,7 @@
         <v>3.9885000000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15">
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -11928,7 +11909,7 @@
         <v>3.82796</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15">
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -11942,7 +11923,7 @@
         <v>3.718</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15">
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -11956,7 +11937,7 @@
         <v>3.8704999999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15">
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -11970,7 +11951,7 @@
         <v>3.8207100000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15">
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -11984,7 +11965,7 @@
         <v>3.8880400000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15">
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -11998,7 +11979,7 @@
         <v>3.8037100000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15">
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -12012,7 +11993,7 @@
         <v>3.8795799999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15">
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -12026,7 +12007,7 @@
         <v>3.7447900000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15">
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -12040,7 +12021,7 @@
         <v>3.8827500000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15">
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -12054,7 +12035,7 @@
         <v>3.8672499999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15">
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>100</v>
       </c>

--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D4D820-5BE6-684E-9100-C1AC84697CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAEA488-CC0B-5B48-82FE-90ACA171D879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="900" windowWidth="15420" windowHeight="16500" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="5mod5tc.tfc" sheetId="6" r:id="rId6"/>
     <sheet name="hwb5tc.tfc" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -218,35 +218,31 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="48">
     <dxf>
       <font>
         <strike val="0"/>
@@ -373,13 +369,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -404,6 +393,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -567,13 +563,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -598,6 +587,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -761,13 +757,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -792,6 +781,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -955,13 +951,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -986,6 +975,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1149,13 +1145,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1182,85 +1171,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Futura Condensed Medium"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Futura Medium"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1422,6 +1337,75 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Futura Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Futura Condensed Medium"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1597,7 +1581,7 @@
                   <c:v>0.46653796000000014</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.4379569999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.7163025000000003</c:v>
@@ -1660,7 +1644,7 @@
                   <c:v>0.38752078999999978</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.8349852000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.7711123000000006</c:v>
@@ -2505,21 +2489,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}" name="テーブル245656567891011" displayName="テーブル245656567891011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" headerRowBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}" name="テーブル245656567891011" displayName="テーブル245656567891011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46">
   <autoFilter ref="A2:E102" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5BA224EE-6041-F344-B34A-9FBDF29A9510}" name="times" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{6CE03F36-CF34-9645-A348-C61D9EF118B4}" name="sequential" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{874D523F-A842-214F-8959-9A61540A9A8A}" name="multi-thread" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{2D90F0B7-A0EF-694E-91B3-7AF4BD0EADA8}" name="multi-fiber" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{61BBD1D9-647D-CA41-B58E-4467F0EE0459}" name="simd" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{5BA224EE-6041-F344-B34A-9FBDF29A9510}" name="times" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{6CE03F36-CF34-9645-A348-C61D9EF118B4}" name="sequential" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{874D523F-A842-214F-8959-9A61540A9A8A}" name="multi-thread" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{2D90F0B7-A0EF-694E-91B3-7AF4BD0EADA8}" name="multi-fiber" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{61BBD1D9-647D-CA41-B58E-4467F0EE0459}" name="simd" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82584110-A505-4543-82D8-BD808AA930A0}" name="テーブル2456565678910119" displayName="テーブル2456565678910119" ref="A2:E102" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" headerRowBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82584110-A505-4543-82D8-BD808AA930A0}" name="テーブル2456565678910119" displayName="テーブル2456565678910119" ref="A2:E102" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38">
   <autoFilter ref="A2:E102" xr:uid="{82584110-A505-4543-82D8-BD808AA930A0}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4D465662-E697-4748-85BF-2F2EC8672C84}" name="times" dataDxfId="36"/>
@@ -2533,7 +2517,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A8FAC881-4731-7343-8EE9-42A5625B15C1}" name="テーブル245656567891011910" displayName="テーブル245656567891011910" ref="A2:E102" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" headerRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A8FAC881-4731-7343-8EE9-42A5625B15C1}" name="テーブル245656567891011910" displayName="テーブル245656567891011910" ref="A2:E102" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30">
   <autoFilter ref="A2:E102" xr:uid="{A8FAC881-4731-7343-8EE9-42A5625B15C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7DC7A093-2326-6B4A-992F-B923642F87F8}" name="times" dataDxfId="28"/>
@@ -2547,7 +2531,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0BC7CBD0-531E-8549-8487-A476FCA6B739}" name="テーブル24565656789101191011" displayName="テーブル24565656789101191011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0BC7CBD0-531E-8549-8487-A476FCA6B739}" name="テーブル24565656789101191011" displayName="テーブル24565656789101191011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22">
   <autoFilter ref="A2:E102" xr:uid="{0BC7CBD0-531E-8549-8487-A476FCA6B739}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{CAD9E614-4F7A-C34B-8293-317912427780}" name="times" dataDxfId="20"/>
@@ -2561,7 +2545,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DF3F5530-A2E8-E242-A450-0BD65B08DBD0}" name="テーブル2456565678910119101112" displayName="テーブル2456565678910119101112" ref="A2:E102" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DF3F5530-A2E8-E242-A450-0BD65B08DBD0}" name="テーブル2456565678910119101112" displayName="テーブル2456565678910119101112" ref="A2:E102" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14">
   <autoFilter ref="A2:E102" xr:uid="{DF3F5530-A2E8-E242-A450-0BD65B08DBD0}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0D83CB80-893A-0643-A91B-A5FBF5281EAA}" name="times" dataDxfId="12"/>
@@ -2575,7 +2559,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{58A7FBD7-CC5F-474E-B7C8-C9FA6B34365B}" name="テーブル2456565678910119101113" displayName="テーブル2456565678910119101113" ref="A2:E102" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{58A7FBD7-CC5F-474E-B7C8-C9FA6B34365B}" name="テーブル2456565678910119101113" displayName="テーブル2456565678910119101113" ref="A2:E102" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6">
   <autoFilter ref="A2:E102" xr:uid="{58A7FBD7-CC5F-474E-B7C8-C9FA6B34365B}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{78FE6EF4-54B8-DD48-804B-55674A24DC97}" name="times" dataDxfId="4"/>
@@ -2908,232 +2892,229 @@
   <dimension ref="A2:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="9"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="9"/>
-    <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.85546875" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="9"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="9" t="s">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4">
         <v>7</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4">
         <f>ham3tc.tfc!I10</f>
         <v>0.22538257000000009</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4">
         <f>ham3tc.tfc!J10</f>
         <v>0.50185417999999971</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4">
         <f>ham3tc.tfc!K10</f>
         <v>0.40875494999999984</v>
       </c>
-      <c r="I4" s="9" t="e">
+      <c r="I4" t="e">
         <f>ham3tc.tfc!L10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="9" t="s">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5">
         <v>12</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5">
         <f>'3_17tc.tfc'!I10</f>
         <v>0.28870964999999998</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5">
         <f>'3_17tc.tfc'!J10</f>
         <v>0.65457544000000012</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5">
         <f>'3_17tc.tfc'!K10</f>
         <v>0.51913709000000008</v>
       </c>
-      <c r="I5" s="9" t="e">
+      <c r="I5" t="e">
         <f>'3_17tc.tfc'!L10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="9" t="s">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6">
         <v>17</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6">
         <v>63</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6">
         <f>hwb4tc.tfc!I10</f>
         <v>0.70795834000000024</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6">
         <f>hwb4tc.tfc!J10</f>
         <v>1.4842221000000007</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6">
         <f>hwb4tc.tfc!K10</f>
         <v>1.2845061999999998</v>
       </c>
-      <c r="I6" s="9" t="e">
+      <c r="I6" t="e">
         <f>hwb4tc.tfc!L10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="9" t="s">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7">
         <f>xor5d1.tfc!I10</f>
         <v>0.25224787000000004</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7">
         <f>xor5d1.tfc!J10</f>
         <v>0.46653796000000014</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7">
         <f>xor5d1.tfc!K10</f>
         <v>0.38752078999999978</v>
       </c>
-      <c r="I7" s="9" t="e">
+      <c r="I7" t="e">
         <f>xor5d1.tfc!L10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="9" t="s">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8">
         <v>55</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8">
         <v>313</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8">
         <f>hwb5tc.tfc!I10</f>
         <v>1.7738918999999997</v>
       </c>
-      <c r="G8" s="9" t="e">
+      <c r="G8">
         <f>hwb5tc.tfc!J10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="9" t="e">
+        <v>3.4379569999999999</v>
+      </c>
+      <c r="H8">
         <f>hwb5tc.tfc!K10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="9" t="e">
+        <v>3.8349852000000002</v>
+      </c>
+      <c r="I8" t="e">
         <f>hwb5tc.tfc!L10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9">
         <v>17</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9">
         <v>185</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9">
         <f>'5mod5tc.tfc'!I10</f>
         <v>0.93740497000000034</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9">
         <f>'5mod5tc.tfc'!J10</f>
         <v>1.7163025000000003</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9">
         <f>'5mod5tc.tfc'!K10</f>
         <v>1.7711123000000006</v>
       </c>
-      <c r="I9" s="9" t="e">
+      <c r="I9" t="e">
         <f>'5mod5tc.tfc'!L10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="9" t="s">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3163,29 +3144,29 @@
     <col min="5" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3272,12 +3253,12 @@
       <c r="D8" s="1">
         <v>0.40329199999999998</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -3678,10 +3659,10 @@
       <c r="B35" s="1">
         <v>0.22441700000000001</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="1">
         <v>0.54962500000000003</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="1">
         <v>0.40483400000000003</v>
       </c>
     </row>
@@ -4644,7 +4625,7 @@
       <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.85546875" style="1"/>
@@ -4652,33 +4633,33 @@
     <col min="5" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4692,7 +4673,7 @@
         <v>0.51545799999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4706,7 +4687,7 @@
         <v>0.52366599999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4720,7 +4701,7 @@
         <v>0.517042</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4734,7 +4715,7 @@
         <v>0.52012499999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4748,7 +4729,7 @@
         <v>0.52137500000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4761,14 +4742,14 @@
       <c r="D8" s="1">
         <v>0.52091699999999996</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" ht="15">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4794,7 +4775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4824,7 +4805,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4838,7 +4819,7 @@
         <v>0.57266600000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4852,7 +4833,7 @@
         <v>0.51554100000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4866,7 +4847,7 @@
         <v>0.51808399999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4880,7 +4861,7 @@
         <v>0.51424999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4894,7 +4875,7 @@
         <v>0.51470800000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4908,7 +4889,7 @@
         <v>0.51437500000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4922,7 +4903,7 @@
         <v>0.52175000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4936,7 +4917,7 @@
         <v>0.51741700000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4950,7 +4931,7 @@
         <v>0.51587499999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4964,7 +4945,7 @@
         <v>0.514791</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4978,7 +4959,7 @@
         <v>0.52275000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4992,7 +4973,7 @@
         <v>0.51570899999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5006,7 +4987,7 @@
         <v>0.51570800000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5020,7 +5001,7 @@
         <v>0.51691699999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5034,7 +5015,7 @@
         <v>0.52212499999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5048,7 +5029,7 @@
         <v>0.51912499999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5062,7 +5043,7 @@
         <v>0.51791699999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5076,7 +5057,7 @@
         <v>0.521791</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5090,7 +5071,7 @@
         <v>0.51695800000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5104,7 +5085,7 @@
         <v>0.51783299999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5118,7 +5099,7 @@
         <v>0.513625</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5132,7 +5113,7 @@
         <v>0.51470899999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5146,7 +5127,7 @@
         <v>0.52591699999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5160,21 +5141,21 @@
         <v>0.52258300000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.29462500000000003</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="1">
         <v>0.66895800000000005</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="1">
         <v>0.51700000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5188,7 +5169,7 @@
         <v>0.51775000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -5202,7 +5183,7 @@
         <v>0.52358300000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -5216,7 +5197,7 @@
         <v>0.518625</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -5230,7 +5211,7 @@
         <v>0.52075000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -5244,7 +5225,7 @@
         <v>0.53237500000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5258,7 +5239,7 @@
         <v>0.515042</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -5272,7 +5253,7 @@
         <v>0.51783400000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -5286,7 +5267,7 @@
         <v>0.51708299999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -5300,7 +5281,7 @@
         <v>0.516042</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -5314,7 +5295,7 @@
         <v>0.52024999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -5328,7 +5309,7 @@
         <v>0.51545799999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5342,7 +5323,7 @@
         <v>0.51812499999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15">
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5356,7 +5337,7 @@
         <v>0.51549999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -5370,7 +5351,7 @@
         <v>0.518791</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5384,7 +5365,7 @@
         <v>0.517208</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15">
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5398,7 +5379,7 @@
         <v>0.52429099999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15">
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5412,7 +5393,7 @@
         <v>0.513459</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5426,7 +5407,7 @@
         <v>0.51670799999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15">
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5440,7 +5421,7 @@
         <v>0.52441700000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15">
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5454,7 +5435,7 @@
         <v>0.51566699999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15">
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5468,7 +5449,7 @@
         <v>0.52633399999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15">
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5482,7 +5463,7 @@
         <v>0.515208</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15">
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5496,7 +5477,7 @@
         <v>0.52029199999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15">
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5510,7 +5491,7 @@
         <v>0.51395900000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15">
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5524,7 +5505,7 @@
         <v>0.51891699999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15">
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5538,7 +5519,7 @@
         <v>0.51554199999999994</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15">
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5552,7 +5533,7 @@
         <v>0.52625</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15">
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5566,7 +5547,7 @@
         <v>0.51633300000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15">
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5580,7 +5561,7 @@
         <v>0.517042</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15">
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5594,7 +5575,7 @@
         <v>0.51587499999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15">
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5608,7 +5589,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15">
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5622,7 +5603,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15">
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5636,7 +5617,7 @@
         <v>0.52266699999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15">
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5650,7 +5631,7 @@
         <v>0.52070799999999995</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15">
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5664,7 +5645,7 @@
         <v>0.52191699999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15">
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5678,7 +5659,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15">
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5692,7 +5673,7 @@
         <v>0.51783299999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15">
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5706,7 +5687,7 @@
         <v>0.515625</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15">
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5720,7 +5701,7 @@
         <v>0.51529199999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15">
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5734,7 +5715,7 @@
         <v>0.51683299999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15">
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5748,7 +5729,7 @@
         <v>0.51854100000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15">
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5762,7 +5743,7 @@
         <v>0.52016700000000005</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15">
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5776,7 +5757,7 @@
         <v>0.51324999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15">
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5790,7 +5771,7 @@
         <v>0.51512500000000006</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15">
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5804,7 +5785,7 @@
         <v>0.51637500000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15">
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5818,7 +5799,7 @@
         <v>0.51749999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15">
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5832,7 +5813,7 @@
         <v>0.51554199999999994</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15">
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5846,7 +5827,7 @@
         <v>0.53633399999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15">
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5860,7 +5841,7 @@
         <v>0.51549999999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15">
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5874,7 +5855,7 @@
         <v>0.51970799999999995</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15">
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5888,7 +5869,7 @@
         <v>0.51833300000000004</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15">
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5902,7 +5883,7 @@
         <v>0.52204200000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15">
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5916,7 +5897,7 @@
         <v>0.51354200000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15">
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5930,7 +5911,7 @@
         <v>0.51587499999999997</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15">
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5944,7 +5925,7 @@
         <v>0.514625</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15">
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5958,7 +5939,7 @@
         <v>0.52449999999999997</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15">
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5972,7 +5953,7 @@
         <v>0.51575000000000004</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15">
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5986,7 +5967,7 @@
         <v>0.51733300000000004</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15">
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6000,7 +5981,7 @@
         <v>0.52058300000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15">
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6014,7 +5995,7 @@
         <v>0.51766699999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15">
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6028,7 +6009,7 @@
         <v>0.51500000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15">
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6042,7 +6023,7 @@
         <v>0.52187499999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15">
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6056,7 +6037,7 @@
         <v>0.51549999999999996</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15">
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6070,7 +6051,7 @@
         <v>0.52745799999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15">
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6084,7 +6065,7 @@
         <v>0.51716700000000004</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15">
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6098,7 +6079,7 @@
         <v>0.52704200000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15">
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6133,7 +6114,7 @@
       <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.85546875" style="1"/>
@@ -6141,33 +6122,33 @@
     <col min="5" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6181,7 +6162,7 @@
         <v>1.27742</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6195,7 +6176,7 @@
         <v>1.31596</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6209,7 +6190,7 @@
         <v>1.2842100000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6223,7 +6204,7 @@
         <v>1.29942</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6237,7 +6218,7 @@
         <v>1.27925</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6250,14 +6231,14 @@
       <c r="D8" s="1">
         <v>1.30983</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" ht="15">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6283,7 +6264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6313,7 +6294,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6327,7 +6308,7 @@
         <v>1.2799199999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6341,7 +6322,7 @@
         <v>1.27904</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6355,7 +6336,7 @@
         <v>1.3018700000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6369,7 +6350,7 @@
         <v>1.3080400000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6383,7 +6364,7 @@
         <v>1.3041700000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6397,7 +6378,7 @@
         <v>1.28217</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6411,7 +6392,7 @@
         <v>1.2817099999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6425,7 +6406,7 @@
         <v>1.2886200000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6439,7 +6420,7 @@
         <v>1.2871300000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6453,7 +6434,7 @@
         <v>1.28271</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6467,7 +6448,7 @@
         <v>1.2799199999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6481,7 +6462,7 @@
         <v>1.28108</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6495,7 +6476,7 @@
         <v>1.28254</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6509,7 +6490,7 @@
         <v>1.2842899999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6523,7 +6504,7 @@
         <v>1.2866200000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6537,7 +6518,7 @@
         <v>1.2793300000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6551,7 +6532,7 @@
         <v>1.2775000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6565,7 +6546,7 @@
         <v>1.28308</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6579,7 +6560,7 @@
         <v>1.2902100000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -6593,7 +6574,7 @@
         <v>1.2882100000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6607,7 +6588,7 @@
         <v>1.2762100000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -6621,7 +6602,7 @@
         <v>1.27763</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6635,7 +6616,7 @@
         <v>1.2823800000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6649,21 +6630,21 @@
         <v>1.2861199999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.70774999999999999</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="1">
         <v>1.5037100000000001</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="1">
         <v>1.2925800000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6677,7 +6658,7 @@
         <v>1.2877099999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6691,7 +6672,7 @@
         <v>1.2840400000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6705,7 +6686,7 @@
         <v>1.2809600000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6719,7 +6700,7 @@
         <v>1.28125</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6733,7 +6714,7 @@
         <v>1.2795399999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6747,7 +6728,7 @@
         <v>1.30342</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6761,7 +6742,7 @@
         <v>1.2729999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6775,7 +6756,7 @@
         <v>1.28654</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6789,7 +6770,7 @@
         <v>1.2809600000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6803,7 +6784,7 @@
         <v>1.27729</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6817,7 +6798,7 @@
         <v>1.28287</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6831,7 +6812,7 @@
         <v>1.2835000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15">
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6845,7 +6826,7 @@
         <v>1.2802100000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6859,7 +6840,7 @@
         <v>1.2860400000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6873,7 +6854,7 @@
         <v>1.2835000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15">
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6887,7 +6868,7 @@
         <v>1.27867</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15">
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6901,7 +6882,7 @@
         <v>1.2822100000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6915,7 +6896,7 @@
         <v>1.28746</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15">
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6929,7 +6910,7 @@
         <v>1.29508</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15">
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6943,7 +6924,7 @@
         <v>1.2811699999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15">
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6957,7 +6938,7 @@
         <v>1.2869200000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15">
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6971,7 +6952,7 @@
         <v>1.2829600000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15">
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6985,7 +6966,7 @@
         <v>1.2802899999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15">
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -6999,7 +6980,7 @@
         <v>1.2860799999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15">
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7013,7 +6994,7 @@
         <v>1.2831300000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15">
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7027,7 +7008,7 @@
         <v>1.28792</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15">
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7041,7 +7022,7 @@
         <v>1.2924199999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15">
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7055,7 +7036,7 @@
         <v>1.2836700000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15">
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7069,7 +7050,7 @@
         <v>1.27963</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15">
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7083,7 +7064,7 @@
         <v>1.2815799999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15">
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7097,7 +7078,7 @@
         <v>1.2802899999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15">
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7111,7 +7092,7 @@
         <v>1.28467</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15">
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7125,7 +7106,7 @@
         <v>1.27579</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15">
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7139,7 +7120,7 @@
         <v>1.2806200000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15">
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7153,7 +7134,7 @@
         <v>1.28908</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15">
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7167,7 +7148,7 @@
         <v>1.2791699999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15">
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7181,7 +7162,7 @@
         <v>1.27704</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15">
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7195,7 +7176,7 @@
         <v>1.28942</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15">
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7209,7 +7190,7 @@
         <v>1.2828299999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15">
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7223,7 +7204,7 @@
         <v>1.27763</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15">
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7237,7 +7218,7 @@
         <v>1.2788299999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15">
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7251,7 +7232,7 @@
         <v>1.28087</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15">
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7265,7 +7246,7 @@
         <v>1.2862100000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15">
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7279,7 +7260,7 @@
         <v>1.27796</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15">
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7293,7 +7274,7 @@
         <v>1.28596</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15">
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7307,7 +7288,7 @@
         <v>1.27671</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15">
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7321,7 +7302,7 @@
         <v>1.28487</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15">
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7335,7 +7316,7 @@
         <v>1.27563</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15">
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7349,7 +7330,7 @@
         <v>1.2869200000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15">
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -7363,7 +7344,7 @@
         <v>1.2818799999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15">
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -7377,7 +7358,7 @@
         <v>1.28546</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15">
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -7391,7 +7372,7 @@
         <v>1.2938799999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15">
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -7405,7 +7386,7 @@
         <v>1.2857099999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15">
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -7419,7 +7400,7 @@
         <v>1.2785</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15">
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -7433,7 +7414,7 @@
         <v>1.27996</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15">
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -7447,7 +7428,7 @@
         <v>1.28108</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15">
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -7461,7 +7442,7 @@
         <v>1.2798799999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15">
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -7475,7 +7456,7 @@
         <v>1.28267</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15">
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -7489,7 +7470,7 @@
         <v>1.2833699999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15">
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -7503,7 +7484,7 @@
         <v>1.2809600000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15">
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -7517,7 +7498,7 @@
         <v>1.28833</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15">
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7531,7 +7512,7 @@
         <v>1.2885800000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15">
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -7545,7 +7526,7 @@
         <v>1.28033</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15">
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -7559,7 +7540,7 @@
         <v>1.2762100000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15">
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7573,7 +7554,7 @@
         <v>1.2842899999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15">
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7587,7 +7568,7 @@
         <v>1.28783</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15">
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7622,7 +7603,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.85546875" style="1"/>
@@ -7630,33 +7611,33 @@
     <col min="5" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7670,7 +7651,7 @@
         <v>0.38470799999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7684,7 +7665,7 @@
         <v>0.38450000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7698,7 +7679,7 @@
         <v>0.387042</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7712,7 +7693,7 @@
         <v>0.393042</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7726,7 +7707,7 @@
         <v>0.40387499999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7739,14 +7720,14 @@
       <c r="D8" s="1">
         <v>0.38174999999999998</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" ht="15">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7772,7 +7753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -7802,7 +7783,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7816,7 +7797,7 @@
         <v>0.38466600000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7830,7 +7811,7 @@
         <v>0.38312499999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7844,7 +7825,7 @@
         <v>0.38958300000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7858,7 +7839,7 @@
         <v>0.38341599999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -7872,7 +7853,7 @@
         <v>0.38916699999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -7886,7 +7867,7 @@
         <v>0.38316600000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -7900,7 +7881,7 @@
         <v>0.38237500000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -7914,7 +7895,7 @@
         <v>0.38637500000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -7928,7 +7909,7 @@
         <v>0.38091599999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -7942,7 +7923,7 @@
         <v>0.38729200000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -7956,7 +7937,7 @@
         <v>0.38295800000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -7970,7 +7951,7 @@
         <v>0.38133299999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -7984,7 +7965,7 @@
         <v>0.38312499999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -7998,7 +7979,7 @@
         <v>0.38808300000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -8012,7 +7993,7 @@
         <v>0.388542</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -8026,7 +8007,7 @@
         <v>0.38262499999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8040,7 +8021,7 @@
         <v>0.38650000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8054,7 +8035,7 @@
         <v>0.39850000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8068,7 +8049,7 @@
         <v>0.39566600000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8082,7 +8063,7 @@
         <v>0.38291700000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -8096,7 +8077,7 @@
         <v>0.38937500000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -8110,7 +8091,7 @@
         <v>0.38533400000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -8124,7 +8105,7 @@
         <v>0.38524999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -8138,21 +8119,21 @@
         <v>0.390625</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.25212499999999999</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="1">
         <v>0.49837500000000001</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="1">
         <v>0.38737500000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -8166,7 +8147,7 @@
         <v>0.38395800000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -8180,7 +8161,7 @@
         <v>0.38708300000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -8194,7 +8175,7 @@
         <v>0.38950000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -8208,7 +8189,7 @@
         <v>0.384959</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -8222,7 +8203,7 @@
         <v>0.401916</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -8236,7 +8217,7 @@
         <v>0.39774999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -8250,7 +8231,7 @@
         <v>0.38412499999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -8264,7 +8245,7 @@
         <v>0.38416699999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -8278,7 +8259,7 @@
         <v>0.38437500000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -8292,7 +8273,7 @@
         <v>0.385625</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -8306,7 +8287,7 @@
         <v>0.38224999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -8320,7 +8301,7 @@
         <v>0.385125</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15">
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -8334,7 +8315,7 @@
         <v>0.38450000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -8348,7 +8329,7 @@
         <v>0.38524999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -8362,7 +8343,7 @@
         <v>0.38416600000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15">
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -8376,7 +8357,7 @@
         <v>0.38408399999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15">
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -8390,7 +8371,7 @@
         <v>0.38937500000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -8404,7 +8385,7 @@
         <v>0.38574999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15">
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -8418,7 +8399,7 @@
         <v>0.38295800000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15">
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -8432,7 +8413,7 @@
         <v>0.393459</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15">
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -8446,7 +8427,7 @@
         <v>0.38774999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15">
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -8460,7 +8441,7 @@
         <v>0.38566600000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15">
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -8474,7 +8455,7 @@
         <v>0.41645799999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15">
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -8488,7 +8469,7 @@
         <v>0.39087499999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15">
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -8502,7 +8483,7 @@
         <v>0.38608399999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15">
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -8516,7 +8497,7 @@
         <v>0.387708</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15">
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -8530,7 +8511,7 @@
         <v>0.38520900000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15">
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -8544,7 +8525,7 @@
         <v>0.39233299999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15">
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -8558,7 +8539,7 @@
         <v>0.38229099999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15">
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -8572,7 +8553,7 @@
         <v>0.39116699999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15">
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -8586,7 +8567,7 @@
         <v>0.38329200000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15">
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -8600,7 +8581,7 @@
         <v>0.38904100000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15">
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -8614,7 +8595,7 @@
         <v>0.38333299999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15">
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -8628,7 +8609,7 @@
         <v>0.38424999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15">
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -8642,7 +8623,7 @@
         <v>0.388459</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15">
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -8656,7 +8637,7 @@
         <v>0.38287500000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15">
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -8670,7 +8651,7 @@
         <v>0.39137499999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15">
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -8684,7 +8665,7 @@
         <v>0.38324999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15">
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -8698,7 +8679,7 @@
         <v>0.38424999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15">
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -8712,7 +8693,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15">
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -8726,7 +8707,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15">
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -8740,7 +8721,7 @@
         <v>0.395791</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15">
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -8754,7 +8735,7 @@
         <v>0.38312499999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15">
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -8768,7 +8749,7 @@
         <v>0.391291</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15">
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -8782,7 +8763,7 @@
         <v>0.39441700000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15">
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -8796,7 +8777,7 @@
         <v>0.386625</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15">
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -8810,7 +8791,7 @@
         <v>0.38370900000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15">
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -8824,7 +8805,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15">
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -8838,7 +8819,7 @@
         <v>0.39574999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15">
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -8852,7 +8833,7 @@
         <v>0.39095800000000003</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15">
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -8866,7 +8847,7 @@
         <v>0.38474999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15">
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -8880,7 +8861,7 @@
         <v>0.38808399999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15">
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8894,7 +8875,7 @@
         <v>0.38666699999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15">
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8908,7 +8889,7 @@
         <v>0.39608300000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15">
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8922,7 +8903,7 @@
         <v>0.39474999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15">
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -8936,7 +8917,7 @@
         <v>0.39024999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15">
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8950,7 +8931,7 @@
         <v>0.38287500000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15">
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8964,7 +8945,7 @@
         <v>0.39020899999999997</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15">
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8978,7 +8959,7 @@
         <v>0.38220799999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15">
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8992,7 +8973,7 @@
         <v>0.38937500000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15">
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -9006,7 +8987,7 @@
         <v>0.39995799999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15">
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -9020,7 +9001,7 @@
         <v>0.38345800000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15">
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -9034,7 +9015,7 @@
         <v>0.38787500000000003</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15">
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -9048,7 +9029,7 @@
         <v>0.38458399999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15">
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -9062,7 +9043,7 @@
         <v>0.390125</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15">
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -9076,7 +9057,7 @@
         <v>0.38408300000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15">
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -9111,7 +9092,7 @@
       <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.85546875" style="1"/>
@@ -9119,33 +9100,33 @@
     <col min="5" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -9159,7 +9140,7 @@
         <v>1.79217</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -9173,7 +9154,7 @@
         <v>1.7749600000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -9187,7 +9168,7 @@
         <v>1.7630399999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -9201,7 +9182,7 @@
         <v>1.76467</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -9215,7 +9196,7 @@
         <v>1.75221</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -9228,14 +9209,14 @@
       <c r="D8" s="1">
         <v>1.74783</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" ht="15">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -9261,7 +9242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -9291,7 +9272,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -9305,7 +9286,7 @@
         <v>1.7576700000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -9319,7 +9300,7 @@
         <v>1.7551699999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -9333,7 +9314,7 @@
         <v>1.80796</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -9347,7 +9328,7 @@
         <v>1.76508</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -9361,7 +9342,7 @@
         <v>1.75875</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -9375,7 +9356,7 @@
         <v>1.78396</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -9389,7 +9370,7 @@
         <v>1.7549999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -9403,7 +9384,7 @@
         <v>1.79871</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -9417,7 +9398,7 @@
         <v>1.7818799999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -9431,7 +9412,7 @@
         <v>1.78383</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -9445,7 +9426,7 @@
         <v>1.7900799999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -9459,7 +9440,7 @@
         <v>1.77946</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -9473,7 +9454,7 @@
         <v>1.8041199999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -9487,7 +9468,7 @@
         <v>1.7623800000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -9501,7 +9482,7 @@
         <v>1.76983</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -9515,7 +9496,7 @@
         <v>1.76908</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -9529,7 +9510,7 @@
         <v>1.7584200000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -9543,7 +9524,7 @@
         <v>1.7704599999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -9557,7 +9538,7 @@
         <v>1.7604200000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -9571,7 +9552,7 @@
         <v>1.77721</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -9585,7 +9566,7 @@
         <v>1.7544200000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -9599,7 +9580,7 @@
         <v>1.7544200000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -9613,7 +9594,7 @@
         <v>1.75671</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -9627,21 +9608,21 @@
         <v>1.7515799999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.93145800000000001</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="1">
         <v>1.7035</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="1">
         <v>1.7550399999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -9655,7 +9636,7 @@
         <v>1.75604</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -9669,7 +9650,7 @@
         <v>1.7462899999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -9683,7 +9664,7 @@
         <v>1.7616700000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -9697,7 +9678,7 @@
         <v>1.7621199999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -9711,7 +9692,7 @@
         <v>1.7635000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -9725,7 +9706,7 @@
         <v>1.77033</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -9739,7 +9720,7 @@
         <v>1.7552099999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -9753,7 +9734,7 @@
         <v>1.7635400000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -9767,7 +9748,7 @@
         <v>1.7902100000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -9781,7 +9762,7 @@
         <v>1.74708</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -9795,7 +9776,7 @@
         <v>1.7806200000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9809,7 +9790,7 @@
         <v>1.7573700000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15">
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -9823,7 +9804,7 @@
         <v>1.7588699999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -9837,7 +9818,7 @@
         <v>1.77254</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -9851,7 +9832,7 @@
         <v>1.7450000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15">
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -9865,7 +9846,7 @@
         <v>1.78304</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15">
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -9879,7 +9860,7 @@
         <v>1.7685</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -9893,7 +9874,7 @@
         <v>1.74817</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15">
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -9907,7 +9888,7 @@
         <v>1.7591300000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15">
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -9921,7 +9902,7 @@
         <v>1.7933699999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15">
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -9935,7 +9916,7 @@
         <v>1.7806200000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15">
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -9949,7 +9930,7 @@
         <v>1.7684599999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15">
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -9963,7 +9944,7 @@
         <v>1.8534200000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15">
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -9977,7 +9958,7 @@
         <v>1.7828299999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15">
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -9991,7 +9972,7 @@
         <v>1.7648299999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15">
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -10005,7 +9986,7 @@
         <v>1.7875399999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15">
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -10019,7 +10000,7 @@
         <v>1.76275</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15">
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -10033,7 +10014,7 @@
         <v>1.79054</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15">
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -10047,7 +10028,7 @@
         <v>1.76292</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15">
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -10061,7 +10042,7 @@
         <v>1.7562500000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15">
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -10075,7 +10056,7 @@
         <v>1.7666200000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15">
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -10089,7 +10070,7 @@
         <v>1.7683800000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15">
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -10103,7 +10084,7 @@
         <v>1.7987500000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15">
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -10117,7 +10098,7 @@
         <v>1.7945800000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15">
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -10131,7 +10112,7 @@
         <v>1.7598800000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15">
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -10145,7 +10126,7 @@
         <v>1.7600800000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15">
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -10159,7 +10140,7 @@
         <v>1.7504200000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15">
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -10173,7 +10154,7 @@
         <v>1.7741199999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15">
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -10187,7 +10168,7 @@
         <v>1.8268800000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15">
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -10201,7 +10182,7 @@
         <v>1.77346</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15">
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -10215,7 +10196,7 @@
         <v>1.7780400000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15">
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -10229,7 +10210,7 @@
         <v>1.7715000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15">
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -10243,7 +10224,7 @@
         <v>1.7893300000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15">
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -10257,7 +10238,7 @@
         <v>1.7491300000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15">
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -10271,7 +10252,7 @@
         <v>1.7886200000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15">
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -10285,7 +10266,7 @@
         <v>1.76796</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15">
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -10299,7 +10280,7 @@
         <v>1.7560800000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15">
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -10313,7 +10294,7 @@
         <v>1.78342</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15">
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -10327,7 +10308,7 @@
         <v>1.77383</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15">
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -10341,7 +10322,7 @@
         <v>1.77146</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15">
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -10355,7 +10336,7 @@
         <v>1.73254</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15">
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -10369,7 +10350,7 @@
         <v>1.7650399999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15">
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -10383,7 +10364,7 @@
         <v>1.8048299999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15">
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -10397,7 +10378,7 @@
         <v>1.7702100000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15">
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -10411,7 +10392,7 @@
         <v>1.7464200000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15">
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -10425,7 +10406,7 @@
         <v>1.7613300000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15">
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -10439,7 +10420,7 @@
         <v>1.7346299999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15">
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -10453,7 +10434,7 @@
         <v>1.76146</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15">
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -10467,7 +10448,7 @@
         <v>1.76579</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15">
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -10481,7 +10462,7 @@
         <v>1.7862100000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15">
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -10495,7 +10476,7 @@
         <v>1.7720800000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15">
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -10509,7 +10490,7 @@
         <v>1.7911300000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15">
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -10523,7 +10504,7 @@
         <v>1.7945800000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15">
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -10537,7 +10518,7 @@
         <v>1.7786200000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15">
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -10551,7 +10532,7 @@
         <v>1.75271</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15">
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -10565,7 +10546,7 @@
         <v>1.8131699999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15">
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -10596,11 +10577,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0B7F4B-D19B-D149-B9DC-A95EC52FD947}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.85546875" style="1"/>
@@ -10608,93 +10589,135 @@
     <col min="5" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1.76179</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15">
+      <c r="C3" s="1">
+        <v>3.3100399999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.81175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>1.7604200000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15">
+      <c r="C4" s="1">
+        <v>3.4212099999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.7935400000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>1.7484200000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15">
+      <c r="C5" s="1">
+        <v>3.4037899999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.9397899999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>1.7715799999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15">
+      <c r="C6" s="1">
+        <v>3.3390399999999998</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.8081700000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>1.7952900000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15">
+      <c r="C7" s="1">
+        <v>3.3726699999999998</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.77338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>1.78392</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="C8" s="1">
+        <v>3.4172899999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.7953299999999999</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" ht="15">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>1.7622500000000001</v>
       </c>
+      <c r="C9" s="1">
+        <v>3.47892</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.9154200000000001</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
       </c>
@@ -10708,766 +10731,1322 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>1.7833300000000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.39208</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.8280799999999999</v>
       </c>
       <c r="I10" s="1">
         <f>AVERAGE(テーブル2456565678910119101113[sequential])</f>
         <v>1.7738918999999997</v>
       </c>
-      <c r="J10" s="1" t="e">
+      <c r="J10" s="1">
         <f>AVERAGE(テーブル2456565678910119101113[multi-thread])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="1" t="e">
+        <v>3.4379569999999999</v>
+      </c>
+      <c r="K10" s="1">
         <f>AVERAGE(テーブル2456565678910119101113[multi-fiber])</f>
-        <v>#DIV/0!</v>
+        <v>3.8349852000000002</v>
       </c>
       <c r="L10" s="1" t="e">
         <f>AVERAGE(テーブル2456565678910119101113[simd])</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>1.78217</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15">
+      <c r="C11" s="1">
+        <v>3.49146</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.7497099999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>1.7609600000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15">
+      <c r="C12" s="1">
+        <v>3.4842900000000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.7364199999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>1.76362</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15">
+      <c r="C13" s="1">
+        <v>3.4258799999999998</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.8251200000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>1.7710399999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15">
+      <c r="C14" s="1">
+        <v>3.4030399999999998</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3.8320799999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>1.7782100000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15">
+      <c r="C15" s="1">
+        <v>3.4980799999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.8835000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>1.7907500000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15">
+      <c r="C16" s="1">
+        <v>3.5469200000000001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.6547100000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>1.76475</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15">
+      <c r="C17" s="1">
+        <v>3.37737</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3.8395000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>1.7593700000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15">
+      <c r="C18" s="1">
+        <v>3.4689999999999999</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3.93825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>1.75929</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15">
+      <c r="C19" s="1">
+        <v>3.2065399999999999</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3.8692099999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>1.7742899999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15">
+      <c r="C20" s="1">
+        <v>3.3936299999999999</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3.8466200000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>1.7646299999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15">
+      <c r="C21" s="1">
+        <v>3.4552100000000001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3.9510399999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>1.7680800000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15">
+      <c r="C22" s="1">
+        <v>3.46496</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3.76383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>1.7590399999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15">
+      <c r="C23" s="1">
+        <v>3.5086200000000001</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3.7436699999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>1.75929</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15">
+      <c r="C24" s="1">
+        <v>3.4246699999999999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3.81596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>1.7642100000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15">
+      <c r="C25" s="1">
+        <v>3.4704600000000001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3.7974999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>1.7739199999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15">
+      <c r="C26" s="1">
+        <v>3.45417</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3.86937</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>1.7884599999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15">
+      <c r="C27" s="1">
+        <v>3.48488</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.8388300000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>1.76867</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15">
+      <c r="C28" s="1">
+        <v>3.53037</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3.80538</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>1.7757499999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15">
+      <c r="C29" s="1">
+        <v>3.3639199999999998</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3.80538</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>1.7700800000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15">
+      <c r="C30" s="1">
+        <v>3.5052099999999999</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3.7593299999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>1.79304</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15">
+      <c r="C31" s="1">
+        <v>3.39358</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3.8425799999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>1.77379</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15">
+      <c r="C32" s="1">
+        <v>3.4605000000000001</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3.9112499999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>1.76492</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15">
+      <c r="C33" s="1">
+        <v>3.5239199999999999</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3.8987500000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>1.7857499999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15">
+      <c r="C34" s="1">
+        <v>3.31325</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3.7007500000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>1.7776700000000001</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:4" ht="15">
+      <c r="C35" s="1">
+        <v>3.5212500000000002</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3.7652100000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>1.7640400000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15">
+      <c r="C36" s="1">
+        <v>3.40238</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3.7160799999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>1.76017</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15">
+      <c r="C37" s="1">
+        <v>3.4966200000000001</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4.04413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>1.76725</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15">
+      <c r="C38" s="1">
+        <v>3.4410799999999999</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3.9809999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>1.76529</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15">
+      <c r="C39" s="1">
+        <v>3.4699200000000001</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3.8885399999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>1.75708</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15">
+      <c r="C40" s="1">
+        <v>3.3537499999999998</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3.8440799999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>1.7909600000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15">
+      <c r="C41" s="1">
+        <v>3.4346299999999998</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3.9757500000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>1.79192</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15">
+      <c r="C42" s="1">
+        <v>3.3233299999999999</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3.85758</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>1.75796</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15">
+      <c r="C43" s="1">
+        <v>3.49112</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3.7806700000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>1.81288</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="15">
+      <c r="C44" s="1">
+        <v>3.2512500000000002</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3.9051200000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>1.7697099999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="15">
+      <c r="C45" s="1">
+        <v>3.5267900000000001</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3.8672900000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>1.8345800000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15">
+      <c r="C46" s="1">
+        <v>3.50529</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3.7937500000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>1.75979</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="15">
+      <c r="C47" s="1">
+        <v>3.4685000000000001</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3.7769200000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>1.7916300000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="15">
+      <c r="C48" s="1">
+        <v>3.4732500000000002</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3.7017099999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>1.7593700000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="15">
+      <c r="C49" s="1">
+        <v>3.45512</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3.7861699999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>1.76108</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="15">
+      <c r="C50" s="1">
+        <v>3.4577499999999999</v>
+      </c>
+      <c r="D50" s="1">
+        <v>3.79183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>1.76583</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="15">
+      <c r="C51" s="1">
+        <v>3.54271</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3.8643299999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>1.7831699999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="15">
+      <c r="C52" s="1">
+        <v>3.4359199999999999</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3.86883</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>1.76783</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="15">
+      <c r="C53" s="1">
+        <v>3.5182899999999999</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3.8189199999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>1.7606299999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="15">
+      <c r="C54" s="1">
+        <v>3.3894600000000001</v>
+      </c>
+      <c r="D54" s="1">
+        <v>4.0158800000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>1.79104</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="15">
+      <c r="C55" s="1">
+        <v>3.5013700000000001</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3.87812</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>1.75875</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="15">
+      <c r="C56" s="1">
+        <v>3.4948299999999999</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3.82429</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>1.76325</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="15">
+      <c r="C57" s="1">
+        <v>3.5545800000000001</v>
+      </c>
+      <c r="D57" s="1">
+        <v>3.9216700000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>1.76742</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="15">
+      <c r="C58" s="1">
+        <v>3.4962499999999999</v>
+      </c>
+      <c r="D58" s="1">
+        <v>3.8765399999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>1.7591300000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="15">
+      <c r="C59" s="1">
+        <v>3.29433</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3.8241700000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>1.7815799999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="15">
+      <c r="C60" s="1">
+        <v>3.37879</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3.7097500000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>1.7909200000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="15">
+      <c r="C61" s="1">
+        <v>3.3375400000000002</v>
+      </c>
+      <c r="D61" s="1">
+        <v>3.9785400000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>1.76254</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="15">
+      <c r="C62" s="1">
+        <v>3.49654</v>
+      </c>
+      <c r="D62" s="1">
+        <v>3.7566299999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="1">
         <v>1.8120400000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="15">
+      <c r="C63" s="1">
+        <v>3.32613</v>
+      </c>
+      <c r="D63" s="1">
+        <v>3.7452100000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="1">
         <v>1.79108</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="15">
+      <c r="C64" s="1">
+        <v>3.5173299999999998</v>
+      </c>
+      <c r="D64" s="1">
+        <v>3.8074599999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="1">
         <v>1.7631300000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="15">
+      <c r="C65" s="1">
+        <v>3.41208</v>
+      </c>
+      <c r="D65" s="1">
+        <v>3.8534999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="1">
         <v>1.7643800000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="15">
+      <c r="C66" s="1">
+        <v>3.7621699999999998</v>
+      </c>
+      <c r="D66" s="1">
+        <v>3.90767</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="1">
         <v>1.7647900000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="15">
+      <c r="C67" s="1">
+        <v>3.3612500000000001</v>
+      </c>
+      <c r="D67" s="1">
+        <v>3.9182899999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="1">
         <v>1.77071</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="15">
+      <c r="C68" s="1">
+        <v>3.5162499999999999</v>
+      </c>
+      <c r="D68" s="1">
+        <v>3.8511299999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="1">
         <v>1.7773699999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="15">
+      <c r="C69" s="1">
+        <v>3.4067500000000002</v>
+      </c>
+      <c r="D69" s="1">
+        <v>3.9132099999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="1">
         <v>1.75983</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="15">
+      <c r="C70" s="1">
+        <v>3.4111699999999998</v>
+      </c>
+      <c r="D70" s="1">
+        <v>3.82287</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="1">
         <v>1.75742</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="15">
+      <c r="C71" s="1">
+        <v>3.1171700000000002</v>
+      </c>
+      <c r="D71" s="1">
+        <v>3.7475800000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="1">
         <v>1.7598800000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="15">
+      <c r="C72" s="1">
+        <v>3.4030800000000001</v>
+      </c>
+      <c r="D72" s="1">
+        <v>3.7065800000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="1">
         <v>1.7740400000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="15">
+      <c r="C73" s="1">
+        <v>3.33975</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3.7227100000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="1">
         <v>1.80192</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="15">
+      <c r="C74" s="1">
+        <v>3.3937499999999998</v>
+      </c>
+      <c r="D74" s="1">
+        <v>3.9466700000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="1">
         <v>1.7978700000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="15">
+      <c r="C75" s="1">
+        <v>3.53775</v>
+      </c>
+      <c r="D75" s="1">
+        <v>3.7929200000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="1">
         <v>1.75671</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="15">
+      <c r="C76" s="1">
+        <v>3.3286699999999998</v>
+      </c>
+      <c r="D76" s="1">
+        <v>3.7835000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="1">
         <v>1.7721199999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="15">
+      <c r="C77" s="1">
+        <v>3.5420799999999999</v>
+      </c>
+      <c r="D77" s="1">
+        <v>3.86042</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="1">
         <v>1.78525</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="15">
+      <c r="C78" s="1">
+        <v>3.4912899999999998</v>
+      </c>
+      <c r="D78" s="1">
+        <v>3.9613299999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="1">
         <v>1.76542</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="15">
+      <c r="C79" s="1">
+        <v>3.2542499999999999</v>
+      </c>
+      <c r="D79" s="1">
+        <v>3.84667</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="1">
         <v>1.7853699999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="15">
+      <c r="C80" s="1">
+        <v>3.4995799999999999</v>
+      </c>
+      <c r="D80" s="1">
+        <v>3.8035800000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="1">
         <v>1.80983</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="15">
+      <c r="C81" s="1">
+        <v>3.4170400000000001</v>
+      </c>
+      <c r="D81" s="1">
+        <v>3.8182900000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="1">
         <v>1.7692099999999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="15">
+      <c r="C82" s="1">
+        <v>3.4882499999999999</v>
+      </c>
+      <c r="D82" s="1">
+        <v>3.9057900000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="1">
         <v>1.77271</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="15">
+      <c r="C83" s="1">
+        <v>3.3990800000000001</v>
+      </c>
+      <c r="D83" s="1">
+        <v>4.0060799999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="1">
         <v>1.76963</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="15">
+      <c r="C84" s="1">
+        <v>3.5249199999999998</v>
+      </c>
+      <c r="D84" s="1">
+        <v>3.91879</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="1">
         <v>1.76108</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="15">
+      <c r="C85" s="1">
+        <v>3.44658</v>
+      </c>
+      <c r="D85" s="1">
+        <v>3.7317499999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="1">
         <v>1.76454</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="15">
+      <c r="C86" s="1">
+        <v>3.3816700000000002</v>
+      </c>
+      <c r="D86" s="1">
+        <v>3.8597100000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" s="1">
         <v>1.76346</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="15">
+      <c r="C87" s="1">
+        <v>3.3820800000000002</v>
+      </c>
+      <c r="D87" s="1">
+        <v>3.7940800000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" s="1">
         <v>1.7880799999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" ht="15">
+      <c r="C88" s="1">
+        <v>3.4408799999999999</v>
+      </c>
+      <c r="D88" s="1">
+        <v>3.7028300000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" s="1">
         <v>1.7626299999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="15">
+      <c r="C89" s="1">
+        <v>3.37371</v>
+      </c>
+      <c r="D89" s="1">
+        <v>3.7458300000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" s="1">
         <v>1.79504</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" ht="15">
+      <c r="C90" s="1">
+        <v>3.4279199999999999</v>
+      </c>
+      <c r="D90" s="1">
+        <v>3.7203300000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" s="1">
         <v>1.7602899999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="15">
+      <c r="C91" s="1">
+        <v>3.4297900000000001</v>
+      </c>
+      <c r="D91" s="1">
+        <v>3.9885000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" s="1">
         <v>1.76467</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="15">
+      <c r="C92" s="1">
+        <v>3.40604</v>
+      </c>
+      <c r="D92" s="1">
+        <v>3.82796</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" s="1">
         <v>1.8091299999999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="15">
+      <c r="C93" s="1">
+        <v>3.3297099999999999</v>
+      </c>
+      <c r="D93" s="1">
+        <v>3.718</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" s="1">
         <v>1.7764599999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" ht="15">
+      <c r="C94" s="1">
+        <v>3.4350000000000001</v>
+      </c>
+      <c r="D94" s="1">
+        <v>3.8704999999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" s="1">
         <v>1.7659199999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="15">
+      <c r="C95" s="1">
+        <v>3.51071</v>
+      </c>
+      <c r="D95" s="1">
+        <v>3.8207100000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" s="1">
         <v>1.79467</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="15">
+      <c r="C96" s="1">
+        <v>3.5395400000000001</v>
+      </c>
+      <c r="D96" s="1">
+        <v>3.8880400000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="1">
         <v>1.75858</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" ht="15">
+      <c r="C97" s="1">
+        <v>3.44875</v>
+      </c>
+      <c r="D97" s="1">
+        <v>3.8037100000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" s="1">
         <v>1.7785</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" ht="15">
+      <c r="C98" s="1">
+        <v>3.5182899999999999</v>
+      </c>
+      <c r="D98" s="1">
+        <v>3.8795799999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" s="1">
         <v>1.7675799999999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" ht="15">
+      <c r="C99" s="1">
+        <v>3.55667</v>
+      </c>
+      <c r="D99" s="1">
+        <v>3.7447900000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" s="1">
         <v>1.7676700000000001</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" ht="15">
+      <c r="C100" s="1">
+        <v>3.5012500000000002</v>
+      </c>
+      <c r="D100" s="1">
+        <v>3.8827500000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" s="1">
         <v>1.7896300000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="15">
+      <c r="C101" s="1">
+        <v>3.4858799999999999</v>
+      </c>
+      <c r="D101" s="1">
+        <v>3.8672499999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" s="1">
         <v>1.786</v>
+      </c>
+      <c r="C102" s="1">
+        <v>3.4338299999999999</v>
+      </c>
+      <c r="D102" s="1">
+        <v>3.85425</v>
       </c>
     </row>
   </sheetData>

--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAEA488-CC0B-5B48-82FE-90ACA171D879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16355EDE-7362-0146-851D-832F8AFBD104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="900" windowWidth="15420" windowHeight="16500" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
@@ -2892,7 +2892,7 @@
   <dimension ref="A2:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16355EDE-7362-0146-851D-832F8AFBD104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654C9608-0E32-A74C-BF77-278522564105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="900" windowWidth="15420" windowHeight="16500" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
+    <workbookView xWindow="180" yWindow="4080" windowWidth="17520" windowHeight="13300" firstSheet="2" activeTab="7" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
   <sheets>
     <sheet name="result of all" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="xor5d1.tfc" sheetId="5" r:id="rId5"/>
     <sheet name="5mod5tc.tfc" sheetId="6" r:id="rId6"/>
     <sheet name="hwb5tc.tfc" sheetId="7" r:id="rId7"/>
+    <sheet name="result of Grover" sheetId="8" r:id="rId8"/>
+    <sheet name="Grover" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="27">
   <si>
     <t>ham3tc.tfc</t>
     <phoneticPr fontId="1"/>
@@ -119,12 +121,44 @@
     <t>num of qubits</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>multi-thread-mul</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>multi-thread-add</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>multi-thread-kron</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>multi-fiber-mul</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>multi-fiber-add</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>multi-fiber-kron</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>multi-thread-full</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>multi-fiber-full</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,6 +208,14 @@
       <name val="Futura Condensed Medium"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -218,7 +260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -237,6 +279,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1891,6 +1939,1246 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'result of Grover'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'result of Grover'!$B$4:$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'result of Grover'!$E$4:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>9.5520899999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19002520000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58091669999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.912372</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8933210000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.192929999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.440999999999988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255.8458</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>952.84049999999991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3514.4639999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C14E-E94F-81B2-CD9101D93CA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'result of Grover'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>multi-thread-mul</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'result of Grover'!$B$4:$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'result of Grover'!$F$4:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C14E-E94F-81B2-CD9101D93CA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'result of Grover'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>multi-thread-add</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'result of Grover'!$B$4:$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'result of Grover'!$G$4:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C14E-E94F-81B2-CD9101D93CA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'result of Grover'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>multi-thread-kron</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'result of Grover'!$B$4:$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'result of Grover'!$H$4:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C14E-E94F-81B2-CD9101D93CA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'result of Grover'!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>multi-thread-full</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'result of Grover'!$B$4:$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'result of Grover'!$I$4:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C14E-E94F-81B2-CD9101D93CA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'result of Grover'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>multi-fiber-mul</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'result of Grover'!$B$4:$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'result of Grover'!$J$4:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C14E-E94F-81B2-CD9101D93CA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'result of Grover'!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>multi-fiber-add</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'result of Grover'!$B$4:$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'result of Grover'!$K$4:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C14E-E94F-81B2-CD9101D93CA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'result of Grover'!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>multi-fiber-kron</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'result of Grover'!$B$4:$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'result of Grover'!$L$4:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C14E-E94F-81B2-CD9101D93CA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'result of Grover'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>multi-fiber-full</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'result of Grover'!$B$4:$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'result of Grover'!$M$4:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-C14E-E94F-81B2-CD9101D93CA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'result of Grover'!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>simd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'result of Grover'!$B$4:$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'result of Grover'!$N$4:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-C14E-E94F-81B2-CD9101D93CA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1364876351"/>
+        <c:axId val="1338143999"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1364876351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1338143999"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1338143999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1364876351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1931,7 +3219,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2488,6 +4332,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>258233</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>232834</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>162982</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="グラフ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13C8E350-6880-AD08-A6BA-06D341FC4BCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}" name="テーブル245656567891011" displayName="テーブル245656567891011" ref="A2:E102" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46">
   <autoFilter ref="A2:E102" xr:uid="{9C68C941-D99B-C04A-B501-7E3E5008743C}"/>
@@ -2891,8 +4776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCC3EA3-5E50-2748-BD2A-C2B8CF08A0DE}">
   <dimension ref="A2:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6111,7 +7996,7 @@
   <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -7600,7 +9485,7 @@
   <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView zoomScale="68" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -10577,7 +12462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0B7F4B-D19B-D149-B9DC-A95EC52FD947}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
@@ -12060,4 +13945,1136 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819EF501-8FE0-3948-900D-D457862F7EC9}">
+  <dimension ref="B2:N18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="1.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14">
+      <c r="E2" s="9"/>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f>Grover!K9</f>
+        <v>9.5520899999999992E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f>Grover!K10</f>
+        <v>0.19002520000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f>Grover!K11</f>
+        <v>0.58091669999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f>Grover!K12</f>
+        <v>1.912372</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f>Grover!K13</f>
+        <v>5.8933210000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <f>Grover!K14</f>
+        <v>21.192929999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <f>Grover!K15</f>
+        <v>71.440999999999988</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <f>Grover!K16</f>
+        <v>255.8458</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <f>Grover!K17</f>
+        <v>952.84049999999991</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <f>Grover!K18</f>
+        <v>3514.4639999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC998C5-C8A9-F848-83B4-3EC7458A1FFA}">
+  <dimension ref="A2:N167"/>
+  <sheetViews>
+    <sheetView zoomScale="69" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14">
+      <c r="C2" s="9"/>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>9.425E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="5"/>
+      <c r="C5">
+        <v>9.3542E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="5"/>
+      <c r="C6">
+        <v>9.5500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="5"/>
+      <c r="C7">
+        <v>9.3415999999999999E-2</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="5"/>
+      <c r="C8">
+        <v>9.5250000000000001E-2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="5"/>
+      <c r="C9">
+        <v>9.5792000000000002E-2</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f>AVERAGE(C4:C13)</f>
+        <v>9.5520899999999992E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="5"/>
+      <c r="C10">
+        <v>9.425E-2</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <f>AVERAGE(C15:C24)</f>
+        <v>0.19002520000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="5"/>
+      <c r="C11">
+        <v>0.10070800000000001</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <f>AVERAGE(C26:C35)</f>
+        <v>0.58091669999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="5"/>
+      <c r="C12">
+        <v>9.5792000000000002E-2</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <f>AVERAGE(C37:C46)</f>
+        <v>1.912372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="5"/>
+      <c r="C13">
+        <v>9.6709000000000003E-2</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <f>AVERAGE(C48:C57)</f>
+        <v>5.8933210000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <f>AVERAGE(C59:C68)</f>
+        <v>21.192929999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0.18962499999999999</v>
+      </c>
+      <c r="J15">
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <f>AVERAGE(C70:C79)</f>
+        <v>71.440999999999988</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="5"/>
+      <c r="C16">
+        <v>0.19029199999999999</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16">
+        <f>AVERAGE(C81:C90)</f>
+        <v>255.8458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="5"/>
+      <c r="C17">
+        <v>0.19079199999999999</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <f>AVERAGE(C92:C101)</f>
+        <v>952.84049999999991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="5"/>
+      <c r="C18">
+        <v>0.19212499999999999</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <f>AVERAGE(C103:C112)</f>
+        <v>3514.4639999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="5"/>
+      <c r="C19">
+        <v>0.19162499999999999</v>
+      </c>
+      <c r="J19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="5"/>
+      <c r="C20">
+        <v>0.18937499999999999</v>
+      </c>
+      <c r="J20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="5"/>
+      <c r="C21">
+        <v>0.18754199999999999</v>
+      </c>
+      <c r="J21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="5"/>
+      <c r="C22">
+        <v>0.19104199999999999</v>
+      </c>
+      <c r="J22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="5"/>
+      <c r="C23">
+        <v>0.18995899999999999</v>
+      </c>
+      <c r="J23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="5"/>
+      <c r="C24">
+        <v>0.18787499999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="10">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>0.60170800000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="10"/>
+      <c r="C27">
+        <v>0.57891700000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="10"/>
+      <c r="C28">
+        <v>0.58050000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="10"/>
+      <c r="C29">
+        <v>0.577125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="10"/>
+      <c r="C30">
+        <v>0.57404200000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="10"/>
+      <c r="C31">
+        <v>0.58179099999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="10"/>
+      <c r="C32">
+        <v>0.57862499999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="10"/>
+      <c r="C33">
+        <v>0.57716699999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="10"/>
+      <c r="C34">
+        <v>0.58204199999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="10"/>
+      <c r="C35">
+        <v>0.57725000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="10">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>1.9226300000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="10"/>
+      <c r="C38">
+        <v>1.89367</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="10"/>
+      <c r="C39">
+        <v>1.8926700000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="10"/>
+      <c r="C40">
+        <v>1.9107099999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="10"/>
+      <c r="C41">
+        <v>1.9130799999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="10"/>
+      <c r="C42">
+        <v>1.9139200000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="10"/>
+      <c r="C43">
+        <v>1.90879</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="10"/>
+      <c r="C44">
+        <v>1.9394199999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="10"/>
+      <c r="C45">
+        <v>1.91571</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="10"/>
+      <c r="C46">
+        <v>1.9131199999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="10">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>5.7973699999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="10"/>
+      <c r="C49">
+        <v>6.00617</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="10"/>
+      <c r="C50">
+        <v>5.84938</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="10"/>
+      <c r="C51">
+        <v>5.8506200000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="10"/>
+      <c r="C52">
+        <v>5.8706300000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="10"/>
+      <c r="C53">
+        <v>5.9908299999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="10"/>
+      <c r="C54">
+        <v>5.98292</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="10"/>
+      <c r="C55">
+        <v>5.8617100000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="10"/>
+      <c r="C56">
+        <v>5.8208299999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="10"/>
+      <c r="C57">
+        <v>5.9027500000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="10">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>20.930900000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="10"/>
+      <c r="C60">
+        <v>21.325700000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="10"/>
+      <c r="C61">
+        <v>21.177499999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="10"/>
+      <c r="C62">
+        <v>21.048500000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="10"/>
+      <c r="C63">
+        <v>21.250900000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="10"/>
+      <c r="C64">
+        <v>21.174600000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="10"/>
+      <c r="C65">
+        <v>21.024899999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="10"/>
+      <c r="C66">
+        <v>21.8749</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="10"/>
+      <c r="C67">
+        <v>21.0931</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="10"/>
+      <c r="C68">
+        <v>21.028300000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="10">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <v>70.722800000000007</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="10"/>
+      <c r="C71">
+        <v>73.800700000000006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="10"/>
+      <c r="C72">
+        <v>70.402699999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="10"/>
+      <c r="C73">
+        <v>73.364699999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="10"/>
+      <c r="C74">
+        <v>70.756399999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="10"/>
+      <c r="C75">
+        <v>73.168499999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="10"/>
+      <c r="C76">
+        <v>70.447699999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="10"/>
+      <c r="C77">
+        <v>70.328500000000005</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="10"/>
+      <c r="C78">
+        <v>70.900999999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="10"/>
+      <c r="C79">
+        <v>70.516999999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="10">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>252.244</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="10"/>
+      <c r="C82">
+        <v>261.36599999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="10"/>
+      <c r="C83">
+        <v>255.26900000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="10"/>
+      <c r="C84">
+        <v>254.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="10"/>
+      <c r="C85">
+        <v>252.60599999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="10"/>
+      <c r="C86">
+        <v>257.13099999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="10"/>
+      <c r="C87">
+        <v>254.946</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="10"/>
+      <c r="C88">
+        <v>259.13200000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="10"/>
+      <c r="C89">
+        <v>256.79500000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="10"/>
+      <c r="C90">
+        <v>254.869</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="10">
+        <v>9</v>
+      </c>
+      <c r="C92">
+        <v>934.53399999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="10"/>
+      <c r="C93">
+        <v>1000.09</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="10"/>
+      <c r="C94">
+        <v>944.65700000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="10"/>
+      <c r="C95">
+        <v>938.23599999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="10"/>
+      <c r="C96">
+        <v>939.19399999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="10"/>
+      <c r="C97">
+        <v>956.1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="10"/>
+      <c r="C98">
+        <v>985.55799999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="10"/>
+      <c r="C99">
+        <v>934.98699999999997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="10"/>
+      <c r="C100">
+        <v>941.85299999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="10"/>
+      <c r="C101">
+        <v>953.19600000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="10">
+        <v>10</v>
+      </c>
+      <c r="C103">
+        <v>3528.75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="10"/>
+      <c r="C104">
+        <v>3509.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="10"/>
+      <c r="C105">
+        <v>3468.14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="10"/>
+      <c r="C106">
+        <v>3542.46</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="10"/>
+      <c r="C107">
+        <v>3501.31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="10"/>
+      <c r="C108">
+        <v>3506.74</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="10"/>
+      <c r="C109">
+        <v>3510.01</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="10"/>
+      <c r="C110">
+        <v>3538.35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="10"/>
+      <c r="C111">
+        <v>3527.89</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="10"/>
+      <c r="C112">
+        <v>3511.39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="10"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="10"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="10"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="10"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="10"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="10"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="10"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="10"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="10"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="10"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="10"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="10"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="10"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="10"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="10"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="10"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="10"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="10"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="10"/>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="10"/>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="10"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="10"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="10"/>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="10"/>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="10"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="10"/>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="10"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="10"/>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="10"/>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="10"/>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="10"/>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="10"/>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="10"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="10"/>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="10"/>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="10"/>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="10"/>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="10"/>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="10"/>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="10"/>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="10"/>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="10"/>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="10"/>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="10"/>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A136:A145"/>
+    <mergeCell ref="A147:A156"/>
+    <mergeCell ref="A158:A167"/>
+    <mergeCell ref="A70:A79"/>
+    <mergeCell ref="A81:A90"/>
+    <mergeCell ref="A92:A101"/>
+    <mergeCell ref="A103:A112"/>
+    <mergeCell ref="A114:A123"/>
+    <mergeCell ref="A125:A134"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="A59:A68"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50379C5-7258-7B41-B8D0-D278A4396372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C924562C-11F7-B14D-8770-E1EF4C8FCB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="4080" windowWidth="17520" windowHeight="13300" firstSheet="2" activeTab="7" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
+    <workbookView xWindow="1900" yWindow="3500" windowWidth="17520" windowHeight="13300" firstSheet="2" activeTab="8" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
   <sheets>
     <sheet name="result of all" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="27">
   <si>
     <t>ham3tc.tfc</t>
     <phoneticPr fontId="1"/>
@@ -2199,6 +2199,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.2667544</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37163760000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92473320000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5134259999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9477689999999992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.42079</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.504149999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>294.99980000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1083.7930000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3796.5889999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12974.460000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2294,6 +2327,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.71252100000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93471650000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8841170000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5412.3429999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2389,6 +2452,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2484,6 +2577,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2579,6 +2702,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2676,6 +2829,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2773,6 +2956,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2870,6 +3083,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2967,6 +3210,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4336,16 +4609,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>258233</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>994833</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>232834</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>162982</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>563034</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>239182</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13951,8 +14224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819EF501-8FE0-3948-900D-D457862F7EC9}">
   <dimension ref="B2:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="F31" zoomScale="113" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -14021,8 +14294,44 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <f>Grover!K9</f>
+        <f>Grover!O9</f>
         <v>9.5520899999999992E-2</v>
+      </c>
+      <c r="F4">
+        <f>Grover!P9</f>
+        <v>0.2667544</v>
+      </c>
+      <c r="G4">
+        <f>Grover!Q9</f>
+        <v>0.71252100000000007</v>
+      </c>
+      <c r="H4" t="e">
+        <f>Grover!R9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4" t="e">
+        <f>Grover!S9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4" t="e">
+        <f>Grover!T9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K4" t="e">
+        <f>Grover!U9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" t="e">
+        <f>Grover!V9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M4" t="e">
+        <f>Grover!W9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N4" t="e">
+        <f>Grover!X9</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="2:14">
@@ -14030,8 +14339,44 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <f>Grover!K10</f>
+        <f>Grover!O10</f>
         <v>0.19002520000000001</v>
+      </c>
+      <c r="F5">
+        <f>Grover!P10</f>
+        <v>0.37163760000000001</v>
+      </c>
+      <c r="G5">
+        <f>Grover!Q10</f>
+        <v>0.93471650000000006</v>
+      </c>
+      <c r="H5" t="e">
+        <f>Grover!R10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" t="e">
+        <f>Grover!S10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5" t="e">
+        <f>Grover!T10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K5" t="e">
+        <f>Grover!U10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" t="e">
+        <f>Grover!V10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5" t="e">
+        <f>Grover!W10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N5" t="e">
+        <f>Grover!X10</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="2:14">
@@ -14039,8 +14384,44 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <f>Grover!K11</f>
+        <f>Grover!O11</f>
         <v>0.58091669999999995</v>
+      </c>
+      <c r="F6">
+        <f>Grover!P11</f>
+        <v>0.92473320000000003</v>
+      </c>
+      <c r="G6">
+        <f>Grover!Q11</f>
+        <v>1.8841170000000003</v>
+      </c>
+      <c r="H6" t="e">
+        <f>Grover!R11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" t="e">
+        <f>Grover!S11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6" t="e">
+        <f>Grover!T11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K6" t="e">
+        <f>Grover!U11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" t="e">
+        <f>Grover!V11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" t="e">
+        <f>Grover!W11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N6" t="e">
+        <f>Grover!X11</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="2:14">
@@ -14048,8 +14429,44 @@
         <v>4</v>
       </c>
       <c r="E7">
-        <f>Grover!K12</f>
+        <f>Grover!O12</f>
         <v>1.912372</v>
+      </c>
+      <c r="F7">
+        <f>Grover!P12</f>
+        <v>2.5134259999999999</v>
+      </c>
+      <c r="G7" t="e">
+        <f>Grover!Q12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" t="e">
+        <f>Grover!R12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" t="e">
+        <f>Grover!S12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" t="e">
+        <f>Grover!T12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" t="e">
+        <f>Grover!U12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" t="e">
+        <f>Grover!V12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" t="e">
+        <f>Grover!W12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N7" t="e">
+        <f>Grover!X12</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="2:14">
@@ -14057,8 +14474,44 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <f>Grover!K13</f>
+        <f>Grover!O13</f>
         <v>5.8933210000000003</v>
+      </c>
+      <c r="F8">
+        <f>Grover!P13</f>
+        <v>6.9477689999999992</v>
+      </c>
+      <c r="G8" t="e">
+        <f>Grover!Q13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" t="e">
+        <f>Grover!R13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" t="e">
+        <f>Grover!S13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" t="e">
+        <f>Grover!T13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" t="e">
+        <f>Grover!U13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" t="e">
+        <f>Grover!V13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" t="e">
+        <f>Grover!W13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" t="e">
+        <f>Grover!X13</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="2:14">
@@ -14066,8 +14519,44 @@
         <v>6</v>
       </c>
       <c r="E9">
-        <f>Grover!K14</f>
+        <f>Grover!O14</f>
         <v>21.192929999999997</v>
+      </c>
+      <c r="F9">
+        <f>Grover!P14</f>
+        <v>24.42079</v>
+      </c>
+      <c r="G9" t="e">
+        <f>Grover!Q14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" t="e">
+        <f>Grover!R14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" t="e">
+        <f>Grover!S14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" t="e">
+        <f>Grover!T14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" t="e">
+        <f>Grover!U14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" t="e">
+        <f>Grover!V14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" t="e">
+        <f>Grover!W14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" t="e">
+        <f>Grover!X14</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="2:14">
@@ -14075,8 +14564,44 @@
         <v>7</v>
       </c>
       <c r="E10">
-        <f>Grover!K15</f>
+        <f>Grover!O15</f>
         <v>71.440999999999988</v>
+      </c>
+      <c r="F10">
+        <f>Grover!P15</f>
+        <v>81.504149999999996</v>
+      </c>
+      <c r="G10" t="e">
+        <f>Grover!Q15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" t="e">
+        <f>Grover!R15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" t="e">
+        <f>Grover!S15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" t="e">
+        <f>Grover!T15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" t="e">
+        <f>Grover!U15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" t="e">
+        <f>Grover!V15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" t="e">
+        <f>Grover!W15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10" t="e">
+        <f>Grover!X15</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="2:14">
@@ -14084,8 +14609,44 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <f>Grover!K16</f>
+        <f>Grover!O16</f>
         <v>255.8458</v>
+      </c>
+      <c r="F11">
+        <f>Grover!P16</f>
+        <v>294.99980000000005</v>
+      </c>
+      <c r="G11" t="e">
+        <f>Grover!Q16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H11" t="e">
+        <f>Grover!R16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" t="e">
+        <f>Grover!S16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" t="e">
+        <f>Grover!T16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" t="e">
+        <f>Grover!U16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" t="e">
+        <f>Grover!V16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" t="e">
+        <f>Grover!W16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N11" t="e">
+        <f>Grover!X16</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="2:14">
@@ -14093,8 +14654,44 @@
         <v>9</v>
       </c>
       <c r="E12">
-        <f>Grover!K17</f>
+        <f>Grover!O17</f>
         <v>952.84049999999991</v>
+      </c>
+      <c r="F12">
+        <f>Grover!P17</f>
+        <v>1083.7930000000001</v>
+      </c>
+      <c r="G12" t="e">
+        <f>Grover!Q17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" t="e">
+        <f>Grover!R17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" t="e">
+        <f>Grover!S17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" t="e">
+        <f>Grover!T17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" t="e">
+        <f>Grover!U17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" t="e">
+        <f>Grover!V17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" t="e">
+        <f>Grover!W17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12" t="e">
+        <f>Grover!X17</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="2:14">
@@ -14102,13 +14699,53 @@
         <v>10</v>
       </c>
       <c r="E13">
-        <f>Grover!K18</f>
+        <f>Grover!O18</f>
         <v>3514.4639999999999</v>
+      </c>
+      <c r="F13">
+        <f>Grover!P18</f>
+        <v>3796.5889999999999</v>
+      </c>
+      <c r="G13">
+        <f>Grover!Q18</f>
+        <v>5412.3429999999998</v>
+      </c>
+      <c r="H13" t="e">
+        <f>Grover!R18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" t="e">
+        <f>Grover!S18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" t="e">
+        <f>Grover!T18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" t="e">
+        <f>Grover!U18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" t="e">
+        <f>Grover!V18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" t="e">
+        <f>Grover!W18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13" t="e">
+        <f>Grover!X18</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="2:14">
       <c r="B14">
         <v>11</v>
+      </c>
+      <c r="F14">
+        <f>Grover!P19</f>
+        <v>12974.460000000001</v>
       </c>
     </row>
     <row r="15" spans="2:14">
@@ -14144,10 +14781,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC998C5-C8A9-F848-83B4-3EC7458A1FFA}">
-  <dimension ref="A2:N167"/>
+  <dimension ref="A2:X167"/>
   <sheetViews>
-    <sheetView zoomScale="69" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -14156,790 +14793,1664 @@
     <col min="2" max="2" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:24">
       <c r="C2" s="9"/>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
       <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:24">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="C4">
         <v>9.425E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="D4">
+        <v>0.26395800000000003</v>
+      </c>
+      <c r="E4">
+        <v>0.88129199999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="5"/>
       <c r="C5">
         <v>9.3542E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="D5">
+        <v>0.28833399999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.73033400000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="5"/>
       <c r="C6">
         <v>9.5500000000000002E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="D6">
+        <v>0.25916600000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.68320800000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="5"/>
       <c r="C7">
         <v>9.3415999999999999E-2</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" t="s">
+      <c r="D7">
+        <v>0.26274999999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="O7" s="9"/>
+      <c r="P7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M7" t="s">
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="5"/>
       <c r="C8">
         <v>9.5250000000000001E-2</v>
       </c>
-      <c r="K8" t="s">
+      <c r="D8">
+        <v>0.26533400000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.83033299999999999</v>
+      </c>
+      <c r="O8" t="s">
         <v>3</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" t="s">
+        <v>23</v>
+      </c>
+      <c r="V8" t="s">
+        <v>24</v>
+      </c>
+      <c r="W8" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:24">
       <c r="A9" s="5"/>
       <c r="C9">
         <v>9.5792000000000002E-2</v>
       </c>
-      <c r="J9">
+      <c r="D9">
+        <v>0.28295900000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.68587500000000001</v>
+      </c>
+      <c r="N9">
         <v>1</v>
       </c>
-      <c r="K9">
+      <c r="O9">
         <f>AVERAGE(C4:C13)</f>
         <v>9.5520899999999992E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="P9">
+        <f t="shared" ref="P9:X9" si="0">AVERAGE(D4:D13)</f>
+        <v>0.2667544</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>0.71252100000000007</v>
+      </c>
+      <c r="R9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="5"/>
       <c r="C10">
         <v>9.425E-2</v>
       </c>
-      <c r="J10">
+      <c r="D10">
+        <v>0.26866699999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.66120900000000005</v>
+      </c>
+      <c r="N10">
         <v>2</v>
       </c>
-      <c r="K10">
+      <c r="O10">
         <f>AVERAGE(C15:C24)</f>
         <v>0.19002520000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="P10">
+        <f t="shared" ref="P10:X10" si="1">AVERAGE(D15:D24)</f>
+        <v>0.37163760000000001</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>0.93471650000000006</v>
+      </c>
+      <c r="R10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="5"/>
       <c r="C11">
         <v>0.10070800000000001</v>
       </c>
-      <c r="J11">
+      <c r="D11">
+        <v>0.25024999999999997</v>
+      </c>
+      <c r="E11">
+        <v>0.67158399999999996</v>
+      </c>
+      <c r="N11">
         <v>3</v>
       </c>
-      <c r="K11">
+      <c r="O11">
         <f>AVERAGE(C26:C35)</f>
         <v>0.58091669999999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="P11">
+        <f t="shared" ref="P11:X11" si="2">AVERAGE(D26:D35)</f>
+        <v>0.92473320000000003</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>1.8841170000000003</v>
+      </c>
+      <c r="R11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="5"/>
       <c r="C12">
         <v>9.5792000000000002E-2</v>
       </c>
-      <c r="J12">
+      <c r="D12">
+        <v>0.26316699999999998</v>
+      </c>
+      <c r="E12">
+        <v>0.67695799999999995</v>
+      </c>
+      <c r="N12">
         <v>4</v>
       </c>
-      <c r="K12">
+      <c r="O12">
         <f>AVERAGE(C37:C46)</f>
         <v>1.912372</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="P12">
+        <f t="shared" ref="P12:X12" si="3">AVERAGE(D37:D46)</f>
+        <v>2.5134259999999999</v>
+      </c>
+      <c r="Q12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="5"/>
       <c r="C13">
         <v>9.6709000000000003E-2</v>
       </c>
-      <c r="J13">
+      <c r="D13">
+        <v>0.262959</v>
+      </c>
+      <c r="E13">
+        <v>0.63775000000000004</v>
+      </c>
+      <c r="N13">
         <v>5</v>
       </c>
-      <c r="K13">
+      <c r="O13">
         <f>AVERAGE(C48:C57)</f>
         <v>5.8933210000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="J14">
+      <c r="P13">
+        <f t="shared" ref="P13:X13" si="4">AVERAGE(D48:D57)</f>
+        <v>6.9477689999999992</v>
+      </c>
+      <c r="Q13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="N14">
         <v>6</v>
       </c>
-      <c r="K14">
+      <c r="O14">
         <f>AVERAGE(C59:C68)</f>
         <v>21.192929999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="P14">
+        <f t="shared" ref="P14:X14" si="5">AVERAGE(D59:D68)</f>
+        <v>24.42079</v>
+      </c>
+      <c r="Q14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="5">
         <v>2</v>
       </c>
       <c r="C15">
         <v>0.18962499999999999</v>
       </c>
-      <c r="J15">
+      <c r="D15">
+        <v>0.37670900000000002</v>
+      </c>
+      <c r="E15">
+        <v>0.87762499999999999</v>
+      </c>
+      <c r="N15">
         <v>7</v>
       </c>
-      <c r="K15">
+      <c r="O15">
         <f>AVERAGE(C70:C79)</f>
         <v>71.440999999999988</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="P15">
+        <f t="shared" ref="P15:X15" si="6">AVERAGE(D70:D79)</f>
+        <v>81.504149999999996</v>
+      </c>
+      <c r="Q15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="5"/>
       <c r="C16">
         <v>0.19029199999999999</v>
       </c>
-      <c r="J16">
+      <c r="D16">
+        <v>0.37920799999999999</v>
+      </c>
+      <c r="E16">
+        <v>1.0077100000000001</v>
+      </c>
+      <c r="N16">
         <v>8</v>
       </c>
-      <c r="K16">
+      <c r="O16">
         <f>AVERAGE(C81:C90)</f>
         <v>255.8458</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="P16">
+        <f t="shared" ref="P16:X16" si="7">AVERAGE(D81:D90)</f>
+        <v>294.99980000000005</v>
+      </c>
+      <c r="Q16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="5"/>
       <c r="C17">
         <v>0.19079199999999999</v>
       </c>
-      <c r="J17">
+      <c r="D17">
+        <v>0.39087499999999997</v>
+      </c>
+      <c r="E17">
+        <v>0.83854200000000001</v>
+      </c>
+      <c r="N17">
         <v>9</v>
       </c>
-      <c r="K17">
+      <c r="O17">
         <f>AVERAGE(C92:C101)</f>
         <v>952.84049999999991</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="P17">
+        <f t="shared" ref="P17:X17" si="8">AVERAGE(D92:D101)</f>
+        <v>1083.7930000000001</v>
+      </c>
+      <c r="Q17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="5"/>
       <c r="C18">
         <v>0.19212499999999999</v>
       </c>
-      <c r="J18">
+      <c r="D18">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="E18">
+        <v>0.88087499999999996</v>
+      </c>
+      <c r="N18">
         <v>10</v>
       </c>
-      <c r="K18">
+      <c r="O18">
         <f>AVERAGE(C103:C112)</f>
         <v>3514.4639999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="P18">
+        <f t="shared" ref="P18:X18" si="9">AVERAGE(D103:D112)</f>
+        <v>3796.5889999999999</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="9"/>
+        <v>5412.3429999999998</v>
+      </c>
+      <c r="R18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="5"/>
       <c r="C19">
         <v>0.19162499999999999</v>
       </c>
-      <c r="J19">
+      <c r="D19">
+        <v>0.36887500000000001</v>
+      </c>
+      <c r="E19">
+        <v>1.0405800000000001</v>
+      </c>
+      <c r="N19">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="P19">
+        <f>AVERAGE(D114:D123)</f>
+        <v>12974.460000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="5"/>
       <c r="C20">
         <v>0.18937499999999999</v>
       </c>
-      <c r="J20">
+      <c r="D20">
+        <v>0.37237500000000001</v>
+      </c>
+      <c r="E20">
+        <v>0.99191700000000005</v>
+      </c>
+      <c r="N20">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:24">
       <c r="A21" s="5"/>
       <c r="C21">
         <v>0.18754199999999999</v>
       </c>
-      <c r="J21">
+      <c r="D21">
+        <v>0.40570800000000001</v>
+      </c>
+      <c r="E21">
+        <v>0.89516600000000002</v>
+      </c>
+      <c r="N21">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:24">
       <c r="A22" s="5"/>
       <c r="C22">
         <v>0.19104199999999999</v>
       </c>
-      <c r="J22">
+      <c r="D22">
+        <v>0.369917</v>
+      </c>
+      <c r="E22">
+        <v>1.0765</v>
+      </c>
+      <c r="N22">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:24">
       <c r="A23" s="5"/>
       <c r="C23">
         <v>0.18995899999999999</v>
       </c>
-      <c r="J23">
+      <c r="D23">
+        <v>0.31779200000000002</v>
+      </c>
+      <c r="E23">
+        <v>0.86312500000000003</v>
+      </c>
+      <c r="N23">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:24">
       <c r="A24" s="5"/>
       <c r="C24">
         <v>0.18787499999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="D24">
+        <v>0.34441699999999997</v>
+      </c>
+      <c r="E24">
+        <v>0.87512500000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" s="10">
         <v>3</v>
       </c>
       <c r="C26">
         <v>0.60170800000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="D26">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="E26">
+        <v>1.8057099999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="10"/>
       <c r="C27">
         <v>0.57891700000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="D27">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="E27">
+        <v>1.9319200000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" s="10"/>
       <c r="C28">
         <v>0.58050000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="D28">
+        <v>0.89958300000000002</v>
+      </c>
+      <c r="E28">
+        <v>1.841</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="10"/>
       <c r="C29">
         <v>0.577125</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="D29">
+        <v>0.97208300000000003</v>
+      </c>
+      <c r="E29">
+        <v>2.0415399999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" s="10"/>
       <c r="C30">
         <v>0.57404200000000005</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="D30">
+        <v>0.90562500000000001</v>
+      </c>
+      <c r="E30">
+        <v>1.8252900000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" s="10"/>
       <c r="C31">
         <v>0.58179099999999995</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="D31">
+        <v>0.87920799999999999</v>
+      </c>
+      <c r="E31">
+        <v>1.8238300000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" s="10"/>
       <c r="C32">
         <v>0.57862499999999994</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <v>0.96845800000000004</v>
+      </c>
+      <c r="E32">
+        <v>1.8905000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="10"/>
       <c r="C33">
         <v>0.57716699999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <v>0.98887499999999995</v>
+      </c>
+      <c r="E33">
+        <v>2.0384600000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="10"/>
       <c r="C34">
         <v>0.58204199999999995</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <v>0.94325000000000003</v>
+      </c>
+      <c r="E34">
+        <v>1.73692</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="10"/>
       <c r="C35">
         <v>0.57725000000000004</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D35">
+        <v>0.87575000000000003</v>
+      </c>
+      <c r="E35">
+        <v>1.9059999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="10">
         <v>4</v>
       </c>
       <c r="C37">
         <v>1.9226300000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>2.4871699999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="10"/>
       <c r="C38">
         <v>1.89367</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>2.52325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="10"/>
       <c r="C39">
         <v>1.8926700000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <v>2.4792900000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="10"/>
       <c r="C40">
         <v>1.9107099999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <v>2.55192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="10"/>
       <c r="C41">
         <v>1.9130799999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41">
+        <v>2.47092</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="10"/>
       <c r="C42">
         <v>1.9139200000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>2.4998300000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="10"/>
       <c r="C43">
         <v>1.90879</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43">
+        <v>2.5004200000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="10"/>
       <c r="C44">
         <v>1.9394199999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44">
+        <v>2.5880800000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="10"/>
       <c r="C45">
         <v>1.91571</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>2.5337100000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="10"/>
       <c r="C46">
         <v>1.9131199999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D46">
+        <v>2.4996700000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="10">
         <v>5</v>
       </c>
       <c r="C48">
         <v>5.7973699999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48">
+        <v>6.7568299999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="10"/>
       <c r="C49">
         <v>6.00617</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49">
+        <v>6.7305400000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="10"/>
       <c r="C50">
         <v>5.84938</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50">
+        <v>6.95512</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="10"/>
       <c r="C51">
         <v>5.8506200000000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>7.0615399999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="10"/>
       <c r="C52">
         <v>5.8706300000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>6.9238299999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="10"/>
       <c r="C53">
         <v>5.9908299999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53">
+        <v>6.9710400000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="10"/>
       <c r="C54">
         <v>5.98292</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54">
+        <v>7.0242500000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="10"/>
       <c r="C55">
         <v>5.8617100000000004</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55">
+        <v>7.0073299999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="10"/>
       <c r="C56">
         <v>5.8208299999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56">
+        <v>6.9009200000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="10"/>
       <c r="C57">
         <v>5.9027500000000002</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D57">
+        <v>7.1462899999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="10">
         <v>6</v>
       </c>
       <c r="C59">
         <v>20.930900000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59">
+        <v>23.812200000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="10"/>
       <c r="C60">
         <v>21.325700000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60">
+        <v>25.470099999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="10"/>
       <c r="C61">
         <v>21.177499999999998</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61">
+        <v>24.176600000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="10"/>
       <c r="C62">
         <v>21.048500000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62">
+        <v>24.338799999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="10"/>
       <c r="C63">
         <v>21.250900000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63">
+        <v>25.046299999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="10"/>
       <c r="C64">
         <v>21.174600000000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64">
+        <v>24.228899999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="10"/>
       <c r="C65">
         <v>21.024899999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65">
+        <v>24.215699999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="10"/>
       <c r="C66">
         <v>21.8749</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66">
+        <v>24.732500000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="10"/>
       <c r="C67">
         <v>21.0931</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67">
+        <v>24.288799999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="10"/>
       <c r="C68">
         <v>21.028300000000002</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D68">
+        <v>23.898</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="10">
         <v>7</v>
       </c>
       <c r="C70">
         <v>70.722800000000007</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70">
+        <v>81.439300000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="10"/>
       <c r="C71">
         <v>73.800700000000006</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71">
+        <v>81.032700000000006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="10"/>
       <c r="C72">
         <v>70.402699999999996</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72">
+        <v>81.531499999999994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="10"/>
       <c r="C73">
         <v>73.364699999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73">
+        <v>82.042299999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="10"/>
       <c r="C74">
         <v>70.756399999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74">
+        <v>81.915300000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="10"/>
       <c r="C75">
         <v>73.168499999999995</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75">
+        <v>81.550700000000006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="10"/>
       <c r="C76">
         <v>70.447699999999998</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>81.598200000000006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="10"/>
       <c r="C77">
         <v>70.328500000000005</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77">
+        <v>81.564999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="10"/>
       <c r="C78">
         <v>70.900999999999996</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78">
+        <v>81.596199999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="10"/>
       <c r="C79">
         <v>70.516999999999996</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D79">
+        <v>80.770300000000006</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="10">
         <v>8</v>
       </c>
       <c r="C81">
         <v>252.244</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81">
+        <v>293.20499999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="10"/>
       <c r="C82">
         <v>261.36599999999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82">
+        <v>295.31400000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="10"/>
       <c r="C83">
         <v>255.26900000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83">
+        <v>292.30599999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="10"/>
       <c r="C84">
         <v>254.1</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84">
+        <v>295.08100000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="10"/>
       <c r="C85">
         <v>252.60599999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85">
+        <v>296.84399999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="10"/>
       <c r="C86">
         <v>257.13099999999997</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86">
+        <v>295.40100000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="10"/>
       <c r="C87">
         <v>254.946</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87">
+        <v>295.70699999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="10"/>
       <c r="C88">
         <v>259.13200000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88">
+        <v>295.66800000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="10"/>
       <c r="C89">
         <v>256.79500000000002</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89">
+        <v>295.95999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="10"/>
       <c r="C90">
         <v>254.869</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D90">
+        <v>294.512</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="10">
         <v>9</v>
       </c>
       <c r="C92">
         <v>934.53399999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92">
+        <v>1075.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="10"/>
       <c r="C93">
         <v>1000.09</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93">
+        <v>1087.79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="10"/>
       <c r="C94">
         <v>944.65700000000004</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94">
+        <v>1088.28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="10"/>
       <c r="C95">
         <v>938.23599999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95">
+        <v>1087.1300000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="10"/>
       <c r="C96">
         <v>939.19399999999996</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>1084.95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="10"/>
       <c r="C97">
         <v>956.1</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97">
+        <v>1086.92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="10"/>
       <c r="C98">
         <v>985.55799999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98">
+        <v>1082.3399999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="10"/>
       <c r="C99">
         <v>934.98699999999997</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99">
+        <v>1075.49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="10"/>
       <c r="C100">
         <v>941.85299999999995</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>1081.51</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="10"/>
       <c r="C101">
         <v>953.19600000000003</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D101">
+        <v>1088.32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="10">
         <v>10</v>
       </c>
       <c r="C103">
         <v>3528.75</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>3828.12</v>
+      </c>
+      <c r="E103">
+        <v>5376.74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="10"/>
       <c r="C104">
         <v>3509.6</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104">
+        <v>3772.63</v>
+      </c>
+      <c r="E104">
+        <v>5491.41</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="10"/>
       <c r="C105">
         <v>3468.14</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105">
+        <v>3831.18</v>
+      </c>
+      <c r="E105">
+        <v>5374.47</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="10"/>
       <c r="C106">
         <v>3542.46</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106">
+        <v>3766.59</v>
+      </c>
+      <c r="E106">
+        <v>5435.35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" s="10"/>
       <c r="C107">
         <v>3501.31</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107">
+        <v>3843.76</v>
+      </c>
+      <c r="E107">
+        <v>5383.1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="10"/>
       <c r="C108">
         <v>3506.74</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108">
+        <v>3810.65</v>
+      </c>
+      <c r="E108">
+        <v>5394.07</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="10"/>
       <c r="C109">
         <v>3510.01</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109">
+        <v>3783.52</v>
+      </c>
+      <c r="E109">
+        <v>5432.58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" s="10"/>
       <c r="C110">
         <v>3538.35</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110">
+        <v>3755.5</v>
+      </c>
+      <c r="E110">
+        <v>5405.23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="10"/>
       <c r="C111">
         <v>3527.89</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111">
+        <v>3788.29</v>
+      </c>
+      <c r="E111">
+        <v>5441.76</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" s="10"/>
       <c r="C112">
         <v>3511.39</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="D112">
+        <v>3785.65</v>
+      </c>
+      <c r="E112">
+        <v>5388.72</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="10">
         <v>11</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="D114">
+        <v>12986.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="10"/>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="D115">
+        <v>13026</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="10"/>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="D116">
+        <v>13027.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="10"/>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="D117">
+        <v>13066.3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="10"/>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="D118">
+        <v>12880.4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="10"/>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="D119">
+        <v>12957.2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="10"/>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="D120">
+        <v>12781.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="10"/>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="D121">
+        <v>12944</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="10"/>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="D122">
+        <v>12995.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="10"/>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="D123">
+        <v>13079.8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:4">
       <c r="A126" s="10"/>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:4">
       <c r="A127" s="10"/>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:4">
       <c r="A128" s="10"/>
     </row>
     <row r="129" spans="1:1">
@@ -15057,10 +16568,14 @@
       <c r="A167" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="19">
+    <mergeCell ref="T7:W7"/>
     <mergeCell ref="A136:A145"/>
     <mergeCell ref="A147:A156"/>
     <mergeCell ref="A158:A167"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="P7:S7"/>
     <mergeCell ref="A70:A79"/>
     <mergeCell ref="A81:A90"/>
     <mergeCell ref="A92:A101"/>

--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654C9608-0E32-A74C-BF77-278522564105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F30580-7C48-8B4E-901A-24C630E549B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="4080" windowWidth="17520" windowHeight="13300" firstSheet="2" activeTab="7" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
+    <workbookView xWindow="1900" yWindow="3500" windowWidth="17520" windowHeight="13300" firstSheet="2" activeTab="8" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
   <sheets>
     <sheet name="result of all" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="27">
   <si>
     <t>ham3tc.tfc</t>
     <phoneticPr fontId="1"/>
@@ -2199,6 +2199,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.2667544</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37163760000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92473320000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5134259999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9477689999999992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.42079</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.504149999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>294.99980000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1083.7930000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3796.5889999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12974.460000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2294,6 +2327,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.71252100000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93471650000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8841170000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5412.3429999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2389,6 +2452,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2484,6 +2577,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2579,6 +2702,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2676,6 +2829,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2773,6 +2956,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2870,6 +3083,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2967,6 +3210,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4336,16 +4609,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>258233</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>994833</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>232834</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>162982</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>563034</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>239182</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13951,8 +14224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819EF501-8FE0-3948-900D-D457862F7EC9}">
   <dimension ref="B2:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="F31" zoomScale="113" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -14021,8 +14294,44 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <f>Grover!K9</f>
+        <f>Grover!O9</f>
         <v>9.5520899999999992E-2</v>
+      </c>
+      <c r="F4">
+        <f>Grover!P9</f>
+        <v>0.2667544</v>
+      </c>
+      <c r="G4">
+        <f>Grover!Q9</f>
+        <v>0.71252100000000007</v>
+      </c>
+      <c r="H4" t="e">
+        <f>Grover!R9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4" t="e">
+        <f>Grover!S9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4" t="e">
+        <f>Grover!T9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K4" t="e">
+        <f>Grover!U9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" t="e">
+        <f>Grover!V9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M4" t="e">
+        <f>Grover!W9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N4" t="e">
+        <f>Grover!X9</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="2:14">
@@ -14030,8 +14339,44 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <f>Grover!K10</f>
+        <f>Grover!O10</f>
         <v>0.19002520000000001</v>
+      </c>
+      <c r="F5">
+        <f>Grover!P10</f>
+        <v>0.37163760000000001</v>
+      </c>
+      <c r="G5">
+        <f>Grover!Q10</f>
+        <v>0.93471650000000006</v>
+      </c>
+      <c r="H5" t="e">
+        <f>Grover!R10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" t="e">
+        <f>Grover!S10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5" t="e">
+        <f>Grover!T10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K5" t="e">
+        <f>Grover!U10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" t="e">
+        <f>Grover!V10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5" t="e">
+        <f>Grover!W10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N5" t="e">
+        <f>Grover!X10</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="2:14">
@@ -14039,8 +14384,44 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <f>Grover!K11</f>
+        <f>Grover!O11</f>
         <v>0.58091669999999995</v>
+      </c>
+      <c r="F6">
+        <f>Grover!P11</f>
+        <v>0.92473320000000003</v>
+      </c>
+      <c r="G6">
+        <f>Grover!Q11</f>
+        <v>1.8841170000000003</v>
+      </c>
+      <c r="H6" t="e">
+        <f>Grover!R11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" t="e">
+        <f>Grover!S11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6" t="e">
+        <f>Grover!T11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K6" t="e">
+        <f>Grover!U11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" t="e">
+        <f>Grover!V11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" t="e">
+        <f>Grover!W11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N6" t="e">
+        <f>Grover!X11</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="2:14">
@@ -14048,8 +14429,44 @@
         <v>4</v>
       </c>
       <c r="E7">
-        <f>Grover!K12</f>
+        <f>Grover!O12</f>
         <v>1.912372</v>
+      </c>
+      <c r="F7">
+        <f>Grover!P12</f>
+        <v>2.5134259999999999</v>
+      </c>
+      <c r="G7" t="e">
+        <f>Grover!Q12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" t="e">
+        <f>Grover!R12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" t="e">
+        <f>Grover!S12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" t="e">
+        <f>Grover!T12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" t="e">
+        <f>Grover!U12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" t="e">
+        <f>Grover!V12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" t="e">
+        <f>Grover!W12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N7" t="e">
+        <f>Grover!X12</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="2:14">
@@ -14057,8 +14474,44 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <f>Grover!K13</f>
+        <f>Grover!O13</f>
         <v>5.8933210000000003</v>
+      </c>
+      <c r="F8">
+        <f>Grover!P13</f>
+        <v>6.9477689999999992</v>
+      </c>
+      <c r="G8" t="e">
+        <f>Grover!Q13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" t="e">
+        <f>Grover!R13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" t="e">
+        <f>Grover!S13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" t="e">
+        <f>Grover!T13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" t="e">
+        <f>Grover!U13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" t="e">
+        <f>Grover!V13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" t="e">
+        <f>Grover!W13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" t="e">
+        <f>Grover!X13</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="2:14">
@@ -14066,8 +14519,44 @@
         <v>6</v>
       </c>
       <c r="E9">
-        <f>Grover!K14</f>
+        <f>Grover!O14</f>
         <v>21.192929999999997</v>
+      </c>
+      <c r="F9">
+        <f>Grover!P14</f>
+        <v>24.42079</v>
+      </c>
+      <c r="G9" t="e">
+        <f>Grover!Q14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" t="e">
+        <f>Grover!R14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" t="e">
+        <f>Grover!S14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" t="e">
+        <f>Grover!T14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" t="e">
+        <f>Grover!U14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" t="e">
+        <f>Grover!V14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" t="e">
+        <f>Grover!W14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" t="e">
+        <f>Grover!X14</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="2:14">
@@ -14075,8 +14564,44 @@
         <v>7</v>
       </c>
       <c r="E10">
-        <f>Grover!K15</f>
+        <f>Grover!O15</f>
         <v>71.440999999999988</v>
+      </c>
+      <c r="F10">
+        <f>Grover!P15</f>
+        <v>81.504149999999996</v>
+      </c>
+      <c r="G10" t="e">
+        <f>Grover!Q15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" t="e">
+        <f>Grover!R15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" t="e">
+        <f>Grover!S15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" t="e">
+        <f>Grover!T15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" t="e">
+        <f>Grover!U15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" t="e">
+        <f>Grover!V15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" t="e">
+        <f>Grover!W15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10" t="e">
+        <f>Grover!X15</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="2:14">
@@ -14084,8 +14609,44 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <f>Grover!K16</f>
+        <f>Grover!O16</f>
         <v>255.8458</v>
+      </c>
+      <c r="F11">
+        <f>Grover!P16</f>
+        <v>294.99980000000005</v>
+      </c>
+      <c r="G11" t="e">
+        <f>Grover!Q16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H11" t="e">
+        <f>Grover!R16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" t="e">
+        <f>Grover!S16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" t="e">
+        <f>Grover!T16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" t="e">
+        <f>Grover!U16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" t="e">
+        <f>Grover!V16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" t="e">
+        <f>Grover!W16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N11" t="e">
+        <f>Grover!X16</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="2:14">
@@ -14093,8 +14654,44 @@
         <v>9</v>
       </c>
       <c r="E12">
-        <f>Grover!K17</f>
+        <f>Grover!O17</f>
         <v>952.84049999999991</v>
+      </c>
+      <c r="F12">
+        <f>Grover!P17</f>
+        <v>1083.7930000000001</v>
+      </c>
+      <c r="G12" t="e">
+        <f>Grover!Q17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" t="e">
+        <f>Grover!R17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" t="e">
+        <f>Grover!S17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" t="e">
+        <f>Grover!T17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" t="e">
+        <f>Grover!U17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" t="e">
+        <f>Grover!V17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" t="e">
+        <f>Grover!W17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12" t="e">
+        <f>Grover!X17</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="2:14">
@@ -14102,13 +14699,53 @@
         <v>10</v>
       </c>
       <c r="E13">
-        <f>Grover!K18</f>
+        <f>Grover!O18</f>
         <v>3514.4639999999999</v>
+      </c>
+      <c r="F13">
+        <f>Grover!P18</f>
+        <v>3796.5889999999999</v>
+      </c>
+      <c r="G13">
+        <f>Grover!Q18</f>
+        <v>5412.3429999999998</v>
+      </c>
+      <c r="H13" t="e">
+        <f>Grover!R18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" t="e">
+        <f>Grover!S18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" t="e">
+        <f>Grover!T18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" t="e">
+        <f>Grover!U18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" t="e">
+        <f>Grover!V18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" t="e">
+        <f>Grover!W18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13" t="e">
+        <f>Grover!X18</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="2:14">
       <c r="B14">
         <v>11</v>
+      </c>
+      <c r="F14">
+        <f>Grover!P19</f>
+        <v>12974.460000000001</v>
       </c>
     </row>
     <row r="15" spans="2:14">
@@ -14144,10 +14781,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC998C5-C8A9-F848-83B4-3EC7458A1FFA}">
-  <dimension ref="A2:N167"/>
+  <dimension ref="A2:X167"/>
   <sheetViews>
-    <sheetView zoomScale="69" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="74" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -14156,883 +14793,1847 @@
     <col min="2" max="2" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:24">
       <c r="C2" s="9"/>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
       <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:24">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="C4">
         <v>9.425E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="D4">
+        <v>0.26395800000000003</v>
+      </c>
+      <c r="E4">
+        <v>0.88129199999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="5"/>
       <c r="C5">
         <v>9.3542E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="D5">
+        <v>0.28833399999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.73033400000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="5"/>
       <c r="C6">
         <v>9.5500000000000002E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="D6">
+        <v>0.25916600000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.68320800000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="5"/>
       <c r="C7">
         <v>9.3415999999999999E-2</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" t="s">
+      <c r="D7">
+        <v>0.26274999999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="O7" s="9"/>
+      <c r="P7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M7" t="s">
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="5"/>
       <c r="C8">
         <v>9.5250000000000001E-2</v>
       </c>
-      <c r="K8" t="s">
+      <c r="D8">
+        <v>0.26533400000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.83033299999999999</v>
+      </c>
+      <c r="O8" t="s">
         <v>3</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" t="s">
+        <v>23</v>
+      </c>
+      <c r="V8" t="s">
+        <v>24</v>
+      </c>
+      <c r="W8" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:24">
       <c r="A9" s="5"/>
       <c r="C9">
         <v>9.5792000000000002E-2</v>
       </c>
-      <c r="J9">
+      <c r="D9">
+        <v>0.28295900000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.68587500000000001</v>
+      </c>
+      <c r="N9">
         <v>1</v>
       </c>
-      <c r="K9">
+      <c r="O9">
         <f>AVERAGE(C4:C13)</f>
         <v>9.5520899999999992E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="P9">
+        <f t="shared" ref="P9:X9" si="0">AVERAGE(D4:D13)</f>
+        <v>0.2667544</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>0.71252100000000007</v>
+      </c>
+      <c r="R9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="5"/>
       <c r="C10">
         <v>9.425E-2</v>
       </c>
-      <c r="J10">
+      <c r="D10">
+        <v>0.26866699999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.66120900000000005</v>
+      </c>
+      <c r="N10">
         <v>2</v>
       </c>
-      <c r="K10">
+      <c r="O10">
         <f>AVERAGE(C15:C24)</f>
         <v>0.19002520000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="P10">
+        <f t="shared" ref="P10:X10" si="1">AVERAGE(D15:D24)</f>
+        <v>0.37163760000000001</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>0.93471650000000006</v>
+      </c>
+      <c r="R10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="5"/>
       <c r="C11">
         <v>0.10070800000000001</v>
       </c>
-      <c r="J11">
+      <c r="D11">
+        <v>0.25024999999999997</v>
+      </c>
+      <c r="E11">
+        <v>0.67158399999999996</v>
+      </c>
+      <c r="N11">
         <v>3</v>
       </c>
-      <c r="K11">
+      <c r="O11">
         <f>AVERAGE(C26:C35)</f>
         <v>0.58091669999999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="P11">
+        <f t="shared" ref="P11:X11" si="2">AVERAGE(D26:D35)</f>
+        <v>0.92473320000000003</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>1.8841170000000003</v>
+      </c>
+      <c r="R11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="5"/>
       <c r="C12">
         <v>9.5792000000000002E-2</v>
       </c>
-      <c r="J12">
+      <c r="D12">
+        <v>0.26316699999999998</v>
+      </c>
+      <c r="E12">
+        <v>0.67695799999999995</v>
+      </c>
+      <c r="N12">
         <v>4</v>
       </c>
-      <c r="K12">
+      <c r="O12">
         <f>AVERAGE(C37:C46)</f>
         <v>1.912372</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="P12">
+        <f t="shared" ref="P12:X12" si="3">AVERAGE(D37:D46)</f>
+        <v>2.5134259999999999</v>
+      </c>
+      <c r="Q12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="5"/>
       <c r="C13">
         <v>9.6709000000000003E-2</v>
       </c>
-      <c r="J13">
+      <c r="D13">
+        <v>0.262959</v>
+      </c>
+      <c r="E13">
+        <v>0.63775000000000004</v>
+      </c>
+      <c r="N13">
         <v>5</v>
       </c>
-      <c r="K13">
+      <c r="O13">
         <f>AVERAGE(C48:C57)</f>
         <v>5.8933210000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="J14">
+      <c r="P13">
+        <f t="shared" ref="P13:X13" si="4">AVERAGE(D48:D57)</f>
+        <v>6.9477689999999992</v>
+      </c>
+      <c r="Q13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="N14">
         <v>6</v>
       </c>
-      <c r="K14">
+      <c r="O14">
         <f>AVERAGE(C59:C68)</f>
         <v>21.192929999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="P14">
+        <f t="shared" ref="P14:X14" si="5">AVERAGE(D59:D68)</f>
+        <v>24.42079</v>
+      </c>
+      <c r="Q14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="5">
         <v>2</v>
       </c>
       <c r="C15">
         <v>0.18962499999999999</v>
       </c>
-      <c r="J15">
+      <c r="D15">
+        <v>0.37670900000000002</v>
+      </c>
+      <c r="E15">
+        <v>0.87762499999999999</v>
+      </c>
+      <c r="N15">
         <v>7</v>
       </c>
-      <c r="K15">
+      <c r="O15">
         <f>AVERAGE(C70:C79)</f>
         <v>71.440999999999988</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="P15">
+        <f t="shared" ref="P15:X15" si="6">AVERAGE(D70:D79)</f>
+        <v>81.504149999999996</v>
+      </c>
+      <c r="Q15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="5"/>
       <c r="C16">
         <v>0.19029199999999999</v>
       </c>
-      <c r="J16">
+      <c r="D16">
+        <v>0.37920799999999999</v>
+      </c>
+      <c r="E16">
+        <v>1.0077100000000001</v>
+      </c>
+      <c r="N16">
         <v>8</v>
       </c>
-      <c r="K16">
+      <c r="O16">
         <f>AVERAGE(C81:C90)</f>
         <v>255.8458</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="P16">
+        <f t="shared" ref="P16:X16" si="7">AVERAGE(D81:D90)</f>
+        <v>294.99980000000005</v>
+      </c>
+      <c r="Q16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="5"/>
       <c r="C17">
         <v>0.19079199999999999</v>
       </c>
-      <c r="J17">
+      <c r="D17">
+        <v>0.39087499999999997</v>
+      </c>
+      <c r="E17">
+        <v>0.83854200000000001</v>
+      </c>
+      <c r="N17">
         <v>9</v>
       </c>
-      <c r="K17">
+      <c r="O17">
         <f>AVERAGE(C92:C101)</f>
         <v>952.84049999999991</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="P17">
+        <f t="shared" ref="P17:X17" si="8">AVERAGE(D92:D101)</f>
+        <v>1083.7930000000001</v>
+      </c>
+      <c r="Q17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="5"/>
       <c r="C18">
         <v>0.19212499999999999</v>
       </c>
-      <c r="J18">
+      <c r="D18">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="E18">
+        <v>0.88087499999999996</v>
+      </c>
+      <c r="N18">
         <v>10</v>
       </c>
-      <c r="K18">
+      <c r="O18">
         <f>AVERAGE(C103:C112)</f>
         <v>3514.4639999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="P18">
+        <f t="shared" ref="P18:X18" si="9">AVERAGE(D103:D112)</f>
+        <v>3796.5889999999999</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="9"/>
+        <v>5412.3429999999998</v>
+      </c>
+      <c r="R18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="5"/>
       <c r="C19">
         <v>0.19162499999999999</v>
       </c>
-      <c r="J19">
+      <c r="D19">
+        <v>0.36887500000000001</v>
+      </c>
+      <c r="E19">
+        <v>1.0405800000000001</v>
+      </c>
+      <c r="N19">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="P19">
+        <f>AVERAGE(D114:D123)</f>
+        <v>12974.460000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="5"/>
       <c r="C20">
         <v>0.18937499999999999</v>
       </c>
-      <c r="J20">
+      <c r="D20">
+        <v>0.37237500000000001</v>
+      </c>
+      <c r="E20">
+        <v>0.99191700000000005</v>
+      </c>
+      <c r="N20">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:24">
       <c r="A21" s="5"/>
       <c r="C21">
         <v>0.18754199999999999</v>
       </c>
-      <c r="J21">
+      <c r="D21">
+        <v>0.40570800000000001</v>
+      </c>
+      <c r="E21">
+        <v>0.89516600000000002</v>
+      </c>
+      <c r="N21">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:24">
       <c r="A22" s="5"/>
       <c r="C22">
         <v>0.19104199999999999</v>
       </c>
-      <c r="J22">
+      <c r="D22">
+        <v>0.369917</v>
+      </c>
+      <c r="E22">
+        <v>1.0765</v>
+      </c>
+      <c r="N22">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:24">
       <c r="A23" s="5"/>
       <c r="C23">
         <v>0.18995899999999999</v>
       </c>
-      <c r="J23">
+      <c r="D23">
+        <v>0.31779200000000002</v>
+      </c>
+      <c r="E23">
+        <v>0.86312500000000003</v>
+      </c>
+      <c r="N23">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:24">
       <c r="A24" s="5"/>
       <c r="C24">
         <v>0.18787499999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="D24">
+        <v>0.34441699999999997</v>
+      </c>
+      <c r="E24">
+        <v>0.87512500000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" s="10">
         <v>3</v>
       </c>
       <c r="C26">
         <v>0.60170800000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="D26">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="E26">
+        <v>1.8057099999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="10"/>
       <c r="C27">
         <v>0.57891700000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="D27">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="E27">
+        <v>1.9319200000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" s="10"/>
       <c r="C28">
         <v>0.58050000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="D28">
+        <v>0.89958300000000002</v>
+      </c>
+      <c r="E28">
+        <v>1.841</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="10"/>
       <c r="C29">
         <v>0.577125</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="D29">
+        <v>0.97208300000000003</v>
+      </c>
+      <c r="E29">
+        <v>2.0415399999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" s="10"/>
       <c r="C30">
         <v>0.57404200000000005</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="D30">
+        <v>0.90562500000000001</v>
+      </c>
+      <c r="E30">
+        <v>1.8252900000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" s="10"/>
       <c r="C31">
         <v>0.58179099999999995</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="D31">
+        <v>0.87920799999999999</v>
+      </c>
+      <c r="E31">
+        <v>1.8238300000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" s="10"/>
       <c r="C32">
         <v>0.57862499999999994</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <v>0.96845800000000004</v>
+      </c>
+      <c r="E32">
+        <v>1.8905000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="10"/>
       <c r="C33">
         <v>0.57716699999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <v>0.98887499999999995</v>
+      </c>
+      <c r="E33">
+        <v>2.0384600000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="10"/>
       <c r="C34">
         <v>0.58204199999999995</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <v>0.94325000000000003</v>
+      </c>
+      <c r="E34">
+        <v>1.73692</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="10"/>
       <c r="C35">
         <v>0.57725000000000004</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D35">
+        <v>0.87575000000000003</v>
+      </c>
+      <c r="E35">
+        <v>1.9059999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="10">
         <v>4</v>
       </c>
       <c r="C37">
         <v>1.9226300000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>2.4871699999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="10"/>
       <c r="C38">
         <v>1.89367</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>2.52325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="10"/>
       <c r="C39">
         <v>1.8926700000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <v>2.4792900000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="10"/>
       <c r="C40">
         <v>1.9107099999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <v>2.55192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="10"/>
       <c r="C41">
         <v>1.9130799999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41">
+        <v>2.47092</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="10"/>
       <c r="C42">
         <v>1.9139200000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>2.4998300000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="10"/>
       <c r="C43">
         <v>1.90879</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43">
+        <v>2.5004200000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="10"/>
       <c r="C44">
         <v>1.9394199999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44">
+        <v>2.5880800000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="10"/>
       <c r="C45">
         <v>1.91571</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>2.5337100000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="10"/>
       <c r="C46">
         <v>1.9131199999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D46">
+        <v>2.4996700000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="10">
         <v>5</v>
       </c>
       <c r="C48">
         <v>5.7973699999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48">
+        <v>6.7568299999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="10"/>
       <c r="C49">
         <v>6.00617</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49">
+        <v>6.7305400000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="10"/>
       <c r="C50">
         <v>5.84938</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50">
+        <v>6.95512</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="10"/>
       <c r="C51">
         <v>5.8506200000000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>7.0615399999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="10"/>
       <c r="C52">
         <v>5.8706300000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>6.9238299999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="10"/>
       <c r="C53">
         <v>5.9908299999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53">
+        <v>6.9710400000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="10"/>
       <c r="C54">
         <v>5.98292</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54">
+        <v>7.0242500000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="10"/>
       <c r="C55">
         <v>5.8617100000000004</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55">
+        <v>7.0073299999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="10"/>
       <c r="C56">
         <v>5.8208299999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56">
+        <v>6.9009200000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="10"/>
       <c r="C57">
         <v>5.9027500000000002</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D57">
+        <v>7.1462899999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="10">
         <v>6</v>
       </c>
       <c r="C59">
         <v>20.930900000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59">
+        <v>23.812200000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="10"/>
       <c r="C60">
         <v>21.325700000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60">
+        <v>25.470099999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="10"/>
       <c r="C61">
         <v>21.177499999999998</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61">
+        <v>24.176600000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="10"/>
       <c r="C62">
         <v>21.048500000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62">
+        <v>24.338799999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="10"/>
       <c r="C63">
         <v>21.250900000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63">
+        <v>25.046299999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="10"/>
       <c r="C64">
         <v>21.174600000000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64">
+        <v>24.228899999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="10"/>
       <c r="C65">
         <v>21.024899999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65">
+        <v>24.215699999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="10"/>
       <c r="C66">
         <v>21.8749</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66">
+        <v>24.732500000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="10"/>
       <c r="C67">
         <v>21.0931</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67">
+        <v>24.288799999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="10"/>
       <c r="C68">
         <v>21.028300000000002</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D68">
+        <v>23.898</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="10">
         <v>7</v>
       </c>
       <c r="C70">
         <v>70.722800000000007</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70">
+        <v>81.439300000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="10"/>
       <c r="C71">
         <v>73.800700000000006</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71">
+        <v>81.032700000000006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="10"/>
       <c r="C72">
         <v>70.402699999999996</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72">
+        <v>81.531499999999994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="10"/>
       <c r="C73">
         <v>73.364699999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73">
+        <v>82.042299999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="10"/>
       <c r="C74">
         <v>70.756399999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74">
+        <v>81.915300000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="10"/>
       <c r="C75">
         <v>73.168499999999995</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75">
+        <v>81.550700000000006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="10"/>
       <c r="C76">
         <v>70.447699999999998</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>81.598200000000006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="10"/>
       <c r="C77">
         <v>70.328500000000005</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77">
+        <v>81.564999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="10"/>
       <c r="C78">
         <v>70.900999999999996</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78">
+        <v>81.596199999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="10"/>
       <c r="C79">
         <v>70.516999999999996</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D79">
+        <v>80.770300000000006</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="10">
         <v>8</v>
       </c>
       <c r="C81">
         <v>252.244</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81">
+        <v>293.20499999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="10"/>
       <c r="C82">
         <v>261.36599999999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82">
+        <v>295.31400000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="10"/>
       <c r="C83">
         <v>255.26900000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83">
+        <v>292.30599999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="10"/>
       <c r="C84">
         <v>254.1</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84">
+        <v>295.08100000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="10"/>
       <c r="C85">
         <v>252.60599999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85">
+        <v>296.84399999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="10"/>
       <c r="C86">
         <v>257.13099999999997</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86">
+        <v>295.40100000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="10"/>
       <c r="C87">
         <v>254.946</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87">
+        <v>295.70699999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="10"/>
       <c r="C88">
         <v>259.13200000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88">
+        <v>295.66800000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="10"/>
       <c r="C89">
         <v>256.79500000000002</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89">
+        <v>295.95999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="10"/>
       <c r="C90">
         <v>254.869</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D90">
+        <v>294.512</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="10">
         <v>9</v>
       </c>
       <c r="C92">
         <v>934.53399999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92">
+        <v>1075.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="10"/>
       <c r="C93">
         <v>1000.09</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93">
+        <v>1087.79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="10"/>
       <c r="C94">
         <v>944.65700000000004</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94">
+        <v>1088.28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="10"/>
       <c r="C95">
         <v>938.23599999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95">
+        <v>1087.1300000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="10"/>
       <c r="C96">
         <v>939.19399999999996</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>1084.95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="10"/>
       <c r="C97">
         <v>956.1</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97">
+        <v>1086.92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="10"/>
       <c r="C98">
         <v>985.55799999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98">
+        <v>1082.3399999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="10"/>
       <c r="C99">
         <v>934.98699999999997</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99">
+        <v>1075.49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="10"/>
       <c r="C100">
         <v>941.85299999999995</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>1081.51</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="10"/>
       <c r="C101">
         <v>953.19600000000003</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D101">
+        <v>1088.32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="10">
         <v>10</v>
       </c>
       <c r="C103">
         <v>3528.75</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>3828.12</v>
+      </c>
+      <c r="E103">
+        <v>5376.74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="10"/>
       <c r="C104">
         <v>3509.6</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104">
+        <v>3772.63</v>
+      </c>
+      <c r="E104">
+        <v>5491.41</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="10"/>
       <c r="C105">
         <v>3468.14</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105">
+        <v>3831.18</v>
+      </c>
+      <c r="E105">
+        <v>5374.47</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="10"/>
       <c r="C106">
         <v>3542.46</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106">
+        <v>3766.59</v>
+      </c>
+      <c r="E106">
+        <v>5435.35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" s="10"/>
       <c r="C107">
         <v>3501.31</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107">
+        <v>3843.76</v>
+      </c>
+      <c r="E107">
+        <v>5383.1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="10"/>
       <c r="C108">
         <v>3506.74</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108">
+        <v>3810.65</v>
+      </c>
+      <c r="E108">
+        <v>5394.07</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="10"/>
       <c r="C109">
         <v>3510.01</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109">
+        <v>3783.52</v>
+      </c>
+      <c r="E109">
+        <v>5432.58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" s="10"/>
       <c r="C110">
         <v>3538.35</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110">
+        <v>3755.5</v>
+      </c>
+      <c r="E110">
+        <v>5405.23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="10"/>
       <c r="C111">
         <v>3527.89</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111">
+        <v>3788.29</v>
+      </c>
+      <c r="E111">
+        <v>5441.76</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" s="10"/>
       <c r="C112">
         <v>3511.39</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="D112">
+        <v>3785.65</v>
+      </c>
+      <c r="E112">
+        <v>5388.72</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="10">
         <v>11</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="C114">
+        <v>12312.1</v>
+      </c>
+      <c r="D114">
+        <v>12986.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="10"/>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="C115">
+        <v>12320.4</v>
+      </c>
+      <c r="D115">
+        <v>13026</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="10"/>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="C116">
+        <v>12410.9</v>
+      </c>
+      <c r="D116">
+        <v>13027.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="10"/>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="C117">
+        <v>12405.4</v>
+      </c>
+      <c r="D117">
+        <v>13066.3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="10"/>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="C118">
+        <v>12344.7</v>
+      </c>
+      <c r="D118">
+        <v>12880.4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="10"/>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="C119">
+        <v>12328.3</v>
+      </c>
+      <c r="D119">
+        <v>12957.2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="10"/>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="C120">
+        <v>12402.1</v>
+      </c>
+      <c r="D120">
+        <v>12781.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="10"/>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="C121">
+        <v>12342.6</v>
+      </c>
+      <c r="D121">
+        <v>12944</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="10"/>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="C122">
+        <v>12296.5</v>
+      </c>
+      <c r="D122">
+        <v>12995.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="10"/>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="C123">
+        <v>12317.8</v>
+      </c>
+      <c r="D123">
+        <v>13079.8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="C125">
+        <v>42174.6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="10"/>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="C126">
+        <v>42341.7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="10"/>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="C127">
+        <v>42375.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="10"/>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="C128">
+        <v>42193.7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="10"/>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="C129">
+        <v>42267.199999999997</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="10"/>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="C130">
+        <v>42251.6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="10"/>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="C131">
+        <v>42400.6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="10"/>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="C132">
+        <v>42179.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="10"/>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="C133">
+        <v>42293.2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="10"/>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="C134">
+        <v>42367.1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="10">
         <v>13</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="C136">
+        <v>227692</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="10"/>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="C137">
+        <v>191951</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="10"/>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="C138">
+        <v>188072</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="10"/>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="C139">
+        <v>185452</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="10"/>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="C140">
+        <v>205561</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="10"/>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="C141">
+        <v>206556</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="10"/>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="C142">
+        <v>192463</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="10"/>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="C143">
+        <v>191499</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="10"/>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="C144">
+        <v>196022</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="10"/>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="C145">
+        <v>187940</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" s="10">
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:3">
       <c r="A148" s="10"/>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:3">
       <c r="A149" s="10"/>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:3">
       <c r="A150" s="10"/>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:3">
       <c r="A151" s="10"/>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:3">
       <c r="A152" s="10"/>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:3">
       <c r="A153" s="10"/>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:3">
       <c r="A154" s="10"/>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:3">
       <c r="A155" s="10"/>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:3">
       <c r="A156" s="10"/>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:3">
       <c r="A158" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:3">
       <c r="A159" s="10"/>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:3">
       <c r="A160" s="10"/>
     </row>
     <row r="161" spans="1:1">
@@ -15057,10 +16658,14 @@
       <c r="A167" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="19">
+    <mergeCell ref="T7:W7"/>
     <mergeCell ref="A136:A145"/>
     <mergeCell ref="A147:A156"/>
     <mergeCell ref="A158:A167"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="P7:S7"/>
     <mergeCell ref="A70:A79"/>
     <mergeCell ref="A81:A90"/>
     <mergeCell ref="A92:A101"/>

--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F30580-7C48-8B4E-901A-24C630E549B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E8FBD9-C7B7-8247-98CC-CB4CB5FD923B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="3500" windowWidth="17520" windowHeight="13300" firstSheet="2" activeTab="8" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
@@ -260,7 +260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,6 +285,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14783,8 +14786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC998C5-C8A9-F848-83B4-3EC7458A1FFA}">
   <dimension ref="A2:X167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="74" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="74" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -16596,6 +16599,9 @@
     <row r="147" spans="1:3">
       <c r="A147" s="10">
         <v>14</v>
+      </c>
+      <c r="C147" s="11">
+        <v>10650100</v>
       </c>
     </row>
     <row r="148" spans="1:3">

--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44564B0-0693-4149-881D-ABA5C31F4ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D947C6-3D4D-EF4E-9D49-0BA51146911A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="3500" windowWidth="17520" windowHeight="13300" firstSheet="2" activeTab="8" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
+    <workbookView xWindow="-720" yWindow="2800" windowWidth="17520" windowHeight="13300" firstSheet="2" activeTab="7" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
   <sheets>
     <sheet name="result of all" sheetId="1" r:id="rId1"/>
@@ -2104,6 +2104,18 @@
                 <c:pt idx="9">
                   <c:v>3514.4639999999999</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>12348.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42284.479999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>197320.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10650100</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2200,37 +2212,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.2667544</c:v>
+                  <c:v>0.28493740000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37163760000000001</c:v>
+                  <c:v>0.36013760000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92473320000000003</c:v>
+                  <c:v>0.77723730000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5134259999999999</c:v>
+                  <c:v>2.2429819999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9477689999999992</c:v>
+                  <c:v>6.6110619999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.42079</c:v>
+                  <c:v>23.206330000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.504149999999996</c:v>
+                  <c:v>75.098709999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>294.99980000000005</c:v>
+                  <c:v>269.17150000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1083.7930000000001</c:v>
+                  <c:v>998.50750000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3796.5889999999999</c:v>
+                  <c:v>3540.2040000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12974.460000000001</c:v>
+                  <c:v>12184.579999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42650.590000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>169011.20000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4999080</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2328,34 +2349,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.71252100000000007</c:v>
+                  <c:v>0.71172900000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93471650000000006</c:v>
+                  <c:v>0.90182080000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8841170000000003</c:v>
+                  <c:v>1.416644</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.7621419999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7.1011539999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>23.492110000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>75.588780000000014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>269.22890000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>996.26139999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5412.3429999999998</c:v>
+                  <c:v>3619.8510000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12504.48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43991.969999999987</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>176822.8</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>8518320</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2453,34 +2486,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9.5658400000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.83670399999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.361637</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.9875429999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7.0925400000000014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>23.631219999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>75.483909999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>268.94979999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>980.17579999999975</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3550.8520000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12347.499999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43053.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>169927.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2578,34 +2623,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.4031751999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.56017919999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.0774458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.6228000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7.1430120000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>23.592189999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>76.042909999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>272.83370000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>995.10349999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3619.9290000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12625.920000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43958.32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>167764.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4832400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4609,16 +4666,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>994833</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>436033</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>146049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>563034</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>239182</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>213782</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14224,8 +14281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819EF501-8FE0-3948-900D-D457862F7EC9}">
   <dimension ref="B2:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="F31" zoomScale="113" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="F24" zoomScale="66" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -14298,19 +14355,19 @@
       </c>
       <c r="F4">
         <f>Grover!P9</f>
-        <v>0.2667544</v>
+        <v>0.28493740000000001</v>
       </c>
       <c r="G4">
         <f>Grover!Q9</f>
-        <v>0.71252100000000007</v>
-      </c>
-      <c r="H4" t="e">
+        <v>0.71172900000000006</v>
+      </c>
+      <c r="H4">
         <f>Grover!R9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" t="e">
+        <v>9.5658400000000005E-2</v>
+      </c>
+      <c r="I4">
         <f>Grover!S9</f>
-        <v>#DIV/0!</v>
+        <v>0.4031751999999999</v>
       </c>
       <c r="J4" t="e">
         <f>Grover!T9</f>
@@ -14343,19 +14400,19 @@
       </c>
       <c r="F5">
         <f>Grover!P10</f>
-        <v>0.37163760000000001</v>
+        <v>0.36013760000000006</v>
       </c>
       <c r="G5">
         <f>Grover!Q10</f>
-        <v>0.93471650000000006</v>
-      </c>
-      <c r="H5" t="e">
+        <v>0.90182080000000009</v>
+      </c>
+      <c r="H5">
         <f>Grover!R10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" t="e">
+        <v>0.83670399999999989</v>
+      </c>
+      <c r="I5">
         <f>Grover!S10</f>
-        <v>#DIV/0!</v>
+        <v>0.56017919999999999</v>
       </c>
       <c r="J5" t="e">
         <f>Grover!T10</f>
@@ -14388,19 +14445,19 @@
       </c>
       <c r="F6">
         <f>Grover!P11</f>
-        <v>0.92473320000000003</v>
+        <v>0.77723730000000002</v>
       </c>
       <c r="G6">
         <f>Grover!Q11</f>
-        <v>1.8841170000000003</v>
-      </c>
-      <c r="H6" t="e">
+        <v>1.416644</v>
+      </c>
+      <c r="H6">
         <f>Grover!R11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" t="e">
+        <v>1.361637</v>
+      </c>
+      <c r="I6">
         <f>Grover!S11</f>
-        <v>#DIV/0!</v>
+        <v>1.0774458</v>
       </c>
       <c r="J6" t="e">
         <f>Grover!T11</f>
@@ -14433,19 +14490,19 @@
       </c>
       <c r="F7">
         <f>Grover!P12</f>
-        <v>2.5134259999999999</v>
-      </c>
-      <c r="G7" t="e">
+        <v>2.2429819999999996</v>
+      </c>
+      <c r="G7">
         <f>Grover!Q12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" t="e">
+        <v>2.7621419999999999</v>
+      </c>
+      <c r="H7">
         <f>Grover!R12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" t="e">
+        <v>2.9875429999999996</v>
+      </c>
+      <c r="I7">
         <f>Grover!S12</f>
-        <v>#DIV/0!</v>
+        <v>2.6228000000000002</v>
       </c>
       <c r="J7" t="e">
         <f>Grover!T12</f>
@@ -14478,19 +14535,19 @@
       </c>
       <c r="F8">
         <f>Grover!P13</f>
-        <v>6.9477689999999992</v>
-      </c>
-      <c r="G8" t="e">
+        <v>6.6110619999999995</v>
+      </c>
+      <c r="G8">
         <f>Grover!Q13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" t="e">
+        <v>7.1011539999999993</v>
+      </c>
+      <c r="H8">
         <f>Grover!R13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" t="e">
+        <v>7.0925400000000014</v>
+      </c>
+      <c r="I8">
         <f>Grover!S13</f>
-        <v>#DIV/0!</v>
+        <v>7.1430120000000006</v>
       </c>
       <c r="J8" t="e">
         <f>Grover!T13</f>
@@ -14523,19 +14580,19 @@
       </c>
       <c r="F9">
         <f>Grover!P14</f>
-        <v>24.42079</v>
-      </c>
-      <c r="G9" t="e">
+        <v>23.206330000000001</v>
+      </c>
+      <c r="G9">
         <f>Grover!Q14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" t="e">
+        <v>23.492110000000004</v>
+      </c>
+      <c r="H9">
         <f>Grover!R14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" t="e">
+        <v>23.631219999999995</v>
+      </c>
+      <c r="I9">
         <f>Grover!S14</f>
-        <v>#DIV/0!</v>
+        <v>23.592189999999999</v>
       </c>
       <c r="J9" t="e">
         <f>Grover!T14</f>
@@ -14568,19 +14625,19 @@
       </c>
       <c r="F10">
         <f>Grover!P15</f>
-        <v>81.504149999999996</v>
-      </c>
-      <c r="G10" t="e">
+        <v>75.098709999999997</v>
+      </c>
+      <c r="G10">
         <f>Grover!Q15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" t="e">
+        <v>75.588780000000014</v>
+      </c>
+      <c r="H10">
         <f>Grover!R15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" t="e">
+        <v>75.483909999999995</v>
+      </c>
+      <c r="I10">
         <f>Grover!S15</f>
-        <v>#DIV/0!</v>
+        <v>76.042909999999992</v>
       </c>
       <c r="J10" t="e">
         <f>Grover!T15</f>
@@ -14613,19 +14670,19 @@
       </c>
       <c r="F11">
         <f>Grover!P16</f>
-        <v>294.99980000000005</v>
-      </c>
-      <c r="G11" t="e">
+        <v>269.17150000000004</v>
+      </c>
+      <c r="G11">
         <f>Grover!Q16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" t="e">
+        <v>269.22890000000001</v>
+      </c>
+      <c r="H11">
         <f>Grover!R16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" t="e">
+        <v>268.94979999999998</v>
+      </c>
+      <c r="I11">
         <f>Grover!S16</f>
-        <v>#DIV/0!</v>
+        <v>272.83370000000002</v>
       </c>
       <c r="J11" t="e">
         <f>Grover!T16</f>
@@ -14658,19 +14715,19 @@
       </c>
       <c r="F12">
         <f>Grover!P17</f>
-        <v>1083.7930000000001</v>
-      </c>
-      <c r="G12" t="e">
+        <v>998.50750000000005</v>
+      </c>
+      <c r="G12">
         <f>Grover!Q17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" t="e">
+        <v>996.26139999999998</v>
+      </c>
+      <c r="H12">
         <f>Grover!R17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" t="e">
+        <v>980.17579999999975</v>
+      </c>
+      <c r="I12">
         <f>Grover!S17</f>
-        <v>#DIV/0!</v>
+        <v>995.10349999999994</v>
       </c>
       <c r="J12" t="e">
         <f>Grover!T17</f>
@@ -14703,19 +14760,19 @@
       </c>
       <c r="F13">
         <f>Grover!P18</f>
-        <v>3796.5889999999999</v>
+        <v>3540.2040000000002</v>
       </c>
       <c r="G13">
         <f>Grover!Q18</f>
-        <v>5412.3429999999998</v>
-      </c>
-      <c r="H13" t="e">
+        <v>3619.8510000000001</v>
+      </c>
+      <c r="H13">
         <f>Grover!R18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" t="e">
+        <v>3550.8520000000003</v>
+      </c>
+      <c r="I13">
         <f>Grover!S18</f>
-        <v>#DIV/0!</v>
+        <v>3619.9290000000001</v>
       </c>
       <c r="J13" t="e">
         <f>Grover!T18</f>
@@ -14742,27 +14799,103 @@
       <c r="B14">
         <v>11</v>
       </c>
+      <c r="E14">
+        <f>Grover!O19</f>
+        <v>12348.080000000002</v>
+      </c>
       <c r="F14">
         <f>Grover!P19</f>
-        <v>12974.460000000001</v>
+        <v>12184.579999999998</v>
+      </c>
+      <c r="G14">
+        <f>Grover!Q19</f>
+        <v>12504.48</v>
+      </c>
+      <c r="H14">
+        <f>Grover!R19</f>
+        <v>12347.499999999998</v>
+      </c>
+      <c r="I14">
+        <f>Grover!S19</f>
+        <v>12625.920000000002</v>
       </c>
     </row>
     <row r="15" spans="2:14">
       <c r="B15">
         <v>12</v>
       </c>
+      <c r="E15">
+        <f>Grover!O20</f>
+        <v>42284.479999999996</v>
+      </c>
+      <c r="F15">
+        <f>Grover!P20</f>
+        <v>42650.590000000004</v>
+      </c>
+      <c r="G15">
+        <f>Grover!Q20</f>
+        <v>43991.969999999987</v>
+      </c>
+      <c r="H15">
+        <f>Grover!R20</f>
+        <v>43053.2</v>
+      </c>
+      <c r="I15">
+        <f>Grover!S20</f>
+        <v>43958.32</v>
+      </c>
     </row>
     <row r="16" spans="2:14">
       <c r="B16">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
+      <c r="E16">
+        <f>Grover!O21</f>
+        <v>197320.8</v>
+      </c>
+      <c r="F16">
+        <f>Grover!P21</f>
+        <v>169011.20000000001</v>
+      </c>
+      <c r="G16">
+        <f>Grover!Q21</f>
+        <v>176822.8</v>
+      </c>
+      <c r="H16">
+        <f>Grover!R21</f>
+        <v>169927.4</v>
+      </c>
+      <c r="I16">
+        <f>Grover!S21</f>
+        <v>167764.1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="E17">
+        <f>Grover!O22</f>
+        <v>10650100</v>
+      </c>
+      <c r="F17">
+        <f>Grover!P22</f>
+        <v>4999080</v>
+      </c>
+      <c r="G17" s="5">
+        <f>Grover!Q22</f>
+        <v>8518320</v>
+      </c>
+      <c r="H17">
+        <f>Grover!R22</f>
+        <v>9000000</v>
+      </c>
+      <c r="I17">
+        <f>Grover!S22</f>
+        <v>4832400</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18">
         <v>15</v>
       </c>
@@ -14782,8 +14915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC998C5-C8A9-F848-83B4-3EC7458A1FFA}">
   <dimension ref="A2:X167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="74" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147"/>
+    <sheetView topLeftCell="A94" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -14849,10 +14982,16 @@
         <v>9.425E-2</v>
       </c>
       <c r="D4">
-        <v>0.26395800000000003</v>
+        <v>0.27958300000000003</v>
       </c>
       <c r="E4">
-        <v>0.88129199999999996</v>
+        <v>0.66758300000000004</v>
+      </c>
+      <c r="F4">
+        <v>9.6375000000000002E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.52229199999999998</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -14861,10 +15000,16 @@
         <v>9.3542E-2</v>
       </c>
       <c r="D5">
-        <v>0.28833399999999998</v>
+        <v>0.264791</v>
       </c>
       <c r="E5">
-        <v>0.73033400000000004</v>
+        <v>0.69095799999999996</v>
+      </c>
+      <c r="F5">
+        <v>9.5209000000000002E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.37545800000000001</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -14873,10 +15018,16 @@
         <v>9.5500000000000002E-2</v>
       </c>
       <c r="D6">
-        <v>0.25916600000000001</v>
+        <v>0.311417</v>
       </c>
       <c r="E6">
-        <v>0.68320800000000004</v>
+        <v>0.68554199999999998</v>
+      </c>
+      <c r="F6">
+        <v>9.6042000000000002E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.33504200000000001</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -14885,10 +15036,16 @@
         <v>9.3415999999999999E-2</v>
       </c>
       <c r="D7">
-        <v>0.26274999999999998</v>
+        <v>0.31866699999999998</v>
       </c>
       <c r="E7">
-        <v>0.66666700000000001</v>
+        <v>0.84779199999999999</v>
+      </c>
+      <c r="F7">
+        <v>9.5916000000000001E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.32770899999999997</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>4</v>
@@ -14909,10 +15066,16 @@
         <v>9.5250000000000001E-2</v>
       </c>
       <c r="D8">
-        <v>0.26533400000000001</v>
+        <v>0.26587499999999997</v>
       </c>
       <c r="E8">
-        <v>0.83033299999999999</v>
+        <v>0.63870800000000005</v>
+      </c>
+      <c r="F8">
+        <v>9.4E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.34629199999999999</v>
       </c>
       <c r="O8" t="s">
         <v>3</v>
@@ -14951,10 +15114,16 @@
         <v>9.5792000000000002E-2</v>
       </c>
       <c r="D9">
-        <v>0.28295900000000002</v>
+        <v>0.311583</v>
       </c>
       <c r="E9">
-        <v>0.68587500000000001</v>
+        <v>0.67729099999999998</v>
+      </c>
+      <c r="F9">
+        <v>9.6709000000000003E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.33324999999999999</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -14965,19 +15134,19 @@
       </c>
       <c r="P9">
         <f t="shared" ref="P9:X9" si="0">AVERAGE(D4:D13)</f>
-        <v>0.2667544</v>
+        <v>0.28493740000000001</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>0.71252100000000007</v>
-      </c>
-      <c r="R9" t="e">
+        <v>0.71172900000000006</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S9" t="e">
+        <v>9.5658400000000005E-2</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.4031751999999999</v>
       </c>
       <c r="T9" t="e">
         <f t="shared" si="0"/>
@@ -15006,10 +15175,16 @@
         <v>9.425E-2</v>
       </c>
       <c r="D10">
-        <v>0.26866699999999999</v>
+        <v>0.30387500000000001</v>
       </c>
       <c r="E10">
-        <v>0.66120900000000005</v>
+        <v>0.67254100000000006</v>
+      </c>
+      <c r="F10">
+        <v>9.5334000000000002E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.54829099999999997</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -15020,19 +15195,19 @@
       </c>
       <c r="P10">
         <f t="shared" ref="P10:X10" si="1">AVERAGE(D15:D24)</f>
-        <v>0.37163760000000001</v>
+        <v>0.36013760000000006</v>
       </c>
       <c r="Q10">
         <f t="shared" si="1"/>
-        <v>0.93471650000000006</v>
-      </c>
-      <c r="R10" t="e">
+        <v>0.90182080000000009</v>
+      </c>
+      <c r="R10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S10" t="e">
+        <v>0.83670399999999989</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.56017919999999999</v>
       </c>
       <c r="T10" t="e">
         <f t="shared" si="1"/>
@@ -15061,10 +15236,16 @@
         <v>0.10070800000000001</v>
       </c>
       <c r="D11">
-        <v>0.25024999999999997</v>
+        <v>0.26716699999999999</v>
       </c>
       <c r="E11">
-        <v>0.67158399999999996</v>
+        <v>0.800875</v>
+      </c>
+      <c r="F11">
+        <v>9.4791E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.317417</v>
       </c>
       <c r="N11">
         <v>3</v>
@@ -15075,19 +15256,19 @@
       </c>
       <c r="P11">
         <f t="shared" ref="P11:X11" si="2">AVERAGE(D26:D35)</f>
-        <v>0.92473320000000003</v>
+        <v>0.77723730000000002</v>
       </c>
       <c r="Q11">
         <f t="shared" si="2"/>
-        <v>1.8841170000000003</v>
-      </c>
-      <c r="R11" t="e">
+        <v>1.416644</v>
+      </c>
+      <c r="R11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S11" t="e">
+        <v>1.361637</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.0774458</v>
       </c>
       <c r="T11" t="e">
         <f t="shared" si="2"/>
@@ -15116,10 +15297,16 @@
         <v>9.5792000000000002E-2</v>
       </c>
       <c r="D12">
-        <v>0.26316699999999998</v>
+        <v>0.24329100000000001</v>
       </c>
       <c r="E12">
-        <v>0.67695799999999995</v>
+        <v>0.67483300000000002</v>
+      </c>
+      <c r="F12">
+        <v>9.6625000000000003E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.44054199999999999</v>
       </c>
       <c r="N12">
         <v>4</v>
@@ -15130,19 +15317,19 @@
       </c>
       <c r="P12">
         <f t="shared" ref="P12:X12" si="3">AVERAGE(D37:D46)</f>
-        <v>2.5134259999999999</v>
-      </c>
-      <c r="Q12" t="e">
+        <v>2.2429819999999996</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R12" t="e">
+        <v>2.7621419999999999</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S12" t="e">
+        <v>2.9875429999999996</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2.6228000000000002</v>
       </c>
       <c r="T12" t="e">
         <f t="shared" si="3"/>
@@ -15171,10 +15358,16 @@
         <v>9.6709000000000003E-2</v>
       </c>
       <c r="D13">
-        <v>0.262959</v>
+        <v>0.28312500000000002</v>
       </c>
       <c r="E13">
-        <v>0.63775000000000004</v>
+        <v>0.76116700000000004</v>
+      </c>
+      <c r="F13">
+        <v>9.5583000000000001E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.48545899999999997</v>
       </c>
       <c r="N13">
         <v>5</v>
@@ -15185,19 +15378,19 @@
       </c>
       <c r="P13">
         <f t="shared" ref="P13:X13" si="4">AVERAGE(D48:D57)</f>
-        <v>6.9477689999999992</v>
-      </c>
-      <c r="Q13" t="e">
+        <v>6.6110619999999995</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R13" t="e">
+        <v>7.1011539999999993</v>
+      </c>
+      <c r="R13">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S13" t="e">
+        <v>7.0925400000000014</v>
+      </c>
+      <c r="S13">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>7.1430120000000006</v>
       </c>
       <c r="T13" t="e">
         <f t="shared" si="4"/>
@@ -15230,19 +15423,19 @@
       </c>
       <c r="P14">
         <f t="shared" ref="P14:X14" si="5">AVERAGE(D59:D68)</f>
-        <v>24.42079</v>
-      </c>
-      <c r="Q14" t="e">
+        <v>23.206330000000001</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R14" t="e">
+        <v>23.492110000000004</v>
+      </c>
+      <c r="R14">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S14" t="e">
+        <v>23.631219999999995</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>23.592189999999999</v>
       </c>
       <c r="T14" t="e">
         <f t="shared" si="5"/>
@@ -15273,10 +15466,16 @@
         <v>0.18962499999999999</v>
       </c>
       <c r="D15">
-        <v>0.37670900000000002</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="E15">
-        <v>0.87762499999999999</v>
+        <v>0.91087499999999999</v>
+      </c>
+      <c r="F15">
+        <v>0.82374999999999998</v>
+      </c>
+      <c r="G15">
+        <v>0.54612499999999997</v>
       </c>
       <c r="N15">
         <v>7</v>
@@ -15287,19 +15486,19 @@
       </c>
       <c r="P15">
         <f t="shared" ref="P15:X15" si="6">AVERAGE(D70:D79)</f>
-        <v>81.504149999999996</v>
-      </c>
-      <c r="Q15" t="e">
+        <v>75.098709999999997</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R15" t="e">
+        <v>75.588780000000014</v>
+      </c>
+      <c r="R15">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S15" t="e">
+        <v>75.483909999999995</v>
+      </c>
+      <c r="S15">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>76.042909999999992</v>
       </c>
       <c r="T15" t="e">
         <f t="shared" si="6"/>
@@ -15328,10 +15527,16 @@
         <v>0.19029199999999999</v>
       </c>
       <c r="D16">
-        <v>0.37920799999999999</v>
+        <v>0.33083299999999999</v>
       </c>
       <c r="E16">
-        <v>1.0077100000000001</v>
+        <v>0.85475000000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.81812499999999999</v>
+      </c>
+      <c r="G16">
+        <v>0.48033399999999998</v>
       </c>
       <c r="N16">
         <v>8</v>
@@ -15342,19 +15547,19 @@
       </c>
       <c r="P16">
         <f t="shared" ref="P16:X16" si="7">AVERAGE(D81:D90)</f>
-        <v>294.99980000000005</v>
-      </c>
-      <c r="Q16" t="e">
+        <v>269.17150000000004</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R16" t="e">
+        <v>269.22890000000001</v>
+      </c>
+      <c r="R16">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S16" t="e">
+        <v>268.94979999999998</v>
+      </c>
+      <c r="S16">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>272.83370000000002</v>
       </c>
       <c r="T16" t="e">
         <f t="shared" si="7"/>
@@ -15383,10 +15588,16 @@
         <v>0.19079199999999999</v>
       </c>
       <c r="D17">
-        <v>0.39087499999999997</v>
+        <v>0.31820900000000002</v>
       </c>
       <c r="E17">
-        <v>0.83854200000000001</v>
+        <v>0.906084</v>
+      </c>
+      <c r="F17">
+        <v>0.79241700000000004</v>
+      </c>
+      <c r="G17">
+        <v>0.66158300000000003</v>
       </c>
       <c r="N17">
         <v>9</v>
@@ -15397,19 +15608,19 @@
       </c>
       <c r="P17">
         <f t="shared" ref="P17:X17" si="8">AVERAGE(D92:D101)</f>
-        <v>1083.7930000000001</v>
-      </c>
-      <c r="Q17" t="e">
+        <v>998.50750000000005</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R17" t="e">
+        <v>996.26139999999998</v>
+      </c>
+      <c r="R17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S17" t="e">
+        <v>980.17579999999975</v>
+      </c>
+      <c r="S17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>995.10349999999994</v>
       </c>
       <c r="T17" t="e">
         <f t="shared" si="8"/>
@@ -15438,10 +15649,16 @@
         <v>0.19212499999999999</v>
       </c>
       <c r="D18">
-        <v>0.39050000000000001</v>
+        <v>0.33191700000000002</v>
       </c>
       <c r="E18">
-        <v>0.88087499999999996</v>
+        <v>0.877166</v>
+      </c>
+      <c r="F18">
+        <v>0.827291</v>
+      </c>
+      <c r="G18">
+        <v>0.436334</v>
       </c>
       <c r="N18">
         <v>10</v>
@@ -15452,19 +15669,19 @@
       </c>
       <c r="P18">
         <f t="shared" ref="P18:X18" si="9">AVERAGE(D103:D112)</f>
-        <v>3796.5889999999999</v>
+        <v>3540.2040000000002</v>
       </c>
       <c r="Q18">
         <f t="shared" si="9"/>
-        <v>5412.3429999999998</v>
-      </c>
-      <c r="R18" t="e">
+        <v>3619.8510000000001</v>
+      </c>
+      <c r="R18">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S18" t="e">
+        <v>3550.8520000000003</v>
+      </c>
+      <c r="S18">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>3619.9290000000001</v>
       </c>
       <c r="T18" t="e">
         <f t="shared" si="9"/>
@@ -15493,17 +15710,59 @@
         <v>0.19162499999999999</v>
       </c>
       <c r="D19">
-        <v>0.36887500000000001</v>
+        <v>0.43562499999999998</v>
       </c>
       <c r="E19">
-        <v>1.0405800000000001</v>
+        <v>0.88766599999999996</v>
+      </c>
+      <c r="F19">
+        <v>0.83454099999999998</v>
+      </c>
+      <c r="G19">
+        <v>0.69554199999999999</v>
       </c>
       <c r="N19">
         <v>11</v>
       </c>
+      <c r="O19">
+        <f>AVERAGE(C114:C123)</f>
+        <v>12348.080000000002</v>
+      </c>
       <c r="P19">
-        <f>AVERAGE(D114:D123)</f>
-        <v>12974.460000000001</v>
+        <f t="shared" ref="P19:X19" si="10">AVERAGE(D114:D123)</f>
+        <v>12184.579999999998</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="10"/>
+        <v>12504.48</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="10"/>
+        <v>12347.499999999998</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="10"/>
+        <v>12625.920000000002</v>
+      </c>
+      <c r="T19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -15512,13 +15771,59 @@
         <v>0.18937499999999999</v>
       </c>
       <c r="D20">
-        <v>0.37237500000000001</v>
+        <v>0.46412500000000001</v>
       </c>
       <c r="E20">
-        <v>0.99191700000000005</v>
+        <v>0.904667</v>
+      </c>
+      <c r="F20">
+        <v>0.87291700000000005</v>
+      </c>
+      <c r="G20">
+        <v>0.51437500000000003</v>
       </c>
       <c r="N20">
         <v>12</v>
+      </c>
+      <c r="O20">
+        <f>AVERAGE(C125:C134)</f>
+        <v>42284.479999999996</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ref="P20:X20" si="11">AVERAGE(D125:D134)</f>
+        <v>42650.590000000004</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="11"/>
+        <v>43991.969999999987</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="11"/>
+        <v>43053.2</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="11"/>
+        <v>43958.32</v>
+      </c>
+      <c r="T20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -15527,13 +15832,59 @@
         <v>0.18754199999999999</v>
       </c>
       <c r="D21">
-        <v>0.40570800000000001</v>
+        <v>0.35070899999999999</v>
       </c>
       <c r="E21">
-        <v>0.89516600000000002</v>
+        <v>0.89683400000000002</v>
+      </c>
+      <c r="F21">
+        <v>0.85533300000000001</v>
+      </c>
+      <c r="G21">
+        <v>0.50070800000000004</v>
       </c>
       <c r="N21">
         <v>13</v>
+      </c>
+      <c r="O21">
+        <f>AVERAGE(C136:C145)</f>
+        <v>197320.8</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ref="P21:X21" si="12">AVERAGE(D136:D145)</f>
+        <v>169011.20000000001</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="12"/>
+        <v>176822.8</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="12"/>
+        <v>169927.4</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="12"/>
+        <v>167764.1</v>
+      </c>
+      <c r="T21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -15542,13 +15893,59 @@
         <v>0.19104199999999999</v>
       </c>
       <c r="D22">
-        <v>0.369917</v>
+        <v>0.332208</v>
       </c>
       <c r="E22">
-        <v>1.0765</v>
+        <v>0.91216600000000003</v>
+      </c>
+      <c r="F22">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="G22">
+        <v>0.65754100000000004</v>
       </c>
       <c r="N22">
         <v>14</v>
+      </c>
+      <c r="O22" s="5">
+        <f>AVERAGE(C147:C156)</f>
+        <v>10650100</v>
+      </c>
+      <c r="P22" s="5">
+        <f t="shared" ref="P22:X22" si="13">AVERAGE(D147:D156)</f>
+        <v>4999080</v>
+      </c>
+      <c r="Q22" s="5">
+        <f>AVERAGE(E147:E156)</f>
+        <v>8518320</v>
+      </c>
+      <c r="R22" s="5">
+        <f t="shared" si="13"/>
+        <v>9000000</v>
+      </c>
+      <c r="S22" s="5">
+        <f t="shared" si="13"/>
+        <v>4832400</v>
+      </c>
+      <c r="T22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -15557,10 +15954,16 @@
         <v>0.18995899999999999</v>
       </c>
       <c r="D23">
-        <v>0.31779200000000002</v>
+        <v>0.35629100000000002</v>
       </c>
       <c r="E23">
-        <v>0.86312500000000003</v>
+        <v>0.93412499999999998</v>
+      </c>
+      <c r="F23">
+        <v>0.82095799999999997</v>
+      </c>
+      <c r="G23">
+        <v>0.47779199999999999</v>
       </c>
       <c r="N23">
         <v>15</v>
@@ -15572,10 +15975,16 @@
         <v>0.18787499999999999</v>
       </c>
       <c r="D24">
-        <v>0.34441699999999997</v>
+        <v>0.35645900000000003</v>
       </c>
       <c r="E24">
-        <v>0.87512500000000004</v>
+        <v>0.93387500000000001</v>
+      </c>
+      <c r="F24">
+        <v>0.86070800000000003</v>
+      </c>
+      <c r="G24">
+        <v>0.63145799999999996</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -15586,10 +15995,16 @@
         <v>0.60170800000000002</v>
       </c>
       <c r="D26">
-        <v>0.93700000000000006</v>
+        <v>0.71058299999999996</v>
       </c>
       <c r="E26">
-        <v>1.8057099999999999</v>
+        <v>1.5922499999999999</v>
+      </c>
+      <c r="F26">
+        <v>1.337</v>
+      </c>
+      <c r="G26">
+        <v>0.98375000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -15598,10 +16013,16 @@
         <v>0.57891700000000001</v>
       </c>
       <c r="D27">
-        <v>0.87749999999999995</v>
+        <v>0.77279100000000001</v>
       </c>
       <c r="E27">
-        <v>1.9319200000000001</v>
+        <v>1.4081300000000001</v>
+      </c>
+      <c r="F27">
+        <v>1.32996</v>
+      </c>
+      <c r="G27">
+        <v>1.19808</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -15610,10 +16031,16 @@
         <v>0.58050000000000002</v>
       </c>
       <c r="D28">
-        <v>0.89958300000000002</v>
+        <v>0.784833</v>
       </c>
       <c r="E28">
-        <v>1.841</v>
+        <v>1.4108799999999999</v>
+      </c>
+      <c r="F28">
+        <v>1.33779</v>
+      </c>
+      <c r="G28">
+        <v>1.1755800000000001</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -15622,10 +16049,16 @@
         <v>0.577125</v>
       </c>
       <c r="D29">
-        <v>0.97208300000000003</v>
+        <v>0.74654100000000001</v>
       </c>
       <c r="E29">
-        <v>2.0415399999999999</v>
+        <v>1.45713</v>
+      </c>
+      <c r="F29">
+        <v>1.34979</v>
+      </c>
+      <c r="G29">
+        <v>1.1148800000000001</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -15634,10 +16067,16 @@
         <v>0.57404200000000005</v>
       </c>
       <c r="D30">
-        <v>0.90562500000000001</v>
+        <v>0.73624999999999996</v>
       </c>
       <c r="E30">
-        <v>1.8252900000000001</v>
+        <v>1.39679</v>
+      </c>
+      <c r="F30">
+        <v>1.3647499999999999</v>
+      </c>
+      <c r="G30">
+        <v>1.1315</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -15646,10 +16085,16 @@
         <v>0.58179099999999995</v>
       </c>
       <c r="D31">
-        <v>0.87920799999999999</v>
+        <v>0.68158399999999997</v>
       </c>
       <c r="E31">
-        <v>1.8238300000000001</v>
+        <v>1.38042</v>
+      </c>
+      <c r="F31">
+        <v>1.6358699999999999</v>
+      </c>
+      <c r="G31">
+        <v>1.08029</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -15658,49 +16103,73 @@
         <v>0.57862499999999994</v>
       </c>
       <c r="D32">
-        <v>0.96845800000000004</v>
+        <v>0.78437500000000004</v>
       </c>
       <c r="E32">
-        <v>1.8905000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>1.3896299999999999</v>
+      </c>
+      <c r="F32">
+        <v>1.3694999999999999</v>
+      </c>
+      <c r="G32">
+        <v>0.999583</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="10"/>
       <c r="C33">
         <v>0.57716699999999999</v>
       </c>
       <c r="D33">
-        <v>0.98887499999999995</v>
+        <v>0.85066600000000003</v>
       </c>
       <c r="E33">
-        <v>2.0384600000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>1.3813299999999999</v>
+      </c>
+      <c r="F33">
+        <v>1.34154</v>
+      </c>
+      <c r="G33">
+        <v>0.99312500000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="10"/>
       <c r="C34">
         <v>0.58204199999999995</v>
       </c>
       <c r="D34">
-        <v>0.94325000000000003</v>
+        <v>0.76049999999999995</v>
       </c>
       <c r="E34">
-        <v>1.73692</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>1.36971</v>
+      </c>
+      <c r="F34">
+        <v>1.27563</v>
+      </c>
+      <c r="G34">
+        <v>1.1096699999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="10"/>
       <c r="C35">
         <v>0.57725000000000004</v>
       </c>
       <c r="D35">
-        <v>0.87575000000000003</v>
+        <v>0.94425000000000003</v>
       </c>
       <c r="E35">
-        <v>1.9059999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>1.3801699999999999</v>
+      </c>
+      <c r="F35">
+        <v>1.27454</v>
+      </c>
+      <c r="G35">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="10">
         <v>4</v>
       </c>
@@ -15708,91 +16177,181 @@
         <v>1.9226300000000001</v>
       </c>
       <c r="D37">
-        <v>2.4871699999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>2.1792099999999999</v>
+      </c>
+      <c r="E37">
+        <v>2.72167</v>
+      </c>
+      <c r="F37">
+        <v>2.84754</v>
+      </c>
+      <c r="G37">
+        <v>2.81704</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="10"/>
       <c r="C38">
         <v>1.89367</v>
       </c>
       <c r="D38">
-        <v>2.52325</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>2.3982899999999998</v>
+      </c>
+      <c r="E38">
+        <v>2.9249200000000002</v>
+      </c>
+      <c r="F38">
+        <v>3.5376699999999999</v>
+      </c>
+      <c r="G38">
+        <v>2.6194999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="10"/>
       <c r="C39">
         <v>1.8926700000000001</v>
       </c>
       <c r="D39">
-        <v>2.4792900000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>2.19354</v>
+      </c>
+      <c r="E39">
+        <v>2.7380800000000001</v>
+      </c>
+      <c r="F39">
+        <v>3.17042</v>
+      </c>
+      <c r="G39">
+        <v>2.6017899999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="10"/>
       <c r="C40">
         <v>1.9107099999999999</v>
       </c>
       <c r="D40">
-        <v>2.55192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>2.1409600000000002</v>
+      </c>
+      <c r="E40">
+        <v>2.7737500000000002</v>
+      </c>
+      <c r="F40">
+        <v>2.8285399999999998</v>
+      </c>
+      <c r="G40">
+        <v>2.5451299999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="10"/>
       <c r="C41">
         <v>1.9130799999999999</v>
       </c>
       <c r="D41">
-        <v>2.47092</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>2.0999599999999998</v>
+      </c>
+      <c r="E41">
+        <v>2.6804999999999999</v>
+      </c>
+      <c r="F41">
+        <v>2.8284199999999999</v>
+      </c>
+      <c r="G41">
+        <v>2.548</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="10"/>
       <c r="C42">
         <v>1.9139200000000001</v>
       </c>
       <c r="D42">
-        <v>2.4998300000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>2.1326200000000002</v>
+      </c>
+      <c r="E42">
+        <v>2.81887</v>
+      </c>
+      <c r="F42">
+        <v>3.42171</v>
+      </c>
+      <c r="G42">
+        <v>2.9416699999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="10"/>
       <c r="C43">
         <v>1.90879</v>
       </c>
       <c r="D43">
-        <v>2.5004200000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>2.4165000000000001</v>
+      </c>
+      <c r="E43">
+        <v>2.6917499999999999</v>
+      </c>
+      <c r="F43">
+        <v>2.8096700000000001</v>
+      </c>
+      <c r="G43">
+        <v>2.3635799999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="10"/>
       <c r="C44">
         <v>1.9394199999999999</v>
       </c>
       <c r="D44">
-        <v>2.5880800000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>2.33487</v>
+      </c>
+      <c r="E44">
+        <v>2.7162099999999998</v>
+      </c>
+      <c r="F44">
+        <v>2.7865799999999998</v>
+      </c>
+      <c r="G44">
+        <v>2.5397500000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="10"/>
       <c r="C45">
         <v>1.91571</v>
       </c>
       <c r="D45">
-        <v>2.5337100000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>2.2882500000000001</v>
+      </c>
+      <c r="E45">
+        <v>2.7919200000000002</v>
+      </c>
+      <c r="F45">
+        <v>2.8088799999999998</v>
+      </c>
+      <c r="G45">
+        <v>2.4602900000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="10"/>
       <c r="C46">
         <v>1.9131199999999999</v>
       </c>
       <c r="D46">
-        <v>2.4996700000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>2.2456200000000002</v>
+      </c>
+      <c r="E46">
+        <v>2.7637499999999999</v>
+      </c>
+      <c r="F46">
+        <v>2.8359999999999999</v>
+      </c>
+      <c r="G46">
+        <v>2.7912499999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="10">
         <v>5</v>
       </c>
@@ -15800,91 +16359,181 @@
         <v>5.7973699999999999</v>
       </c>
       <c r="D48">
-        <v>6.7568299999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>6.6537499999999996</v>
+      </c>
+      <c r="E48">
+        <v>7.10154</v>
+      </c>
+      <c r="F48">
+        <v>7.0620799999999999</v>
+      </c>
+      <c r="G48">
+        <v>6.6750400000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="10"/>
       <c r="C49">
         <v>6.00617</v>
       </c>
       <c r="D49">
-        <v>6.7305400000000004</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>6.5745800000000001</v>
+      </c>
+      <c r="E49">
+        <v>7.1672900000000004</v>
+      </c>
+      <c r="F49">
+        <v>7.0574599999999998</v>
+      </c>
+      <c r="G49">
+        <v>7.0600399999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="10"/>
       <c r="C50">
         <v>5.84938</v>
       </c>
       <c r="D50">
-        <v>6.95512</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>6.6856200000000001</v>
+      </c>
+      <c r="E50">
+        <v>7.1344200000000004</v>
+      </c>
+      <c r="F50">
+        <v>7.1000399999999999</v>
+      </c>
+      <c r="G50">
+        <v>7.1762899999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="10"/>
       <c r="C51">
         <v>5.8506200000000002</v>
       </c>
       <c r="D51">
-        <v>7.0615399999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>6.4874599999999996</v>
+      </c>
+      <c r="E51">
+        <v>7.0513300000000001</v>
+      </c>
+      <c r="F51">
+        <v>7.04542</v>
+      </c>
+      <c r="G51">
+        <v>7.26417</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="10"/>
       <c r="C52">
         <v>5.8706300000000002</v>
       </c>
       <c r="D52">
-        <v>6.9238299999999997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>6.4993299999999996</v>
+      </c>
+      <c r="E52">
+        <v>7.2112100000000003</v>
+      </c>
+      <c r="F52">
+        <v>7.0180400000000001</v>
+      </c>
+      <c r="G52">
+        <v>7.3383799999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="10"/>
       <c r="C53">
         <v>5.9908299999999999</v>
       </c>
       <c r="D53">
-        <v>6.9710400000000003</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>6.6021299999999998</v>
+      </c>
+      <c r="E53">
+        <v>7.07104</v>
+      </c>
+      <c r="F53">
+        <v>7.0771199999999999</v>
+      </c>
+      <c r="G53">
+        <v>7.1375799999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="10"/>
       <c r="C54">
         <v>5.98292</v>
       </c>
       <c r="D54">
-        <v>7.0242500000000003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>6.6512099999999998</v>
+      </c>
+      <c r="E54">
+        <v>7.1377499999999996</v>
+      </c>
+      <c r="F54">
+        <v>7.0027499999999998</v>
+      </c>
+      <c r="G54">
+        <v>7.3490799999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="10"/>
       <c r="C55">
         <v>5.8617100000000004</v>
       </c>
       <c r="D55">
-        <v>7.0073299999999996</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>6.6345000000000001</v>
+      </c>
+      <c r="E55">
+        <v>7.01471</v>
+      </c>
+      <c r="F55">
+        <v>7.0758700000000001</v>
+      </c>
+      <c r="G55">
+        <v>7.2140000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="10"/>
       <c r="C56">
         <v>5.8208299999999999</v>
       </c>
       <c r="D56">
-        <v>6.9009200000000002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>6.6520400000000004</v>
+      </c>
+      <c r="E56">
+        <v>6.9884199999999996</v>
+      </c>
+      <c r="F56">
+        <v>7.2212899999999998</v>
+      </c>
+      <c r="G56">
+        <v>6.9071199999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="10"/>
       <c r="C57">
         <v>5.9027500000000002</v>
       </c>
       <c r="D57">
-        <v>7.1462899999999996</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>6.67</v>
+      </c>
+      <c r="E57">
+        <v>7.1338299999999997</v>
+      </c>
+      <c r="F57">
+        <v>7.2653299999999996</v>
+      </c>
+      <c r="G57">
+        <v>7.3084199999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="10">
         <v>6</v>
       </c>
@@ -15892,91 +16541,181 @@
         <v>20.930900000000001</v>
       </c>
       <c r="D59">
-        <v>23.812200000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>22.622599999999998</v>
+      </c>
+      <c r="E59">
+        <v>23.095500000000001</v>
+      </c>
+      <c r="F59">
+        <v>23.422799999999999</v>
+      </c>
+      <c r="G59">
+        <v>23.2895</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="10"/>
       <c r="C60">
         <v>21.325700000000001</v>
       </c>
       <c r="D60">
-        <v>25.470099999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>22.5702</v>
+      </c>
+      <c r="E60">
+        <v>23.332100000000001</v>
+      </c>
+      <c r="F60">
+        <v>24.507300000000001</v>
+      </c>
+      <c r="G60">
+        <v>24.581499999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="10"/>
       <c r="C61">
         <v>21.177499999999998</v>
       </c>
       <c r="D61">
-        <v>24.176600000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>22.299499999999998</v>
+      </c>
+      <c r="E61">
+        <v>23.569800000000001</v>
+      </c>
+      <c r="F61">
+        <v>23.192</v>
+      </c>
+      <c r="G61">
+        <v>23.1187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="10"/>
       <c r="C62">
         <v>21.048500000000001</v>
       </c>
       <c r="D62">
-        <v>24.338799999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>24.158200000000001</v>
+      </c>
+      <c r="E62">
+        <v>23.537600000000001</v>
+      </c>
+      <c r="F62">
+        <v>24.567499999999999</v>
+      </c>
+      <c r="G62">
+        <v>24.869</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="10"/>
       <c r="C63">
         <v>21.250900000000001</v>
       </c>
       <c r="D63">
-        <v>25.046299999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>24.184999999999999</v>
+      </c>
+      <c r="E63">
+        <v>23.495000000000001</v>
+      </c>
+      <c r="F63">
+        <v>23.526199999999999</v>
+      </c>
+      <c r="G63">
+        <v>23.4605</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="10"/>
       <c r="C64">
         <v>21.174600000000002</v>
       </c>
       <c r="D64">
-        <v>24.228899999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>22.810700000000001</v>
+      </c>
+      <c r="E64">
+        <v>23.2698</v>
+      </c>
+      <c r="F64">
+        <v>23.168299999999999</v>
+      </c>
+      <c r="G64">
+        <v>23.463200000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="10"/>
       <c r="C65">
         <v>21.024899999999999</v>
       </c>
       <c r="D65">
-        <v>24.215699999999998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>22.747800000000002</v>
+      </c>
+      <c r="E65">
+        <v>23.300799999999999</v>
+      </c>
+      <c r="F65">
+        <v>23.3261</v>
+      </c>
+      <c r="G65">
+        <v>23.534199999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="10"/>
       <c r="C66">
         <v>21.8749</v>
       </c>
       <c r="D66">
-        <v>24.732500000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>22.8353</v>
+      </c>
+      <c r="E66">
+        <v>23.278500000000001</v>
+      </c>
+      <c r="F66">
+        <v>24.449200000000001</v>
+      </c>
+      <c r="G66">
+        <v>23.1112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="10"/>
       <c r="C67">
         <v>21.0931</v>
       </c>
       <c r="D67">
-        <v>24.288799999999998</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>24.223299999999998</v>
+      </c>
+      <c r="E67">
+        <v>23.576699999999999</v>
+      </c>
+      <c r="F67">
+        <v>22.833600000000001</v>
+      </c>
+      <c r="G67">
+        <v>23.116099999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="10"/>
       <c r="C68">
         <v>21.028300000000002</v>
       </c>
       <c r="D68">
-        <v>23.898</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>23.610700000000001</v>
+      </c>
+      <c r="E68">
+        <v>24.465299999999999</v>
+      </c>
+      <c r="F68">
+        <v>23.319199999999999</v>
+      </c>
+      <c r="G68">
+        <v>23.378</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="10">
         <v>7</v>
       </c>
@@ -15984,91 +16723,181 @@
         <v>70.722800000000007</v>
       </c>
       <c r="D70">
-        <v>81.439300000000003</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>74.080299999999994</v>
+      </c>
+      <c r="E70">
+        <v>75.462299999999999</v>
+      </c>
+      <c r="F70">
+        <v>75.296099999999996</v>
+      </c>
+      <c r="G70">
+        <v>75.913200000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="10"/>
       <c r="C71">
         <v>73.800700000000006</v>
       </c>
       <c r="D71">
-        <v>81.032700000000006</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>78.850700000000003</v>
+      </c>
+      <c r="E71">
+        <v>77.733000000000004</v>
+      </c>
+      <c r="F71">
+        <v>79.010900000000007</v>
+      </c>
+      <c r="G71">
+        <v>77.809899999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="10"/>
       <c r="C72">
         <v>70.402699999999996</v>
       </c>
       <c r="D72">
-        <v>81.531499999999994</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>74.487499999999997</v>
+      </c>
+      <c r="E72">
+        <v>75.274500000000003</v>
+      </c>
+      <c r="F72">
+        <v>74.985100000000003</v>
+      </c>
+      <c r="G72">
+        <v>75.340299999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="10"/>
       <c r="C73">
         <v>73.364699999999999</v>
       </c>
       <c r="D73">
-        <v>82.042299999999997</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>74.0809</v>
+      </c>
+      <c r="E73">
+        <v>77.422899999999998</v>
+      </c>
+      <c r="F73">
+        <v>74.972200000000001</v>
+      </c>
+      <c r="G73">
+        <v>75.872500000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="10"/>
       <c r="C74">
         <v>70.756399999999999</v>
       </c>
       <c r="D74">
-        <v>81.915300000000002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>74.249399999999994</v>
+      </c>
+      <c r="E74">
+        <v>75.292900000000003</v>
+      </c>
+      <c r="F74">
+        <v>74.788700000000006</v>
+      </c>
+      <c r="G74">
+        <v>75.487399999999994</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="10"/>
       <c r="C75">
         <v>73.168499999999995</v>
       </c>
       <c r="D75">
-        <v>81.550700000000006</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>74.178600000000003</v>
+      </c>
+      <c r="E75">
+        <v>74.588099999999997</v>
+      </c>
+      <c r="F75">
+        <v>77.102000000000004</v>
+      </c>
+      <c r="G75">
+        <v>75.052700000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="10"/>
       <c r="C76">
         <v>70.447699999999998</v>
       </c>
       <c r="D76">
-        <v>81.598200000000006</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>74.795299999999997</v>
+      </c>
+      <c r="E76">
+        <v>74.950199999999995</v>
+      </c>
+      <c r="F76">
+        <v>74.457499999999996</v>
+      </c>
+      <c r="G76">
+        <v>77.907399999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="10"/>
       <c r="C77">
         <v>70.328500000000005</v>
       </c>
       <c r="D77">
-        <v>81.564999999999998</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>74.284499999999994</v>
+      </c>
+      <c r="E77">
+        <v>75.046999999999997</v>
+      </c>
+      <c r="F77">
+        <v>74.743300000000005</v>
+      </c>
+      <c r="G77">
+        <v>74.609099999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="10"/>
       <c r="C78">
         <v>70.900999999999996</v>
       </c>
       <c r="D78">
-        <v>81.596199999999996</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>77.540099999999995</v>
+      </c>
+      <c r="E78">
+        <v>75.350300000000004</v>
+      </c>
+      <c r="F78">
+        <v>74.829499999999996</v>
+      </c>
+      <c r="G78">
+        <v>77.370500000000007</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="10"/>
       <c r="C79">
         <v>70.516999999999996</v>
       </c>
       <c r="D79">
-        <v>80.770300000000006</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>74.439800000000005</v>
+      </c>
+      <c r="E79">
+        <v>74.766599999999997</v>
+      </c>
+      <c r="F79">
+        <v>74.653800000000004</v>
+      </c>
+      <c r="G79">
+        <v>75.066100000000006</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="10">
         <v>8</v>
       </c>
@@ -16076,91 +16905,181 @@
         <v>252.244</v>
       </c>
       <c r="D81">
-        <v>293.20499999999998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>269.58100000000002</v>
+      </c>
+      <c r="E81">
+        <v>267.88400000000001</v>
+      </c>
+      <c r="F81">
+        <v>271.77699999999999</v>
+      </c>
+      <c r="G81">
+        <v>271.529</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="10"/>
       <c r="C82">
         <v>261.36599999999999</v>
       </c>
       <c r="D82">
-        <v>295.31400000000002</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>275.77499999999998</v>
+      </c>
+      <c r="E82">
+        <v>273.85300000000001</v>
+      </c>
+      <c r="F82">
+        <v>266.94600000000003</v>
+      </c>
+      <c r="G82">
+        <v>275.72500000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="10"/>
       <c r="C83">
         <v>255.26900000000001</v>
       </c>
       <c r="D83">
-        <v>292.30599999999998</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>271.14699999999999</v>
+      </c>
+      <c r="E83">
+        <v>268.185</v>
+      </c>
+      <c r="F83">
+        <v>268.77</v>
+      </c>
+      <c r="G83">
+        <v>272.88600000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="10"/>
       <c r="C84">
         <v>254.1</v>
       </c>
       <c r="D84">
-        <v>295.08100000000002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>267.74900000000002</v>
+      </c>
+      <c r="E84">
+        <v>267.40199999999999</v>
+      </c>
+      <c r="F84">
+        <v>271.17399999999998</v>
+      </c>
+      <c r="G84">
+        <v>272.49900000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="10"/>
       <c r="C85">
         <v>252.60599999999999</v>
       </c>
       <c r="D85">
-        <v>296.84399999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>266.19299999999998</v>
+      </c>
+      <c r="E85">
+        <v>272.94200000000001</v>
+      </c>
+      <c r="F85">
+        <v>267.43700000000001</v>
+      </c>
+      <c r="G85">
+        <v>270.44200000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="10"/>
       <c r="C86">
         <v>257.13099999999997</v>
       </c>
       <c r="D86">
-        <v>295.40100000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>266.52999999999997</v>
+      </c>
+      <c r="E86">
+        <v>266.80399999999997</v>
+      </c>
+      <c r="F86">
+        <v>266.79899999999998</v>
+      </c>
+      <c r="G86">
+        <v>270.75400000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="10"/>
       <c r="C87">
         <v>254.946</v>
       </c>
       <c r="D87">
-        <v>295.70699999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>268.24400000000003</v>
+      </c>
+      <c r="E87">
+        <v>267.95800000000003</v>
+      </c>
+      <c r="F87">
+        <v>266.79899999999998</v>
+      </c>
+      <c r="G87">
+        <v>273.572</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="10"/>
       <c r="C88">
         <v>259.13200000000001</v>
       </c>
       <c r="D88">
-        <v>295.66800000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>268.065</v>
+      </c>
+      <c r="E88">
+        <v>268.11599999999999</v>
+      </c>
+      <c r="F88">
+        <v>271.702</v>
+      </c>
+      <c r="G88">
+        <v>271.21499999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="10"/>
       <c r="C89">
         <v>256.79500000000002</v>
       </c>
       <c r="D89">
-        <v>295.95999999999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>266.34100000000001</v>
+      </c>
+      <c r="E89">
+        <v>267.82</v>
+      </c>
+      <c r="F89">
+        <v>271.06299999999999</v>
+      </c>
+      <c r="G89">
+        <v>274.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="10"/>
       <c r="C90">
         <v>254.869</v>
       </c>
       <c r="D90">
-        <v>294.512</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>272.08999999999997</v>
+      </c>
+      <c r="E90">
+        <v>271.32499999999999</v>
+      </c>
+      <c r="F90">
+        <v>267.03100000000001</v>
+      </c>
+      <c r="G90">
+        <v>274.91500000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="10">
         <v>9</v>
       </c>
@@ -16168,91 +17087,181 @@
         <v>934.53399999999999</v>
       </c>
       <c r="D92">
-        <v>1075.2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>977.87300000000005</v>
+      </c>
+      <c r="E92">
+        <v>987.87</v>
+      </c>
+      <c r="F92">
+        <v>986.00599999999997</v>
+      </c>
+      <c r="G92">
+        <v>987.78</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="10"/>
       <c r="C93">
         <v>1000.09</v>
       </c>
       <c r="D93">
-        <v>1087.79</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>1043.58</v>
+      </c>
+      <c r="E93">
+        <v>979.46299999999997</v>
+      </c>
+      <c r="F93">
+        <v>973.48800000000006</v>
+      </c>
+      <c r="G93">
+        <v>994.00099999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="10"/>
       <c r="C94">
         <v>944.65700000000004</v>
       </c>
       <c r="D94">
-        <v>1088.28</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>977.26400000000001</v>
+      </c>
+      <c r="E94">
+        <v>1045.8599999999999</v>
+      </c>
+      <c r="F94">
+        <v>979.49800000000005</v>
+      </c>
+      <c r="G94">
+        <v>989.60599999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="10"/>
       <c r="C95">
         <v>938.23599999999999</v>
       </c>
       <c r="D95">
-        <v>1087.1300000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>976.13400000000001</v>
+      </c>
+      <c r="E95">
+        <v>972.85799999999995</v>
+      </c>
+      <c r="F95">
+        <v>980.06500000000005</v>
+      </c>
+      <c r="G95">
+        <v>993.97900000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="10"/>
       <c r="C96">
         <v>939.19399999999996</v>
       </c>
       <c r="D96">
-        <v>1084.95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>1043.3800000000001</v>
+      </c>
+      <c r="E96">
+        <v>970.69100000000003</v>
+      </c>
+      <c r="F96">
+        <v>980.29</v>
+      </c>
+      <c r="G96">
+        <v>982.74</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="10"/>
       <c r="C97">
         <v>956.1</v>
       </c>
       <c r="D97">
-        <v>1086.92</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>979.20500000000004</v>
+      </c>
+      <c r="E97">
+        <v>983.25900000000001</v>
+      </c>
+      <c r="F97">
+        <v>999.846</v>
+      </c>
+      <c r="G97">
+        <v>980.94500000000005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="10"/>
       <c r="C98">
         <v>985.55799999999999</v>
       </c>
       <c r="D98">
-        <v>1082.3399999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>978.63199999999995</v>
+      </c>
+      <c r="E98">
+        <v>1037.9000000000001</v>
+      </c>
+      <c r="F98">
+        <v>975.26900000000001</v>
+      </c>
+      <c r="G98">
+        <v>992.25199999999995</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="10"/>
       <c r="C99">
         <v>934.98699999999997</v>
       </c>
       <c r="D99">
-        <v>1075.49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>1047.8499999999999</v>
+      </c>
+      <c r="E99">
+        <v>982.09900000000005</v>
+      </c>
+      <c r="F99">
+        <v>967.94899999999996</v>
+      </c>
+      <c r="G99">
+        <v>1049.48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="10"/>
       <c r="C100">
         <v>941.85299999999995</v>
       </c>
       <c r="D100">
-        <v>1081.51</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>984.58399999999995</v>
+      </c>
+      <c r="E100">
+        <v>973.54399999999998</v>
+      </c>
+      <c r="F100">
+        <v>990.05600000000004</v>
+      </c>
+      <c r="G100">
+        <v>988.36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="10"/>
       <c r="C101">
         <v>953.19600000000003</v>
       </c>
       <c r="D101">
-        <v>1088.32</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>976.57299999999998</v>
+      </c>
+      <c r="E101">
+        <v>1029.07</v>
+      </c>
+      <c r="F101">
+        <v>969.29100000000005</v>
+      </c>
+      <c r="G101">
+        <v>991.89200000000005</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="10">
         <v>10</v>
       </c>
@@ -16260,121 +17269,181 @@
         <v>3528.75</v>
       </c>
       <c r="D103">
-        <v>3828.12</v>
+        <v>3517.19</v>
       </c>
       <c r="E103">
-        <v>5376.74</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>3598.03</v>
+      </c>
+      <c r="F103">
+        <v>3516.34</v>
+      </c>
+      <c r="G103">
+        <v>3673.59</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="10"/>
       <c r="C104">
         <v>3509.6</v>
       </c>
       <c r="D104">
-        <v>3772.63</v>
+        <v>3537.82</v>
       </c>
       <c r="E104">
-        <v>5491.41</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>3691.89</v>
+      </c>
+      <c r="F104">
+        <v>3565.2</v>
+      </c>
+      <c r="G104">
+        <v>3592.82</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="10"/>
       <c r="C105">
         <v>3468.14</v>
       </c>
       <c r="D105">
-        <v>3831.18</v>
+        <v>3519.12</v>
       </c>
       <c r="E105">
-        <v>5374.47</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>3572.75</v>
+      </c>
+      <c r="F105">
+        <v>3538.57</v>
+      </c>
+      <c r="G105">
+        <v>3719.68</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="10"/>
       <c r="C106">
         <v>3542.46</v>
       </c>
       <c r="D106">
-        <v>3766.59</v>
+        <v>3516.92</v>
       </c>
       <c r="E106">
-        <v>5435.35</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>3700.21</v>
+      </c>
+      <c r="F106">
+        <v>3501.31</v>
+      </c>
+      <c r="G106">
+        <v>3595.1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="10"/>
       <c r="C107">
         <v>3501.31</v>
       </c>
       <c r="D107">
-        <v>3843.76</v>
+        <v>3587.93</v>
       </c>
       <c r="E107">
-        <v>5383.1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>3584.44</v>
+      </c>
+      <c r="F107">
+        <v>3520.97</v>
+      </c>
+      <c r="G107">
+        <v>3653.7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="10"/>
       <c r="C108">
         <v>3506.74</v>
       </c>
       <c r="D108">
-        <v>3810.65</v>
+        <v>3527.75</v>
       </c>
       <c r="E108">
-        <v>5394.07</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>3582.45</v>
+      </c>
+      <c r="F108">
+        <v>3529.75</v>
+      </c>
+      <c r="G108">
+        <v>3617.56</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="10"/>
       <c r="C109">
         <v>3510.01</v>
       </c>
       <c r="D109">
-        <v>3783.52</v>
+        <v>3544.65</v>
       </c>
       <c r="E109">
-        <v>5432.58</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>3597.75</v>
+      </c>
+      <c r="F109">
+        <v>3606.66</v>
+      </c>
+      <c r="G109">
+        <v>3557.76</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="10"/>
       <c r="C110">
         <v>3538.35</v>
       </c>
       <c r="D110">
-        <v>3755.5</v>
+        <v>3581.49</v>
       </c>
       <c r="E110">
-        <v>5405.23</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>3619.12</v>
+      </c>
+      <c r="F110">
+        <v>3622.23</v>
+      </c>
+      <c r="G110">
+        <v>3625.04</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="10"/>
       <c r="C111">
         <v>3527.89</v>
       </c>
       <c r="D111">
-        <v>3788.29</v>
+        <v>3529.43</v>
       </c>
       <c r="E111">
-        <v>5441.76</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>3670.68</v>
+      </c>
+      <c r="F111">
+        <v>3568.83</v>
+      </c>
+      <c r="G111">
+        <v>3607.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="10"/>
       <c r="C112">
         <v>3511.39</v>
       </c>
       <c r="D112">
-        <v>3785.65</v>
+        <v>3539.74</v>
       </c>
       <c r="E112">
-        <v>5388.72</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>3581.19</v>
+      </c>
+      <c r="F112">
+        <v>3538.66</v>
+      </c>
+      <c r="G112">
+        <v>3556.44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="10">
         <v>11</v>
       </c>
@@ -16382,258 +17451,600 @@
         <v>12312.1</v>
       </c>
       <c r="D114">
-        <v>12986.2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>12200.4</v>
+      </c>
+      <c r="E114">
+        <v>12196.1</v>
+      </c>
+      <c r="F114">
+        <v>12336.3</v>
+      </c>
+      <c r="G114">
+        <v>12674.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="10"/>
       <c r="C115">
         <v>12320.4</v>
       </c>
       <c r="D115">
-        <v>13026</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>12099</v>
+      </c>
+      <c r="E115">
+        <v>12387.4</v>
+      </c>
+      <c r="F115">
+        <v>12591.8</v>
+      </c>
+      <c r="G115">
+        <v>12689</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="10"/>
       <c r="C116">
         <v>12410.9</v>
       </c>
       <c r="D116">
-        <v>13027.5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>12212.7</v>
+      </c>
+      <c r="E116">
+        <v>12501.2</v>
+      </c>
+      <c r="F116">
+        <v>12148.8</v>
+      </c>
+      <c r="G116">
+        <v>12726.9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="10"/>
       <c r="C117">
         <v>12405.4</v>
       </c>
       <c r="D117">
-        <v>13066.3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>12059.6</v>
+      </c>
+      <c r="E117">
+        <v>12615</v>
+      </c>
+      <c r="F117">
+        <v>12529</v>
+      </c>
+      <c r="G117">
+        <v>12668.9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="10"/>
       <c r="C118">
         <v>12344.7</v>
       </c>
       <c r="D118">
-        <v>12880.4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>12174.4</v>
+      </c>
+      <c r="E118">
+        <v>12734.7</v>
+      </c>
+      <c r="F118">
+        <v>12588.2</v>
+      </c>
+      <c r="G118">
+        <v>12713.1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="10"/>
       <c r="C119">
         <v>12328.3</v>
       </c>
       <c r="D119">
-        <v>12957.2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>12162.7</v>
+      </c>
+      <c r="E119">
+        <v>12621.7</v>
+      </c>
+      <c r="F119">
+        <v>12288.6</v>
+      </c>
+      <c r="G119">
+        <v>12770.9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="10"/>
       <c r="C120">
         <v>12402.1</v>
       </c>
       <c r="D120">
-        <v>12781.7</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>12280.4</v>
+      </c>
+      <c r="E120">
+        <v>12496.7</v>
+      </c>
+      <c r="F120">
+        <v>12161.7</v>
+      </c>
+      <c r="G120">
+        <v>12574.1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="10"/>
       <c r="C121">
         <v>12342.6</v>
       </c>
       <c r="D121">
-        <v>12944</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>12148.5</v>
+      </c>
+      <c r="E121">
+        <v>12584.8</v>
+      </c>
+      <c r="F121">
+        <v>12223.7</v>
+      </c>
+      <c r="G121">
+        <v>12284.2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="10"/>
       <c r="C122">
         <v>12296.5</v>
       </c>
       <c r="D122">
-        <v>12995.5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>12106.4</v>
+      </c>
+      <c r="E122">
+        <v>12394.3</v>
+      </c>
+      <c r="F122">
+        <v>12378.4</v>
+      </c>
+      <c r="G122">
+        <v>12573.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="10"/>
       <c r="C123">
         <v>12317.8</v>
       </c>
       <c r="D123">
-        <v>13079.8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>12401.7</v>
+      </c>
+      <c r="E123">
+        <v>12512.9</v>
+      </c>
+      <c r="F123">
+        <v>12228.5</v>
+      </c>
+      <c r="G123">
+        <v>12583.8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="10">
         <v>12</v>
       </c>
       <c r="C125">
         <v>42174.6</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="D125">
+        <v>42174.8</v>
+      </c>
+      <c r="E125">
+        <v>43561.7</v>
+      </c>
+      <c r="F125">
+        <v>43118.9</v>
+      </c>
+      <c r="G125">
+        <v>44066.400000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="10"/>
       <c r="C126">
         <v>42341.7</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="D126">
+        <v>42695.9</v>
+      </c>
+      <c r="E126">
+        <v>44110.7</v>
+      </c>
+      <c r="F126">
+        <v>42970</v>
+      </c>
+      <c r="G126">
+        <v>43605.8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="10"/>
       <c r="C127">
         <v>42375.5</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="D127">
+        <v>42624.1</v>
+      </c>
+      <c r="E127">
+        <v>43941.7</v>
+      </c>
+      <c r="F127">
+        <v>43463.5</v>
+      </c>
+      <c r="G127">
+        <v>43874.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="10"/>
       <c r="C128">
         <v>42193.7</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128">
+        <v>42988.800000000003</v>
+      </c>
+      <c r="E128">
+        <v>43942.9</v>
+      </c>
+      <c r="F128">
+        <v>42633</v>
+      </c>
+      <c r="G128">
+        <v>43754.3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="10"/>
       <c r="C129">
         <v>42267.199999999997</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129">
+        <v>42971.199999999997</v>
+      </c>
+      <c r="E129">
+        <v>44138.2</v>
+      </c>
+      <c r="F129">
+        <v>42863.5</v>
+      </c>
+      <c r="G129">
+        <v>43953.599999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="10"/>
       <c r="C130">
         <v>42251.6</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130">
+        <v>42851.3</v>
+      </c>
+      <c r="E130">
+        <v>44069.2</v>
+      </c>
+      <c r="F130">
+        <v>43265.8</v>
+      </c>
+      <c r="G130">
+        <v>43994.2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="10"/>
       <c r="C131">
         <v>42400.6</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131">
+        <v>42199.6</v>
+      </c>
+      <c r="E131">
+        <v>44093</v>
+      </c>
+      <c r="F131">
+        <v>42824.1</v>
+      </c>
+      <c r="G131">
+        <v>44097.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="10"/>
       <c r="C132">
         <v>42179.6</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132">
+        <v>43279.7</v>
+      </c>
+      <c r="E132">
+        <v>44070.6</v>
+      </c>
+      <c r="F132">
+        <v>42708.1</v>
+      </c>
+      <c r="G132">
+        <v>44204.2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="10"/>
       <c r="C133">
         <v>42293.2</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133">
+        <v>42051.5</v>
+      </c>
+      <c r="E133">
+        <v>44024.1</v>
+      </c>
+      <c r="F133">
+        <v>43523.5</v>
+      </c>
+      <c r="G133">
+        <v>44087.8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="10"/>
       <c r="C134">
         <v>42367.1</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D134">
+        <v>42669</v>
+      </c>
+      <c r="E134">
+        <v>43967.6</v>
+      </c>
+      <c r="F134">
+        <v>43161.599999999999</v>
+      </c>
+      <c r="G134">
+        <v>43945.2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="10">
         <v>13</v>
       </c>
       <c r="C136">
         <v>227692</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136">
+        <v>163134</v>
+      </c>
+      <c r="E136">
+        <v>166965</v>
+      </c>
+      <c r="F136">
+        <v>174796</v>
+      </c>
+      <c r="G136">
+        <v>159694</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="10"/>
       <c r="C137">
         <v>191951</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137">
+        <v>165410</v>
+      </c>
+      <c r="E137">
+        <v>176852</v>
+      </c>
+      <c r="F137">
+        <v>174816</v>
+      </c>
+      <c r="G137">
+        <v>174468</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" s="10"/>
       <c r="C138">
         <v>188072</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138">
+        <v>165186</v>
+      </c>
+      <c r="E138">
+        <v>176199</v>
+      </c>
+      <c r="F138">
+        <v>178221</v>
+      </c>
+      <c r="G138">
+        <v>170039</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="10"/>
       <c r="C139">
         <v>185452</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139">
+        <v>182690</v>
+      </c>
+      <c r="E139">
+        <v>184130</v>
+      </c>
+      <c r="F139">
+        <v>161764</v>
+      </c>
+      <c r="G139">
+        <v>162043</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="10"/>
       <c r="C140">
         <v>205561</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140">
+        <v>171791</v>
+      </c>
+      <c r="E140">
+        <v>171173</v>
+      </c>
+      <c r="F140">
+        <v>174278</v>
+      </c>
+      <c r="G140">
+        <v>160192</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="10"/>
       <c r="C141">
         <v>206556</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141">
+        <v>170146</v>
+      </c>
+      <c r="E141">
+        <v>167885</v>
+      </c>
+      <c r="F141">
+        <v>161774</v>
+      </c>
+      <c r="G141">
+        <v>162979</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" s="10"/>
       <c r="C142">
         <v>192463</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142">
+        <v>167192</v>
+      </c>
+      <c r="E142">
+        <v>170715</v>
+      </c>
+      <c r="F142">
+        <v>172375</v>
+      </c>
+      <c r="G142">
+        <v>169643</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="10"/>
       <c r="C143">
         <v>191499</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143">
+        <v>170279</v>
+      </c>
+      <c r="E143">
+        <v>190264</v>
+      </c>
+      <c r="F143">
+        <v>160332</v>
+      </c>
+      <c r="G143">
+        <v>177962</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="10"/>
       <c r="C144">
         <v>196022</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144">
+        <v>167956</v>
+      </c>
+      <c r="E144">
+        <v>185863</v>
+      </c>
+      <c r="F144">
+        <v>173666</v>
+      </c>
+      <c r="G144">
+        <v>173597</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" s="10"/>
       <c r="C145">
         <v>187940</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D145">
+        <v>166328</v>
+      </c>
+      <c r="E145">
+        <v>178182</v>
+      </c>
+      <c r="F145">
+        <v>167252</v>
+      </c>
+      <c r="G145">
+        <v>167024</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="10">
         <v>14</v>
       </c>
       <c r="C147" s="5">
         <v>10650100</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147" s="5">
+        <v>4999080</v>
+      </c>
+      <c r="E147" s="5">
+        <v>8518320</v>
+      </c>
+      <c r="F147" s="5">
+        <v>9000000</v>
+      </c>
+      <c r="G147" s="5">
+        <v>4832400</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" s="10"/>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:7">
       <c r="A149" s="10"/>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:7">
       <c r="A150" s="10"/>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:7">
       <c r="A151" s="10"/>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:7">
       <c r="A152" s="10"/>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:7">
       <c r="A153" s="10"/>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:7">
       <c r="A154" s="10"/>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:7">
       <c r="A155" s="10"/>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:7">
       <c r="A156" s="10"/>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:7">
       <c r="A158" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:7">
       <c r="A159" s="10"/>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:7">
       <c r="A160" s="10"/>
     </row>
     <row r="161" spans="1:1">

--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E8FBD9-C7B7-8247-98CC-CB4CB5FD923B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA2AF5E-604B-734B-B6B2-992BF82BDC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="3500" windowWidth="17520" windowHeight="13300" firstSheet="2" activeTab="8" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
+    <workbookView xWindow="740" yWindow="2780" windowWidth="17520" windowHeight="13300" firstSheet="2" activeTab="8" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
   <sheets>
     <sheet name="result of all" sheetId="1" r:id="rId1"/>
@@ -260,7 +260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,6 +268,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -280,14 +283,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2107,6 +2104,18 @@
                 <c:pt idx="9">
                   <c:v>3514.4639999999999</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>12348.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42284.479999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>197320.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10655000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2203,37 +2212,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.2667544</c:v>
+                  <c:v>0.28493740000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37163760000000001</c:v>
+                  <c:v>0.36013760000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92473320000000003</c:v>
+                  <c:v>0.77723730000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5134259999999999</c:v>
+                  <c:v>2.2429819999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9477689999999992</c:v>
+                  <c:v>6.6110619999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.42079</c:v>
+                  <c:v>23.206330000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.504149999999996</c:v>
+                  <c:v>75.098709999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>294.99980000000005</c:v>
+                  <c:v>269.17150000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1083.7930000000001</c:v>
+                  <c:v>998.50750000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3796.5889999999999</c:v>
+                  <c:v>3540.2040000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12974.460000000001</c:v>
+                  <c:v>12184.579999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42650.590000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>169011.20000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4999080</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2331,34 +2349,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.71252100000000007</c:v>
+                  <c:v>0.71172900000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93471650000000006</c:v>
+                  <c:v>0.90182080000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8841170000000003</c:v>
+                  <c:v>1.416644</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.7621419999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7.1011539999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>23.492110000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>75.588780000000014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>269.22890000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>996.26139999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5412.3429999999998</c:v>
+                  <c:v>3619.8510000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12504.48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43991.969999999987</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>176822.8</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>8518320</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2456,34 +2486,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9.5658400000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.83670399999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.361637</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.9875429999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7.0925400000000014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>23.631219999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>75.483909999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>268.94979999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>980.17579999999975</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3550.8520000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12347.499999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43053.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>169927.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2581,34 +2623,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.4031751999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.56017919999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.0774458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.6228000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7.1430120000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>23.592189999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>76.042909999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>272.83370000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>995.10349999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3619.9290000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12625.920000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43958.32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>167764.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4832400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4612,16 +4666,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>994833</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>436033</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>146049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>563034</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>239182</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>213782</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5064,12 +5118,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" t="s">
@@ -5307,12 +5361,12 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -5414,12 +5468,12 @@
       <c r="D8" s="1">
         <v>0.40329199999999998</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -6796,12 +6850,12 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -6903,12 +6957,12 @@
       <c r="D8" s="1">
         <v>0.52091699999999996</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -8285,12 +8339,12 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -8392,12 +8446,12 @@
       <c r="D8" s="1">
         <v>1.30983</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -9774,12 +9828,12 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -9881,12 +9935,12 @@
       <c r="D8" s="1">
         <v>0.38174999999999998</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -11263,12 +11317,12 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -11370,12 +11424,12 @@
       <c r="D8" s="1">
         <v>1.74783</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -12752,12 +12806,12 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -12859,12 +12913,12 @@
       <c r="D8" s="1">
         <v>3.7953299999999999</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -14227,8 +14281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819EF501-8FE0-3948-900D-D457862F7EC9}">
   <dimension ref="B2:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="F31" zoomScale="113" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -14246,19 +14300,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="E2" s="9"/>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" spans="2:14">
       <c r="E3" t="s">
@@ -14302,19 +14355,19 @@
       </c>
       <c r="F4">
         <f>Grover!P9</f>
-        <v>0.2667544</v>
+        <v>0.28493740000000001</v>
       </c>
       <c r="G4">
         <f>Grover!Q9</f>
-        <v>0.71252100000000007</v>
-      </c>
-      <c r="H4" t="e">
+        <v>0.71172900000000006</v>
+      </c>
+      <c r="H4">
         <f>Grover!R9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" t="e">
+        <v>9.5658400000000005E-2</v>
+      </c>
+      <c r="I4">
         <f>Grover!S9</f>
-        <v>#DIV/0!</v>
+        <v>0.4031751999999999</v>
       </c>
       <c r="J4" t="e">
         <f>Grover!T9</f>
@@ -14347,19 +14400,19 @@
       </c>
       <c r="F5">
         <f>Grover!P10</f>
-        <v>0.37163760000000001</v>
+        <v>0.36013760000000006</v>
       </c>
       <c r="G5">
         <f>Grover!Q10</f>
-        <v>0.93471650000000006</v>
-      </c>
-      <c r="H5" t="e">
+        <v>0.90182080000000009</v>
+      </c>
+      <c r="H5">
         <f>Grover!R10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" t="e">
+        <v>0.83670399999999989</v>
+      </c>
+      <c r="I5">
         <f>Grover!S10</f>
-        <v>#DIV/0!</v>
+        <v>0.56017919999999999</v>
       </c>
       <c r="J5" t="e">
         <f>Grover!T10</f>
@@ -14392,19 +14445,19 @@
       </c>
       <c r="F6">
         <f>Grover!P11</f>
-        <v>0.92473320000000003</v>
+        <v>0.77723730000000002</v>
       </c>
       <c r="G6">
         <f>Grover!Q11</f>
-        <v>1.8841170000000003</v>
-      </c>
-      <c r="H6" t="e">
+        <v>1.416644</v>
+      </c>
+      <c r="H6">
         <f>Grover!R11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" t="e">
+        <v>1.361637</v>
+      </c>
+      <c r="I6">
         <f>Grover!S11</f>
-        <v>#DIV/0!</v>
+        <v>1.0774458</v>
       </c>
       <c r="J6" t="e">
         <f>Grover!T11</f>
@@ -14437,19 +14490,19 @@
       </c>
       <c r="F7">
         <f>Grover!P12</f>
-        <v>2.5134259999999999</v>
-      </c>
-      <c r="G7" t="e">
+        <v>2.2429819999999996</v>
+      </c>
+      <c r="G7">
         <f>Grover!Q12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" t="e">
+        <v>2.7621419999999999</v>
+      </c>
+      <c r="H7">
         <f>Grover!R12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" t="e">
+        <v>2.9875429999999996</v>
+      </c>
+      <c r="I7">
         <f>Grover!S12</f>
-        <v>#DIV/0!</v>
+        <v>2.6228000000000002</v>
       </c>
       <c r="J7" t="e">
         <f>Grover!T12</f>
@@ -14482,19 +14535,19 @@
       </c>
       <c r="F8">
         <f>Grover!P13</f>
-        <v>6.9477689999999992</v>
-      </c>
-      <c r="G8" t="e">
+        <v>6.6110619999999995</v>
+      </c>
+      <c r="G8">
         <f>Grover!Q13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" t="e">
+        <v>7.1011539999999993</v>
+      </c>
+      <c r="H8">
         <f>Grover!R13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" t="e">
+        <v>7.0925400000000014</v>
+      </c>
+      <c r="I8">
         <f>Grover!S13</f>
-        <v>#DIV/0!</v>
+        <v>7.1430120000000006</v>
       </c>
       <c r="J8" t="e">
         <f>Grover!T13</f>
@@ -14527,19 +14580,19 @@
       </c>
       <c r="F9">
         <f>Grover!P14</f>
-        <v>24.42079</v>
-      </c>
-      <c r="G9" t="e">
+        <v>23.206330000000001</v>
+      </c>
+      <c r="G9">
         <f>Grover!Q14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" t="e">
+        <v>23.492110000000004</v>
+      </c>
+      <c r="H9">
         <f>Grover!R14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" t="e">
+        <v>23.631219999999995</v>
+      </c>
+      <c r="I9">
         <f>Grover!S14</f>
-        <v>#DIV/0!</v>
+        <v>23.592189999999999</v>
       </c>
       <c r="J9" t="e">
         <f>Grover!T14</f>
@@ -14572,19 +14625,19 @@
       </c>
       <c r="F10">
         <f>Grover!P15</f>
-        <v>81.504149999999996</v>
-      </c>
-      <c r="G10" t="e">
+        <v>75.098709999999997</v>
+      </c>
+      <c r="G10">
         <f>Grover!Q15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" t="e">
+        <v>75.588780000000014</v>
+      </c>
+      <c r="H10">
         <f>Grover!R15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" t="e">
+        <v>75.483909999999995</v>
+      </c>
+      <c r="I10">
         <f>Grover!S15</f>
-        <v>#DIV/0!</v>
+        <v>76.042909999999992</v>
       </c>
       <c r="J10" t="e">
         <f>Grover!T15</f>
@@ -14617,19 +14670,19 @@
       </c>
       <c r="F11">
         <f>Grover!P16</f>
-        <v>294.99980000000005</v>
-      </c>
-      <c r="G11" t="e">
+        <v>269.17150000000004</v>
+      </c>
+      <c r="G11">
         <f>Grover!Q16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" t="e">
+        <v>269.22890000000001</v>
+      </c>
+      <c r="H11">
         <f>Grover!R16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" t="e">
+        <v>268.94979999999998</v>
+      </c>
+      <c r="I11">
         <f>Grover!S16</f>
-        <v>#DIV/0!</v>
+        <v>272.83370000000002</v>
       </c>
       <c r="J11" t="e">
         <f>Grover!T16</f>
@@ -14662,19 +14715,19 @@
       </c>
       <c r="F12">
         <f>Grover!P17</f>
-        <v>1083.7930000000001</v>
-      </c>
-      <c r="G12" t="e">
+        <v>998.50750000000005</v>
+      </c>
+      <c r="G12">
         <f>Grover!Q17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" t="e">
+        <v>996.26139999999998</v>
+      </c>
+      <c r="H12">
         <f>Grover!R17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" t="e">
+        <v>980.17579999999975</v>
+      </c>
+      <c r="I12">
         <f>Grover!S17</f>
-        <v>#DIV/0!</v>
+        <v>995.10349999999994</v>
       </c>
       <c r="J12" t="e">
         <f>Grover!T17</f>
@@ -14707,19 +14760,19 @@
       </c>
       <c r="F13">
         <f>Grover!P18</f>
-        <v>3796.5889999999999</v>
+        <v>3540.2040000000002</v>
       </c>
       <c r="G13">
         <f>Grover!Q18</f>
-        <v>5412.3429999999998</v>
-      </c>
-      <c r="H13" t="e">
+        <v>3619.8510000000001</v>
+      </c>
+      <c r="H13">
         <f>Grover!R18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" t="e">
+        <v>3550.8520000000003</v>
+      </c>
+      <c r="I13">
         <f>Grover!S18</f>
-        <v>#DIV/0!</v>
+        <v>3619.9290000000001</v>
       </c>
       <c r="J13" t="e">
         <f>Grover!T18</f>
@@ -14746,27 +14799,103 @@
       <c r="B14">
         <v>11</v>
       </c>
+      <c r="E14">
+        <f>Grover!O19</f>
+        <v>12348.080000000002</v>
+      </c>
       <c r="F14">
         <f>Grover!P19</f>
-        <v>12974.460000000001</v>
+        <v>12184.579999999998</v>
+      </c>
+      <c r="G14">
+        <f>Grover!Q19</f>
+        <v>12504.48</v>
+      </c>
+      <c r="H14">
+        <f>Grover!R19</f>
+        <v>12347.499999999998</v>
+      </c>
+      <c r="I14">
+        <f>Grover!S19</f>
+        <v>12625.920000000002</v>
       </c>
     </row>
     <row r="15" spans="2:14">
       <c r="B15">
         <v>12</v>
       </c>
+      <c r="E15">
+        <f>Grover!O20</f>
+        <v>42284.479999999996</v>
+      </c>
+      <c r="F15">
+        <f>Grover!P20</f>
+        <v>42650.590000000004</v>
+      </c>
+      <c r="G15">
+        <f>Grover!Q20</f>
+        <v>43991.969999999987</v>
+      </c>
+      <c r="H15">
+        <f>Grover!R20</f>
+        <v>43053.2</v>
+      </c>
+      <c r="I15">
+        <f>Grover!S20</f>
+        <v>43958.32</v>
+      </c>
     </row>
     <row r="16" spans="2:14">
       <c r="B16">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
+      <c r="E16">
+        <f>Grover!O21</f>
+        <v>197320.8</v>
+      </c>
+      <c r="F16">
+        <f>Grover!P21</f>
+        <v>169011.20000000001</v>
+      </c>
+      <c r="G16">
+        <f>Grover!Q21</f>
+        <v>176822.8</v>
+      </c>
+      <c r="H16">
+        <f>Grover!R21</f>
+        <v>169927.4</v>
+      </c>
+      <c r="I16">
+        <f>Grover!S21</f>
+        <v>167764.1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="E17">
+        <f>Grover!O22</f>
+        <v>10655000</v>
+      </c>
+      <c r="F17">
+        <f>Grover!P22</f>
+        <v>4999080</v>
+      </c>
+      <c r="G17" s="5">
+        <f>Grover!Q22</f>
+        <v>8518320</v>
+      </c>
+      <c r="H17">
+        <f>Grover!R22</f>
+        <v>9000000</v>
+      </c>
+      <c r="I17">
+        <f>Grover!S22</f>
+        <v>4832400</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18">
         <v>15</v>
       </c>
@@ -14786,8 +14915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC998C5-C8A9-F848-83B4-3EC7458A1FFA}">
   <dimension ref="A2:X167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="74" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C148" sqref="C148:C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -14797,19 +14926,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24">
-      <c r="C2" s="9"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
@@ -14847,78 +14975,107 @@
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="C4">
         <v>9.425E-2</v>
       </c>
       <c r="D4">
-        <v>0.26395800000000003</v>
+        <v>0.27958300000000003</v>
       </c>
       <c r="E4">
-        <v>0.88129199999999996</v>
+        <v>0.66758300000000004</v>
+      </c>
+      <c r="F4">
+        <v>9.6375000000000002E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.52229199999999998</v>
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="C5">
         <v>9.3542E-2</v>
       </c>
       <c r="D5">
-        <v>0.28833399999999998</v>
+        <v>0.264791</v>
       </c>
       <c r="E5">
-        <v>0.73033400000000004</v>
+        <v>0.69095799999999996</v>
+      </c>
+      <c r="F5">
+        <v>9.5209000000000002E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.37545800000000001</v>
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="C6">
         <v>9.5500000000000002E-2</v>
       </c>
       <c r="D6">
-        <v>0.25916600000000001</v>
+        <v>0.311417</v>
       </c>
       <c r="E6">
-        <v>0.68320800000000004</v>
+        <v>0.68554199999999998</v>
+      </c>
+      <c r="F6">
+        <v>9.6042000000000002E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.33504200000000001</v>
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="C7">
         <v>9.3415999999999999E-2</v>
       </c>
       <c r="D7">
-        <v>0.26274999999999998</v>
+        <v>0.31866699999999998</v>
       </c>
       <c r="E7">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="5" t="s">
+        <v>0.84779199999999999</v>
+      </c>
+      <c r="F7">
+        <v>9.5916000000000001E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.32770899999999997</v>
+      </c>
+      <c r="P7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5" t="s">
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="C8">
         <v>9.5250000000000001E-2</v>
       </c>
       <c r="D8">
-        <v>0.26533400000000001</v>
+        <v>0.26587499999999997</v>
       </c>
       <c r="E8">
-        <v>0.83033299999999999</v>
+        <v>0.63870800000000005</v>
+      </c>
+      <c r="F8">
+        <v>9.4E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.34629199999999999</v>
       </c>
       <c r="O8" t="s">
         <v>3</v>
@@ -14952,15 +15109,21 @@
       </c>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="C9">
         <v>9.5792000000000002E-2</v>
       </c>
       <c r="D9">
-        <v>0.28295900000000002</v>
+        <v>0.311583</v>
       </c>
       <c r="E9">
-        <v>0.68587500000000001</v>
+        <v>0.67729099999999998</v>
+      </c>
+      <c r="F9">
+        <v>9.6709000000000003E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.33324999999999999</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -14971,19 +15134,19 @@
       </c>
       <c r="P9">
         <f t="shared" ref="P9:X9" si="0">AVERAGE(D4:D13)</f>
-        <v>0.2667544</v>
+        <v>0.28493740000000001</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>0.71252100000000007</v>
-      </c>
-      <c r="R9" t="e">
+        <v>0.71172900000000006</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S9" t="e">
+        <v>9.5658400000000005E-2</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.4031751999999999</v>
       </c>
       <c r="T9" t="e">
         <f t="shared" si="0"/>
@@ -15007,15 +15170,21 @@
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="5"/>
+      <c r="A10" s="6"/>
       <c r="C10">
         <v>9.425E-2</v>
       </c>
       <c r="D10">
-        <v>0.26866699999999999</v>
+        <v>0.30387500000000001</v>
       </c>
       <c r="E10">
-        <v>0.66120900000000005</v>
+        <v>0.67254100000000006</v>
+      </c>
+      <c r="F10">
+        <v>9.5334000000000002E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.54829099999999997</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -15026,19 +15195,19 @@
       </c>
       <c r="P10">
         <f t="shared" ref="P10:X10" si="1">AVERAGE(D15:D24)</f>
-        <v>0.37163760000000001</v>
+        <v>0.36013760000000006</v>
       </c>
       <c r="Q10">
         <f t="shared" si="1"/>
-        <v>0.93471650000000006</v>
-      </c>
-      <c r="R10" t="e">
+        <v>0.90182080000000009</v>
+      </c>
+      <c r="R10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S10" t="e">
+        <v>0.83670399999999989</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.56017919999999999</v>
       </c>
       <c r="T10" t="e">
         <f t="shared" si="1"/>
@@ -15062,15 +15231,21 @@
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="5"/>
+      <c r="A11" s="6"/>
       <c r="C11">
         <v>0.10070800000000001</v>
       </c>
       <c r="D11">
-        <v>0.25024999999999997</v>
+        <v>0.26716699999999999</v>
       </c>
       <c r="E11">
-        <v>0.67158399999999996</v>
+        <v>0.800875</v>
+      </c>
+      <c r="F11">
+        <v>9.4791E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.317417</v>
       </c>
       <c r="N11">
         <v>3</v>
@@ -15081,19 +15256,19 @@
       </c>
       <c r="P11">
         <f t="shared" ref="P11:X11" si="2">AVERAGE(D26:D35)</f>
-        <v>0.92473320000000003</v>
+        <v>0.77723730000000002</v>
       </c>
       <c r="Q11">
         <f t="shared" si="2"/>
-        <v>1.8841170000000003</v>
-      </c>
-      <c r="R11" t="e">
+        <v>1.416644</v>
+      </c>
+      <c r="R11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S11" t="e">
+        <v>1.361637</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.0774458</v>
       </c>
       <c r="T11" t="e">
         <f t="shared" si="2"/>
@@ -15117,15 +15292,21 @@
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="5"/>
+      <c r="A12" s="6"/>
       <c r="C12">
         <v>9.5792000000000002E-2</v>
       </c>
       <c r="D12">
-        <v>0.26316699999999998</v>
+        <v>0.24329100000000001</v>
       </c>
       <c r="E12">
-        <v>0.67695799999999995</v>
+        <v>0.67483300000000002</v>
+      </c>
+      <c r="F12">
+        <v>9.6625000000000003E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.44054199999999999</v>
       </c>
       <c r="N12">
         <v>4</v>
@@ -15136,19 +15317,19 @@
       </c>
       <c r="P12">
         <f t="shared" ref="P12:X12" si="3">AVERAGE(D37:D46)</f>
-        <v>2.5134259999999999</v>
-      </c>
-      <c r="Q12" t="e">
+        <v>2.2429819999999996</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R12" t="e">
+        <v>2.7621419999999999</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S12" t="e">
+        <v>2.9875429999999996</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2.6228000000000002</v>
       </c>
       <c r="T12" t="e">
         <f t="shared" si="3"/>
@@ -15172,15 +15353,21 @@
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="5"/>
+      <c r="A13" s="6"/>
       <c r="C13">
         <v>9.6709000000000003E-2</v>
       </c>
       <c r="D13">
-        <v>0.262959</v>
+        <v>0.28312500000000002</v>
       </c>
       <c r="E13">
-        <v>0.63775000000000004</v>
+        <v>0.76116700000000004</v>
+      </c>
+      <c r="F13">
+        <v>9.5583000000000001E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.48545899999999997</v>
       </c>
       <c r="N13">
         <v>5</v>
@@ -15191,19 +15378,19 @@
       </c>
       <c r="P13">
         <f t="shared" ref="P13:X13" si="4">AVERAGE(D48:D57)</f>
-        <v>6.9477689999999992</v>
-      </c>
-      <c r="Q13" t="e">
+        <v>6.6110619999999995</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R13" t="e">
+        <v>7.1011539999999993</v>
+      </c>
+      <c r="R13">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S13" t="e">
+        <v>7.0925400000000014</v>
+      </c>
+      <c r="S13">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>7.1430120000000006</v>
       </c>
       <c r="T13" t="e">
         <f t="shared" si="4"/>
@@ -15236,19 +15423,19 @@
       </c>
       <c r="P14">
         <f t="shared" ref="P14:X14" si="5">AVERAGE(D59:D68)</f>
-        <v>24.42079</v>
-      </c>
-      <c r="Q14" t="e">
+        <v>23.206330000000001</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R14" t="e">
+        <v>23.492110000000004</v>
+      </c>
+      <c r="R14">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S14" t="e">
+        <v>23.631219999999995</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>23.592189999999999</v>
       </c>
       <c r="T14" t="e">
         <f t="shared" si="5"/>
@@ -15272,17 +15459,23 @@
       </c>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>2</v>
       </c>
       <c r="C15">
         <v>0.18962499999999999</v>
       </c>
       <c r="D15">
-        <v>0.37670900000000002</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="E15">
-        <v>0.87762499999999999</v>
+        <v>0.91087499999999999</v>
+      </c>
+      <c r="F15">
+        <v>0.82374999999999998</v>
+      </c>
+      <c r="G15">
+        <v>0.54612499999999997</v>
       </c>
       <c r="N15">
         <v>7</v>
@@ -15293,19 +15486,19 @@
       </c>
       <c r="P15">
         <f t="shared" ref="P15:X15" si="6">AVERAGE(D70:D79)</f>
-        <v>81.504149999999996</v>
-      </c>
-      <c r="Q15" t="e">
+        <v>75.098709999999997</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R15" t="e">
+        <v>75.588780000000014</v>
+      </c>
+      <c r="R15">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S15" t="e">
+        <v>75.483909999999995</v>
+      </c>
+      <c r="S15">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>76.042909999999992</v>
       </c>
       <c r="T15" t="e">
         <f t="shared" si="6"/>
@@ -15329,15 +15522,21 @@
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="5"/>
+      <c r="A16" s="6"/>
       <c r="C16">
         <v>0.19029199999999999</v>
       </c>
       <c r="D16">
-        <v>0.37920799999999999</v>
+        <v>0.33083299999999999</v>
       </c>
       <c r="E16">
-        <v>1.0077100000000001</v>
+        <v>0.85475000000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.81812499999999999</v>
+      </c>
+      <c r="G16">
+        <v>0.48033399999999998</v>
       </c>
       <c r="N16">
         <v>8</v>
@@ -15348,19 +15547,19 @@
       </c>
       <c r="P16">
         <f t="shared" ref="P16:X16" si="7">AVERAGE(D81:D90)</f>
-        <v>294.99980000000005</v>
-      </c>
-      <c r="Q16" t="e">
+        <v>269.17150000000004</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R16" t="e">
+        <v>269.22890000000001</v>
+      </c>
+      <c r="R16">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S16" t="e">
+        <v>268.94979999999998</v>
+      </c>
+      <c r="S16">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>272.83370000000002</v>
       </c>
       <c r="T16" t="e">
         <f t="shared" si="7"/>
@@ -15384,15 +15583,21 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
       <c r="C17">
         <v>0.19079199999999999</v>
       </c>
       <c r="D17">
-        <v>0.39087499999999997</v>
+        <v>0.31820900000000002</v>
       </c>
       <c r="E17">
-        <v>0.83854200000000001</v>
+        <v>0.906084</v>
+      </c>
+      <c r="F17">
+        <v>0.79241700000000004</v>
+      </c>
+      <c r="G17">
+        <v>0.66158300000000003</v>
       </c>
       <c r="N17">
         <v>9</v>
@@ -15403,19 +15608,19 @@
       </c>
       <c r="P17">
         <f t="shared" ref="P17:X17" si="8">AVERAGE(D92:D101)</f>
-        <v>1083.7930000000001</v>
-      </c>
-      <c r="Q17" t="e">
+        <v>998.50750000000005</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R17" t="e">
+        <v>996.26139999999998</v>
+      </c>
+      <c r="R17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S17" t="e">
+        <v>980.17579999999975</v>
+      </c>
+      <c r="S17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>995.10349999999994</v>
       </c>
       <c r="T17" t="e">
         <f t="shared" si="8"/>
@@ -15439,15 +15644,21 @@
       </c>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="5"/>
+      <c r="A18" s="6"/>
       <c r="C18">
         <v>0.19212499999999999</v>
       </c>
       <c r="D18">
-        <v>0.39050000000000001</v>
+        <v>0.33191700000000002</v>
       </c>
       <c r="E18">
-        <v>0.88087499999999996</v>
+        <v>0.877166</v>
+      </c>
+      <c r="F18">
+        <v>0.827291</v>
+      </c>
+      <c r="G18">
+        <v>0.436334</v>
       </c>
       <c r="N18">
         <v>10</v>
@@ -15458,19 +15669,19 @@
       </c>
       <c r="P18">
         <f t="shared" ref="P18:X18" si="9">AVERAGE(D103:D112)</f>
-        <v>3796.5889999999999</v>
+        <v>3540.2040000000002</v>
       </c>
       <c r="Q18">
         <f t="shared" si="9"/>
-        <v>5412.3429999999998</v>
-      </c>
-      <c r="R18" t="e">
+        <v>3619.8510000000001</v>
+      </c>
+      <c r="R18">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S18" t="e">
+        <v>3550.8520000000003</v>
+      </c>
+      <c r="S18">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>3619.9290000000001</v>
       </c>
       <c r="T18" t="e">
         <f t="shared" si="9"/>
@@ -15494,94 +15705,286 @@
       </c>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="5"/>
+      <c r="A19" s="6"/>
       <c r="C19">
         <v>0.19162499999999999</v>
       </c>
       <c r="D19">
-        <v>0.36887500000000001</v>
+        <v>0.43562499999999998</v>
       </c>
       <c r="E19">
-        <v>1.0405800000000001</v>
+        <v>0.88766599999999996</v>
+      </c>
+      <c r="F19">
+        <v>0.83454099999999998</v>
+      </c>
+      <c r="G19">
+        <v>0.69554199999999999</v>
       </c>
       <c r="N19">
         <v>11</v>
       </c>
+      <c r="O19">
+        <f>AVERAGE(C114:C123)</f>
+        <v>12348.080000000002</v>
+      </c>
       <c r="P19">
-        <f>AVERAGE(D114:D123)</f>
-        <v>12974.460000000001</v>
+        <f t="shared" ref="P19:X19" si="10">AVERAGE(D114:D123)</f>
+        <v>12184.579999999998</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="10"/>
+        <v>12504.48</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="10"/>
+        <v>12347.499999999998</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="10"/>
+        <v>12625.920000000002</v>
+      </c>
+      <c r="T19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="5"/>
+      <c r="A20" s="6"/>
       <c r="C20">
         <v>0.18937499999999999</v>
       </c>
       <c r="D20">
-        <v>0.37237500000000001</v>
+        <v>0.46412500000000001</v>
       </c>
       <c r="E20">
-        <v>0.99191700000000005</v>
+        <v>0.904667</v>
+      </c>
+      <c r="F20">
+        <v>0.87291700000000005</v>
+      </c>
+      <c r="G20">
+        <v>0.51437500000000003</v>
       </c>
       <c r="N20">
         <v>12</v>
       </c>
+      <c r="O20">
+        <f>AVERAGE(C125:C134)</f>
+        <v>42284.479999999996</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ref="P20:X20" si="11">AVERAGE(D125:D134)</f>
+        <v>42650.590000000004</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="11"/>
+        <v>43991.969999999987</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="11"/>
+        <v>43053.2</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="11"/>
+        <v>43958.32</v>
+      </c>
+      <c r="T20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="5"/>
+      <c r="A21" s="6"/>
       <c r="C21">
         <v>0.18754199999999999</v>
       </c>
       <c r="D21">
-        <v>0.40570800000000001</v>
+        <v>0.35070899999999999</v>
       </c>
       <c r="E21">
-        <v>0.89516600000000002</v>
+        <v>0.89683400000000002</v>
+      </c>
+      <c r="F21">
+        <v>0.85533300000000001</v>
+      </c>
+      <c r="G21">
+        <v>0.50070800000000004</v>
       </c>
       <c r="N21">
         <v>13</v>
       </c>
+      <c r="O21">
+        <f>AVERAGE(C136:C145)</f>
+        <v>197320.8</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ref="P21:X21" si="12">AVERAGE(D136:D145)</f>
+        <v>169011.20000000001</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="12"/>
+        <v>176822.8</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="12"/>
+        <v>169927.4</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="12"/>
+        <v>167764.1</v>
+      </c>
+      <c r="T21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="5"/>
+      <c r="A22" s="6"/>
       <c r="C22">
         <v>0.19104199999999999</v>
       </c>
       <c r="D22">
-        <v>0.369917</v>
+        <v>0.332208</v>
       </c>
       <c r="E22">
-        <v>1.0765</v>
+        <v>0.91216600000000003</v>
+      </c>
+      <c r="F22">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="G22">
+        <v>0.65754100000000004</v>
       </c>
       <c r="N22">
         <v>14</v>
       </c>
+      <c r="O22" s="5">
+        <f>AVERAGE(C147:C156)</f>
+        <v>10655000</v>
+      </c>
+      <c r="P22" s="5">
+        <f t="shared" ref="P22:X22" si="13">AVERAGE(D147:D156)</f>
+        <v>4999080</v>
+      </c>
+      <c r="Q22" s="5">
+        <f>AVERAGE(E147:E156)</f>
+        <v>8518320</v>
+      </c>
+      <c r="R22" s="5">
+        <f t="shared" si="13"/>
+        <v>9000000</v>
+      </c>
+      <c r="S22" s="5">
+        <f t="shared" si="13"/>
+        <v>4832400</v>
+      </c>
+      <c r="T22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="5"/>
+      <c r="A23" s="6"/>
       <c r="C23">
         <v>0.18995899999999999</v>
       </c>
       <c r="D23">
-        <v>0.31779200000000002</v>
+        <v>0.35629100000000002</v>
       </c>
       <c r="E23">
-        <v>0.86312500000000003</v>
+        <v>0.93412499999999998</v>
+      </c>
+      <c r="F23">
+        <v>0.82095799999999997</v>
+      </c>
+      <c r="G23">
+        <v>0.47779199999999999</v>
       </c>
       <c r="N23">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="5"/>
+      <c r="A24" s="6"/>
       <c r="C24">
         <v>0.18787499999999999</v>
       </c>
       <c r="D24">
-        <v>0.34441699999999997</v>
+        <v>0.35645900000000003</v>
       </c>
       <c r="E24">
-        <v>0.87512500000000004</v>
+        <v>0.93387500000000001</v>
+      </c>
+      <c r="F24">
+        <v>0.86070800000000003</v>
+      </c>
+      <c r="G24">
+        <v>0.63145799999999996</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -15592,10 +15995,16 @@
         <v>0.60170800000000002</v>
       </c>
       <c r="D26">
-        <v>0.93700000000000006</v>
+        <v>0.71058299999999996</v>
       </c>
       <c r="E26">
-        <v>1.8057099999999999</v>
+        <v>1.5922499999999999</v>
+      </c>
+      <c r="F26">
+        <v>1.337</v>
+      </c>
+      <c r="G26">
+        <v>0.98375000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -15604,10 +16013,16 @@
         <v>0.57891700000000001</v>
       </c>
       <c r="D27">
-        <v>0.87749999999999995</v>
+        <v>0.77279100000000001</v>
       </c>
       <c r="E27">
-        <v>1.9319200000000001</v>
+        <v>1.4081300000000001</v>
+      </c>
+      <c r="F27">
+        <v>1.32996</v>
+      </c>
+      <c r="G27">
+        <v>1.19808</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -15616,10 +16031,16 @@
         <v>0.58050000000000002</v>
       </c>
       <c r="D28">
-        <v>0.89958300000000002</v>
+        <v>0.784833</v>
       </c>
       <c r="E28">
-        <v>1.841</v>
+        <v>1.4108799999999999</v>
+      </c>
+      <c r="F28">
+        <v>1.33779</v>
+      </c>
+      <c r="G28">
+        <v>1.1755800000000001</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -15628,10 +16049,16 @@
         <v>0.577125</v>
       </c>
       <c r="D29">
-        <v>0.97208300000000003</v>
+        <v>0.74654100000000001</v>
       </c>
       <c r="E29">
-        <v>2.0415399999999999</v>
+        <v>1.45713</v>
+      </c>
+      <c r="F29">
+        <v>1.34979</v>
+      </c>
+      <c r="G29">
+        <v>1.1148800000000001</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -15640,10 +16067,16 @@
         <v>0.57404200000000005</v>
       </c>
       <c r="D30">
-        <v>0.90562500000000001</v>
+        <v>0.73624999999999996</v>
       </c>
       <c r="E30">
-        <v>1.8252900000000001</v>
+        <v>1.39679</v>
+      </c>
+      <c r="F30">
+        <v>1.3647499999999999</v>
+      </c>
+      <c r="G30">
+        <v>1.1315</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -15652,10 +16085,16 @@
         <v>0.58179099999999995</v>
       </c>
       <c r="D31">
-        <v>0.87920799999999999</v>
+        <v>0.68158399999999997</v>
       </c>
       <c r="E31">
-        <v>1.8238300000000001</v>
+        <v>1.38042</v>
+      </c>
+      <c r="F31">
+        <v>1.6358699999999999</v>
+      </c>
+      <c r="G31">
+        <v>1.08029</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -15664,49 +16103,73 @@
         <v>0.57862499999999994</v>
       </c>
       <c r="D32">
-        <v>0.96845800000000004</v>
+        <v>0.78437500000000004</v>
       </c>
       <c r="E32">
-        <v>1.8905000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>1.3896299999999999</v>
+      </c>
+      <c r="F32">
+        <v>1.3694999999999999</v>
+      </c>
+      <c r="G32">
+        <v>0.999583</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="10"/>
       <c r="C33">
         <v>0.57716699999999999</v>
       </c>
       <c r="D33">
-        <v>0.98887499999999995</v>
+        <v>0.85066600000000003</v>
       </c>
       <c r="E33">
-        <v>2.0384600000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>1.3813299999999999</v>
+      </c>
+      <c r="F33">
+        <v>1.34154</v>
+      </c>
+      <c r="G33">
+        <v>0.99312500000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="10"/>
       <c r="C34">
         <v>0.58204199999999995</v>
       </c>
       <c r="D34">
-        <v>0.94325000000000003</v>
+        <v>0.76049999999999995</v>
       </c>
       <c r="E34">
-        <v>1.73692</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>1.36971</v>
+      </c>
+      <c r="F34">
+        <v>1.27563</v>
+      </c>
+      <c r="G34">
+        <v>1.1096699999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="10"/>
       <c r="C35">
         <v>0.57725000000000004</v>
       </c>
       <c r="D35">
-        <v>0.87575000000000003</v>
+        <v>0.94425000000000003</v>
       </c>
       <c r="E35">
-        <v>1.9059999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>1.3801699999999999</v>
+      </c>
+      <c r="F35">
+        <v>1.27454</v>
+      </c>
+      <c r="G35">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="10">
         <v>4</v>
       </c>
@@ -15714,91 +16177,181 @@
         <v>1.9226300000000001</v>
       </c>
       <c r="D37">
-        <v>2.4871699999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>2.1792099999999999</v>
+      </c>
+      <c r="E37">
+        <v>2.72167</v>
+      </c>
+      <c r="F37">
+        <v>2.84754</v>
+      </c>
+      <c r="G37">
+        <v>2.81704</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="10"/>
       <c r="C38">
         <v>1.89367</v>
       </c>
       <c r="D38">
-        <v>2.52325</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>2.3982899999999998</v>
+      </c>
+      <c r="E38">
+        <v>2.9249200000000002</v>
+      </c>
+      <c r="F38">
+        <v>3.5376699999999999</v>
+      </c>
+      <c r="G38">
+        <v>2.6194999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="10"/>
       <c r="C39">
         <v>1.8926700000000001</v>
       </c>
       <c r="D39">
-        <v>2.4792900000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>2.19354</v>
+      </c>
+      <c r="E39">
+        <v>2.7380800000000001</v>
+      </c>
+      <c r="F39">
+        <v>3.17042</v>
+      </c>
+      <c r="G39">
+        <v>2.6017899999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="10"/>
       <c r="C40">
         <v>1.9107099999999999</v>
       </c>
       <c r="D40">
-        <v>2.55192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>2.1409600000000002</v>
+      </c>
+      <c r="E40">
+        <v>2.7737500000000002</v>
+      </c>
+      <c r="F40">
+        <v>2.8285399999999998</v>
+      </c>
+      <c r="G40">
+        <v>2.5451299999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="10"/>
       <c r="C41">
         <v>1.9130799999999999</v>
       </c>
       <c r="D41">
-        <v>2.47092</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>2.0999599999999998</v>
+      </c>
+      <c r="E41">
+        <v>2.6804999999999999</v>
+      </c>
+      <c r="F41">
+        <v>2.8284199999999999</v>
+      </c>
+      <c r="G41">
+        <v>2.548</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="10"/>
       <c r="C42">
         <v>1.9139200000000001</v>
       </c>
       <c r="D42">
-        <v>2.4998300000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>2.1326200000000002</v>
+      </c>
+      <c r="E42">
+        <v>2.81887</v>
+      </c>
+      <c r="F42">
+        <v>3.42171</v>
+      </c>
+      <c r="G42">
+        <v>2.9416699999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="10"/>
       <c r="C43">
         <v>1.90879</v>
       </c>
       <c r="D43">
-        <v>2.5004200000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>2.4165000000000001</v>
+      </c>
+      <c r="E43">
+        <v>2.6917499999999999</v>
+      </c>
+      <c r="F43">
+        <v>2.8096700000000001</v>
+      </c>
+      <c r="G43">
+        <v>2.3635799999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="10"/>
       <c r="C44">
         <v>1.9394199999999999</v>
       </c>
       <c r="D44">
-        <v>2.5880800000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>2.33487</v>
+      </c>
+      <c r="E44">
+        <v>2.7162099999999998</v>
+      </c>
+      <c r="F44">
+        <v>2.7865799999999998</v>
+      </c>
+      <c r="G44">
+        <v>2.5397500000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="10"/>
       <c r="C45">
         <v>1.91571</v>
       </c>
       <c r="D45">
-        <v>2.5337100000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>2.2882500000000001</v>
+      </c>
+      <c r="E45">
+        <v>2.7919200000000002</v>
+      </c>
+      <c r="F45">
+        <v>2.8088799999999998</v>
+      </c>
+      <c r="G45">
+        <v>2.4602900000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="10"/>
       <c r="C46">
         <v>1.9131199999999999</v>
       </c>
       <c r="D46">
-        <v>2.4996700000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>2.2456200000000002</v>
+      </c>
+      <c r="E46">
+        <v>2.7637499999999999</v>
+      </c>
+      <c r="F46">
+        <v>2.8359999999999999</v>
+      </c>
+      <c r="G46">
+        <v>2.7912499999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="10">
         <v>5</v>
       </c>
@@ -15806,91 +16359,181 @@
         <v>5.7973699999999999</v>
       </c>
       <c r="D48">
-        <v>6.7568299999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>6.6537499999999996</v>
+      </c>
+      <c r="E48">
+        <v>7.10154</v>
+      </c>
+      <c r="F48">
+        <v>7.0620799999999999</v>
+      </c>
+      <c r="G48">
+        <v>6.6750400000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="10"/>
       <c r="C49">
         <v>6.00617</v>
       </c>
       <c r="D49">
-        <v>6.7305400000000004</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>6.5745800000000001</v>
+      </c>
+      <c r="E49">
+        <v>7.1672900000000004</v>
+      </c>
+      <c r="F49">
+        <v>7.0574599999999998</v>
+      </c>
+      <c r="G49">
+        <v>7.0600399999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="10"/>
       <c r="C50">
         <v>5.84938</v>
       </c>
       <c r="D50">
-        <v>6.95512</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>6.6856200000000001</v>
+      </c>
+      <c r="E50">
+        <v>7.1344200000000004</v>
+      </c>
+      <c r="F50">
+        <v>7.1000399999999999</v>
+      </c>
+      <c r="G50">
+        <v>7.1762899999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="10"/>
       <c r="C51">
         <v>5.8506200000000002</v>
       </c>
       <c r="D51">
-        <v>7.0615399999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>6.4874599999999996</v>
+      </c>
+      <c r="E51">
+        <v>7.0513300000000001</v>
+      </c>
+      <c r="F51">
+        <v>7.04542</v>
+      </c>
+      <c r="G51">
+        <v>7.26417</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="10"/>
       <c r="C52">
         <v>5.8706300000000002</v>
       </c>
       <c r="D52">
-        <v>6.9238299999999997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>6.4993299999999996</v>
+      </c>
+      <c r="E52">
+        <v>7.2112100000000003</v>
+      </c>
+      <c r="F52">
+        <v>7.0180400000000001</v>
+      </c>
+      <c r="G52">
+        <v>7.3383799999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="10"/>
       <c r="C53">
         <v>5.9908299999999999</v>
       </c>
       <c r="D53">
-        <v>6.9710400000000003</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>6.6021299999999998</v>
+      </c>
+      <c r="E53">
+        <v>7.07104</v>
+      </c>
+      <c r="F53">
+        <v>7.0771199999999999</v>
+      </c>
+      <c r="G53">
+        <v>7.1375799999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="10"/>
       <c r="C54">
         <v>5.98292</v>
       </c>
       <c r="D54">
-        <v>7.0242500000000003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>6.6512099999999998</v>
+      </c>
+      <c r="E54">
+        <v>7.1377499999999996</v>
+      </c>
+      <c r="F54">
+        <v>7.0027499999999998</v>
+      </c>
+      <c r="G54">
+        <v>7.3490799999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="10"/>
       <c r="C55">
         <v>5.8617100000000004</v>
       </c>
       <c r="D55">
-        <v>7.0073299999999996</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>6.6345000000000001</v>
+      </c>
+      <c r="E55">
+        <v>7.01471</v>
+      </c>
+      <c r="F55">
+        <v>7.0758700000000001</v>
+      </c>
+      <c r="G55">
+        <v>7.2140000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="10"/>
       <c r="C56">
         <v>5.8208299999999999</v>
       </c>
       <c r="D56">
-        <v>6.9009200000000002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>6.6520400000000004</v>
+      </c>
+      <c r="E56">
+        <v>6.9884199999999996</v>
+      </c>
+      <c r="F56">
+        <v>7.2212899999999998</v>
+      </c>
+      <c r="G56">
+        <v>6.9071199999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="10"/>
       <c r="C57">
         <v>5.9027500000000002</v>
       </c>
       <c r="D57">
-        <v>7.1462899999999996</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>6.67</v>
+      </c>
+      <c r="E57">
+        <v>7.1338299999999997</v>
+      </c>
+      <c r="F57">
+        <v>7.2653299999999996</v>
+      </c>
+      <c r="G57">
+        <v>7.3084199999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="10">
         <v>6</v>
       </c>
@@ -15898,91 +16541,181 @@
         <v>20.930900000000001</v>
       </c>
       <c r="D59">
-        <v>23.812200000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>22.622599999999998</v>
+      </c>
+      <c r="E59">
+        <v>23.095500000000001</v>
+      </c>
+      <c r="F59">
+        <v>23.422799999999999</v>
+      </c>
+      <c r="G59">
+        <v>23.2895</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="10"/>
       <c r="C60">
         <v>21.325700000000001</v>
       </c>
       <c r="D60">
-        <v>25.470099999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>22.5702</v>
+      </c>
+      <c r="E60">
+        <v>23.332100000000001</v>
+      </c>
+      <c r="F60">
+        <v>24.507300000000001</v>
+      </c>
+      <c r="G60">
+        <v>24.581499999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="10"/>
       <c r="C61">
         <v>21.177499999999998</v>
       </c>
       <c r="D61">
-        <v>24.176600000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>22.299499999999998</v>
+      </c>
+      <c r="E61">
+        <v>23.569800000000001</v>
+      </c>
+      <c r="F61">
+        <v>23.192</v>
+      </c>
+      <c r="G61">
+        <v>23.1187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="10"/>
       <c r="C62">
         <v>21.048500000000001</v>
       </c>
       <c r="D62">
-        <v>24.338799999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>24.158200000000001</v>
+      </c>
+      <c r="E62">
+        <v>23.537600000000001</v>
+      </c>
+      <c r="F62">
+        <v>24.567499999999999</v>
+      </c>
+      <c r="G62">
+        <v>24.869</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="10"/>
       <c r="C63">
         <v>21.250900000000001</v>
       </c>
       <c r="D63">
-        <v>25.046299999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>24.184999999999999</v>
+      </c>
+      <c r="E63">
+        <v>23.495000000000001</v>
+      </c>
+      <c r="F63">
+        <v>23.526199999999999</v>
+      </c>
+      <c r="G63">
+        <v>23.4605</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="10"/>
       <c r="C64">
         <v>21.174600000000002</v>
       </c>
       <c r="D64">
-        <v>24.228899999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>22.810700000000001</v>
+      </c>
+      <c r="E64">
+        <v>23.2698</v>
+      </c>
+      <c r="F64">
+        <v>23.168299999999999</v>
+      </c>
+      <c r="G64">
+        <v>23.463200000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="10"/>
       <c r="C65">
         <v>21.024899999999999</v>
       </c>
       <c r="D65">
-        <v>24.215699999999998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>22.747800000000002</v>
+      </c>
+      <c r="E65">
+        <v>23.300799999999999</v>
+      </c>
+      <c r="F65">
+        <v>23.3261</v>
+      </c>
+      <c r="G65">
+        <v>23.534199999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="10"/>
       <c r="C66">
         <v>21.8749</v>
       </c>
       <c r="D66">
-        <v>24.732500000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>22.8353</v>
+      </c>
+      <c r="E66">
+        <v>23.278500000000001</v>
+      </c>
+      <c r="F66">
+        <v>24.449200000000001</v>
+      </c>
+      <c r="G66">
+        <v>23.1112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="10"/>
       <c r="C67">
         <v>21.0931</v>
       </c>
       <c r="D67">
-        <v>24.288799999999998</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>24.223299999999998</v>
+      </c>
+      <c r="E67">
+        <v>23.576699999999999</v>
+      </c>
+      <c r="F67">
+        <v>22.833600000000001</v>
+      </c>
+      <c r="G67">
+        <v>23.116099999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="10"/>
       <c r="C68">
         <v>21.028300000000002</v>
       </c>
       <c r="D68">
-        <v>23.898</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>23.610700000000001</v>
+      </c>
+      <c r="E68">
+        <v>24.465299999999999</v>
+      </c>
+      <c r="F68">
+        <v>23.319199999999999</v>
+      </c>
+      <c r="G68">
+        <v>23.378</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="10">
         <v>7</v>
       </c>
@@ -15990,91 +16723,181 @@
         <v>70.722800000000007</v>
       </c>
       <c r="D70">
-        <v>81.439300000000003</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>74.080299999999994</v>
+      </c>
+      <c r="E70">
+        <v>75.462299999999999</v>
+      </c>
+      <c r="F70">
+        <v>75.296099999999996</v>
+      </c>
+      <c r="G70">
+        <v>75.913200000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="10"/>
       <c r="C71">
         <v>73.800700000000006</v>
       </c>
       <c r="D71">
-        <v>81.032700000000006</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>78.850700000000003</v>
+      </c>
+      <c r="E71">
+        <v>77.733000000000004</v>
+      </c>
+      <c r="F71">
+        <v>79.010900000000007</v>
+      </c>
+      <c r="G71">
+        <v>77.809899999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="10"/>
       <c r="C72">
         <v>70.402699999999996</v>
       </c>
       <c r="D72">
-        <v>81.531499999999994</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>74.487499999999997</v>
+      </c>
+      <c r="E72">
+        <v>75.274500000000003</v>
+      </c>
+      <c r="F72">
+        <v>74.985100000000003</v>
+      </c>
+      <c r="G72">
+        <v>75.340299999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="10"/>
       <c r="C73">
         <v>73.364699999999999</v>
       </c>
       <c r="D73">
-        <v>82.042299999999997</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>74.0809</v>
+      </c>
+      <c r="E73">
+        <v>77.422899999999998</v>
+      </c>
+      <c r="F73">
+        <v>74.972200000000001</v>
+      </c>
+      <c r="G73">
+        <v>75.872500000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="10"/>
       <c r="C74">
         <v>70.756399999999999</v>
       </c>
       <c r="D74">
-        <v>81.915300000000002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>74.249399999999994</v>
+      </c>
+      <c r="E74">
+        <v>75.292900000000003</v>
+      </c>
+      <c r="F74">
+        <v>74.788700000000006</v>
+      </c>
+      <c r="G74">
+        <v>75.487399999999994</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="10"/>
       <c r="C75">
         <v>73.168499999999995</v>
       </c>
       <c r="D75">
-        <v>81.550700000000006</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>74.178600000000003</v>
+      </c>
+      <c r="E75">
+        <v>74.588099999999997</v>
+      </c>
+      <c r="F75">
+        <v>77.102000000000004</v>
+      </c>
+      <c r="G75">
+        <v>75.052700000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="10"/>
       <c r="C76">
         <v>70.447699999999998</v>
       </c>
       <c r="D76">
-        <v>81.598200000000006</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>74.795299999999997</v>
+      </c>
+      <c r="E76">
+        <v>74.950199999999995</v>
+      </c>
+      <c r="F76">
+        <v>74.457499999999996</v>
+      </c>
+      <c r="G76">
+        <v>77.907399999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="10"/>
       <c r="C77">
         <v>70.328500000000005</v>
       </c>
       <c r="D77">
-        <v>81.564999999999998</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>74.284499999999994</v>
+      </c>
+      <c r="E77">
+        <v>75.046999999999997</v>
+      </c>
+      <c r="F77">
+        <v>74.743300000000005</v>
+      </c>
+      <c r="G77">
+        <v>74.609099999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="10"/>
       <c r="C78">
         <v>70.900999999999996</v>
       </c>
       <c r="D78">
-        <v>81.596199999999996</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>77.540099999999995</v>
+      </c>
+      <c r="E78">
+        <v>75.350300000000004</v>
+      </c>
+      <c r="F78">
+        <v>74.829499999999996</v>
+      </c>
+      <c r="G78">
+        <v>77.370500000000007</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="10"/>
       <c r="C79">
         <v>70.516999999999996</v>
       </c>
       <c r="D79">
-        <v>80.770300000000006</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>74.439800000000005</v>
+      </c>
+      <c r="E79">
+        <v>74.766599999999997</v>
+      </c>
+      <c r="F79">
+        <v>74.653800000000004</v>
+      </c>
+      <c r="G79">
+        <v>75.066100000000006</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="10">
         <v>8</v>
       </c>
@@ -16082,91 +16905,181 @@
         <v>252.244</v>
       </c>
       <c r="D81">
-        <v>293.20499999999998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>269.58100000000002</v>
+      </c>
+      <c r="E81">
+        <v>267.88400000000001</v>
+      </c>
+      <c r="F81">
+        <v>271.77699999999999</v>
+      </c>
+      <c r="G81">
+        <v>271.529</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="10"/>
       <c r="C82">
         <v>261.36599999999999</v>
       </c>
       <c r="D82">
-        <v>295.31400000000002</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>275.77499999999998</v>
+      </c>
+      <c r="E82">
+        <v>273.85300000000001</v>
+      </c>
+      <c r="F82">
+        <v>266.94600000000003</v>
+      </c>
+      <c r="G82">
+        <v>275.72500000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="10"/>
       <c r="C83">
         <v>255.26900000000001</v>
       </c>
       <c r="D83">
-        <v>292.30599999999998</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>271.14699999999999</v>
+      </c>
+      <c r="E83">
+        <v>268.185</v>
+      </c>
+      <c r="F83">
+        <v>268.77</v>
+      </c>
+      <c r="G83">
+        <v>272.88600000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="10"/>
       <c r="C84">
         <v>254.1</v>
       </c>
       <c r="D84">
-        <v>295.08100000000002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>267.74900000000002</v>
+      </c>
+      <c r="E84">
+        <v>267.40199999999999</v>
+      </c>
+      <c r="F84">
+        <v>271.17399999999998</v>
+      </c>
+      <c r="G84">
+        <v>272.49900000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="10"/>
       <c r="C85">
         <v>252.60599999999999</v>
       </c>
       <c r="D85">
-        <v>296.84399999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>266.19299999999998</v>
+      </c>
+      <c r="E85">
+        <v>272.94200000000001</v>
+      </c>
+      <c r="F85">
+        <v>267.43700000000001</v>
+      </c>
+      <c r="G85">
+        <v>270.44200000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="10"/>
       <c r="C86">
         <v>257.13099999999997</v>
       </c>
       <c r="D86">
-        <v>295.40100000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>266.52999999999997</v>
+      </c>
+      <c r="E86">
+        <v>266.80399999999997</v>
+      </c>
+      <c r="F86">
+        <v>266.79899999999998</v>
+      </c>
+      <c r="G86">
+        <v>270.75400000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="10"/>
       <c r="C87">
         <v>254.946</v>
       </c>
       <c r="D87">
-        <v>295.70699999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>268.24400000000003</v>
+      </c>
+      <c r="E87">
+        <v>267.95800000000003</v>
+      </c>
+      <c r="F87">
+        <v>266.79899999999998</v>
+      </c>
+      <c r="G87">
+        <v>273.572</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="10"/>
       <c r="C88">
         <v>259.13200000000001</v>
       </c>
       <c r="D88">
-        <v>295.66800000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>268.065</v>
+      </c>
+      <c r="E88">
+        <v>268.11599999999999</v>
+      </c>
+      <c r="F88">
+        <v>271.702</v>
+      </c>
+      <c r="G88">
+        <v>271.21499999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="10"/>
       <c r="C89">
         <v>256.79500000000002</v>
       </c>
       <c r="D89">
-        <v>295.95999999999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>266.34100000000001</v>
+      </c>
+      <c r="E89">
+        <v>267.82</v>
+      </c>
+      <c r="F89">
+        <v>271.06299999999999</v>
+      </c>
+      <c r="G89">
+        <v>274.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="10"/>
       <c r="C90">
         <v>254.869</v>
       </c>
       <c r="D90">
-        <v>294.512</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>272.08999999999997</v>
+      </c>
+      <c r="E90">
+        <v>271.32499999999999</v>
+      </c>
+      <c r="F90">
+        <v>267.03100000000001</v>
+      </c>
+      <c r="G90">
+        <v>274.91500000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="10">
         <v>9</v>
       </c>
@@ -16174,91 +17087,181 @@
         <v>934.53399999999999</v>
       </c>
       <c r="D92">
-        <v>1075.2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>977.87300000000005</v>
+      </c>
+      <c r="E92">
+        <v>987.87</v>
+      </c>
+      <c r="F92">
+        <v>986.00599999999997</v>
+      </c>
+      <c r="G92">
+        <v>987.78</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="10"/>
       <c r="C93">
         <v>1000.09</v>
       </c>
       <c r="D93">
-        <v>1087.79</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>1043.58</v>
+      </c>
+      <c r="E93">
+        <v>979.46299999999997</v>
+      </c>
+      <c r="F93">
+        <v>973.48800000000006</v>
+      </c>
+      <c r="G93">
+        <v>994.00099999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="10"/>
       <c r="C94">
         <v>944.65700000000004</v>
       </c>
       <c r="D94">
-        <v>1088.28</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>977.26400000000001</v>
+      </c>
+      <c r="E94">
+        <v>1045.8599999999999</v>
+      </c>
+      <c r="F94">
+        <v>979.49800000000005</v>
+      </c>
+      <c r="G94">
+        <v>989.60599999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="10"/>
       <c r="C95">
         <v>938.23599999999999</v>
       </c>
       <c r="D95">
-        <v>1087.1300000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>976.13400000000001</v>
+      </c>
+      <c r="E95">
+        <v>972.85799999999995</v>
+      </c>
+      <c r="F95">
+        <v>980.06500000000005</v>
+      </c>
+      <c r="G95">
+        <v>993.97900000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="10"/>
       <c r="C96">
         <v>939.19399999999996</v>
       </c>
       <c r="D96">
-        <v>1084.95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>1043.3800000000001</v>
+      </c>
+      <c r="E96">
+        <v>970.69100000000003</v>
+      </c>
+      <c r="F96">
+        <v>980.29</v>
+      </c>
+      <c r="G96">
+        <v>982.74</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="10"/>
       <c r="C97">
         <v>956.1</v>
       </c>
       <c r="D97">
-        <v>1086.92</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>979.20500000000004</v>
+      </c>
+      <c r="E97">
+        <v>983.25900000000001</v>
+      </c>
+      <c r="F97">
+        <v>999.846</v>
+      </c>
+      <c r="G97">
+        <v>980.94500000000005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="10"/>
       <c r="C98">
         <v>985.55799999999999</v>
       </c>
       <c r="D98">
-        <v>1082.3399999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>978.63199999999995</v>
+      </c>
+      <c r="E98">
+        <v>1037.9000000000001</v>
+      </c>
+      <c r="F98">
+        <v>975.26900000000001</v>
+      </c>
+      <c r="G98">
+        <v>992.25199999999995</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="10"/>
       <c r="C99">
         <v>934.98699999999997</v>
       </c>
       <c r="D99">
-        <v>1075.49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>1047.8499999999999</v>
+      </c>
+      <c r="E99">
+        <v>982.09900000000005</v>
+      </c>
+      <c r="F99">
+        <v>967.94899999999996</v>
+      </c>
+      <c r="G99">
+        <v>1049.48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="10"/>
       <c r="C100">
         <v>941.85299999999995</v>
       </c>
       <c r="D100">
-        <v>1081.51</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>984.58399999999995</v>
+      </c>
+      <c r="E100">
+        <v>973.54399999999998</v>
+      </c>
+      <c r="F100">
+        <v>990.05600000000004</v>
+      </c>
+      <c r="G100">
+        <v>988.36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="10"/>
       <c r="C101">
         <v>953.19600000000003</v>
       </c>
       <c r="D101">
-        <v>1088.32</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>976.57299999999998</v>
+      </c>
+      <c r="E101">
+        <v>1029.07</v>
+      </c>
+      <c r="F101">
+        <v>969.29100000000005</v>
+      </c>
+      <c r="G101">
+        <v>991.89200000000005</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="10">
         <v>10</v>
       </c>
@@ -16266,121 +17269,181 @@
         <v>3528.75</v>
       </c>
       <c r="D103">
-        <v>3828.12</v>
+        <v>3517.19</v>
       </c>
       <c r="E103">
-        <v>5376.74</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>3598.03</v>
+      </c>
+      <c r="F103">
+        <v>3516.34</v>
+      </c>
+      <c r="G103">
+        <v>3673.59</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="10"/>
       <c r="C104">
         <v>3509.6</v>
       </c>
       <c r="D104">
-        <v>3772.63</v>
+        <v>3537.82</v>
       </c>
       <c r="E104">
-        <v>5491.41</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>3691.89</v>
+      </c>
+      <c r="F104">
+        <v>3565.2</v>
+      </c>
+      <c r="G104">
+        <v>3592.82</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="10"/>
       <c r="C105">
         <v>3468.14</v>
       </c>
       <c r="D105">
-        <v>3831.18</v>
+        <v>3519.12</v>
       </c>
       <c r="E105">
-        <v>5374.47</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>3572.75</v>
+      </c>
+      <c r="F105">
+        <v>3538.57</v>
+      </c>
+      <c r="G105">
+        <v>3719.68</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="10"/>
       <c r="C106">
         <v>3542.46</v>
       </c>
       <c r="D106">
-        <v>3766.59</v>
+        <v>3516.92</v>
       </c>
       <c r="E106">
-        <v>5435.35</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>3700.21</v>
+      </c>
+      <c r="F106">
+        <v>3501.31</v>
+      </c>
+      <c r="G106">
+        <v>3595.1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="10"/>
       <c r="C107">
         <v>3501.31</v>
       </c>
       <c r="D107">
-        <v>3843.76</v>
+        <v>3587.93</v>
       </c>
       <c r="E107">
-        <v>5383.1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>3584.44</v>
+      </c>
+      <c r="F107">
+        <v>3520.97</v>
+      </c>
+      <c r="G107">
+        <v>3653.7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="10"/>
       <c r="C108">
         <v>3506.74</v>
       </c>
       <c r="D108">
-        <v>3810.65</v>
+        <v>3527.75</v>
       </c>
       <c r="E108">
-        <v>5394.07</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>3582.45</v>
+      </c>
+      <c r="F108">
+        <v>3529.75</v>
+      </c>
+      <c r="G108">
+        <v>3617.56</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="10"/>
       <c r="C109">
         <v>3510.01</v>
       </c>
       <c r="D109">
-        <v>3783.52</v>
+        <v>3544.65</v>
       </c>
       <c r="E109">
-        <v>5432.58</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>3597.75</v>
+      </c>
+      <c r="F109">
+        <v>3606.66</v>
+      </c>
+      <c r="G109">
+        <v>3557.76</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="10"/>
       <c r="C110">
         <v>3538.35</v>
       </c>
       <c r="D110">
-        <v>3755.5</v>
+        <v>3581.49</v>
       </c>
       <c r="E110">
-        <v>5405.23</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>3619.12</v>
+      </c>
+      <c r="F110">
+        <v>3622.23</v>
+      </c>
+      <c r="G110">
+        <v>3625.04</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="10"/>
       <c r="C111">
         <v>3527.89</v>
       </c>
       <c r="D111">
-        <v>3788.29</v>
+        <v>3529.43</v>
       </c>
       <c r="E111">
-        <v>5441.76</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>3670.68</v>
+      </c>
+      <c r="F111">
+        <v>3568.83</v>
+      </c>
+      <c r="G111">
+        <v>3607.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="10"/>
       <c r="C112">
         <v>3511.39</v>
       </c>
       <c r="D112">
-        <v>3785.65</v>
+        <v>3539.74</v>
       </c>
       <c r="E112">
-        <v>5388.72</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>3581.19</v>
+      </c>
+      <c r="F112">
+        <v>3538.66</v>
+      </c>
+      <c r="G112">
+        <v>3556.44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="10">
         <v>11</v>
       </c>
@@ -16388,258 +17451,602 @@
         <v>12312.1</v>
       </c>
       <c r="D114">
-        <v>12986.2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>12200.4</v>
+      </c>
+      <c r="E114">
+        <v>12196.1</v>
+      </c>
+      <c r="F114">
+        <v>12336.3</v>
+      </c>
+      <c r="G114">
+        <v>12674.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="10"/>
       <c r="C115">
         <v>12320.4</v>
       </c>
       <c r="D115">
-        <v>13026</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>12099</v>
+      </c>
+      <c r="E115">
+        <v>12387.4</v>
+      </c>
+      <c r="F115">
+        <v>12591.8</v>
+      </c>
+      <c r="G115">
+        <v>12689</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="10"/>
       <c r="C116">
         <v>12410.9</v>
       </c>
       <c r="D116">
-        <v>13027.5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>12212.7</v>
+      </c>
+      <c r="E116">
+        <v>12501.2</v>
+      </c>
+      <c r="F116">
+        <v>12148.8</v>
+      </c>
+      <c r="G116">
+        <v>12726.9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="10"/>
       <c r="C117">
         <v>12405.4</v>
       </c>
       <c r="D117">
-        <v>13066.3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>12059.6</v>
+      </c>
+      <c r="E117">
+        <v>12615</v>
+      </c>
+      <c r="F117">
+        <v>12529</v>
+      </c>
+      <c r="G117">
+        <v>12668.9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="10"/>
       <c r="C118">
         <v>12344.7</v>
       </c>
       <c r="D118">
-        <v>12880.4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>12174.4</v>
+      </c>
+      <c r="E118">
+        <v>12734.7</v>
+      </c>
+      <c r="F118">
+        <v>12588.2</v>
+      </c>
+      <c r="G118">
+        <v>12713.1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="10"/>
       <c r="C119">
         <v>12328.3</v>
       </c>
       <c r="D119">
-        <v>12957.2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>12162.7</v>
+      </c>
+      <c r="E119">
+        <v>12621.7</v>
+      </c>
+      <c r="F119">
+        <v>12288.6</v>
+      </c>
+      <c r="G119">
+        <v>12770.9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="10"/>
       <c r="C120">
         <v>12402.1</v>
       </c>
       <c r="D120">
-        <v>12781.7</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>12280.4</v>
+      </c>
+      <c r="E120">
+        <v>12496.7</v>
+      </c>
+      <c r="F120">
+        <v>12161.7</v>
+      </c>
+      <c r="G120">
+        <v>12574.1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="10"/>
       <c r="C121">
         <v>12342.6</v>
       </c>
       <c r="D121">
-        <v>12944</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>12148.5</v>
+      </c>
+      <c r="E121">
+        <v>12584.8</v>
+      </c>
+      <c r="F121">
+        <v>12223.7</v>
+      </c>
+      <c r="G121">
+        <v>12284.2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="10"/>
       <c r="C122">
         <v>12296.5</v>
       </c>
       <c r="D122">
-        <v>12995.5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>12106.4</v>
+      </c>
+      <c r="E122">
+        <v>12394.3</v>
+      </c>
+      <c r="F122">
+        <v>12378.4</v>
+      </c>
+      <c r="G122">
+        <v>12573.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="10"/>
       <c r="C123">
         <v>12317.8</v>
       </c>
       <c r="D123">
-        <v>13079.8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>12401.7</v>
+      </c>
+      <c r="E123">
+        <v>12512.9</v>
+      </c>
+      <c r="F123">
+        <v>12228.5</v>
+      </c>
+      <c r="G123">
+        <v>12583.8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="10">
         <v>12</v>
       </c>
       <c r="C125">
         <v>42174.6</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="D125">
+        <v>42174.8</v>
+      </c>
+      <c r="E125">
+        <v>43561.7</v>
+      </c>
+      <c r="F125">
+        <v>43118.9</v>
+      </c>
+      <c r="G125">
+        <v>44066.400000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="10"/>
       <c r="C126">
         <v>42341.7</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="D126">
+        <v>42695.9</v>
+      </c>
+      <c r="E126">
+        <v>44110.7</v>
+      </c>
+      <c r="F126">
+        <v>42970</v>
+      </c>
+      <c r="G126">
+        <v>43605.8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="10"/>
       <c r="C127">
         <v>42375.5</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="D127">
+        <v>42624.1</v>
+      </c>
+      <c r="E127">
+        <v>43941.7</v>
+      </c>
+      <c r="F127">
+        <v>43463.5</v>
+      </c>
+      <c r="G127">
+        <v>43874.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="10"/>
       <c r="C128">
         <v>42193.7</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128">
+        <v>42988.800000000003</v>
+      </c>
+      <c r="E128">
+        <v>43942.9</v>
+      </c>
+      <c r="F128">
+        <v>42633</v>
+      </c>
+      <c r="G128">
+        <v>43754.3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="10"/>
       <c r="C129">
         <v>42267.199999999997</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129">
+        <v>42971.199999999997</v>
+      </c>
+      <c r="E129">
+        <v>44138.2</v>
+      </c>
+      <c r="F129">
+        <v>42863.5</v>
+      </c>
+      <c r="G129">
+        <v>43953.599999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="10"/>
       <c r="C130">
         <v>42251.6</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130">
+        <v>42851.3</v>
+      </c>
+      <c r="E130">
+        <v>44069.2</v>
+      </c>
+      <c r="F130">
+        <v>43265.8</v>
+      </c>
+      <c r="G130">
+        <v>43994.2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="10"/>
       <c r="C131">
         <v>42400.6</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131">
+        <v>42199.6</v>
+      </c>
+      <c r="E131">
+        <v>44093</v>
+      </c>
+      <c r="F131">
+        <v>42824.1</v>
+      </c>
+      <c r="G131">
+        <v>44097.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="10"/>
       <c r="C132">
         <v>42179.6</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132">
+        <v>43279.7</v>
+      </c>
+      <c r="E132">
+        <v>44070.6</v>
+      </c>
+      <c r="F132">
+        <v>42708.1</v>
+      </c>
+      <c r="G132">
+        <v>44204.2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="10"/>
       <c r="C133">
         <v>42293.2</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133">
+        <v>42051.5</v>
+      </c>
+      <c r="E133">
+        <v>44024.1</v>
+      </c>
+      <c r="F133">
+        <v>43523.5</v>
+      </c>
+      <c r="G133">
+        <v>44087.8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="10"/>
       <c r="C134">
         <v>42367.1</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D134">
+        <v>42669</v>
+      </c>
+      <c r="E134">
+        <v>43967.6</v>
+      </c>
+      <c r="F134">
+        <v>43161.599999999999</v>
+      </c>
+      <c r="G134">
+        <v>43945.2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="10">
         <v>13</v>
       </c>
       <c r="C136">
         <v>227692</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136">
+        <v>163134</v>
+      </c>
+      <c r="E136">
+        <v>166965</v>
+      </c>
+      <c r="F136">
+        <v>174796</v>
+      </c>
+      <c r="G136">
+        <v>159694</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="10"/>
       <c r="C137">
         <v>191951</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137">
+        <v>165410</v>
+      </c>
+      <c r="E137">
+        <v>176852</v>
+      </c>
+      <c r="F137">
+        <v>174816</v>
+      </c>
+      <c r="G137">
+        <v>174468</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" s="10"/>
       <c r="C138">
         <v>188072</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138">
+        <v>165186</v>
+      </c>
+      <c r="E138">
+        <v>176199</v>
+      </c>
+      <c r="F138">
+        <v>178221</v>
+      </c>
+      <c r="G138">
+        <v>170039</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="10"/>
       <c r="C139">
         <v>185452</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139">
+        <v>182690</v>
+      </c>
+      <c r="E139">
+        <v>184130</v>
+      </c>
+      <c r="F139">
+        <v>161764</v>
+      </c>
+      <c r="G139">
+        <v>162043</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="10"/>
       <c r="C140">
         <v>205561</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140">
+        <v>171791</v>
+      </c>
+      <c r="E140">
+        <v>171173</v>
+      </c>
+      <c r="F140">
+        <v>174278</v>
+      </c>
+      <c r="G140">
+        <v>160192</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="10"/>
       <c r="C141">
         <v>206556</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141">
+        <v>170146</v>
+      </c>
+      <c r="E141">
+        <v>167885</v>
+      </c>
+      <c r="F141">
+        <v>161774</v>
+      </c>
+      <c r="G141">
+        <v>162979</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" s="10"/>
       <c r="C142">
         <v>192463</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142">
+        <v>167192</v>
+      </c>
+      <c r="E142">
+        <v>170715</v>
+      </c>
+      <c r="F142">
+        <v>172375</v>
+      </c>
+      <c r="G142">
+        <v>169643</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="10"/>
       <c r="C143">
         <v>191499</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143">
+        <v>170279</v>
+      </c>
+      <c r="E143">
+        <v>190264</v>
+      </c>
+      <c r="F143">
+        <v>160332</v>
+      </c>
+      <c r="G143">
+        <v>177962</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="10"/>
       <c r="C144">
         <v>196022</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144">
+        <v>167956</v>
+      </c>
+      <c r="E144">
+        <v>185863</v>
+      </c>
+      <c r="F144">
+        <v>173666</v>
+      </c>
+      <c r="G144">
+        <v>173597</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" s="10"/>
       <c r="C145">
         <v>187940</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D145">
+        <v>166328</v>
+      </c>
+      <c r="E145">
+        <v>178182</v>
+      </c>
+      <c r="F145">
+        <v>167252</v>
+      </c>
+      <c r="G145">
+        <v>167024</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="10">
         <v>14</v>
       </c>
-      <c r="C147" s="11">
-        <v>10650100</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="C147" s="5">
+        <v>10655000</v>
+      </c>
+      <c r="D147" s="5">
+        <v>4999080</v>
+      </c>
+      <c r="E147" s="5">
+        <v>8518320</v>
+      </c>
+      <c r="F147" s="5">
+        <v>9000000</v>
+      </c>
+      <c r="G147" s="5">
+        <v>4832400</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" s="10"/>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="C148" s="5"/>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" s="10"/>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="C149" s="5"/>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="10"/>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:7">
       <c r="A151" s="10"/>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:7">
       <c r="A152" s="10"/>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:7">
       <c r="A153" s="10"/>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:7">
       <c r="A154" s="10"/>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:7">
       <c r="A155" s="10"/>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:7">
       <c r="A156" s="10"/>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:7">
       <c r="A158" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:7">
       <c r="A159" s="10"/>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:7">
       <c r="A160" s="10"/>
     </row>
     <row r="161" spans="1:1">
@@ -16665,8 +18072,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="A136:A145"/>
     <mergeCell ref="A147:A156"/>
     <mergeCell ref="A158:A167"/>
     <mergeCell ref="D2:G2"/>
@@ -16684,6 +18089,8 @@
     <mergeCell ref="A37:A46"/>
     <mergeCell ref="A48:A57"/>
     <mergeCell ref="A59:A68"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="A136:A145"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA2AF5E-604B-734B-B6B2-992BF82BDC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C77071-51E2-DD46-B227-67483419449C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="2780" windowWidth="17520" windowHeight="13300" firstSheet="2" activeTab="8" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
+    <workbookView xWindow="0" yWindow="3100" windowWidth="17520" windowHeight="13300" firstSheet="2" activeTab="8" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
   <sheets>
     <sheet name="result of all" sheetId="1" r:id="rId1"/>
@@ -14915,8 +14915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC998C5-C8A9-F848-83B4-3EC7458A1FFA}">
   <dimension ref="A2:X167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148:C149"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="K148" sqref="K148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -15939,9 +15939,9 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W22" s="5" t="e">
+      <c r="W22" s="5">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>9712450</v>
       </c>
       <c r="X22" s="5" t="e">
         <f t="shared" si="13"/>
@@ -17971,7 +17971,7 @@
         <v>173597</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:11">
       <c r="A145" s="10"/>
       <c r="C145">
         <v>187940</v>
@@ -17989,7 +17989,7 @@
         <v>167024</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:11">
       <c r="A147" s="10">
         <v>14</v>
       </c>
@@ -18008,45 +18008,48 @@
       <c r="G147" s="5">
         <v>4832400</v>
       </c>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="K147" s="5">
+        <v>9712450</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="10"/>
       <c r="C148" s="5"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:11">
       <c r="A149" s="10"/>
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:11">
       <c r="A150" s="10"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:11">
       <c r="A151" s="10"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:11">
       <c r="A152" s="10"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:11">
       <c r="A153" s="10"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:11">
       <c r="A154" s="10"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:11">
       <c r="A155" s="10"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:11">
       <c r="A156" s="10"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:11">
       <c r="A158" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:11">
       <c r="A159" s="10"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:11">
       <c r="A160" s="10"/>
     </row>
     <row r="161" spans="1:1">

--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA2AF5E-604B-734B-B6B2-992BF82BDC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD576663-0D80-884E-8EDE-FF8716098EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="2780" windowWidth="17520" windowHeight="13300" firstSheet="2" activeTab="8" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
+    <workbookView xWindow="0" yWindow="3100" windowWidth="17520" windowHeight="13300" firstSheet="2" activeTab="8" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
   <sheets>
     <sheet name="result of all" sheetId="1" r:id="rId1"/>
@@ -3141,34 +3141,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9.5875000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.19245439999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.59237929999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.9765450000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.0908420000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>22.116330000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>73.614369999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>265.53390000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>967.00579999999991</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3632.4110000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14381,9 +14381,9 @@
         <f>Grover!V9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M4" t="e">
+      <c r="M4">
         <f>Grover!W9</f>
-        <v>#DIV/0!</v>
+        <v>9.5875000000000002E-2</v>
       </c>
       <c r="N4" t="e">
         <f>Grover!X9</f>
@@ -14426,9 +14426,9 @@
         <f>Grover!V10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M5" t="e">
+      <c r="M5">
         <f>Grover!W10</f>
-        <v>#DIV/0!</v>
+        <v>0.19245439999999997</v>
       </c>
       <c r="N5" t="e">
         <f>Grover!X10</f>
@@ -14471,9 +14471,9 @@
         <f>Grover!V11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M6" t="e">
+      <c r="M6">
         <f>Grover!W11</f>
-        <v>#DIV/0!</v>
+        <v>0.59237929999999994</v>
       </c>
       <c r="N6" t="e">
         <f>Grover!X11</f>
@@ -14516,9 +14516,9 @@
         <f>Grover!V12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M7" t="e">
+      <c r="M7">
         <f>Grover!W12</f>
-        <v>#DIV/0!</v>
+        <v>1.9765450000000002</v>
       </c>
       <c r="N7" t="e">
         <f>Grover!X12</f>
@@ -14561,9 +14561,9 @@
         <f>Grover!V13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" t="e">
+      <c r="M8">
         <f>Grover!W13</f>
-        <v>#DIV/0!</v>
+        <v>6.0908420000000003</v>
       </c>
       <c r="N8" t="e">
         <f>Grover!X13</f>
@@ -14606,9 +14606,9 @@
         <f>Grover!V14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" t="e">
+      <c r="M9">
         <f>Grover!W14</f>
-        <v>#DIV/0!</v>
+        <v>22.116330000000001</v>
       </c>
       <c r="N9" t="e">
         <f>Grover!X14</f>
@@ -14651,9 +14651,9 @@
         <f>Grover!V15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" t="e">
+      <c r="M10">
         <f>Grover!W15</f>
-        <v>#DIV/0!</v>
+        <v>73.614369999999994</v>
       </c>
       <c r="N10" t="e">
         <f>Grover!X15</f>
@@ -14696,9 +14696,9 @@
         <f>Grover!V16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M11" t="e">
+      <c r="M11">
         <f>Grover!W16</f>
-        <v>#DIV/0!</v>
+        <v>265.53390000000002</v>
       </c>
       <c r="N11" t="e">
         <f>Grover!X16</f>
@@ -14741,9 +14741,9 @@
         <f>Grover!V17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" t="e">
+      <c r="M12">
         <f>Grover!W17</f>
-        <v>#DIV/0!</v>
+        <v>967.00579999999991</v>
       </c>
       <c r="N12" t="e">
         <f>Grover!X17</f>
@@ -14786,9 +14786,9 @@
         <f>Grover!V18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M13" t="e">
+      <c r="M13">
         <f>Grover!W18</f>
-        <v>#DIV/0!</v>
+        <v>3632.4110000000001</v>
       </c>
       <c r="N13" t="e">
         <f>Grover!X18</f>
@@ -14915,8 +14915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC998C5-C8A9-F848-83B4-3EC7458A1FFA}">
   <dimension ref="A2:X167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148:C149"/>
+    <sheetView tabSelected="1" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -14993,6 +14993,9 @@
       <c r="G4">
         <v>0.52229199999999998</v>
       </c>
+      <c r="K4">
+        <v>9.5792000000000002E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="6"/>
@@ -15011,6 +15014,9 @@
       <c r="G5">
         <v>0.37545800000000001</v>
       </c>
+      <c r="K5">
+        <v>9.5291000000000001E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="6"/>
@@ -15029,6 +15035,9 @@
       <c r="G6">
         <v>0.33504200000000001</v>
       </c>
+      <c r="K6">
+        <v>9.8083000000000004E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="6"/>
@@ -15046,6 +15055,9 @@
       </c>
       <c r="G7">
         <v>0.32770899999999997</v>
+      </c>
+      <c r="K7">
+        <v>9.6500000000000002E-2</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>4</v>
@@ -15077,6 +15089,9 @@
       <c r="G8">
         <v>0.34629199999999999</v>
       </c>
+      <c r="K8">
+        <v>9.5584000000000002E-2</v>
+      </c>
       <c r="O8" t="s">
         <v>3</v>
       </c>
@@ -15125,6 +15140,9 @@
       <c r="G9">
         <v>0.33324999999999999</v>
       </c>
+      <c r="K9">
+        <v>9.5417000000000002E-2</v>
+      </c>
       <c r="N9">
         <v>1</v>
       </c>
@@ -15160,9 +15178,9 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W9" t="e">
+      <c r="W9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>9.5875000000000002E-2</v>
       </c>
       <c r="X9" t="e">
         <f t="shared" si="0"/>
@@ -15186,6 +15204,9 @@
       <c r="G10">
         <v>0.54829099999999997</v>
       </c>
+      <c r="K10">
+        <v>9.6083000000000002E-2</v>
+      </c>
       <c r="N10">
         <v>2</v>
       </c>
@@ -15221,9 +15242,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W10" t="e">
+      <c r="W10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.19245439999999997</v>
       </c>
       <c r="X10" t="e">
         <f t="shared" si="1"/>
@@ -15247,6 +15268,9 @@
       <c r="G11">
         <v>0.317417</v>
       </c>
+      <c r="K11">
+        <v>9.6541000000000002E-2</v>
+      </c>
       <c r="N11">
         <v>3</v>
       </c>
@@ -15282,9 +15306,9 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W11" t="e">
+      <c r="W11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.59237929999999994</v>
       </c>
       <c r="X11" t="e">
         <f t="shared" si="2"/>
@@ -15308,6 +15332,9 @@
       <c r="G12">
         <v>0.44054199999999999</v>
       </c>
+      <c r="K12">
+        <v>9.4459000000000001E-2</v>
+      </c>
       <c r="N12">
         <v>4</v>
       </c>
@@ -15343,9 +15370,9 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W12" t="e">
+      <c r="W12">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.9765450000000002</v>
       </c>
       <c r="X12" t="e">
         <f t="shared" si="3"/>
@@ -15369,6 +15396,9 @@
       <c r="G13">
         <v>0.48545899999999997</v>
       </c>
+      <c r="K13">
+        <v>9.5000000000000001E-2</v>
+      </c>
       <c r="N13">
         <v>5</v>
       </c>
@@ -15404,9 +15434,9 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W13" t="e">
+      <c r="W13">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>6.0908420000000003</v>
       </c>
       <c r="X13" t="e">
         <f t="shared" si="4"/>
@@ -15449,9 +15479,9 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W14" t="e">
+      <c r="W14">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>22.116330000000001</v>
       </c>
       <c r="X14" t="e">
         <f t="shared" si="5"/>
@@ -15477,6 +15507,9 @@
       <c r="G15">
         <v>0.54612499999999997</v>
       </c>
+      <c r="K15">
+        <v>0.19220799999999999</v>
+      </c>
       <c r="N15">
         <v>7</v>
       </c>
@@ -15512,9 +15545,9 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W15" t="e">
+      <c r="W15">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>73.614369999999994</v>
       </c>
       <c r="X15" t="e">
         <f t="shared" si="6"/>
@@ -15538,6 +15571,9 @@
       <c r="G16">
         <v>0.48033399999999998</v>
       </c>
+      <c r="K16">
+        <v>0.190917</v>
+      </c>
       <c r="N16">
         <v>8</v>
       </c>
@@ -15573,9 +15609,9 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W16" t="e">
+      <c r="W16">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>265.53390000000002</v>
       </c>
       <c r="X16" t="e">
         <f t="shared" si="7"/>
@@ -15599,6 +15635,9 @@
       <c r="G17">
         <v>0.66158300000000003</v>
       </c>
+      <c r="K17">
+        <v>0.19204199999999999</v>
+      </c>
       <c r="N17">
         <v>9</v>
       </c>
@@ -15634,9 +15673,9 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W17" t="e">
+      <c r="W17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>967.00579999999991</v>
       </c>
       <c r="X17" t="e">
         <f t="shared" si="8"/>
@@ -15660,6 +15699,9 @@
       <c r="G18">
         <v>0.436334</v>
       </c>
+      <c r="K18">
+        <v>0.19637499999999999</v>
+      </c>
       <c r="N18">
         <v>10</v>
       </c>
@@ -15695,9 +15737,9 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W18" t="e">
+      <c r="W18">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>3632.4110000000001</v>
       </c>
       <c r="X18" t="e">
         <f t="shared" si="9"/>
@@ -15721,6 +15763,9 @@
       <c r="G19">
         <v>0.69554199999999999</v>
       </c>
+      <c r="K19">
+        <v>0.191084</v>
+      </c>
       <c r="N19">
         <v>11</v>
       </c>
@@ -15756,9 +15801,9 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W19" t="e">
+      <c r="W19">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>12775.78</v>
       </c>
       <c r="X19" t="e">
         <f t="shared" si="10"/>
@@ -15782,6 +15827,9 @@
       <c r="G20">
         <v>0.51437500000000003</v>
       </c>
+      <c r="K20">
+        <v>0.19354099999999999</v>
+      </c>
       <c r="N20">
         <v>12</v>
       </c>
@@ -15817,9 +15865,9 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W20" t="e">
+      <c r="W20">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>43956.039999999994</v>
       </c>
       <c r="X20" t="e">
         <f t="shared" si="11"/>
@@ -15843,6 +15891,9 @@
       <c r="G21">
         <v>0.50070800000000004</v>
       </c>
+      <c r="K21">
+        <v>0.192167</v>
+      </c>
       <c r="N21">
         <v>13</v>
       </c>
@@ -15878,9 +15929,9 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W21" t="e">
+      <c r="W21">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>185656.5</v>
       </c>
       <c r="X21" t="e">
         <f t="shared" si="12"/>
@@ -15904,6 +15955,9 @@
       <c r="G22">
         <v>0.65754100000000004</v>
       </c>
+      <c r="K22">
+        <v>0.192667</v>
+      </c>
       <c r="N22">
         <v>14</v>
       </c>
@@ -15939,9 +15993,9 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W22" s="5" t="e">
+      <c r="W22" s="5">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>9712450</v>
       </c>
       <c r="X22" s="5" t="e">
         <f t="shared" si="13"/>
@@ -15965,6 +16019,9 @@
       <c r="G23">
         <v>0.47779199999999999</v>
       </c>
+      <c r="K23">
+        <v>0.192334</v>
+      </c>
       <c r="N23">
         <v>15</v>
       </c>
@@ -15986,6 +16043,9 @@
       <c r="G24">
         <v>0.63145799999999996</v>
       </c>
+      <c r="K24">
+        <v>0.19120899999999999</v>
+      </c>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" s="10">
@@ -16005,6 +16065,9 @@
       </c>
       <c r="G26">
         <v>0.98375000000000001</v>
+      </c>
+      <c r="K26">
+        <v>0.59195900000000001</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -16024,6 +16087,9 @@
       <c r="G27">
         <v>1.19808</v>
       </c>
+      <c r="K27">
+        <v>0.59091700000000003</v>
+      </c>
     </row>
     <row r="28" spans="1:24">
       <c r="A28" s="10"/>
@@ -16042,6 +16108,9 @@
       <c r="G28">
         <v>1.1755800000000001</v>
       </c>
+      <c r="K28">
+        <v>0.59283300000000005</v>
+      </c>
     </row>
     <row r="29" spans="1:24">
       <c r="A29" s="10"/>
@@ -16060,6 +16129,9 @@
       <c r="G29">
         <v>1.1148800000000001</v>
       </c>
+      <c r="K29">
+        <v>0.59699999999999998</v>
+      </c>
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="10"/>
@@ -16078,6 +16150,9 @@
       <c r="G30">
         <v>1.1315</v>
       </c>
+      <c r="K30">
+        <v>0.58941699999999997</v>
+      </c>
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="10"/>
@@ -16096,6 +16171,9 @@
       <c r="G31">
         <v>1.08029</v>
       </c>
+      <c r="K31">
+        <v>0.59720799999999996</v>
+      </c>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="10"/>
@@ -16114,8 +16192,11 @@
       <c r="G32">
         <v>0.999583</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="K32">
+        <v>0.59308399999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="10"/>
       <c r="C33">
         <v>0.57716699999999999</v>
@@ -16132,8 +16213,11 @@
       <c r="G33">
         <v>0.99312500000000004</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="K33">
+        <v>0.59145800000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="10"/>
       <c r="C34">
         <v>0.58204199999999995</v>
@@ -16150,8 +16234,11 @@
       <c r="G34">
         <v>1.1096699999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="K34">
+        <v>0.59104199999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="10"/>
       <c r="C35">
         <v>0.57725000000000004</v>
@@ -16168,8 +16255,11 @@
       <c r="G35">
         <v>0.98799999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="K35">
+        <v>0.58887500000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="10">
         <v>4</v>
       </c>
@@ -16188,8 +16278,11 @@
       <c r="G37">
         <v>2.81704</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="K37">
+        <v>1.9623699999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="10"/>
       <c r="C38">
         <v>1.89367</v>
@@ -16206,8 +16299,11 @@
       <c r="G38">
         <v>2.6194999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="K38">
+        <v>1.99817</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="10"/>
       <c r="C39">
         <v>1.8926700000000001</v>
@@ -16224,8 +16320,11 @@
       <c r="G39">
         <v>2.6017899999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="K39">
+        <v>1.98058</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="10"/>
       <c r="C40">
         <v>1.9107099999999999</v>
@@ -16242,8 +16341,11 @@
       <c r="G40">
         <v>2.5451299999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="K40">
+        <v>1.9761200000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="10"/>
       <c r="C41">
         <v>1.9130799999999999</v>
@@ -16260,8 +16362,11 @@
       <c r="G41">
         <v>2.548</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="K41">
+        <v>1.97475</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="10"/>
       <c r="C42">
         <v>1.9139200000000001</v>
@@ -16278,8 +16383,11 @@
       <c r="G42">
         <v>2.9416699999999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="K42">
+        <v>1.97146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="10"/>
       <c r="C43">
         <v>1.90879</v>
@@ -16296,8 +16404,11 @@
       <c r="G43">
         <v>2.3635799999999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="K43">
+        <v>1.9724600000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="10"/>
       <c r="C44">
         <v>1.9394199999999999</v>
@@ -16314,8 +16425,11 @@
       <c r="G44">
         <v>2.5397500000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="K44">
+        <v>1.97096</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="10"/>
       <c r="C45">
         <v>1.91571</v>
@@ -16332,8 +16446,11 @@
       <c r="G45">
         <v>2.4602900000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="K45">
+        <v>1.9717100000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="10"/>
       <c r="C46">
         <v>1.9131199999999999</v>
@@ -16350,8 +16467,11 @@
       <c r="G46">
         <v>2.7912499999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="K46">
+        <v>1.9868699999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="10">
         <v>5</v>
       </c>
@@ -16370,8 +16490,11 @@
       <c r="G48">
         <v>6.6750400000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="K48">
+        <v>6.23604</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="10"/>
       <c r="C49">
         <v>6.00617</v>
@@ -16388,8 +16511,11 @@
       <c r="G49">
         <v>7.0600399999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="K49">
+        <v>6.1364200000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="10"/>
       <c r="C50">
         <v>5.84938</v>
@@ -16406,8 +16532,11 @@
       <c r="G50">
         <v>7.1762899999999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="K50">
+        <v>6.0409199999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="10"/>
       <c r="C51">
         <v>5.8506200000000002</v>
@@ -16424,8 +16553,11 @@
       <c r="G51">
         <v>7.26417</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="K51">
+        <v>6.1187899999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="10"/>
       <c r="C52">
         <v>5.8706300000000002</v>
@@ -16442,8 +16574,11 @@
       <c r="G52">
         <v>7.3383799999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="K52">
+        <v>6.1135400000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="10"/>
       <c r="C53">
         <v>5.9908299999999999</v>
@@ -16460,8 +16595,11 @@
       <c r="G53">
         <v>7.1375799999999998</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="K53">
+        <v>6.0320799999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="10"/>
       <c r="C54">
         <v>5.98292</v>
@@ -16478,8 +16616,11 @@
       <c r="G54">
         <v>7.3490799999999998</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="K54">
+        <v>6.08317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="10"/>
       <c r="C55">
         <v>5.8617100000000004</v>
@@ -16496,8 +16637,11 @@
       <c r="G55">
         <v>7.2140000000000004</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="K55">
+        <v>6.0674599999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="10"/>
       <c r="C56">
         <v>5.8208299999999999</v>
@@ -16514,8 +16658,11 @@
       <c r="G56">
         <v>6.9071199999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="K56">
+        <v>6.0313299999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="10"/>
       <c r="C57">
         <v>5.9027500000000002</v>
@@ -16532,8 +16679,11 @@
       <c r="G57">
         <v>7.3084199999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="K57">
+        <v>6.0486700000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="10">
         <v>6</v>
       </c>
@@ -16552,8 +16702,11 @@
       <c r="G59">
         <v>23.2895</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="K59">
+        <v>21.823799999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="10"/>
       <c r="C60">
         <v>21.325700000000001</v>
@@ -16570,8 +16723,11 @@
       <c r="G60">
         <v>24.581499999999998</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="K60">
+        <v>22.0748</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="10"/>
       <c r="C61">
         <v>21.177499999999998</v>
@@ -16588,8 +16744,11 @@
       <c r="G61">
         <v>23.1187</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="K61">
+        <v>22.074400000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="10"/>
       <c r="C62">
         <v>21.048500000000001</v>
@@ -16606,8 +16765,11 @@
       <c r="G62">
         <v>24.869</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="K62">
+        <v>22.700900000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="10"/>
       <c r="C63">
         <v>21.250900000000001</v>
@@ -16624,8 +16786,11 @@
       <c r="G63">
         <v>23.4605</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="K63">
+        <v>21.886399999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="10"/>
       <c r="C64">
         <v>21.174600000000002</v>
@@ -16642,8 +16807,11 @@
       <c r="G64">
         <v>23.463200000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="K64">
+        <v>21.912700000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="10"/>
       <c r="C65">
         <v>21.024899999999999</v>
@@ -16660,8 +16828,11 @@
       <c r="G65">
         <v>23.534199999999998</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="K65">
+        <v>23.012</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="10"/>
       <c r="C66">
         <v>21.8749</v>
@@ -16678,8 +16849,11 @@
       <c r="G66">
         <v>23.1112</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="K66">
+        <v>21.935300000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="10"/>
       <c r="C67">
         <v>21.0931</v>
@@ -16696,8 +16870,11 @@
       <c r="G67">
         <v>23.116099999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="K67">
+        <v>21.911899999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="10"/>
       <c r="C68">
         <v>21.028300000000002</v>
@@ -16714,8 +16891,11 @@
       <c r="G68">
         <v>23.378</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="K68">
+        <v>21.831099999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="10">
         <v>7</v>
       </c>
@@ -16734,8 +16914,11 @@
       <c r="G70">
         <v>75.913200000000003</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="K70">
+        <v>73.188800000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="10"/>
       <c r="C71">
         <v>73.800700000000006</v>
@@ -16752,8 +16935,11 @@
       <c r="G71">
         <v>77.809899999999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="K71">
+        <v>73.151399999999995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="10"/>
       <c r="C72">
         <v>70.402699999999996</v>
@@ -16770,8 +16956,11 @@
       <c r="G72">
         <v>75.340299999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="K72">
+        <v>73.307199999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="10"/>
       <c r="C73">
         <v>73.364699999999999</v>
@@ -16788,8 +16977,11 @@
       <c r="G73">
         <v>75.872500000000002</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="K73">
+        <v>73.356499999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="10"/>
       <c r="C74">
         <v>70.756399999999999</v>
@@ -16806,8 +16998,11 @@
       <c r="G74">
         <v>75.487399999999994</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="K74">
+        <v>73.522499999999994</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="10"/>
       <c r="C75">
         <v>73.168499999999995</v>
@@ -16824,8 +17019,11 @@
       <c r="G75">
         <v>75.052700000000002</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="K75">
+        <v>76.511799999999994</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="10"/>
       <c r="C76">
         <v>70.447699999999998</v>
@@ -16842,8 +17040,11 @@
       <c r="G76">
         <v>77.907399999999996</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="K76">
+        <v>73.170199999999994</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="10"/>
       <c r="C77">
         <v>70.328500000000005</v>
@@ -16860,8 +17061,11 @@
       <c r="G77">
         <v>74.609099999999998</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="K77">
+        <v>73.602800000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="10"/>
       <c r="C78">
         <v>70.900999999999996</v>
@@ -16878,8 +17082,11 @@
       <c r="G78">
         <v>77.370500000000007</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="K78">
+        <v>73.300600000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="10"/>
       <c r="C79">
         <v>70.516999999999996</v>
@@ -16896,8 +17103,11 @@
       <c r="G79">
         <v>75.066100000000006</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="K79">
+        <v>73.031899999999993</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="10">
         <v>8</v>
       </c>
@@ -16916,8 +17126,11 @@
       <c r="G81">
         <v>271.529</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="K81">
+        <v>264.86799999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="10"/>
       <c r="C82">
         <v>261.36599999999999</v>
@@ -16934,8 +17147,11 @@
       <c r="G82">
         <v>275.72500000000002</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="K82">
+        <v>263.81799999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="10"/>
       <c r="C83">
         <v>255.26900000000001</v>
@@ -16952,8 +17168,11 @@
       <c r="G83">
         <v>272.88600000000002</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="K83">
+        <v>265.29199999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="10"/>
       <c r="C84">
         <v>254.1</v>
@@ -16970,8 +17189,11 @@
       <c r="G84">
         <v>272.49900000000002</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="K84">
+        <v>265.173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="10"/>
       <c r="C85">
         <v>252.60599999999999</v>
@@ -16988,8 +17210,11 @@
       <c r="G85">
         <v>270.44200000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="K85">
+        <v>265.46899999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="10"/>
       <c r="C86">
         <v>257.13099999999997</v>
@@ -17006,8 +17231,11 @@
       <c r="G86">
         <v>270.75400000000002</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="K86">
+        <v>269.14999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="10"/>
       <c r="C87">
         <v>254.946</v>
@@ -17024,8 +17252,11 @@
       <c r="G87">
         <v>273.572</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="K87">
+        <v>263.75200000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="10"/>
       <c r="C88">
         <v>259.13200000000001</v>
@@ -17042,8 +17273,11 @@
       <c r="G88">
         <v>271.21499999999997</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="K88">
+        <v>263.89999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="10"/>
       <c r="C89">
         <v>256.79500000000002</v>
@@ -17060,8 +17294,11 @@
       <c r="G89">
         <v>274.8</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="K89">
+        <v>269.22199999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="10"/>
       <c r="C90">
         <v>254.869</v>
@@ -17078,8 +17315,11 @@
       <c r="G90">
         <v>274.91500000000002</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="K90">
+        <v>264.69499999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="10">
         <v>9</v>
       </c>
@@ -17098,8 +17338,11 @@
       <c r="G92">
         <v>987.78</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="K92">
+        <v>970.77</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="10"/>
       <c r="C93">
         <v>1000.09</v>
@@ -17116,8 +17359,11 @@
       <c r="G93">
         <v>994.00099999999998</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="K93">
+        <v>964.17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="10"/>
       <c r="C94">
         <v>944.65700000000004</v>
@@ -17134,8 +17380,11 @@
       <c r="G94">
         <v>989.60599999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="K94">
+        <v>963.90499999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="10"/>
       <c r="C95">
         <v>938.23599999999999</v>
@@ -17152,8 +17401,11 @@
       <c r="G95">
         <v>993.97900000000004</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="K95">
+        <v>974.17700000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="10"/>
       <c r="C96">
         <v>939.19399999999996</v>
@@ -17170,8 +17422,11 @@
       <c r="G96">
         <v>982.74</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="K96">
+        <v>964.57600000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="10"/>
       <c r="C97">
         <v>956.1</v>
@@ -17188,8 +17443,11 @@
       <c r="G97">
         <v>980.94500000000005</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="K97">
+        <v>962.41200000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="10"/>
       <c r="C98">
         <v>985.55799999999999</v>
@@ -17206,8 +17464,11 @@
       <c r="G98">
         <v>992.25199999999995</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="K98">
+        <v>963.65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="10"/>
       <c r="C99">
         <v>934.98699999999997</v>
@@ -17224,8 +17485,11 @@
       <c r="G99">
         <v>1049.48</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="K99">
+        <v>968.07</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="10"/>
       <c r="C100">
         <v>941.85299999999995</v>
@@ -17242,8 +17506,11 @@
       <c r="G100">
         <v>988.36</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="K100">
+        <v>973.82299999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="10"/>
       <c r="C101">
         <v>953.19600000000003</v>
@@ -17260,8 +17527,11 @@
       <c r="G101">
         <v>991.89200000000005</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="K101">
+        <v>964.505</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="10">
         <v>10</v>
       </c>
@@ -17280,8 +17550,11 @@
       <c r="G103">
         <v>3673.59</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="K103">
+        <v>3639.56</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="10"/>
       <c r="C104">
         <v>3509.6</v>
@@ -17298,8 +17571,11 @@
       <c r="G104">
         <v>3592.82</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="K104">
+        <v>3649.32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="10"/>
       <c r="C105">
         <v>3468.14</v>
@@ -17316,8 +17592,11 @@
       <c r="G105">
         <v>3719.68</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="K105">
+        <v>3634.97</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="10"/>
       <c r="C106">
         <v>3542.46</v>
@@ -17334,8 +17613,11 @@
       <c r="G106">
         <v>3595.1</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="K106">
+        <v>3671.36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="10"/>
       <c r="C107">
         <v>3501.31</v>
@@ -17352,8 +17634,11 @@
       <c r="G107">
         <v>3653.7</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="K107">
+        <v>3627.32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="10"/>
       <c r="C108">
         <v>3506.74</v>
@@ -17370,8 +17655,11 @@
       <c r="G108">
         <v>3617.56</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="K108">
+        <v>3673.05</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="10"/>
       <c r="C109">
         <v>3510.01</v>
@@ -17388,8 +17676,11 @@
       <c r="G109">
         <v>3557.76</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="K109">
+        <v>3646.72</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="10"/>
       <c r="C110">
         <v>3538.35</v>
@@ -17406,8 +17697,11 @@
       <c r="G110">
         <v>3625.04</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="K110">
+        <v>3611.74</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="10"/>
       <c r="C111">
         <v>3527.89</v>
@@ -17424,8 +17718,11 @@
       <c r="G111">
         <v>3607.6</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="K111">
+        <v>3615.68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="10"/>
       <c r="C112">
         <v>3511.39</v>
@@ -17442,8 +17739,11 @@
       <c r="G112">
         <v>3556.44</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="K112">
+        <v>3554.39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="10">
         <v>11</v>
       </c>
@@ -17462,8 +17762,11 @@
       <c r="G114">
         <v>12674.5</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="K114">
+        <v>12823.3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="10"/>
       <c r="C115">
         <v>12320.4</v>
@@ -17480,8 +17783,11 @@
       <c r="G115">
         <v>12689</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="K115">
+        <v>12782.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="10"/>
       <c r="C116">
         <v>12410.9</v>
@@ -17498,8 +17804,11 @@
       <c r="G116">
         <v>12726.9</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="K116">
+        <v>12845.2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="10"/>
       <c r="C117">
         <v>12405.4</v>
@@ -17516,8 +17825,11 @@
       <c r="G117">
         <v>12668.9</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="K117">
+        <v>12810.4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="10"/>
       <c r="C118">
         <v>12344.7</v>
@@ -17534,8 +17846,11 @@
       <c r="G118">
         <v>12713.1</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="K118">
+        <v>12789.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="10"/>
       <c r="C119">
         <v>12328.3</v>
@@ -17552,8 +17867,11 @@
       <c r="G119">
         <v>12770.9</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="K119">
+        <v>12789.9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="10"/>
       <c r="C120">
         <v>12402.1</v>
@@ -17570,8 +17888,11 @@
       <c r="G120">
         <v>12574.1</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="K120">
+        <v>12662.6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="10"/>
       <c r="C121">
         <v>12342.6</v>
@@ -17588,8 +17909,11 @@
       <c r="G121">
         <v>12284.2</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="K121">
+        <v>12746.4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="10"/>
       <c r="C122">
         <v>12296.5</v>
@@ -17606,8 +17930,11 @@
       <c r="G122">
         <v>12573.8</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="K122">
+        <v>12767.6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="10"/>
       <c r="C123">
         <v>12317.8</v>
@@ -17624,8 +17951,11 @@
       <c r="G123">
         <v>12583.8</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="K123">
+        <v>12740.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="10">
         <v>12</v>
       </c>
@@ -17644,8 +17974,11 @@
       <c r="G125">
         <v>44066.400000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="K125">
+        <v>44009.4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="10"/>
       <c r="C126">
         <v>42341.7</v>
@@ -17662,8 +17995,11 @@
       <c r="G126">
         <v>43605.8</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="K126">
+        <v>44039.8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="10"/>
       <c r="C127">
         <v>42375.5</v>
@@ -17680,8 +18016,11 @@
       <c r="G127">
         <v>43874.5</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="K127">
+        <v>43965.3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="10"/>
       <c r="C128">
         <v>42193.7</v>
@@ -17698,8 +18037,11 @@
       <c r="G128">
         <v>43754.3</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="K128">
+        <v>44019</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="10"/>
       <c r="C129">
         <v>42267.199999999997</v>
@@ -17716,8 +18058,11 @@
       <c r="G129">
         <v>43953.599999999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="K129">
+        <v>43877.599999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="10"/>
       <c r="C130">
         <v>42251.6</v>
@@ -17734,8 +18079,11 @@
       <c r="G130">
         <v>43994.2</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="K130">
+        <v>44006.8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="10"/>
       <c r="C131">
         <v>42400.6</v>
@@ -17752,8 +18100,11 @@
       <c r="G131">
         <v>44097.2</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="K131">
+        <v>43806.1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="10"/>
       <c r="C132">
         <v>42179.6</v>
@@ -17770,8 +18121,11 @@
       <c r="G132">
         <v>44204.2</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="K132">
+        <v>43935.3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="10"/>
       <c r="C133">
         <v>42293.2</v>
@@ -17788,8 +18142,11 @@
       <c r="G133">
         <v>44087.8</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="K133">
+        <v>44008.1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="10"/>
       <c r="C134">
         <v>42367.1</v>
@@ -17806,8 +18163,11 @@
       <c r="G134">
         <v>43945.2</v>
       </c>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="K134">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="10">
         <v>13</v>
       </c>
@@ -17826,8 +18186,11 @@
       <c r="G136">
         <v>159694</v>
       </c>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="K136">
+        <v>196561</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="10"/>
       <c r="C137">
         <v>191951</v>
@@ -17844,8 +18207,11 @@
       <c r="G137">
         <v>174468</v>
       </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="K137">
+        <v>181475</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="10"/>
       <c r="C138">
         <v>188072</v>
@@ -17862,8 +18228,11 @@
       <c r="G138">
         <v>170039</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="K138">
+        <v>183035</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="10"/>
       <c r="C139">
         <v>185452</v>
@@ -17880,8 +18249,11 @@
       <c r="G139">
         <v>162043</v>
       </c>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="K139">
+        <v>198413</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="10"/>
       <c r="C140">
         <v>205561</v>
@@ -17898,8 +18270,11 @@
       <c r="G140">
         <v>160192</v>
       </c>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="K140">
+        <v>186396</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="10"/>
       <c r="C141">
         <v>206556</v>
@@ -17916,8 +18291,11 @@
       <c r="G141">
         <v>162979</v>
       </c>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="K141">
+        <v>185749</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="10"/>
       <c r="C142">
         <v>192463</v>
@@ -17934,8 +18312,11 @@
       <c r="G142">
         <v>169643</v>
       </c>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="K142">
+        <v>180590</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="10"/>
       <c r="C143">
         <v>191499</v>
@@ -17952,8 +18333,11 @@
       <c r="G143">
         <v>177962</v>
       </c>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="K143">
+        <v>190115</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="10"/>
       <c r="C144">
         <v>196022</v>
@@ -17970,8 +18354,11 @@
       <c r="G144">
         <v>173597</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="K144">
+        <v>169746</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="10"/>
       <c r="C145">
         <v>187940</v>
@@ -17988,8 +18375,11 @@
       <c r="G145">
         <v>167024</v>
       </c>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="K145">
+        <v>184485</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="10">
         <v>14</v>
       </c>
@@ -18008,45 +18398,48 @@
       <c r="G147" s="5">
         <v>4832400</v>
       </c>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="K147" s="5">
+        <v>9712450</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="10"/>
       <c r="C148" s="5"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:11">
       <c r="A149" s="10"/>
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:11">
       <c r="A150" s="10"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:11">
       <c r="A151" s="10"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:11">
       <c r="A152" s="10"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:11">
       <c r="A153" s="10"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:11">
       <c r="A154" s="10"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:11">
       <c r="A155" s="10"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:11">
       <c r="A156" s="10"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:11">
       <c r="A158" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:11">
       <c r="A159" s="10"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:11">
       <c r="A160" s="10"/>
     </row>
     <row r="161" spans="1:1">

--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D33B74-EAE0-F944-A09D-4DC0A8C892A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0752755E-4D65-9545-A5E9-346924F032C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3100" windowWidth="17520" windowHeight="13300" firstSheet="2" activeTab="8" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
+    <workbookView xWindow="160" yWindow="3120" windowWidth="17520" windowHeight="13300" firstSheet="4" activeTab="8" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
   <sheets>
     <sheet name="result of all" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="hwb5tc.tfc" sheetId="7" r:id="rId7"/>
     <sheet name="result of Grover" sheetId="8" r:id="rId8"/>
     <sheet name="Grover" sheetId="9" r:id="rId9"/>
+    <sheet name="Grover at taiga" sheetId="10" r:id="rId10"/>
+    <sheet name="new Grover" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="30">
   <si>
     <t>ham3tc.tfc</t>
     <phoneticPr fontId="1"/>
@@ -151,6 +153,18 @@
   </si>
   <si>
     <t>multi-fiber-full</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new-thread</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new-multi-thread</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new-multi-fiber</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -260,7 +274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -284,6 +298,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5343,6 +5366,1486 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5F7AAF-286C-5B47-9224-CC3C5061DB0A}">
+  <dimension ref="A2:X167"/>
+  <sheetViews>
+    <sheetView topLeftCell="A138" zoomScale="50" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="11" customWidth="1"/>
+    <col min="3" max="12" width="10.7109375" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:24">
+      <c r="D2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="12"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="12"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="12"/>
+      <c r="P7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="12"/>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" t="s">
+        <v>23</v>
+      </c>
+      <c r="V8" t="s">
+        <v>24</v>
+      </c>
+      <c r="W8" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="12"/>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="e">
+        <f>AVERAGE(C4:C13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P9" t="e">
+        <f t="shared" ref="P9:X9" si="0">AVERAGE(D4:D13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="12"/>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10" t="e">
+        <f>AVERAGE(C15:C24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10" t="e">
+        <f t="shared" ref="P10:X10" si="1">AVERAGE(D15:D24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="12"/>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11" t="e">
+        <f>AVERAGE(C26:C35)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P11" t="e">
+        <f t="shared" ref="P11:X11" si="2">AVERAGE(D26:D35)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="12"/>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12" t="e">
+        <f>AVERAGE(C37:C46)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P12" t="e">
+        <f t="shared" ref="P12:X12" si="3">AVERAGE(D37:D46)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="12"/>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13" t="e">
+        <f>AVERAGE(C48:C57)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P13" t="e">
+        <f t="shared" ref="P13:X13" si="4">AVERAGE(D48:D57)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="N14">
+        <v>6</v>
+      </c>
+      <c r="O14" t="e">
+        <f>AVERAGE(C59:C68)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P14" t="e">
+        <f t="shared" ref="P14:X14" si="5">AVERAGE(D59:D68)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="12">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>7</v>
+      </c>
+      <c r="O15" t="e">
+        <f>AVERAGE(C70:C79)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P15" t="e">
+        <f t="shared" ref="P15:X15" si="6">AVERAGE(D70:D79)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="12"/>
+      <c r="N16">
+        <v>8</v>
+      </c>
+      <c r="O16" t="e">
+        <f>AVERAGE(C81:C90)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P16" t="e">
+        <f t="shared" ref="P16:X16" si="7">AVERAGE(D81:D90)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="12"/>
+      <c r="N17">
+        <v>9</v>
+      </c>
+      <c r="O17" t="e">
+        <f>AVERAGE(C92:C101)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P17" t="e">
+        <f t="shared" ref="P17:X17" si="8">AVERAGE(D92:D101)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="12"/>
+      <c r="N18">
+        <v>10</v>
+      </c>
+      <c r="O18" t="e">
+        <f>AVERAGE(C103:C112)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P18" t="e">
+        <f t="shared" ref="P18:X18" si="9">AVERAGE(D103:D112)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="12"/>
+      <c r="N19">
+        <v>11</v>
+      </c>
+      <c r="O19" t="e">
+        <f>AVERAGE(C114:C123)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P19" t="e">
+        <f t="shared" ref="P19:X19" si="10">AVERAGE(D114:D123)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="12"/>
+      <c r="N20">
+        <v>12</v>
+      </c>
+      <c r="O20" t="e">
+        <f>AVERAGE(C125:C134)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P20" t="e">
+        <f t="shared" ref="P20:X20" si="11">AVERAGE(D125:D134)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="12"/>
+      <c r="N21">
+        <v>13</v>
+      </c>
+      <c r="O21" t="e">
+        <f>AVERAGE(C136:C145)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P21" t="e">
+        <f t="shared" ref="P21:X21" si="12">AVERAGE(D136:D145)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="12"/>
+      <c r="N22">
+        <v>14</v>
+      </c>
+      <c r="O22" s="5">
+        <f>AVERAGE(C147:C156)</f>
+        <v>529393</v>
+      </c>
+      <c r="P22" s="5" t="e">
+        <f t="shared" ref="P22:X22" si="13">AVERAGE(D147:D156)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q22" s="5" t="e">
+        <f>AVERAGE(E147:E156)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X22" s="5">
+        <f t="shared" si="13"/>
+        <v>541660</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="12"/>
+      <c r="N23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="12"/>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" s="13"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" s="13"/>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" s="13"/>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" s="13"/>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="13"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="13"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="13"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="13"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="13"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="13"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="13"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="13"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="13"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="13"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="13"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="13"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="13"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="13"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="13"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="13"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="13"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="13"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="13"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="13"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="13"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="13"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="13"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="13"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="13"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="13"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="13"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="13"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="13"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="13"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="13"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="13"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="13"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="13"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="13"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="13"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="13"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="13"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="13"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="13"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="13"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="13"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="13"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="13"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="13"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="13"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="13"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="13"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="13"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="13"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="13"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="13"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="13"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="13"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="13"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="13"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="13"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="13"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="13"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="13"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="13"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="13"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="13"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="13"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="13"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="13"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="13"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="13"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="13"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="13"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="13"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="13"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="13"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="13"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="13"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="13"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="13"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="13"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="13"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="13"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="13"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="13"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="13"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="13"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="13"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="13"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="13"/>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="13"/>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="13"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="13"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="13"/>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="13"/>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="13"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="13"/>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="13"/>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="13">
+        <v>14</v>
+      </c>
+      <c r="C147" s="11">
+        <v>529393</v>
+      </c>
+      <c r="L147" s="11">
+        <v>541660</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" s="13"/>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="13"/>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="13"/>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="13"/>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" s="13"/>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" s="13"/>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" s="13"/>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" s="13"/>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" s="13"/>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158" s="13">
+        <v>15</v>
+      </c>
+      <c r="C158" s="5">
+        <v>1861390</v>
+      </c>
+      <c r="L158" s="11">
+        <v>2018650</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" s="13"/>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160" s="13"/>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="13"/>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="13"/>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="13"/>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="13"/>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="13"/>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="13"/>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A158:A167"/>
+    <mergeCell ref="A92:A101"/>
+    <mergeCell ref="A103:A112"/>
+    <mergeCell ref="A114:A123"/>
+    <mergeCell ref="A125:A134"/>
+    <mergeCell ref="A136:A145"/>
+    <mergeCell ref="A147:A156"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="A59:A68"/>
+    <mergeCell ref="A70:A79"/>
+    <mergeCell ref="A81:A90"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="A15:A24"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED21ECCE-BEFA-C041-88F6-CEC2929D9457}">
+  <dimension ref="B2:N34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="111" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="11"/>
+    <col min="2" max="2" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="1.42578125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="11"/>
+    <col min="6" max="6" width="15.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.7109375" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14">
+      <c r="F2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="E3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="11">
+        <v>13</v>
+      </c>
+      <c r="E16" s="11">
+        <v>529393</v>
+      </c>
+      <c r="I16" s="11">
+        <v>541660</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="11">
+        <v>14</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1861390</v>
+      </c>
+      <c r="I17" s="11">
+        <v>2018650</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="11">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5683DF-DD1F-914F-B880-0E0A08994056}">
   <dimension ref="A1:L102"/>
@@ -14281,8 +15784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819EF501-8FE0-3948-900D-D457862F7EC9}">
   <dimension ref="B2:N18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView topLeftCell="B2" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -14915,8 +16418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC998C5-C8A9-F848-83B4-3EC7458A1FFA}">
   <dimension ref="A2:X167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="60" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="69" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0752755E-4D65-9545-A5E9-346924F032C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06472A82-3951-6242-BDF9-B33D8249A46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="3120" windowWidth="17520" windowHeight="13300" firstSheet="4" activeTab="8" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
+    <workbookView xWindow="160" yWindow="3120" windowWidth="17520" windowHeight="13300" firstSheet="4" activeTab="10" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
   <sheets>
     <sheet name="result of all" sheetId="1" r:id="rId1"/>
@@ -274,7 +274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -298,15 +298,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5376,73 +5367,72 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="11" customWidth="1"/>
-    <col min="3" max="12" width="10.7109375" style="11"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24">
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="11" t="s">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="12">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="12"/>
+      <c r="A5" s="6"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="12"/>
+      <c r="A6" s="6"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="12"/>
+      <c r="A7" s="6"/>
       <c r="P7" s="6" t="s">
         <v>4</v>
       </c>
@@ -5457,7 +5447,7 @@
       <c r="W7" s="6"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="12"/>
+      <c r="A8" s="6"/>
       <c r="O8" t="s">
         <v>3</v>
       </c>
@@ -5490,7 +5480,7 @@
       </c>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="12"/>
+      <c r="A9" s="6"/>
       <c r="N9">
         <v>1</v>
       </c>
@@ -5536,7 +5526,7 @@
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="12"/>
+      <c r="A10" s="6"/>
       <c r="N10">
         <v>2</v>
       </c>
@@ -5582,7 +5572,7 @@
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="12"/>
+      <c r="A11" s="6"/>
       <c r="N11">
         <v>3</v>
       </c>
@@ -5628,7 +5618,7 @@
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="12"/>
+      <c r="A12" s="6"/>
       <c r="N12">
         <v>4</v>
       </c>
@@ -5674,7 +5664,7 @@
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="12"/>
+      <c r="A13" s="6"/>
       <c r="N13">
         <v>5</v>
       </c>
@@ -5765,7 +5755,7 @@
       </c>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="12">
+      <c r="A15" s="6">
         <v>2</v>
       </c>
       <c r="N15">
@@ -5813,7 +5803,7 @@
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="12"/>
+      <c r="A16" s="6"/>
       <c r="N16">
         <v>8</v>
       </c>
@@ -5859,7 +5849,7 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="12"/>
+      <c r="A17" s="6"/>
       <c r="N17">
         <v>9</v>
       </c>
@@ -5905,7 +5895,7 @@
       </c>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="12"/>
+      <c r="A18" s="6"/>
       <c r="N18">
         <v>10</v>
       </c>
@@ -5951,7 +5941,7 @@
       </c>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="12"/>
+      <c r="A19" s="6"/>
       <c r="N19">
         <v>11</v>
       </c>
@@ -5997,7 +5987,7 @@
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="12"/>
+      <c r="A20" s="6"/>
       <c r="N20">
         <v>12</v>
       </c>
@@ -6043,7 +6033,7 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="12"/>
+      <c r="A21" s="6"/>
       <c r="N21">
         <v>13</v>
       </c>
@@ -6089,7 +6079,7 @@
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="12"/>
+      <c r="A22" s="6"/>
       <c r="N22">
         <v>14</v>
       </c>
@@ -6135,444 +6125,456 @@
       </c>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="12"/>
+      <c r="A23" s="6"/>
       <c r="N23">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="12"/>
+      <c r="A24" s="6"/>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="13">
+      <c r="A26" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="13"/>
+      <c r="A27" s="10"/>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="13"/>
+      <c r="A28" s="10"/>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="13"/>
+      <c r="A29" s="10"/>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="13"/>
+      <c r="A30" s="10"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="13"/>
+      <c r="A31" s="10"/>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="13"/>
+      <c r="A32" s="10"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="13"/>
+      <c r="A33" s="10"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="13"/>
+      <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="13"/>
+      <c r="A35" s="10"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="13">
+      <c r="A37" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="13"/>
+      <c r="A38" s="10"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="13"/>
+      <c r="A39" s="10"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="13"/>
+      <c r="A40" s="10"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="13"/>
+      <c r="A41" s="10"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="13"/>
+      <c r="A42" s="10"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="13"/>
+      <c r="A43" s="10"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="13"/>
+      <c r="A44" s="10"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="13"/>
+      <c r="A45" s="10"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="13"/>
+      <c r="A46" s="10"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="13">
+      <c r="A48" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="13"/>
+      <c r="A49" s="10"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="13"/>
+      <c r="A50" s="10"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="13"/>
+      <c r="A51" s="10"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="13"/>
+      <c r="A52" s="10"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="13"/>
+      <c r="A53" s="10"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="13"/>
+      <c r="A54" s="10"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="13"/>
+      <c r="A55" s="10"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="13"/>
+      <c r="A56" s="10"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="13"/>
+      <c r="A57" s="10"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="13">
+      <c r="A59" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="13"/>
+      <c r="A60" s="10"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="13"/>
+      <c r="A61" s="10"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="13"/>
+      <c r="A62" s="10"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="13"/>
+      <c r="A63" s="10"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="13"/>
+      <c r="A64" s="10"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="13"/>
+      <c r="A65" s="10"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="13"/>
+      <c r="A66" s="10"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="13"/>
+      <c r="A67" s="10"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="13"/>
+      <c r="A68" s="10"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="13">
+      <c r="A70" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="13"/>
+      <c r="A71" s="10"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="13"/>
+      <c r="A72" s="10"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="13"/>
+      <c r="A73" s="10"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="13"/>
+      <c r="A74" s="10"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="13"/>
+      <c r="A75" s="10"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="13"/>
+      <c r="A76" s="10"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="13"/>
+      <c r="A77" s="10"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="13"/>
+      <c r="A78" s="10"/>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="13"/>
+      <c r="A79" s="10"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="13">
+      <c r="A81" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="13"/>
+      <c r="A82" s="10"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="13"/>
+      <c r="A83" s="10"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="13"/>
+      <c r="A84" s="10"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="13"/>
+      <c r="A85" s="10"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="13"/>
+      <c r="A86" s="10"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="13"/>
+      <c r="A87" s="10"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="13"/>
+      <c r="A88" s="10"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="13"/>
+      <c r="A89" s="10"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="13"/>
+      <c r="A90" s="10"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="13">
+      <c r="A92" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="13"/>
+      <c r="A93" s="10"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="13"/>
+      <c r="A94" s="10"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="13"/>
+      <c r="A95" s="10"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="13"/>
+      <c r="A96" s="10"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="13"/>
+      <c r="A97" s="10"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="13"/>
+      <c r="A98" s="10"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="13"/>
+      <c r="A99" s="10"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="13"/>
+      <c r="A100" s="10"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="13"/>
+      <c r="A101" s="10"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="13">
+      <c r="A103" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="13"/>
+      <c r="A104" s="10"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="13"/>
+      <c r="A105" s="10"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="13"/>
+      <c r="A106" s="10"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="13"/>
+      <c r="A107" s="10"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="13"/>
+      <c r="A108" s="10"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="13"/>
+      <c r="A109" s="10"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="13"/>
+      <c r="A110" s="10"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="13"/>
+      <c r="A111" s="10"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="13"/>
+      <c r="A112" s="10"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="13">
+      <c r="A114" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="13"/>
+      <c r="A115" s="10"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="13"/>
+      <c r="A116" s="10"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="13"/>
+      <c r="A117" s="10"/>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="13"/>
+      <c r="A118" s="10"/>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="13"/>
+      <c r="A119" s="10"/>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="13"/>
+      <c r="A120" s="10"/>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="13"/>
+      <c r="A121" s="10"/>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="13"/>
+      <c r="A122" s="10"/>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="13"/>
+      <c r="A123" s="10"/>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="13">
+      <c r="A125" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="13"/>
+      <c r="A126" s="10"/>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="13"/>
+      <c r="A127" s="10"/>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="13"/>
+      <c r="A128" s="10"/>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="13"/>
+      <c r="A129" s="10"/>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="13"/>
+      <c r="A130" s="10"/>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="13"/>
+      <c r="A131" s="10"/>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="13"/>
+      <c r="A132" s="10"/>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="13"/>
+      <c r="A133" s="10"/>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="13"/>
+      <c r="A134" s="10"/>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="13">
+      <c r="A136" s="10">
         <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="13"/>
+      <c r="A137" s="10"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="13"/>
+      <c r="A138" s="10"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="13"/>
+      <c r="A139" s="10"/>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="13"/>
+      <c r="A140" s="10"/>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="13"/>
+      <c r="A141" s="10"/>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="13"/>
+      <c r="A142" s="10"/>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="13"/>
+      <c r="A143" s="10"/>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="13"/>
+      <c r="A144" s="10"/>
     </row>
     <row r="145" spans="1:12">
-      <c r="A145" s="13"/>
+      <c r="A145" s="10"/>
     </row>
     <row r="147" spans="1:12">
-      <c r="A147" s="13">
+      <c r="A147" s="10">
         <v>14</v>
       </c>
-      <c r="C147" s="11">
+      <c r="C147">
         <v>529393</v>
       </c>
-      <c r="L147" s="11">
+      <c r="L147">
         <v>541660</v>
       </c>
     </row>
     <row r="148" spans="1:12">
-      <c r="A148" s="13"/>
+      <c r="A148" s="10"/>
     </row>
     <row r="149" spans="1:12">
-      <c r="A149" s="13"/>
+      <c r="A149" s="10"/>
     </row>
     <row r="150" spans="1:12">
-      <c r="A150" s="13"/>
+      <c r="A150" s="10"/>
     </row>
     <row r="151" spans="1:12">
-      <c r="A151" s="13"/>
+      <c r="A151" s="10"/>
     </row>
     <row r="152" spans="1:12">
-      <c r="A152" s="13"/>
+      <c r="A152" s="10"/>
     </row>
     <row r="153" spans="1:12">
-      <c r="A153" s="13"/>
+      <c r="A153" s="10"/>
     </row>
     <row r="154" spans="1:12">
-      <c r="A154" s="13"/>
+      <c r="A154" s="10"/>
     </row>
     <row r="155" spans="1:12">
-      <c r="A155" s="13"/>
+      <c r="A155" s="10"/>
     </row>
     <row r="156" spans="1:12">
-      <c r="A156" s="13"/>
+      <c r="A156" s="10"/>
     </row>
     <row r="158" spans="1:12">
-      <c r="A158" s="13">
+      <c r="A158" s="10">
         <v>15</v>
       </c>
       <c r="C158" s="5">
         <v>1861390</v>
       </c>
-      <c r="L158" s="11">
+      <c r="L158">
         <v>2018650</v>
       </c>
     </row>
     <row r="159" spans="1:12">
-      <c r="A159" s="13"/>
+      <c r="A159" s="10"/>
     </row>
     <row r="160" spans="1:12">
-      <c r="A160" s="13"/>
+      <c r="A160" s="10"/>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="13"/>
+      <c r="A161" s="10"/>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="13"/>
+      <c r="A162" s="10"/>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="13"/>
+      <c r="A163" s="10"/>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="13"/>
+      <c r="A164" s="10"/>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="13"/>
+      <c r="A165" s="10"/>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="13"/>
+      <c r="A166" s="10"/>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="13"/>
+      <c r="A167" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A81:A90"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="A59:A68"/>
+    <mergeCell ref="A70:A79"/>
     <mergeCell ref="A158:A167"/>
     <mergeCell ref="A92:A101"/>
     <mergeCell ref="A103:A112"/>
@@ -6580,18 +6582,6 @@
     <mergeCell ref="A125:A134"/>
     <mergeCell ref="A136:A145"/>
     <mergeCell ref="A147:A156"/>
-    <mergeCell ref="A26:A35"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A48:A57"/>
-    <mergeCell ref="A59:A68"/>
-    <mergeCell ref="A70:A79"/>
-    <mergeCell ref="A81:A90"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="A15:A24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6602,237 +6592,234 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED21ECCE-BEFA-C041-88F6-CEC2929D9457}">
   <dimension ref="B2:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="111" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="11"/>
-    <col min="2" max="2" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="1.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="11"/>
-    <col min="6" max="6" width="15.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.7109375" style="11"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="1.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" spans="2:14">
-      <c r="E3" s="11" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="11">
+      <c r="B4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="11">
+      <c r="B5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="11">
+      <c r="B6">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="11">
+      <c r="B7">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="11">
+      <c r="B8">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="11">
+      <c r="B9">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="11">
+      <c r="B10">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="11">
+      <c r="B11">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="11">
+      <c r="B12">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="11">
+      <c r="B13">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="11">
+      <c r="B14">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="11">
+      <c r="B15">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="11">
+      <c r="B16">
         <v>13</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16">
         <v>529393</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16">
         <v>541660</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="11">
+      <c r="B17">
         <v>14</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17">
         <v>1861390</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17">
         <v>2018650</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="11">
+      <c r="B18">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="11">
+      <c r="B19">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="11">
+      <c r="B20">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="11">
+      <c r="B21">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="11">
+      <c r="B22">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="11">
+      <c r="B23">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="11">
+      <c r="B24">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="11">
+      <c r="B25">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="11">
+      <c r="B26">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="11">
+      <c r="B27">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="11">
+      <c r="B28">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="11">
+      <c r="B29">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="11">
+      <c r="B30">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="11">
+      <c r="B31">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="11">
+      <c r="B32">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="11">
+      <c r="B33">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="11">
+      <c r="B34">
         <v>31</v>
       </c>
     </row>
@@ -16418,7 +16405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC998C5-C8A9-F848-83B4-3EC7458A1FFA}">
   <dimension ref="A2:X167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="69" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A81" zoomScale="69" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
@@ -19968,25 +19955,25 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="A70:A79"/>
+    <mergeCell ref="A81:A90"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A48:A57"/>
     <mergeCell ref="A59:A68"/>
     <mergeCell ref="T7:W7"/>
     <mergeCell ref="A136:A145"/>
     <mergeCell ref="A147:A156"/>
     <mergeCell ref="A158:A167"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="A70:A79"/>
-    <mergeCell ref="A81:A90"/>
     <mergeCell ref="A92:A101"/>
     <mergeCell ref="A103:A112"/>
     <mergeCell ref="A114:A123"/>
     <mergeCell ref="A125:A134"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A26:A35"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A48:A57"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD576663-0D80-884E-8EDE-FF8716098EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEC770F-5372-CF4E-B510-59C3D7F0BA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3100" windowWidth="17520" windowHeight="13300" firstSheet="2" activeTab="8" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
+    <workbookView xWindow="160" yWindow="3120" windowWidth="17520" windowHeight="13300" firstSheet="4" activeTab="10" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
   <sheets>
     <sheet name="result of all" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="hwb5tc.tfc" sheetId="7" r:id="rId7"/>
     <sheet name="result of Grover" sheetId="8" r:id="rId8"/>
     <sheet name="Grover" sheetId="9" r:id="rId9"/>
+    <sheet name="Grover at taiga" sheetId="10" r:id="rId10"/>
+    <sheet name="new Grover" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="30">
   <si>
     <t>ham3tc.tfc</t>
     <phoneticPr fontId="1"/>
@@ -151,6 +153,18 @@
   </si>
   <si>
     <t>multi-fiber-full</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new-thread</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new-multi-thread</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new-multi-fiber</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5343,6 +5357,1482 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5F7AAF-286C-5B47-9224-CC3C5061DB0A}">
+  <dimension ref="A2:X167"/>
+  <sheetViews>
+    <sheetView topLeftCell="A138" zoomScale="50" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:24">
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="6"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="6"/>
+      <c r="P7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="6"/>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" t="s">
+        <v>23</v>
+      </c>
+      <c r="V8" t="s">
+        <v>24</v>
+      </c>
+      <c r="W8" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="6"/>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="e">
+        <f>AVERAGE(C4:C13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P9" t="e">
+        <f t="shared" ref="P9:X9" si="0">AVERAGE(D4:D13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="6"/>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10" t="e">
+        <f>AVERAGE(C15:C24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10" t="e">
+        <f t="shared" ref="P10:X10" si="1">AVERAGE(D15:D24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="6"/>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11" t="e">
+        <f>AVERAGE(C26:C35)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P11" t="e">
+        <f t="shared" ref="P11:X11" si="2">AVERAGE(D26:D35)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="6"/>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12" t="e">
+        <f>AVERAGE(C37:C46)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P12" t="e">
+        <f t="shared" ref="P12:X12" si="3">AVERAGE(D37:D46)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="6"/>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13" t="e">
+        <f>AVERAGE(C48:C57)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P13" t="e">
+        <f t="shared" ref="P13:X13" si="4">AVERAGE(D48:D57)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="N14">
+        <v>6</v>
+      </c>
+      <c r="O14" t="e">
+        <f>AVERAGE(C59:C68)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P14" t="e">
+        <f t="shared" ref="P14:X14" si="5">AVERAGE(D59:D68)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="6">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>7</v>
+      </c>
+      <c r="O15" t="e">
+        <f>AVERAGE(C70:C79)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P15" t="e">
+        <f t="shared" ref="P15:X15" si="6">AVERAGE(D70:D79)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="6"/>
+      <c r="N16">
+        <v>8</v>
+      </c>
+      <c r="O16" t="e">
+        <f>AVERAGE(C81:C90)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P16" t="e">
+        <f t="shared" ref="P16:X16" si="7">AVERAGE(D81:D90)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="6"/>
+      <c r="N17">
+        <v>9</v>
+      </c>
+      <c r="O17" t="e">
+        <f>AVERAGE(C92:C101)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P17" t="e">
+        <f t="shared" ref="P17:X17" si="8">AVERAGE(D92:D101)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="6"/>
+      <c r="N18">
+        <v>10</v>
+      </c>
+      <c r="O18" t="e">
+        <f>AVERAGE(C103:C112)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P18" t="e">
+        <f t="shared" ref="P18:X18" si="9">AVERAGE(D103:D112)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="6"/>
+      <c r="N19">
+        <v>11</v>
+      </c>
+      <c r="O19" t="e">
+        <f>AVERAGE(C114:C123)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P19" t="e">
+        <f t="shared" ref="P19:X19" si="10">AVERAGE(D114:D123)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="6"/>
+      <c r="N20">
+        <v>12</v>
+      </c>
+      <c r="O20" t="e">
+        <f>AVERAGE(C125:C134)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P20" t="e">
+        <f t="shared" ref="P20:X20" si="11">AVERAGE(D125:D134)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="6"/>
+      <c r="N21">
+        <v>13</v>
+      </c>
+      <c r="O21" t="e">
+        <f>AVERAGE(C136:C145)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P21" t="e">
+        <f t="shared" ref="P21:X21" si="12">AVERAGE(D136:D145)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="6"/>
+      <c r="N22">
+        <v>14</v>
+      </c>
+      <c r="O22" s="5">
+        <f>AVERAGE(C147:C156)</f>
+        <v>529393</v>
+      </c>
+      <c r="P22" s="5" t="e">
+        <f t="shared" ref="P22:X22" si="13">AVERAGE(D147:D156)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q22" s="5" t="e">
+        <f>AVERAGE(E147:E156)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X22" s="5">
+        <f t="shared" si="13"/>
+        <v>541660</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="6"/>
+      <c r="N23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="6"/>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" s="10"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" s="10"/>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" s="10"/>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" s="10"/>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="10"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="10"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="10"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="10"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="10"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="10"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="10"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="10"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="10"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="10"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="10"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="10"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="10"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="10"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="10"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="10"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="10"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="10"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="10"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="10"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="10"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="10"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="10"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="10"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="10"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="10"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="10"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="10"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="10"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="10"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="10"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="10"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="10"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="10"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="10"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="10"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="10"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="10"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="10"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="10"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="10"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="10"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="10"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="10"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="10"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="10"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="10"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="10"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="10"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="10"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="10"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="10"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="10"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="10"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="10"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="10"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="10"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="10"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="10"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="10"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="10"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="10"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="10"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="10"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="10"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="10"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="10"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="10"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="10"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="10"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="10"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="10"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="10"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="10"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="10"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="10"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="10"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="10"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="10"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="10"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="10"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="10"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="10"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="10"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="10"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="10"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="10"/>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="10"/>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="10"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="10"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="10"/>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="10"/>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="10"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="10"/>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="10"/>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="10">
+        <v>14</v>
+      </c>
+      <c r="C147">
+        <v>529393</v>
+      </c>
+      <c r="L147">
+        <v>541660</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" s="10"/>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="10"/>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="10"/>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="10"/>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" s="10"/>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" s="10"/>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" s="10"/>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" s="10"/>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" s="10"/>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158" s="10">
+        <v>15</v>
+      </c>
+      <c r="C158" s="5">
+        <v>1861390</v>
+      </c>
+      <c r="L158">
+        <v>2018650</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" s="10"/>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160" s="10"/>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="10"/>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="10"/>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="10"/>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="10"/>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="10"/>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="10"/>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A81:A90"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="A59:A68"/>
+    <mergeCell ref="A70:A79"/>
+    <mergeCell ref="A158:A167"/>
+    <mergeCell ref="A92:A101"/>
+    <mergeCell ref="A103:A112"/>
+    <mergeCell ref="A114:A123"/>
+    <mergeCell ref="A125:A134"/>
+    <mergeCell ref="A136:A145"/>
+    <mergeCell ref="A147:A156"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED21ECCE-BEFA-C041-88F6-CEC2929D9457}">
+  <dimension ref="B2:N34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="1.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14">
+      <c r="F2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>529393</v>
+      </c>
+      <c r="I16">
+        <v>541660</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>1861390</v>
+      </c>
+      <c r="I17">
+        <v>2018650</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5683DF-DD1F-914F-B880-0E0A08994056}">
   <dimension ref="A1:L102"/>
@@ -14281,8 +15771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819EF501-8FE0-3948-900D-D457862F7EC9}">
   <dimension ref="B2:N18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView topLeftCell="B2" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -14915,8 +16405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC998C5-C8A9-F848-83B4-3EC7458A1FFA}">
   <dimension ref="A2:X167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A81" zoomScale="69" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -18465,17 +19955,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A147:A156"/>
-    <mergeCell ref="A158:A167"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="A70:A79"/>
     <mergeCell ref="A81:A90"/>
-    <mergeCell ref="A92:A101"/>
-    <mergeCell ref="A103:A112"/>
-    <mergeCell ref="A114:A123"/>
-    <mergeCell ref="A125:A134"/>
     <mergeCell ref="A4:A13"/>
     <mergeCell ref="A15:A24"/>
     <mergeCell ref="A26:A35"/>
@@ -18484,6 +19968,12 @@
     <mergeCell ref="A59:A68"/>
     <mergeCell ref="T7:W7"/>
     <mergeCell ref="A136:A145"/>
+    <mergeCell ref="A147:A156"/>
+    <mergeCell ref="A158:A167"/>
+    <mergeCell ref="A92:A101"/>
+    <mergeCell ref="A103:A112"/>
+    <mergeCell ref="A114:A123"/>
+    <mergeCell ref="A125:A134"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06472A82-3951-6242-BDF9-B33D8249A46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2831D7-F7E2-E543-ABCA-E341C72D84C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="3120" windowWidth="17520" windowHeight="13300" firstSheet="4" activeTab="10" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
+    <workbookView xWindow="10520" yWindow="2400" windowWidth="17520" windowHeight="13300" firstSheet="4" activeTab="10" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
   <sheets>
     <sheet name="result of all" sheetId="1" r:id="rId1"/>
@@ -5361,8 +5361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5F7AAF-286C-5B47-9224-CC3C5061DB0A}">
   <dimension ref="A2:X167"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" zoomScale="50" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+    <sheetView topLeftCell="A137" zoomScale="81" workbookViewId="0">
+      <selection activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6592,8 +6592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED21ECCE-BEFA-C041-88F6-CEC2929D9457}">
   <dimension ref="B2:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6715,16 +6715,19 @@
       <c r="B15">
         <v>12</v>
       </c>
+      <c r="I15">
+        <v>46555.8</v>
+      </c>
     </row>
     <row r="16" spans="2:14">
       <c r="B16">
         <v>13</v>
       </c>
       <c r="E16">
-        <v>529393</v>
+        <v>160043</v>
       </c>
       <c r="I16">
-        <v>541660</v>
+        <v>176819</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -6732,10 +6735,10 @@
         <v>14</v>
       </c>
       <c r="E17">
-        <v>1861390</v>
+        <v>540674</v>
       </c>
       <c r="I17">
-        <v>2018650</v>
+        <v>625313</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -16405,7 +16408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC998C5-C8A9-F848-83B4-3EC7458A1FFA}">
   <dimension ref="A2:X167"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="69" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A114" zoomScale="125" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>

--- a/data/benchmark.xlsx
+++ b/data/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitsuishikaito/my_quantum_simulator_with_gpu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C77071-51E2-DD46-B227-67483419449C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB8F556-86D8-B34C-8425-D0BC500AD713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3100" windowWidth="17520" windowHeight="13300" firstSheet="2" activeTab="8" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
+    <workbookView xWindow="0" yWindow="2360" windowWidth="17520" windowHeight="13300" firstSheet="4" activeTab="9" xr2:uid="{CBBB559D-9CB3-8341-BE1D-A278B5D9A08B}"/>
   </bookViews>
   <sheets>
     <sheet name="result of all" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="hwb5tc.tfc" sheetId="7" r:id="rId7"/>
     <sheet name="result of Grover" sheetId="8" r:id="rId8"/>
     <sheet name="Grover" sheetId="9" r:id="rId9"/>
+    <sheet name="Grover at taiga" sheetId="10" r:id="rId10"/>
+    <sheet name="new Grover" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="31">
   <si>
     <t>ham3tc.tfc</t>
     <phoneticPr fontId="1"/>
@@ -151,6 +153,22 @@
   </si>
   <si>
     <t>multi-fiber-full</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new-thread</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new-multi-thread</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new-multi-fiber</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OOM</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3141,34 +3159,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9.5875000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.19245439999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.59237929999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.9765450000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.0908420000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>22.116330000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>73.614369999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>265.53390000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>967.00579999999991</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3632.4110000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5343,6 +5361,1545 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5F7AAF-286C-5B47-9224-CC3C5061DB0A}">
+  <dimension ref="A2:X178"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="64" workbookViewId="0">
+      <selection activeCell="M134" sqref="M134"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:24">
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="6"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="6"/>
+      <c r="P7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="6"/>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" t="s">
+        <v>23</v>
+      </c>
+      <c r="V8" t="s">
+        <v>24</v>
+      </c>
+      <c r="W8" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="6"/>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="e">
+        <f>AVERAGE(C4:C13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P9" t="e">
+        <f t="shared" ref="P9:X9" si="0">AVERAGE(D4:D13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="6"/>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10" t="e">
+        <f>AVERAGE(C15:C24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10" t="e">
+        <f t="shared" ref="P10:X10" si="1">AVERAGE(D15:D24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="6"/>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11" t="e">
+        <f>AVERAGE(C26:C35)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P11" t="e">
+        <f t="shared" ref="P11:X11" si="2">AVERAGE(D26:D35)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="6"/>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12" t="e">
+        <f>AVERAGE(C37:C46)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P12" t="e">
+        <f t="shared" ref="P12:X12" si="3">AVERAGE(D37:D46)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="6"/>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13" t="e">
+        <f>AVERAGE(C48:C57)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P13" t="e">
+        <f t="shared" ref="P13:X13" si="4">AVERAGE(D48:D57)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="N14">
+        <v>6</v>
+      </c>
+      <c r="O14" t="e">
+        <f>AVERAGE(C59:C68)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P14" t="e">
+        <f t="shared" ref="P14:X14" si="5">AVERAGE(D59:D68)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="6">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>7</v>
+      </c>
+      <c r="O15" t="e">
+        <f>AVERAGE(C70:C79)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P15" t="e">
+        <f t="shared" ref="P15:X15" si="6">AVERAGE(D70:D79)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="6"/>
+      <c r="N16">
+        <v>8</v>
+      </c>
+      <c r="O16" t="e">
+        <f>AVERAGE(C81:C90)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P16" t="e">
+        <f t="shared" ref="P16:X16" si="7">AVERAGE(D81:D90)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="6"/>
+      <c r="N17">
+        <v>9</v>
+      </c>
+      <c r="O17" t="e">
+        <f>AVERAGE(C92:C101)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P17" t="e">
+        <f t="shared" ref="P17:X17" si="8">AVERAGE(D92:D101)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X17" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="6"/>
+      <c r="N18">
+        <v>10</v>
+      </c>
+      <c r="O18" t="e">
+        <f>AVERAGE(C103:C112)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P18" t="e">
+        <f t="shared" ref="P18:X18" si="9">AVERAGE(D103:D112)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X18" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="6"/>
+      <c r="N19">
+        <v>11</v>
+      </c>
+      <c r="O19" t="e">
+        <f>AVERAGE(C114:C123)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P19" t="e">
+        <f t="shared" ref="P19:X19" si="10">AVERAGE(D114:D123)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="6"/>
+      <c r="N20">
+        <v>12</v>
+      </c>
+      <c r="O20" t="e">
+        <f>AVERAGE(C125:C134)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P20" t="e">
+        <f t="shared" ref="P20:X20" si="11">AVERAGE(D125:D134)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X20" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="6"/>
+      <c r="N21">
+        <v>13</v>
+      </c>
+      <c r="O21" t="e">
+        <f>AVERAGE(C136:C145)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P21" t="e">
+        <f t="shared" ref="P21:X21" si="12">AVERAGE(D136:D145)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="6"/>
+      <c r="N22">
+        <v>14</v>
+      </c>
+      <c r="O22" s="5">
+        <f>AVERAGE(C147:C156)</f>
+        <v>529393</v>
+      </c>
+      <c r="P22" s="5" t="e">
+        <f t="shared" ref="P22:X22" si="13">AVERAGE(D147:D156)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q22" s="5" t="e">
+        <f>AVERAGE(E147:E156)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W22" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X22" s="5">
+        <f t="shared" si="13"/>
+        <v>541660</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="6"/>
+      <c r="N23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="6"/>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" s="10"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" s="10"/>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" s="10"/>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" s="10"/>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="10"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="10"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="10"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="10"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="10"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="10"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="10"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="10"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="10"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="10"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="10"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="10"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="10"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="10"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="10"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="10"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="10"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="10"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="10"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="10"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="10"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="10"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="10"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="10"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="10"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="10"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="10"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="10"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="10"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="10"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="10"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="10"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="10"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="10"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="10"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="10"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="10"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="10"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="10"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="10"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="10"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="10"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="10"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="10"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="10"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="10"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="10"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="10"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="10"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="10"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="10"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="10"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="10"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="10"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="10"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="10"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="10"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="10"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="10"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="10"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="10"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="10"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="10"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="10"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="10"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="10"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="10"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="10"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="10"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="10"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="10"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="10"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="10"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="10"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="10"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="10"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="10"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="10"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="10"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="10"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="10"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="10"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="10"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="10"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="10"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="10"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="10"/>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="10"/>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="10"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="10"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="10"/>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="10"/>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="10"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="10"/>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="10"/>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="10">
+        <v>14</v>
+      </c>
+      <c r="C147">
+        <v>529393</v>
+      </c>
+      <c r="L147">
+        <v>541660</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" s="10"/>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="10"/>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="10"/>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="10"/>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" s="10"/>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" s="10"/>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" s="10"/>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" s="10"/>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" s="10"/>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158" s="10">
+        <v>15</v>
+      </c>
+      <c r="C158" s="5">
+        <v>1861390</v>
+      </c>
+      <c r="L158">
+        <v>2018650</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" s="10"/>
+      <c r="C159" s="5">
+        <v>2038970</v>
+      </c>
+      <c r="L159" s="5">
+        <v>1993070</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160" s="10"/>
+      <c r="C160" s="5">
+        <v>1940930</v>
+      </c>
+      <c r="L160" s="5">
+        <v>1885450</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161" s="10"/>
+      <c r="C161" s="5">
+        <v>2030720</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162" s="10"/>
+      <c r="C162" s="5">
+        <v>2031380</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163" s="10"/>
+      <c r="C163" s="5">
+        <v>1993750</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164" s="10"/>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165" s="10"/>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166" s="10"/>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" s="10"/>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169" s="6">
+        <v>16</v>
+      </c>
+      <c r="C169" t="s">
+        <v>30</v>
+      </c>
+      <c r="L169" s="5">
+        <v>7334850</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170" s="6"/>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171" s="6"/>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172" s="6"/>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173" s="6"/>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174" s="6"/>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175" s="6"/>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176" s="6"/>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="6"/>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A169:A178"/>
+    <mergeCell ref="A81:A90"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="A59:A68"/>
+    <mergeCell ref="A70:A79"/>
+    <mergeCell ref="A158:A167"/>
+    <mergeCell ref="A92:A101"/>
+    <mergeCell ref="A103:A112"/>
+    <mergeCell ref="A114:A123"/>
+    <mergeCell ref="A125:A134"/>
+    <mergeCell ref="A136:A145"/>
+    <mergeCell ref="A147:A156"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED21ECCE-BEFA-C041-88F6-CEC2929D9457}">
+  <dimension ref="B2:N34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="1.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14">
+      <c r="F2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <v>46555.8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>160043</v>
+      </c>
+      <c r="I16">
+        <v>176819</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>540674</v>
+      </c>
+      <c r="I17">
+        <v>625313</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5683DF-DD1F-914F-B880-0E0A08994056}">
   <dimension ref="A1:L102"/>
@@ -14281,8 +15838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819EF501-8FE0-3948-900D-D457862F7EC9}">
   <dimension ref="B2:N18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView topLeftCell="A18" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -14381,9 +15938,9 @@
         <f>Grover!V9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M4" t="e">
+      <c r="M4">
         <f>Grover!W9</f>
-        <v>#DIV/0!</v>
+        <v>9.5875000000000002E-2</v>
       </c>
       <c r="N4" t="e">
         <f>Grover!X9</f>
@@ -14426,9 +15983,9 @@
         <f>Grover!V10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M5" t="e">
+      <c r="M5">
         <f>Grover!W10</f>
-        <v>#DIV/0!</v>
+        <v>0.19245439999999997</v>
       </c>
       <c r="N5" t="e">
         <f>Grover!X10</f>
@@ -14471,9 +16028,9 @@
         <f>Grover!V11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M6" t="e">
+      <c r="M6">
         <f>Grover!W11</f>
-        <v>#DIV/0!</v>
+        <v>0.59237929999999994</v>
       </c>
       <c r="N6" t="e">
         <f>Grover!X11</f>
@@ -14516,9 +16073,9 @@
         <f>Grover!V12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M7" t="e">
+      <c r="M7">
         <f>Grover!W12</f>
-        <v>#DIV/0!</v>
+        <v>1.9765450000000002</v>
       </c>
       <c r="N7" t="e">
         <f>Grover!X12</f>
@@ -14561,9 +16118,9 @@
         <f>Grover!V13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" t="e">
+      <c r="M8">
         <f>Grover!W13</f>
-        <v>#DIV/0!</v>
+        <v>6.0908420000000003</v>
       </c>
       <c r="N8" t="e">
         <f>Grover!X13</f>
@@ -14606,9 +16163,9 @@
         <f>Grover!V14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" t="e">
+      <c r="M9">
         <f>Grover!W14</f>
-        <v>#DIV/0!</v>
+        <v>22.116330000000001</v>
       </c>
       <c r="N9" t="e">
         <f>Grover!X14</f>
@@ -14651,9 +16208,9 @@
         <f>Grover!V15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" t="e">
+      <c r="M10">
         <f>Grover!W15</f>
-        <v>#DIV/0!</v>
+        <v>73.614369999999994</v>
       </c>
       <c r="N10" t="e">
         <f>Grover!X15</f>
@@ -14696,9 +16253,9 @@
         <f>Grover!V16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M11" t="e">
+      <c r="M11">
         <f>Grover!W16</f>
-        <v>#DIV/0!</v>
+        <v>265.53390000000002</v>
       </c>
       <c r="N11" t="e">
         <f>Grover!X16</f>
@@ -14741,9 +16298,9 @@
         <f>Grover!V17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" t="e">
+      <c r="M12">
         <f>Grover!W17</f>
-        <v>#DIV/0!</v>
+        <v>967.00579999999991</v>
       </c>
       <c r="N12" t="e">
         <f>Grover!X17</f>
@@ -14786,9 +16343,9 @@
         <f>Grover!V18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M13" t="e">
+      <c r="M13">
         <f>Grover!W18</f>
-        <v>#DIV/0!</v>
+        <v>3632.4110000000001</v>
       </c>
       <c r="N13" t="e">
         <f>Grover!X18</f>
@@ -14915,8 +16472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC998C5-C8A9-F848-83B4-3EC7458A1FFA}">
   <dimension ref="A2:X167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="K148" sqref="K148"/>
+    <sheetView topLeftCell="F133" zoomScale="159" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="L144" sqref="L144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -14993,6 +16550,9 @@
       <c r="G4">
         <v>0.52229199999999998</v>
       </c>
+      <c r="K4">
+        <v>9.5792000000000002E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="6"/>
@@ -15011,6 +16571,9 @@
       <c r="G5">
         <v>0.37545800000000001</v>
       </c>
+      <c r="K5">
+        <v>9.5291000000000001E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="6"/>
@@ -15029,6 +16592,9 @@
       <c r="G6">
         <v>0.33504200000000001</v>
       </c>
+      <c r="K6">
+        <v>9.8083000000000004E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="6"/>
@@ -15046,6 +16612,9 @@
       </c>
       <c r="G7">
         <v>0.32770899999999997</v>
+      </c>
+      <c r="K7">
+        <v>9.6500000000000002E-2</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>4</v>
@@ -15077,6 +16646,9 @@
       <c r="G8">
         <v>0.34629199999999999</v>
       </c>
+      <c r="K8">
+        <v>9.5584000000000002E-2</v>
+      </c>
       <c r="O8" t="s">
         <v>3</v>
       </c>
@@ -15125,6 +16697,9 @@
       <c r="G9">
         <v>0.33324999999999999</v>
       </c>
+      <c r="K9">
+        <v>9.5417000000000002E-2</v>
+      </c>
       <c r="N9">
         <v>1</v>
       </c>
@@ -15160,9 +16735,9 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W9" t="e">
+      <c r="W9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>9.5875000000000002E-2</v>
       </c>
       <c r="X9" t="e">
         <f t="shared" si="0"/>
@@ -15186,6 +16761,9 @@
       <c r="G10">
         <v>0.54829099999999997</v>
       </c>
+      <c r="K10">
+        <v>9.6083000000000002E-2</v>
+      </c>
       <c r="N10">
         <v>2</v>
       </c>
@@ -15221,9 +16799,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W10" t="e">
+      <c r="W10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.19245439999999997</v>
       </c>
       <c r="X10" t="e">
         <f t="shared" si="1"/>
@@ -15247,6 +16825,9 @@
       <c r="G11">
         <v>0.317417</v>
       </c>
+      <c r="K11">
+        <v>9.6541000000000002E-2</v>
+      </c>
       <c r="N11">
         <v>3</v>
       </c>
@@ -15282,9 +16863,9 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W11" t="e">
+      <c r="W11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.59237929999999994</v>
       </c>
       <c r="X11" t="e">
         <f t="shared" si="2"/>
@@ -15308,6 +16889,9 @@
       <c r="G12">
         <v>0.44054199999999999</v>
       </c>
+      <c r="K12">
+        <v>9.4459000000000001E-2</v>
+      </c>
       <c r="N12">
         <v>4</v>
       </c>
@@ -15343,9 +16927,9 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W12" t="e">
+      <c r="W12">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.9765450000000002</v>
       </c>
       <c r="X12" t="e">
         <f t="shared" si="3"/>
@@ -15369,6 +16953,9 @@
       <c r="G13">
         <v>0.48545899999999997</v>
       </c>
+      <c r="K13">
+        <v>9.5000000000000001E-2</v>
+      </c>
       <c r="N13">
         <v>5</v>
       </c>
@@ -15404,9 +16991,9 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W13" t="e">
+      <c r="W13">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>6.0908420000000003</v>
       </c>
       <c r="X13" t="e">
         <f t="shared" si="4"/>
@@ -15449,9 +17036,9 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W14" t="e">
+      <c r="W14">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>22.116330000000001</v>
       </c>
       <c r="X14" t="e">
         <f t="shared" si="5"/>
@@ -15477,6 +17064,9 @@
       <c r="G15">
         <v>0.54612499999999997</v>
       </c>
+      <c r="K15">
+        <v>0.19220799999999999</v>
+      </c>
       <c r="N15">
         <v>7</v>
       </c>
@@ -15512,9 +17102,9 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W15" t="e">
+      <c r="W15">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>73.614369999999994</v>
       </c>
       <c r="X15" t="e">
         <f t="shared" si="6"/>
@@ -15538,6 +17128,9 @@
       <c r="G16">
         <v>0.48033399999999998</v>
       </c>
+      <c r="K16">
+        <v>0.190917</v>
+      </c>
       <c r="N16">
         <v>8</v>
       </c>
@@ -15573,9 +17166,9 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W16" t="e">
+      <c r="W16">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>265.53390000000002</v>
       </c>
       <c r="X16" t="e">
         <f t="shared" si="7"/>
@@ -15599,6 +17192,9 @@
       <c r="G17">
         <v>0.66158300000000003</v>
       </c>
+      <c r="K17">
+        <v>0.19204199999999999</v>
+      </c>
       <c r="N17">
         <v>9</v>
       </c>
@@ -15634,9 +17230,9 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W17" t="e">
+      <c r="W17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>967.00579999999991</v>
       </c>
       <c r="X17" t="e">
         <f t="shared" si="8"/>
@@ -15660,6 +17256,9 @@
       <c r="G18">
         <v>0.436334</v>
       </c>
+      <c r="K18">
+        <v>0.19637499999999999</v>
+      </c>
       <c r="N18">
         <v>10</v>
       </c>
@@ -15695,9 +17294,9 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W18" t="e">
+      <c r="W18">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>3632.4110000000001</v>
       </c>
       <c r="X18" t="e">
         <f t="shared" si="9"/>
@@ -15721,6 +17320,9 @@
       <c r="G19">
         <v>0.69554199999999999</v>
       </c>
+      <c r="K19">
+        <v>0.191084</v>
+      </c>
       <c r="N19">
         <v>11</v>
       </c>
@@ -15756,9 +17358,9 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W19" t="e">
+      <c r="W19">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>12775.78</v>
       </c>
       <c r="X19" t="e">
         <f t="shared" si="10"/>
@@ -15782,6 +17384,9 @@
       <c r="G20">
         <v>0.51437500000000003</v>
       </c>
+      <c r="K20">
+        <v>0.19354099999999999</v>
+      </c>
       <c r="N20">
         <v>12</v>
       </c>
@@ -15817,9 +17422,9 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W20" t="e">
+      <c r="W20">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>43956.039999999994</v>
       </c>
       <c r="X20" t="e">
         <f t="shared" si="11"/>
@@ -15843,6 +17448,9 @@
       <c r="G21">
         <v>0.50070800000000004</v>
       </c>
+      <c r="K21">
+        <v>0.192167</v>
+      </c>
       <c r="N21">
         <v>13</v>
       </c>
@@ -15878,9 +17486,9 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W21" t="e">
+      <c r="W21">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>185656.5</v>
       </c>
       <c r="X21" t="e">
         <f t="shared" si="12"/>
@@ -15904,6 +17512,9 @@
       <c r="G22">
         <v>0.65754100000000004</v>
       </c>
+      <c r="K22">
+        <v>0.192667</v>
+      </c>
       <c r="N22">
         <v>14</v>
       </c>
@@ -15965,6 +17576,9 @@
       <c r="G23">
         <v>0.47779199999999999</v>
       </c>
+      <c r="K23">
+        <v>0.192334</v>
+      </c>
       <c r="N23">
         <v>15</v>
       </c>
@@ -15986,6 +17600,9 @@
       <c r="G24">
         <v>0.63145799999999996</v>
       </c>
+      <c r="K24">
+        <v>0.19120899999999999</v>
+      </c>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" s="10">
@@ -16005,6 +17622,9 @@
       </c>
       <c r="G26">
         <v>0.98375000000000001</v>
+      </c>
+      <c r="K26">
+        <v>0.59195900000000001</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -16024,6 +17644,9 @@
       <c r="G27">
         <v>1.19808</v>
       </c>
+      <c r="K27">
+        <v>0.59091700000000003</v>
+      </c>
     </row>
     <row r="28" spans="1:24">
       <c r="A28" s="10"/>
@@ -16042,6 +17665,9 @@
       <c r="G28">
         <v>1.1755800000000001</v>
       </c>
+      <c r="K28">
+        <v>0.59283300000000005</v>
+      </c>
     </row>
     <row r="29" spans="1:24">
       <c r="A29" s="10"/>
@@ -16060,6 +17686,9 @@
       <c r="G29">
         <v>1.1148800000000001</v>
       </c>
+      <c r="K29">
+        <v>0.59699999999999998</v>
+      </c>
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="10"/>
@@ -16078,6 +17707,9 @@
       <c r="G30">
         <v>1.1315</v>
       </c>
+      <c r="K30">
+        <v>0.58941699999999997</v>
+      </c>
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="10"/>
@@ -16096,6 +17728,9 @@
       <c r="G31">
         <v>1.08029</v>
       </c>
+      <c r="K31">
+        <v>0.59720799999999996</v>
+      </c>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="10"/>
@@ -16114,8 +17749,11 @@
       <c r="G32">
         <v>0.999583</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="K32">
+        <v>0.59308399999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="10"/>
       <c r="C33">
         <v>0.57716699999999999</v>
@@ -16132,8 +17770,11 @@
       <c r="G33">
         <v>0.99312500000000004</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="K33">
+        <v>0.59145800000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="10"/>
       <c r="C34">
         <v>0.58204199999999995</v>
@@ -16150,8 +17791,11 @@
       <c r="G34">
         <v>1.1096699999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="K34">
+        <v>0.59104199999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="10"/>
       <c r="C35">
         <v>0.57725000000000004</v>
@@ -16168,8 +17812,11 @@
       <c r="G35">
         <v>0.98799999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="K35">
+        <v>0.58887500000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="10">
         <v>4</v>
       </c>
@@ -16188,8 +17835,11 @@
       <c r="G37">
         <v>2.81704</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="K37">
+        <v>1.9623699999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="10"/>
       <c r="C38">
         <v>1.89367</v>
@@ -16206,8 +17856,11 @@
       <c r="G38">
         <v>2.6194999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="K38">
+        <v>1.99817</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="10"/>
       <c r="C39">
         <v>1.8926700000000001</v>
@@ -16224,8 +17877,11 @@
       <c r="G39">
         <v>2.6017899999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="K39">
+        <v>1.98058</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="10"/>
       <c r="C40">
         <v>1.9107099999999999</v>
@@ -16242,8 +17898,11 @@
       <c r="G40">
         <v>2.5451299999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="K40">
+        <v>1.9761200000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="10"/>
       <c r="C41">
         <v>1.9130799999999999</v>
@@ -16260,8 +17919,11 @@
       <c r="G41">
         <v>2.548</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="K41">
+        <v>1.97475</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="10"/>
       <c r="C42">
         <v>1.9139200000000001</v>
@@ -16278,8 +17940,11 @@
       <c r="G42">
         <v>2.9416699999999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="K42">
+        <v>1.97146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="10"/>
       <c r="C43">
         <v>1.90879</v>
@@ -16296,8 +17961,11 @@
       <c r="G43">
         <v>2.3635799999999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="K43">
+        <v>1.9724600000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="10"/>
       <c r="C44">
         <v>1.9394199999999999</v>
@@ -16314,8 +17982,11 @@
       <c r="G44">
         <v>2.5397500000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="K44">
+        <v>1.97096</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="10"/>
       <c r="C45">
         <v>1.91571</v>
@@ -16332,8 +18003,11 @@
       <c r="G45">
         <v>2.4602900000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="K45">
+        <v>1.9717100000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="10"/>
       <c r="C46">
         <v>1.9131199999999999</v>
@@ -16350,8 +18024,11 @@
       <c r="G46">
         <v>2.7912499999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="K46">
+        <v>1.9868699999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="10">
         <v>5</v>
       </c>
@@ -16370,8 +18047,11 @@
       <c r="G48">
         <v>6.6750400000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="K48">
+        <v>6.23604</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="10"/>
       <c r="C49">
         <v>6.00617</v>
@@ -16388,8 +18068,11 @@
       <c r="G49">
         <v>7.0600399999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="K49">
+        <v>6.1364200000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="10"/>
       <c r="C50">
         <v>5.84938</v>
@@ -16406,8 +18089,11 @@
       <c r="G50">
         <v>7.1762899999999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="K50">
+        <v>6.0409199999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="10"/>
       <c r="C51">
         <v>5.8506200000000002</v>
@@ -16424,8 +18110,11 @@
       <c r="G51">
         <v>7.26417</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="K51">
+        <v>6.1187899999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="10"/>
       <c r="C52">
         <v>5.8706300000000002</v>
@@ -16442,8 +18131,11 @@
       <c r="G52">
         <v>7.3383799999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="K52">
+        <v>6.1135400000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="10"/>
       <c r="C53">
         <v>5.9908299999999999</v>
@@ -16460,8 +18152,11 @@
       <c r="G53">
         <v>7.1375799999999998</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="K53">
+        <v>6.0320799999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="10"/>
       <c r="C54">
         <v>5.98292</v>
@@ -16478,8 +18173,11 @@
       <c r="G54">
         <v>7.3490799999999998</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="K54">
+        <v>6.08317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="10"/>
       <c r="C55">
         <v>5.8617100000000004</v>
@@ -16496,8 +18194,11 @@
       <c r="G55">
         <v>7.2140000000000004</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="K55">
+        <v>6.0674599999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="10"/>
       <c r="C56">
         <v>5.8208299999999999</v>
@@ -16514,8 +18215,11 @@
       <c r="G56">
         <v>6.9071199999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="K56">
+        <v>6.0313299999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="10"/>
       <c r="C57">
         <v>5.9027500000000002</v>
@@ -16532,8 +18236,11 @@
       <c r="G57">
         <v>7.3084199999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="K57">
+        <v>6.0486700000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="10">
         <v>6</v>
       </c>
@@ -16552,8 +18259,11 @@
       <c r="G59">
         <v>23.2895</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="K59">
+        <v>21.823799999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="10"/>
       <c r="C60">
         <v>21.325700000000001</v>
@@ -16570,8 +18280,11 @@
       <c r="G60">
         <v>24.581499999999998</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="K60">
+        <v>22.0748</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="10"/>
       <c r="C61">
         <v>21.177499999999998</v>
@@ -16588,8 +18301,11 @@
       <c r="G61">
         <v>23.1187</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="K61">
+        <v>22.074400000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="10"/>
       <c r="C62">
         <v>21.048500000000001</v>
@@ -16606,8 +18322,11 @@
       <c r="G62">
         <v>24.869</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="K62">
+        <v>22.700900000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="10"/>
       <c r="C63">
         <v>21.250900000000001</v>
@@ -16624,8 +18343,11 @@
       <c r="G63">
         <v>23.4605</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="K63">
+        <v>21.886399999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="10"/>
       <c r="C64">
         <v>21.174600000000002</v>
@@ -16642,8 +18364,11 @@
       <c r="G64">
         <v>23.463200000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="K64">
+        <v>21.912700000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="10"/>
       <c r="C65">
         <v>21.024899999999999</v>
@@ -16660,8 +18385,11 @@
       <c r="G65">
         <v>23.534199999999998</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="K65">
+        <v>23.012</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="10"/>
       <c r="C66">
         <v>21.8749</v>
@@ -16678,8 +18406,11 @@
       <c r="G66">
         <v>23.1112</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="K66">
+        <v>21.935300000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="10"/>
       <c r="C67">
         <v>21.0931</v>
@@ -16696,8 +18427,11 @@
       <c r="G67">
         <v>23.116099999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="K67">
+        <v>21.911899999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="10"/>
       <c r="C68">
         <v>21.028300000000002</v>
@@ -16714,8 +18448,11 @@
       <c r="G68">
         <v>23.378</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="K68">
+        <v>21.831099999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="10">
         <v>7</v>
       </c>
@@ -16734,8 +18471,11 @@
       <c r="G70">
         <v>75.913200000000003</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="K70">
+        <v>73.188800000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="10"/>
       <c r="C71">
         <v>73.800700000000006</v>
@@ -16752,8 +18492,11 @@
       <c r="G71">
         <v>77.809899999999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="K71">
+        <v>73.151399999999995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="10"/>
       <c r="C72">
         <v>70.402699999999996</v>
@@ -16770,8 +18513,11 @@
       <c r="G72">
         <v>75.340299999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="K72">
+        <v>73.307199999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="10"/>
       <c r="C73">
         <v>73.364699999999999</v>
@@ -16788,8 +18534,11 @@
       <c r="G73">
         <v>75.872500000000002</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="K73">
+        <v>73.356499999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="10"/>
       <c r="C74">
         <v>70.756399999999999</v>
@@ -16806,8 +18555,11 @@
       <c r="G74">
         <v>75.487399999999994</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="K74">
+        <v>73.522499999999994</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="10"/>
       <c r="C75">
         <v>73.168499999999995</v>
@@ -16824,8 +18576,11 @@
       <c r="G75">
         <v>75.052700000000002</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="K75">
+        <v>76.511799999999994</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="10"/>
       <c r="C76">
         <v>70.447699999999998</v>
@@ -16842,8 +18597,11 @@
       <c r="G76">
         <v>77.907399999999996</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="K76">
+        <v>73.170199999999994</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="10"/>
       <c r="C77">
         <v>70.328500000000005</v>
@@ -16860,8 +18618,11 @@
       <c r="G77">
         <v>74.609099999999998</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="K77">
+        <v>73.602800000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="10"/>
       <c r="C78">
         <v>70.900999999999996</v>
@@ -16878,8 +18639,11 @@
       <c r="G78">
         <v>77.370500000000007</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="K78">
+        <v>73.300600000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="10"/>
       <c r="C79">
         <v>70.516999999999996</v>
@@ -16896,8 +18660,11 @@
       <c r="G79">
         <v>75.066100000000006</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="K79">
+        <v>73.031899999999993</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="10">
         <v>8</v>
       </c>
@@ -16916,8 +18683,11 @@
       <c r="G81">
         <v>271.529</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="K81">
+        <v>264.86799999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="10"/>
       <c r="C82">
         <v>261.36599999999999</v>
@@ -16934,8 +18704,11 @@
       <c r="G82">
         <v>275.72500000000002</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="K82">
+        <v>263.81799999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="10"/>
       <c r="C83">
         <v>255.26900000000001</v>
@@ -16952,8 +18725,11 @@
       <c r="G83">
         <v>272.88600000000002</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="K83">
+        <v>265.29199999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="10"/>
       <c r="C84">
         <v>254.1</v>
@@ -16970,8 +18746,11 @@
       <c r="G84">
         <v>272.49900000000002</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="K84">
+        <v>265.173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="10"/>
       <c r="C85">
         <v>252.60599999999999</v>
@@ -16988,8 +18767,11 @@
       <c r="G85">
         <v>270.44200000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="K85">
+        <v>265.46899999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="10"/>
       <c r="C86">
         <v>257.13099999999997</v>
@@ -17006,8 +18788,11 @@
       <c r="G86">
         <v>270.75400000000002</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="K86">
+        <v>269.14999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="10"/>
       <c r="C87">
         <v>254.946</v>
@@ -17024,8 +18809,11 @@
       <c r="G87">
         <v>273.572</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="K87">
+        <v>263.75200000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="10"/>
       <c r="C88">
         <v>259.13200000000001</v>
@@ -17042,8 +18830,11 @@
       <c r="G88">
         <v>271.21499999999997</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="K88">
+        <v>263.89999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="10"/>
       <c r="C89">
         <v>256.79500000000002</v>
@@ -17060,8 +18851,11 @@
       <c r="G89">
         <v>274.8</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="K89">
+        <v>269.22199999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="10"/>
       <c r="C90">
         <v>254.869</v>
@@ -17078,8 +18872,11 @@
       <c r="G90">
         <v>274.91500000000002</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="K90">
+        <v>264.69499999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="10">
         <v>9</v>
       </c>
@@ -17098,8 +18895,11 @@
       <c r